--- a/Texte/LENA Textbausteine Eidgenössische Wahlen 2023_ Gemeindeebene.xlsx
+++ b/Texte/LENA Textbausteine Eidgenössische Wahlen 2023_ Gemeindeebene.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="232">
   <si>
     <t>Text_ID</t>
   </si>
@@ -32,10 +32,364 @@
     <t>Intro_normal</t>
   </si>
   <si>
+    <t>In #Gemeinde_d ist die #Party_1_partei_bezeichnung_de die stimmenstärkste Partei geblieben. Sie holte #Party_1_partei_staerke Prozent aller Stimmen (#Party_1_plus_minus Prozentpunkte).</t>
+  </si>
+  <si>
+    <t>Stärkste Partei normal (unverändert)</t>
+  </si>
+  <si>
+    <t>Keine Änderung an der Spitze in #Gemeinde_d: #Party_1_partei_bezeichnung_de holte wie vor vier Jahren die meisten Stimmen (#Party_1_partei_staerke Prozent, #Party_1_plus_minus Prozentpunkte).</t>
+  </si>
+  <si>
+    <t>Unverändert ist die #Party_1_partei_bezeichnung_de die stärkste Partei in #Gemeinde_d geblieben, mit #Party_1_partei_staerke Prozent (#Party_1_plus_minus Prozentpunkte).</t>
+  </si>
+  <si>
+    <t>Intro_unchanged_big_jump_percentage</t>
+  </si>
+  <si>
+    <t>Stärkste Partei mit grossem Zugewinn (&gt; 8 PP)</t>
+  </si>
+  <si>
+    <t>Intro_unchanged_big_fall_percentage</t>
+  </si>
+  <si>
+    <t>Stärkste Partei mit grossem Verlust (&lt; 8 PP)</t>
+  </si>
+  <si>
+    <t>Intro_unchanged_big_gap</t>
+  </si>
+  <si>
+    <t>In #Gemeinde_d ist die #Party_1_partei_bezeichnung_de weiterhin mit deutlichem Abstand die grösste Partei. #Party_1_partei_staerke Prozent der Stimmen entfielen auf sie, #Party_1_distance_to_next Prozentpunkte mehr als die nächstgrössere Partei.</t>
+  </si>
+  <si>
+    <t>Grösste Partei gleichgeblieben; mit deutlichem Abstand (20%-Punkte Abstand und mehr)</t>
+  </si>
+  <si>
+    <t>Unangefochten bleibt in #Gemeinde_d die #Party_1_partei_bezeichnung_de die stärkste Partei. Sie vereinigte bei den Nationalratswahlen #Party_1_partei_staerke Prozent der Stimmen (#Party_1_plus_minus Prozentpunkte) auf sich, #Party_1_distance_to_next Prozentpunkte mehr als die zweitplatzierte #Party_2_partei_bezeichnung_de (#Party_2_partei_staerke Prozent, #Party_2_plus_minus Prozentpunkte).</t>
+  </si>
+  <si>
+    <t>Mit deutlichem Abstand bleibt die #Party_1_partei_bezeichnung_de die grösste Partei in #Gemeinde_d. Ihre Parteistärke beträgt #Party_1_partei_staerke Prozent (#Party_1_plus_minus Prozentpunkte). Der Vorsprung auf die nächstgrössere Partei, die #Party_2_partei_bezeichnung_de ist gross: #Party_1_distance_to_next Prozentpunkte. Die #Party_2_partei_bezeichnung_de holte #Party_2_partei_staerke Prozent (#Party_2_plus_minus Prozentpunkte).</t>
+  </si>
+  <si>
+    <t>Intro_unchanged_small_gap</t>
+  </si>
+  <si>
+    <t>Ganz knapp ist die #Party_1_partei_bezeichnung_de die grösste Partei geblieben in #Gemeinde_d. Sie holte #Party_1_partei_staerke Prozent der Stimmen und blieb damit #Party_1_distance_to_next Prozentpunkte vor der #Party_2_partei_bezeichnung_de. Diese musste sich mit #Party_2_partei_staerke Prozent mit Platz zwei begnügen. Die Veränderungen gegenüber 2019: #Party_1_partei_bezeichnung_de: #Party_1_plus_minus Prozentpunkte; #Party_2_partei_bezeichnung_de: #Party_2_plus_minus Prozentpunkte.</t>
+  </si>
+  <si>
+    <t>Grösste Partei gleichgeblieben; mit geringem Abstand (weniger als 3 Prozentpunkte)</t>
+  </si>
+  <si>
+    <t>Die #Party_1_partei_bezeichnung_de ist weiterhin die stärkste Partei in #Gemeinde_d. Mit #Party_1_partei_staerke Prozent Wähleranteil verwies sie die #Party_2_partei_bezeichnung_de allerdings nur mit #Party_1_distance_to_next Prozentpunkten Abstand auf den zweiten Platz. Diese holte #Party_2_partei_staerke Prozent. Die Veränderungen gegenüber 2019: #Party_1_partei_bezeichnung_de: #Party_1_plus_minus Prozentpunkte; #Party_2_partei_bezeichnung_de: #Party_2_plus_minus Prozentpunkte.</t>
+  </si>
+  <si>
+    <t>Intro_tie_strongest</t>
+  </si>
+  <si>
+    <t>Etwas Besonderes gab es in #Gemeinde_d: Die #Party_1_partei_bezeichnung_de und die #Party_2_partei_bezeichnung_de sind genau gleich stark. Mit je #Party_1_partei_staerke Prozent kommen beide Parteien auf den gleichen Wähleranteil.</t>
+  </si>
+  <si>
+    <t>Intro_majority</t>
+  </si>
+  <si>
+    <t>#Gemeinde_d ist unbestrittenes Territorium der #Party_1_partei_bezeichnung_de. Die Partei holte eine absolute Mehrheit der Stimmen.</t>
+  </si>
+  <si>
+    <t>Absolute Mehrheit für stärkste Partei</t>
+  </si>
+  <si>
+    <t>Kein Weg führt in #Gemeinde_d an der #Party_1_partei_bezeichnung_de vorbei. Sie holte mehr als die Hälfte der Stimmen und damit eine absolute Mehrheit.</t>
+  </si>
+  <si>
+    <t>Intro_changed_normal</t>
+  </si>
+  <si>
+    <t>In #Gemeinde_d ist neu die #Party_1_partei_bezeichnung_de die stimmenstärkste Partei. Sie holte #Party_1_partei_staerke Prozent aller Stimmen. Vor vier Jahren war die Partei noch auf Rang #Party_1_rank_in_commune_prev.</t>
+  </si>
+  <si>
+    <t>Neue stärkste Partei</t>
+  </si>
+  <si>
+    <t>Neu ist in #Gemeinde_d die #Party_1_partei_bezeichnung_de stärkste Kraft (Rang vor vier Jahren: #Party_1_rank_in_commune_prev). Bei den diesjährigen Nationalratswahlen vereinigte sie #Party_1_partei_staerke Prozent der Stimmen auf sich.</t>
+  </si>
+  <si>
+    <t>#Party_1_partei_bezeichnung_de hat sich in diesem Jahr von Rang #Party_1_rank_in_commune_prev auf den Spitzenplatz verbessert in #Gemeinde_d. Sie holte #Party_1_partei_staerke Prozent der Stimmen (#Party_1_plus_minus  Prozentpunkte).</t>
+  </si>
+  <si>
+    <t>Neue stärkste Kraft in #Gemeinde_d: Die #Party_1_partei_bezeichnung_de hat mit #Party_1_partei_staerke Prozent (#Party_1_plus_minus  Prozentpunkte) die meisten Stimmen geholt und verbessert sich damit von Rang #Party_1_rank_in_commune_prev auf den ersten Platz.</t>
+  </si>
+  <si>
+    <t>#Gemeinde_d hat neu die meisten Stimmen an die #Party_1_partei_bezeichnung_de vergeben. Die Partei holte #Party_1_partei_staerke Prozent der Stimmen (#Party_1_plus_minus Prozentpunkte). Das bedeutet, dass sie sich von Rang #Party_1_rank_in_commune_prev auf den ersten Platz verbessert hat.</t>
+  </si>
+  <si>
+    <t>Intro_changed_big_jump_percentage</t>
+  </si>
+  <si>
+    <t>Mit einem grossen Sprung von #Party_1_differenz_partei_staerke Prozentpunkten ist die #Party_1_partei_bezeichnung_de die stärkste Partei geworden in #Gemeinde_d. Die Partei erhielt #Party_1_partei_staerke Prozent der Wählerstimmen.</t>
+  </si>
+  <si>
+    <t>Neue stärkste Partei mit grossem Zugewinn (&gt; 5 PP)</t>
+  </si>
+  <si>
+    <t>Intro_Uebrige</t>
+  </si>
+  <si>
+    <t>Den ersten Rang haben in #Gemeinde_d Listen oder Parteien aus der Kategorie "Übrige" geholt. Diese vereinigten #Party_1_partei_staerke Prozent der Stimmen auf sich.</t>
+  </si>
+  <si>
+    <t>Erste Partei ist "Weitere"</t>
+  </si>
+  <si>
+    <t>Second_normal</t>
+  </si>
+  <si>
+    <t>Zweitstärkste Partei ist mit #Party_2_partei_staerke (#Party_2_plus_minus Prozentpunkte gegenüber 2019) die #Party_2_partei_bezeichnung_de.</t>
+  </si>
+  <si>
+    <t>Zweitstärkste Partei Normal</t>
+  </si>
+  <si>
+    <t>Die #Party_2_partei_bezeichnung_de ist die zweitstärkste Kraft in der Gemeinde. Sie kommt auf #Party_2_partei_staerke Prozent (#Party_2_plus_minus Prozentpunkte).</t>
+  </si>
+  <si>
+    <t>Mit einem Wählerstimmenanteil von #Party_2_partei_staerke Prozent (#Party_2_plus_minus Prozentpunkte) ist die #Party_2_partei_bezeichnung_de die zweitstärkste Kraft in der Gemeinde.</t>
+  </si>
+  <si>
+    <t>Second_big_jump_percentage</t>
+  </si>
+  <si>
+    <t>Zweitstärkste Partei in #Gemeinde_d ist die #Party_2_partei_staerke, die sich gegenüber den Wahlen 2019 um #Party_2_plus_minus Prozentpunkte verbesserte.</t>
+  </si>
+  <si>
+    <t>Zweitstärkste Partei mit grossem Zugewinn (&gt; 5 PP)</t>
+  </si>
+  <si>
+    <t>Mit einer markanten Verbesserung um #Party_2_plus_minus Prozentpunkte ist die #Party_2_partei_bezeichnung_de die zweitstärkste Kraft in der Gemeinde. Ihr Wählerstimmenanteil liegt neu bei #Party_2_partei_staerke Prozent.</t>
+  </si>
+  <si>
+    <t>Second_big_fall_percentage</t>
+  </si>
+  <si>
+    <t>Einen markanten Verlust musste die #Party_2_partei_bezeichnung_de in #Gemeinde_d hinnehmen: Die Partei verlor #Party_2_plus_minus Prozentpunkte gegenüber den Wahlen 2019 und liegt jetzt noch bei #Party_2_partei_staerke Prozent Wähleranteil. Das bedeutet dennoch Rang 2.</t>
+  </si>
+  <si>
+    <t>Zweitstärkste Partei mit grossem Verlust (&lt; 5 PP)</t>
+  </si>
+  <si>
+    <t>Second_tie_third</t>
+  </si>
+  <si>
+    <t>gleicher Stimmenanteil zweit- und drittstärkste Partei</t>
+  </si>
+  <si>
+    <t>Second_Uebrige</t>
+  </si>
+  <si>
+    <t>Am zweitmeisten Stimmen, nämlich #Party_2_partei_staerke Prozent, gingen in #Gemeinde_d an Listen oder Parteien aus der Kategorie "Übrige".</t>
+  </si>
+  <si>
+    <t>Zweite Partei ist "Weitere"</t>
+  </si>
+  <si>
+    <t>Third_normal</t>
+  </si>
+  <si>
+    <t>Die #Party_3_partei_bezeichnung_de landete mit #Party_3_partei_staerke Prozent auf dem dritten Platz (Veränderung gegenüber 2019: #Party_3_plus_minus Prozentpunkte).</t>
+  </si>
+  <si>
+    <t>Drittstärkste Partei Normal</t>
+  </si>
+  <si>
+    <t>Third_big_jump_percentage</t>
+  </si>
+  <si>
+    <t>Drittstärkste Partei mit grossem Zugewinn (&gt; 5 PP)</t>
+  </si>
+  <si>
+    <t>Third_big_fall_percentage</t>
+  </si>
+  <si>
+    <t>Stark eingebüsst hat die drittplatzierte #Party_3_partei_bezeichnung_de. Sie machte noch #Party_3_partei_staerke Prozent Wähleranteil, was einen Verlust von #Party_3_plus_minus Prozentpunkte bedeutet.</t>
+  </si>
+  <si>
+    <t>Drittstärkste Partei mit grossem Verlust (&lt; 5 PP)</t>
+  </si>
+  <si>
+    <t>Third_tie_fourth</t>
+  </si>
+  <si>
+    <t>gleicher Stimmenanteil dritt- und viertstärkste Partei</t>
+  </si>
+  <si>
+    <t>Third_Uebrige</t>
+  </si>
+  <si>
+    <t>Am drittmeisten Stimmen, nämlich #Party_3_partei_staerke Prozent, gingen in #Gemeinde_d an Listen oder Parteien aus der Kategorie "Übrige".</t>
+  </si>
+  <si>
+    <t>Dritte Partei ist "Weitere"</t>
+  </si>
+  <si>
+    <t>Spec_unchanged_1_2_3</t>
+  </si>
+  <si>
+    <t>Die Reihenfolge der Parteien in #Gemeinde_d hat sich im Vergleich zu den Wahlen 2019 nicht verändert: Die #Party_1_partei_bezeichnung_de blieb mit #Party_1_partei_staerke Prozent die stärkste Kraft, gefolgt von der #Party_2_partei_bezeichnung_de (#Party_2_partei_staerke Prozent, #Party_2_plus_minus  Prozentpunkte) und der #Party_3_partei_bezeichnung_de (#Party_3_partei_staerke Prozent, #Party_3_plus_minus Prozentpunkte).</t>
+  </si>
+  <si>
+    <t>Gleiche Reihenfolge wie beim letzten Mal bei den ersten drei Parteien + keine grossen Sprünge (&lt; 5 PP)</t>
+  </si>
+  <si>
+    <t>Alles bleibt beim Alten in #Gemeinde_d: Die drei stärksten Parteien haben ihre Spitzenplätze in unveränderter Reihenfolge verteidigt: Die #Party_1_partei_bezeichnung_de geht mit #Party_1_partei_staerke Prozent (#Party_1_plus_minus Prozentpunkte) wiederum als stärkste Kraft aus den Nationalratswahlen. Zweitstärkste Partei ist die #Party_2_partei_bezeichnung_de (#Party_2_partei_staerke Prozent, #Party_2_plus_minus Prozentpunkte), drittstärkste die #Party_3_partei_bezeichnung_de (#Party_3_partei_staerke Prozent, #Party_3_plus_minus Prozentpunkte).</t>
+  </si>
+  <si>
+    <t>Keine Revolution in #Gemeinde_d: Unverändert belegten #Party_1_partei_bezeichnung_de, #Party_2_partei_bezeichnung_de und #Party_3_partei_bezeichnung_de die ersten drei Plätze. Sie holten #Party_1_partei_staerke Prozent (#Party_1_plus_minus Prozentpunkte), #Party_2_partei_staerke Prozent (#Party_2_plus_minus Prozentpunkte) respektive #Party_3_partei_staerke Prozent (#Party_3_plus_minus Prozentpunkte) der Stimmen.</t>
+  </si>
+  <si>
+    <t>Spec_small_community</t>
+  </si>
+  <si>
+    <t>Kleine Stimmen-Zahlen (wenn 1. Partei &lt; 200 Stimmen) - ohne Prozentzahl</t>
+  </si>
+  <si>
+    <t>Add_highest_in_canton</t>
+  </si>
+  <si>
+    <t>Besonders ist: Die #Party_highest_in_canton_de hat in der Gemeinde das höchste Resultat des Kantons erzielt.</t>
+  </si>
+  <si>
+    <t>Stärkstes Partei-Resultat im Kanton (when &gt;10 Gemeinden in Kanton; nur Top-6-Parteien)</t>
+  </si>
+  <si>
+    <t>Add_lowest_in_canton</t>
+  </si>
+  <si>
+    <t>Speziell: In keiner anderen Gemeinde des Kantons war die #Party_lowest_in_canton_de schwächer.</t>
+  </si>
+  <si>
+    <t>Schwächstes  Partei-Resultat im Kanton (when &gt;10 Gemeinden in Kanton; nur Top-6-Parteien)</t>
+  </si>
+  <si>
+    <t>Add_highest_in_CH</t>
+  </si>
+  <si>
+    <t>Stärkstes Partei-Resultat schweizweit</t>
+  </si>
+  <si>
+    <t>Add_lowest_in_CH</t>
+  </si>
+  <si>
+    <t>Schwächstes Partei-Resultat schweizweit</t>
+  </si>
+  <si>
+    <t>Add_Participation_highest_in_canton</t>
+  </si>
+  <si>
+    <t>Die Gemeinde hat am Wahlsonntag die höchste Beteiligung des ganzen Kantons ausgewiesen: #Gemeinde_participation Prozent.</t>
+  </si>
+  <si>
+    <t>Gemeinde hat am Wahlsonntag höchste Wahlbeteiligung des Kantons ausgewiesen</t>
+  </si>
+  <si>
+    <t>Add_Participation_lowest_in_canton</t>
+  </si>
+  <si>
+    <t>Die Gemeinde hat am Wahlsonntag die tiefeste Wahlbeteiligung des ganzen Kantons gehabt: #Gemeinde_participation Prozent.</t>
+  </si>
+  <si>
+    <t>Gemeinde hat am Wahlsonntag tiefste Wahlbeteiligung des Kantons ausgewiesen</t>
+  </si>
+  <si>
+    <t>Add_Participation_highest_in_CH</t>
+  </si>
+  <si>
+    <t>Gemeinde mit höchster Wahlbeteiligung</t>
+  </si>
+  <si>
+    <t>Add_Participation_lowest_in_CH</t>
+  </si>
+  <si>
+    <t>Gemeinde mit tiefster Wahlbeteiligung</t>
+  </si>
+  <si>
+    <t>Add_Participation_Top10_in_CH</t>
+  </si>
+  <si>
+    <t>Die Gemeinde gehörte in der Schweiz zu den Gemeinden mit der höchsten Wahlbeteiligung mit #Gemeinde_participation Prozent.</t>
+  </si>
+  <si>
+    <t>Gemeinde gehört schweizweit zu den Top-10 der Wahlbeteiligung</t>
+  </si>
+  <si>
+    <t>Add_Participation_Bottom10_in_CH</t>
+  </si>
+  <si>
+    <t>Nur wenige Gemeinden wiesen am Wahlsonntag eine tiefere Wahlbeteiligung auf mit #Gemeinde_participation Prozent.</t>
+  </si>
+  <si>
+    <t>Gemeinde gehört schweizweit zu 10 mit der tiefsten Wahlbeteiligung</t>
+  </si>
+  <si>
+    <t>Add_NR_im_Wohnort_many</t>
+  </si>
+  <si>
+    <t>#Gemeinde_d zählt unter seinen Einwohnern insgesamt #Anzahl_NR_pro_Ort Nationalrätinnen und Nationalräte.</t>
+  </si>
+  <si>
+    <t>Wenn ein Wohnort mehr als 4 NR hat (betrifft Zürich, Bern etc.)</t>
+  </si>
+  <si>
+    <t>Add_NR_im_Wohnort_few</t>
+  </si>
+  <si>
+    <t>Unter den Einwohnern von #Gemeinde_d gibt es #Anzahl_NR_pro_Ort Nationalrätinnen und Nationalräte: #Names_NR_pro_Ort.</t>
+  </si>
+  <si>
+    <t>2-4 NR in Gemeinde.</t>
+  </si>
+  <si>
+    <t>Add_NR_im_Wohnort_one_f</t>
+  </si>
+  <si>
+    <t>In der Gemeinde #Gemeinde_d wohnt auch eine Nationalrätin: #Names_NR_pro_Ort.</t>
+  </si>
+  <si>
+    <t>1 NR in Gemeinde - weiblich</t>
+  </si>
+  <si>
+    <t>Add_NR_im_Wohnort_one_m</t>
+  </si>
+  <si>
+    <t>In der Gemeinde #Gemeinde_d wohnt auch ein Nationalrat: #Names_NR_pro_Ort.</t>
+  </si>
+  <si>
+    <t>1 NR in Gemeinde - männlich</t>
+  </si>
+  <si>
+    <t>Easteregg_Normalo</t>
+  </si>
+  <si>
+    <t>Durchschnittlichste Gemeinde in Bezug auf Parteistärken</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>followed by</t>
+  </si>
+  <si>
+    <t>variante für "uebrige"</t>
+  </si>
+  <si>
+    <t>Intro_unchanged_normal</t>
+  </si>
+  <si>
     <t>In #Gemeinde_d ist die #Party_1_partei_bezeichnung_de die stimmenstärkste Partei geblieben. Sie holte #Party_1_partei_staerke Prozent aller Stimmen (#Party_1_plus_minus_d).</t>
   </si>
   <si>
-    <t>Stärkste Partei normal (unverändert)</t>
+    <t>Stinknormal: Grösste Partei gleichgeblieben</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
   <si>
     <t>Keine Änderung an der Spitze in #Gemeinde_d: #Party_1_partei_bezeichnung_de holte wie vor vier Jahren die meisten Stimmen (#Party_1_partei_staerke Prozent, #Party_1_plus_minus_d).</t>
@@ -44,73 +398,76 @@
     <t>Unverändert ist die #Party_1_partei_bezeichnung_de die stärkste Partei in #Gemeinde_d geblieben, mit #Party_1_partei_staerke Prozent (#Party_1_plus_minus_d).</t>
   </si>
   <si>
-    <t>Intro_unchanged_big_jump_percentage</t>
-  </si>
-  <si>
-    <t>Stärkste Partei mit grossem Zugewinn (&gt; 8 PP)</t>
-  </si>
-  <si>
-    <t>Intro_unchanged_big_fall_percentage</t>
-  </si>
-  <si>
-    <t>Stärkste Partei mit grossem Verlust (&lt; 8 PP)</t>
-  </si>
-  <si>
-    <t>Intro_unchanged_big_gap</t>
-  </si>
-  <si>
-    <t>In #Gemeinde_d ist die #Party_1_partei_bezeichnung_de weiterhin mit deutlichem Abstand die grösste Partei. #Party_1_partei_staerke Prozent der Stimmen entfielen auf sie, #Party_1_distance_to_next Prozentpunkte mehr als die nächstgrössere Partei.</t>
-  </si>
-  <si>
     <t>Grösste Partei gleichgeblieben; mit deutlichem Abstand (10%-Punkte Abstand und mehr)</t>
   </si>
   <si>
+    <t>Mit deutlichem Abstand bleibt die #Party_1_partei_bezeichnung_de die grösste Partei in #Gemeinde_d. Ihre Parteistärke beträgt #Party_1_partei_staerke Prozent (#Party_1_plus_minus_d). Das ist ein Vorsprung von #Party_1_distance_to_next Prozentpunkten auf die nächstgrössere Partei. Die zweitplatzierte #Party_2_partei_bezeichnung_de erhielt #Party_2_partei_staerke Prozent (#Party_2_plus_minus_d).</t>
+  </si>
+  <si>
     <t>Unangefochten bleibt in #Gemeinde_d die #Party_1_partei_bezeichnung_de die stärkste Partei. Sie vereinigte bei den Nationalratswahlen #Party_1_partei_staerke Prozent der Stimmen (#Party_1_plus_minus_d) auf sich, #Party_1_distance_to_next Prozentpunkte mehr als die zweitplatzierte #Party_2_partei_bezeichnung_de (#Party_2_partei_staerke Prozent, #Party_2_plus_minus_d).</t>
   </si>
   <si>
     <t>Mit deutlichem Abstand bleibt die #Party_1_partei_bezeichnung_de die grösste Partei in #Gemeinde_d. Ihre Parteistärke beträgt #Party_1_partei_staerke Prozent (#Party_1_plus_minus_d). Der Vorsprung auf die nächstgrössere Partei, die #Party_2_partei_bezeichnung_de ist gross: #Party_1_distance_to_next Prozentpunkte. Die #Party_2_partei_bezeichnung_de holte #Party_2_partei_staerke Prozent (#Party_2_plus_minus_d).</t>
   </si>
   <si>
-    <t>Intro_unchanged_small_gap</t>
-  </si>
-  <si>
-    <t>Ganz knapp ist die #Party_1_partei_bezeichnung_de die grösste Partei geblieben in #Gemeinde_d. Sie holte #Party_1_partei_staerke Prozent der Stimmen und blieb damit #Party_1_distance_to_next Prozentpunkte vor der #Party_2_partei_bezeichnung_de. Diese musste sich mit #Party_2_partei_staerke Prozent mit Platz zwei begnügen. Die Veränderungen gegenüber 2019: #Party_1_partei_bezeichnung_de: #Party_1_plus_minus_d; #Party_2_partei_bezeichnung_de: #Party_2_plus_minus_d.</t>
+    <t>Ganz knapp ist die #Party_1_partei_bezeichnung_de die grösste Partei geblieben in #Gemeinde_d. Sie holte #Party_1_partei_staerke Prozent der Stimmen und blieb damit #Party_1_distance_to_next Prozentpunkte vor der #Party_2_partei_bezeichnung_de. Diese musste sich mit #Party_2_partei_staerke Prozent mit Platz zwei begnügen. Die Veränderungen gegenüber 2015: #Party_1_partei_bezeichnung_de: #Party_1_plus_minus_d; #Party_2_partei_bezeichnung_de: #Party_2_plus_minus_d.</t>
   </si>
   <si>
     <t>Grösste Partei gleichgeblieben; mit geringem Abstand (weniger als 2 Prozentpunkte)</t>
   </si>
   <si>
-    <t>Die #Party_1_partei_bezeichnung_de ist weiterhin die stärkste Partei in #Gemeinde_d. Mit #Party_1_partei_staerke Prozent Wähleranteil verwies sie die #Party_2_partei_bezeichnung_de allerdings nur mit #Party_1_distance_to_next Prozentpunkten Abstand auf den zweiten Platz. Diese holte #Party_2_partei_staerke Prozent. Die Veränderungen gegenüber 2019: #Party_1_partei_bezeichnung_de: #Party_1_plus_minus_d; #Party_2_partei_bezeichnung_de: #Party_2_plus_minus_d.</t>
-  </si>
-  <si>
-    <t>Intro_tie_strongest</t>
-  </si>
-  <si>
-    <t>Etwas Besonderes gab es in #Gemeinde_d: Die #Party_1_partei_bezeichnung_de und die #Party_2_partei_bezeichnung_de sind genau gleich stark. Mit je #Party_1_partei_staerke Prozent kommen beide Parteien auf den gleichen Wähleranteil.</t>
-  </si>
-  <si>
-    <t>Intro_majority</t>
-  </si>
-  <si>
-    <t>#Gemeinde_d ist unbestrittenes Territorium der #Party_1_partei_bezeichnung_de. Die Partei holte eine absolute Mehrheit der Stimmen.</t>
-  </si>
-  <si>
-    <t>Absolute Mehrheit für stärkste Partei</t>
-  </si>
-  <si>
-    <t>Kein Weg führt in #Gemeinde_d an der #Party_1_partei_bezeichnung_de vorbei. Sie holte mehr als die Hälfte der Stimmen und damit eine absolute Mehrheit.</t>
-  </si>
-  <si>
-    <t>Intro_changed_normal</t>
-  </si>
-  <si>
-    <t>In #Gemeinde_d ist neu die #Party_1_partei_bezeichnung_de die stimmenstärkste Partei. Sie holte #Party_1_partei_staerke Prozent aller Stimmen. Vor vier Jahren war die Partei noch auf Rang #Party_1_rank_in_commune_prev.</t>
-  </si>
-  <si>
-    <t>Neue stärkste Partei</t>
-  </si>
-  <si>
-    <t>Neu ist in #Gemeinde_d die #Party_1_partei_bezeichnung_de stärkste Kraft (Rang vor vier Jahren: #Party_1_rank_in_commune_prev). Bei den diesjährigen Nationalratswahlen vereinigte sie #Party_1_partei_staerke Prozent der Stimmen auf sich.</t>
+    <t>Die #Party_1_partei_bezeichnung_de ist weiterhin die stärkste Partei in #Gemeinde_d. Mit #Party_1_partei_staerke Prozent Wähleranteil verwies sie die #Party_2_partei_bezeichnung_de allerdings nur mit #Party_1_distance_to_next Prozentpunkten Abstand auf den zweiten Platz. Diese holte #Party_2_partei_staerke Prozent. Die Veränderungen gegenüber 2015: #Party_1_partei_bezeichnung_de: #Party_1_plus_minus_d; #Party_2_partei_bezeichnung_de: #Party_2_plus_minus_d.</t>
+  </si>
+  <si>
+    <t>Intro_unchanged_1_2_3</t>
+  </si>
+  <si>
+    <t>Die Reihenfolge der Parteien in #Gemeinde_d hat sich im Vergleich zu den Wahlen 2015 nicht verändert: Die #Party_1_partei_bezeichnung_de blieb mit #Party_1_partei_staerke Prozent die stärkste Kraft, gefolgt von der #Party_2_partei_bezeichnung_de (#Party_2_partei_staerke Prozent, #Party_2_plus_minus_d) und der #Party_3_partei_bezeichnung_de (#Party_3_partei_staerke, #Party_3_plus_minus_d).</t>
+  </si>
+  <si>
+    <t>Die Parteien auf den Plätzen 1, 2 und 3 sind gleichgeblieben</t>
+  </si>
+  <si>
+    <t>Alles bleibt beim Alten in #Gemeinde_d: Die drei stärksten Parteien haben ihre Spitzenplätze in unveränderter Reihenfolge verteidigt: Die #Party_1_partei_bezeichnung_de geht mit #Party_1_partei_staerke Prozent (#Party_2_plus_minus_d) wiederum als stärkste Kraft aus den Nationalratswahlen. Zweitstärkste Partei ist die #Party_2_partei_bezeichnung_de (#Party_2_partei_staerke Prozent, #Party_2_plus_minus_d), drittstärkste die #Party_3_partei_bezeichnung_de (#Party_3_partei_staerke Prozent, #Party_3_plus_minus_d).</t>
+  </si>
+  <si>
+    <t>Keine Revolution in #Gemeinde_d: Unverändert belegten #Party_1_partei_bezeichnung_de, #Party_2_partei_bezeichnung_de und #Party_3_partei_bezeichnung_de die ersten drei Plätze. Sie holten #Party_1_partei_staerke (#Party_1_plus_minus_d), #Party_2_partei_staerke (#Party_2_plus_minus_d) respektive #Party_3_partei_staerke Prozent (#Party_3_plus_minus_d) der Stimmen.</t>
+  </si>
+  <si>
+    <t>Intro_unchanged_1_2_3_big_gap_1</t>
+  </si>
+  <si>
+    <t>Die Reihenfolge der Parteien in #Gemeinde_d hat sich im Vergleich zu den Wahlen 2015 nicht verändert: Die #Party_1_partei_bezeichnung_de blieb mit #Party_1_partei_staerke Prozent mit grossem Abstand die stärkste Kraft, gefolgt von der #Party_2_partei_bezeichnung_de (#Party_2_partei_staerke Prozent, #Party_2_plus_minus_d) und der #Party_3_partei_bezeichnung_de (#Party_3_partei_staerke, #Party_3_plus_minus_d).</t>
+  </si>
+  <si>
+    <t>"deutlicher Abstand" = 10 und mehr Prozentpunkte</t>
+  </si>
+  <si>
+    <t>Alles bleibt beim Alten in #Gemeinde_d: Die drei stärksten Parteien haben ihre Spitzenplätze in unveränderter Reihenfolge verteidigt: Die #Party_1_partei_bezeichnung_de geht mit #Party_1_partei_staerke Prozent (#Party_2_plus_minus_d) wiederum mit deutlichem Abstand als stärkste Kraft aus den Nationalratswahlen. Zweitstärkste Partei ist die #Party_2_partei_bezeichnung_de (#Party_2_partei_staerke Prozent, #Party_2_plus_minus_d), drittstärkste die #Party_3_partei_bezeichnung_de (#Party_3_partei_staerke Prozent, #Party_3_plus_minus_d).</t>
+  </si>
+  <si>
+    <t>Etwas Besonderes gab es in #Gemeinde_d: Die #Party_1_partei_bezeichnung_de und die #Party_2_partei_bezeichnung_de sind genau gleich stark. Mit je #Pary_1_AnzahlStimmen Stimmen kommen beide Parteien auf #Party_1_partei_staerke.</t>
+  </si>
+  <si>
+    <t>Spec_majority</t>
+  </si>
+  <si>
+    <t>Intro_unchanged_long_term</t>
+  </si>
+  <si>
+    <t>Unverändert wie seit #Party_1_since_year ist die #Party_1_partei_bezeichnung_de die stärkste Partei in #Gemeinde_d. Die Partei holte #Party_1_partei_staerke Prozent (#Party_1_plus_minus_d gegenüber 2015).</t>
+  </si>
+  <si>
+    <t>Eine Partei ist mindestens seit 12 Jahren an erster Stelle</t>
+  </si>
+  <si>
+    <t>Seit #Party_1_since_year ist die #Party_1_partei_bezeichnung_de die stärkste Partei in #Gemeinde_d, so auch bei diesen Nationalratswahlen. Die Partei holte #Party_1_partei_staerke Prozent der Stimmen (#Party_1_plus_minus_d im Vergleich zu 2015).</t>
+  </si>
+  <si>
+    <t>Stärkste Partei neu; Vergleich mit 2015</t>
+  </si>
+  <si>
+    <t>Was, wenn nicht angetreten...?</t>
   </si>
   <si>
     <t>#Party_1_partei_bezeichnung_de hat sich in diesem Jahr von Rang #Party_1_rank_in_commune_prev auf den Spitzenplatz verbessert in #Gemeinde_d. Sie holte #Party_1_partei_staerke Prozent der Stimmen (#Party_1_plus_minus_d).</t>
@@ -122,31 +479,70 @@
     <t>#Gemeinde_d hat neu die meisten Stimmen an die #Party_1_partei_bezeichnung_de vergeben. Die Partei holte #Party_1_partei_staerke Prozent der Stimmen (#Party_1_plus_minus_d). Das bedeutet, dass sie sich von Rang #Party_1_rank_in_commune_prev auf den ersten Platz verbessert hat.</t>
   </si>
   <si>
-    <t>Intro_changed_big_jump_percentage</t>
-  </si>
-  <si>
-    <t>Mit einem grossen Sprung von #Party_1_differenz_partei_staerke Prozentpunkten ist die #Party_1_partei_bezeichnung_de die stärkste Partei geworden in #Gemeinde_d. Die Partei erhielt #Party_1_partei_staerke Prozent der Wählerstimmen.</t>
-  </si>
-  <si>
-    <t>Neue stärkste Partei mit grossem Zugewinn (&gt; 8 PP)</t>
-  </si>
-  <si>
-    <t>Intro_Uebrige</t>
-  </si>
-  <si>
-    <t>Den ersten Rang haben in #Gemeinde_d Listen oder Parteien aus der Kategorie "Übrige" geholt. Diese vereinigten #Party_1_partei_staerke Prozent der Stimmen auf sich.</t>
-  </si>
-  <si>
-    <t>Erste Partei ist "Weitere"</t>
-  </si>
-  <si>
-    <t>Second_normal</t>
-  </si>
-  <si>
-    <t>Zweitstärkste Partei ist mit #Party_2_partei_staerke (#Party_2_plus_minus_d gegenüber 2019) die #Party_2_partei_bezeichnung_de.</t>
-  </si>
-  <si>
-    <t>Zweitstärkste Partei Normal</t>
+    <t>Intro_changed_normal_newParty</t>
+  </si>
+  <si>
+    <t>In #Gemeinde_d ist neu die #Party_1 die stimmenstärkste Partei. Sie holte #Party_1_partei_staerke Prozent aller Stimmen. Vor vier Jahren war die Partei im Kanton #Kanton_d nicht angetreten.</t>
+  </si>
+  <si>
+    <t>Stärkste Partei neu; zuvor nicht angetreten (vorgängig überprüfen, wie häufig dieser Fall ist)</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Intro_changed_big_jump_ranks</t>
+  </si>
+  <si>
+    <t>Neu ist in #Gemeinde_d die #Party_1_partei_bezeichnung_de die stärkste Partei. Sie machte #Party_1_ranking_diff Plätze gut und holte #Party_1_partei_staerke Prozent Wähleranteil.</t>
+  </si>
+  <si>
+    <t>Intro_changed_2_to_1</t>
+  </si>
+  <si>
+    <t>Die #Party_1_partei_bezeichnung_de verbesserte sich in #Gemeinde_d vom zweiten auf den ersten Platz: Mit #Party_1_partei_staerke ist sie somit neu die stärkste Kraft in der Gemeinde.</t>
+  </si>
+  <si>
+    <t>Intro_changed_2_to_1_1_to_2</t>
+  </si>
+  <si>
+    <t>Stärkste Kraft in #Gemeinde_d ist neu die #Party_1_partei_bezeichnung_de. Sie tauschte die Plätze mit der #Party_2_partei_bezeichnung_de, die nurmehr die zweitgrösste Stimmenzahl erzielte. Die #Party_1_partei_bezeichnung_de kommt auf #Party_1_partei_staerke Prozent (#Party_1_plus_minus_d), die #Party_2_partei_bezeichnung_de auf #Party_2_partei_staerke Prozent (#Party_2_plus_minus_d).</t>
+  </si>
+  <si>
+    <t>In #Gemeinde_d überholte die #Party_1_partei_bezeichnung_de die #Party_2_partei_bezeichnung_de und ist neu stärkste Partei, während die #Party_2_partei_bezeichnung_de auf Rang zwei zurückfiel. Die #Party_1_partei_bezeichnung_de kommt auf #Party_1_partei_staerke Prozent (#Party_1_plus_minus_d), die #Party_2_partei_bezeichnung_de auf #Party_2_partei_staerke Prozent (#Party_2_plus_minus_d).</t>
+  </si>
+  <si>
+    <t>Intro_changed_3_to_1</t>
+  </si>
+  <si>
+    <t>Die #Party_1_partei_bezeichnung_de verbesserte sich in #Gemeinde_d vom dritten auf den ersten Platz: Mit #Party_1_partei_staerke ist sie somit neu die stärkste Kraft in der Gemeinde.</t>
+  </si>
+  <si>
+    <t>Intro_changed_3plus_to_1</t>
+  </si>
+  <si>
+    <t>Neu die stärkste Partei in #Gemeinde_d ist die #Party_1_partei_bezeichnung_de. Die Partei machte einen grossen Sprung nach vorne: Vor vier Jahren lag sie noch auf Platz #Party_1_rank_in_commune_prev. Sie holte #Party_1_partei_staerke der Stimmen (#Party_1_plus_minus_d).</t>
+  </si>
+  <si>
+    <t>Intro_changed_first_time</t>
+  </si>
+  <si>
+    <t>Erstmals seit #Party_1_first_time_since ist die #Party_1_partei_bezeichnung_de die stärkste Partei in #Gemeinde_d. Mit #Party_1_partei_staerke Prozent (#Party_1_plus_minus_d gegenüber 2015) holte sie die meisten Stimmen und überholte damit die #Party_1_overtaken, die seit #Party_1_since_last_time an vorderster Stelle stand.</t>
+  </si>
+  <si>
+    <t>Spezialfall: Erstplatzierte Partei ist erstmals seit mindestens 8 oder 12 Jahren vor der bislang erstplatzierten Partei, die zwingend während der vorherigen Periode auf dem 1. Platz war.</t>
+  </si>
+  <si>
+    <t>First_Second_Third</t>
+  </si>
+  <si>
+    <t>#Party_1_partei_bezeichnung_de ist mit #Party_1_partei_staerke Prozent die stärkste Partei, gefolgt von der #Party_2_partei_bezeichnung_de (#Party_2_partei_staerke Prozent, #Party_2_plus_minus_d). Drittstärkste Kraft in der Gemeinde ist die #Party_3_partei_bezeichnung_de, die es auf #Party_3_partei_staerke Prozent (#Party_3_plus_minus_d) brachte.</t>
+  </si>
+  <si>
+    <t>Zweitstärkste Partei ist mit #Party_2_partei_staerke (#Party_2_plus_minus_d gegenüber 2015) die #Party_2_partei_bezeichnung_de.</t>
+  </si>
+  <si>
+    <t>Nur zweiter Platz</t>
   </si>
   <si>
     <t>Die #Party_2_partei_bezeichnung_de ist die zweitstärkste Kraft in der Gemeinde. Sie kommt auf #Party_2_partei_staerke Prozent (#Party_2_plus_minus_d).</t>
@@ -155,415 +551,67 @@
     <t>Mit einem Wählerstimmenanteil von #Party_2_partei_staerke Prozent (#Party_2_plus_minus_d) ist die #Party_2_partei_bezeichnung_de die zweitstärkste Kraft in der Gemeinde.</t>
   </si>
   <si>
-    <t>Second_big_jump_percentage</t>
-  </si>
-  <si>
-    <t>Zweitstärkste Partei in #Gemeinde_d ist die #Party_2_partei_staerke, die sich gegenüber den Wahlen 2019 um #Party_2_differenz_partei_staerke Prozentpunkte verbesserte.</t>
-  </si>
-  <si>
-    <t>Zweitstärkste Partei mit grossem Zugewinn (&gt; 8 PP)</t>
+    <t>Second_and_Third</t>
+  </si>
+  <si>
+    <t>Auf dem zweiten Platz folgt die #Party_2_partei_bezeichnung_de (#Party_2_partei_staerke Prozent, #Party_2_plus_minus_d gegenüber 2015), auf dem dritten die #Party_3_partei_bezeichnung_de (#Party_3_partei_staerke Prozent, #Party_2_plus_minus_d).</t>
+  </si>
+  <si>
+    <t>Plätze 2 und 3</t>
+  </si>
+  <si>
+    <t>Der zweite Platz geht an #Party_2_partei_bezeichnung_de. Die Partei erhielt #Party_2_partei_staerke Prozent der Wählerstimmen (#Party_2_plus_minus_d). Drittstärkste Kraft ist #Party_3_partei_bezeichnung_de, die #Party_3_partei_staerke Prozent (#Party_3_plus_minus_d) auf sich vereinigte.</t>
+  </si>
+  <si>
+    <t>Four_and_Five</t>
+  </si>
+  <si>
+    <t>Platz vier geht an die #Party_4_partei_bezeichnung_de und auf Platz fünf kam die #Party_5_partei_bezeichnung_de zu liegen.</t>
+  </si>
+  <si>
+    <t>Plätze 4 und 5.</t>
+  </si>
+  <si>
+    <t>Die #Party_4_partei_bezeichnung_de landete auf Rang vier, die #Party_5_partei_bezeichnung_de auf Rang fünf.</t>
+  </si>
+  <si>
+    <t>Second_big_jump_rank</t>
+  </si>
+  <si>
+    <t>Zweitstärkste Partei in #Gemeinde_d ist die #Party_2_partei_bezeichnung_de, die damit #Party_2_ranking_diff Plätze gegenüber den Wahlen 2015 vorrückte. Sie holte #Party_2_partei_staerke Prozent Wählerstimmen (#Party_2_plus_minus_d).</t>
+  </si>
+  <si>
+    <t>Die #Party_2_partei_bezeichnung_de machte einen Sprung von #Party_2_ranking_diff Plätzen auf den zweiten Rang. Ihr Wählerlstimmenanteil beträgt in #Gemeinde_d #Party_2_partei_staerke Prozent (#Party_2_plus_minus_d).</t>
+  </si>
+  <si>
+    <t>Zweitstärkste Partei in #Gemeinde_d ist die #Party_2_partei_staerke, die sich gegenüber den Wahlen 2015 um #Party_2_differenz_partei_staerke Prozentpunkte verbesserte.</t>
   </si>
   <si>
     <t>Mit einer markanten Verbesserung um #Party_2_differenz_partei_staerke Prozentpunkte ist die #Party_2_partei_bezeichnung_de die zweitstärkste Kraft in der Gemeinde. Ihr Wählerstimmenanteil liegt neu bei #Party_2_partei_staerke Prozent.</t>
   </si>
   <si>
-    <t>Second_big_fall_percentage</t>
-  </si>
-  <si>
-    <t>Einen markanten Verlust musste die #Party_2_partei_bezeichnung_de in #Gemeinde_d hinnehmen: Die Partei verlor #Party_2_differenz_partei_staerke_abs Prozentpunkte gegenüber den Wahlen 2019 und liegt jetzt noch bei #Party_2_partei_staerke Prozent Wähleranteil. Das bedeutet dennoch Rang 2.</t>
-  </si>
-  <si>
-    <t>Zweitstärkste Partei mit grossem Verlust (&lt; 8 PP)</t>
-  </si>
-  <si>
-    <t>Second_tie_third</t>
-  </si>
-  <si>
-    <t>gleicher Stimmenanteil zweit- und drittstärkste Partei</t>
-  </si>
-  <si>
-    <t>Second_Uebrige</t>
-  </si>
-  <si>
-    <t>Am zweitmeisten Stimmen, nämlich #Party_2_partei_staerke Prozent, gingen in #Gemeinde_d an Listen oder Parteien aus der Kategorie "Übrige".</t>
-  </si>
-  <si>
-    <t>Zweite Partei ist "Weitere"</t>
-  </si>
-  <si>
-    <t>Third_normal</t>
-  </si>
-  <si>
-    <t>Die #Party_3_partei_bezeichnung_de landete mit #Party_3_partei_staerke Prozent auf dem dritten Platz (Veränderung gegenüber 2019: #Party_3_plus_minus_d).</t>
-  </si>
-  <si>
-    <t>Drittstärkste Partei Normal</t>
-  </si>
-  <si>
-    <t>Third_big_jump_percentage</t>
-  </si>
-  <si>
-    <t>Drittstärkste Partei mit grossem Zugewinn (&gt; 8 PP)</t>
-  </si>
-  <si>
-    <t>Third_big_fall_percentage</t>
+    <t>Second_big_jump_rank_percentage</t>
+  </si>
+  <si>
+    <t>Zweitstärkste Partei in #Gemeinde_d ist die #Party_2_partei_bezeichnung_de, die damit #Party_2_ranking_diff Plätze gegenüber den Wahlen 2015 vorrückte. Sie holte mit #Party_2_partei_staerke Prozent auch deutlich mehr Wählerstimmen. Der Zuwachs beträgt #Party_2_differenz_partei_staerke Prozentpunkte.</t>
+  </si>
+  <si>
+    <t>Zweitstärkste Partei in #Gemeinde_d ist die #Party_2_partei_bezeichnung_de, die sich gegenüber den Wahlen 2015 um #Party_2_ranking_diff Plätze und #Party_2_differenz_partei_staerke Prozentpunkte verbesserte. Sie erhielt #Party_2_partei_staerke Prozent Wählerstimmen.</t>
+  </si>
+  <si>
+    <t>Third_big_jump_rank_percentage</t>
+  </si>
+  <si>
+    <t>Einen grossen Sprung machte #Party_3_partei_bezeichnung_de: Mit #Party_3_partei_staerke Prozent Wählerstimmen legte sie um #Party_3_differenz_partei_staerke Prozentpunkte zu, was einen Sprung um #Party_3_ranking_diff Plätze auf Rang 3 bedeutet.</t>
+  </si>
+  <si>
+    <t>Einen markanten Verlust musste die #Party_2_partei_bezeichnung_de in #Gemeinde_d hinnehmen: Die Partei verlor #Party_2_differenz_partei_staerke_abs Prozentpunkte gegenüber den Wahlen 2015 und liegt jetzt noch bei #Party_2_partei_staerke Prozent Wähleranteil. Das bedeutet dennoch Rang 2.</t>
+  </si>
+  <si>
+    <t>mehr als x Prozentpunkte eingebüsst</t>
   </si>
   <si>
     <t>Stark eingebüsst hat die drittplatzierte #Party_3_partei_bezeichnung_de. Sie machte noch #Party_3_partei_staerke Prozent Wähleranteil, was einen Verlust von #Party_2_differenz_partei_staerke_abs Prozentpunkte bedeutet.</t>
-  </si>
-  <si>
-    <t>Drittstärkste Partei mit grossem Verlust (&lt; 8 PP)</t>
-  </si>
-  <si>
-    <t>Third_tie_fourth</t>
-  </si>
-  <si>
-    <t>gleicher Stimmenanteil dritt- und viertstärkste Partei</t>
-  </si>
-  <si>
-    <t>Third_Uebrige</t>
-  </si>
-  <si>
-    <t>Am drittmeisten Stimmen, nämlich #Party_3_partei_staerke Prozent, gingen in #Gemeinde_d an Listen oder Parteien aus der Kategorie "Übrige".</t>
-  </si>
-  <si>
-    <t>Dritte Partei ist "Weitere"</t>
-  </si>
-  <si>
-    <t>Spec_unchanged_1_2_3</t>
-  </si>
-  <si>
-    <t>Die Reihenfolge der Parteien in #Gemeinde_d hat sich im Vergleich zu den Wahlen 2019 nicht verändert: Die #Party_1_partei_bezeichnung_de blieb mit #Party_1_partei_staerke Prozent die stärkste Kraft, gefolgt von der #Party_2_partei_bezeichnung_de (#Party_2_partei_staerke Prozent, #Party_2_plus_minus_d) und der #Party_3_partei_bezeichnung_de (#Party_3_partei_staerke, #Party_3_plus_minus_d).</t>
-  </si>
-  <si>
-    <t>Gleiche Reihenfolge wie beim letzten Mal bei den ersten drei Parteien + keine grossen Sprünge (&lt; 5 PP)</t>
-  </si>
-  <si>
-    <t>Alles bleibt beim Alten in #Gemeinde_d: Die drei stärksten Parteien haben ihre Spitzenplätze in unveränderter Reihenfolge verteidigt: Die #Party_1_partei_bezeichnung_de geht mit #Party_1_partei_staerke Prozent (#Party_2_plus_minus_d) wiederum als stärkste Kraft aus den Nationalratswahlen. Zweitstärkste Partei ist die #Party_2_partei_bezeichnung_de (#Party_2_partei_staerke Prozent, #Party_2_plus_minus_d), drittstärkste die #Party_3_partei_bezeichnung_de (#Party_3_partei_staerke Prozent, #Party_3_plus_minus_d).</t>
-  </si>
-  <si>
-    <t>Keine Revolution in #Gemeinde_d: Unverändert belegten #Party_1_partei_bezeichnung_de, #Party_2_partei_bezeichnung_de und #Party_3_partei_bezeichnung_de die ersten drei Plätze. Sie holten #Party_1_partei_staerke (#Party_1_plus_minus_d), #Party_2_partei_staerke (#Party_2_plus_minus_d) respektive #Party_3_partei_staerke Prozent (#Party_3_plus_minus_d) der Stimmen.</t>
-  </si>
-  <si>
-    <t>Spec_small_community</t>
-  </si>
-  <si>
-    <t>Kleine Stimmen-Zahlen (wenn 1. Partei &lt; 200 Stimmen) - ohne Prozentzahl</t>
-  </si>
-  <si>
-    <t>Add_highest_in_canton</t>
-  </si>
-  <si>
-    <t>Besonders ist: Die #Party_highest_in_canton_de hat in der Gemeinde das höchste Resultat des Kantons erzielt.</t>
-  </si>
-  <si>
-    <t>Stärkstes Partei-Resultat im Kanton (when &gt;10 Gemeinden in Kanton; nur Top-7-Parteien; ohne Kleinstgemeinden)</t>
-  </si>
-  <si>
-    <t>Add_lowest_in_canton</t>
-  </si>
-  <si>
-    <t>Speziell: In keiner anderen Gemeinde des Kantons war die #Party_lowest_in_canton_de schwächer.</t>
-  </si>
-  <si>
-    <t>Schwächstes  Partei-Resultat im Kanton (when &gt;10 Gemeinden in Kanton; nur Top-7-Parteien; ohne Kleinstgemeinden)</t>
-  </si>
-  <si>
-    <t>Add_highest_in_CH</t>
-  </si>
-  <si>
-    <t>Stärkstes Partei-Resultat schweizweit</t>
-  </si>
-  <si>
-    <t>Add_lowest_in_CH</t>
-  </si>
-  <si>
-    <t>Schwächstes Partei-Resultat schweizweit</t>
-  </si>
-  <si>
-    <t>Add_Participation_highest_in_canton</t>
-  </si>
-  <si>
-    <t>Die Gemeinde hat am Wahlsonntag die höchste Beteiligung des ganzen Kantons ausgewiesen: #Gemeinde_participation Prozent.</t>
-  </si>
-  <si>
-    <t>Gemeinde hat am Wahlsonntag höchste Wahlbeteiligung des Kantons ausgewiesen; ohne Kleinstgemeinde</t>
-  </si>
-  <si>
-    <t>Add_Participation_lowest_in_canton</t>
-  </si>
-  <si>
-    <t>Die Gemeinde hat am Wahlsonntag die tiefeste Wahlbeteiligung des ganzen Kantons gehabt: #Gemeinde_participation Prozent.</t>
-  </si>
-  <si>
-    <t>Gemeinde hat am Wahlsonntag tiefste Wahlbeteiligung des Kantons ausgewiesen; ohne Kleinstgemeinden</t>
-  </si>
-  <si>
-    <t>Add_Participation_highest_in_CH</t>
-  </si>
-  <si>
-    <t>Gemeinde mit höchster Wahlbeteiligung; ohne Kleinstgemeinden; ohne Kleinstgemeinden</t>
-  </si>
-  <si>
-    <t>Add_Participation_lowest_in_CH</t>
-  </si>
-  <si>
-    <t>Gemeinde mit tiefster Wahlbeteiligung; ohne Kleinstgemeinden</t>
-  </si>
-  <si>
-    <t>Add_Participation_Top10_in_CH</t>
-  </si>
-  <si>
-    <t>Die Gemeinde gehörte in der Schweiz zu den Gemeinden mit der höchsten Wahlbeteiligung mit #Gemeinde_participation Prozent.</t>
-  </si>
-  <si>
-    <t>Gemeinde gehört schweizweit zu den Top-10 der Wahlbeteiligung</t>
-  </si>
-  <si>
-    <t>Add_Participation_Bottom10_in_CH</t>
-  </si>
-  <si>
-    <t>Nur wenige Gemeinden wiesen am Wahlsonntag eine tiefere Wahlbeteiligung auf mit #Gemeinde_participation Prozent.</t>
-  </si>
-  <si>
-    <t>Gemeinde gehört schweizweit zu 10 mit der tiefsten Wahlbeteiligung</t>
-  </si>
-  <si>
-    <t>Add_NR_im_Wohnort_many</t>
-  </si>
-  <si>
-    <t>#Gemeinde_d zählt unter seinen Einwohnern insgesamt #Anzahl_NR_pro_Ort Nationalrätinnen und Nationalräte.</t>
-  </si>
-  <si>
-    <t>Wenn ein Wohnort mehr als 4 NR hat (betrifft Zürich, Bern etc.)</t>
-  </si>
-  <si>
-    <t>Add_NR_im_Wohnort_few</t>
-  </si>
-  <si>
-    <t>Unter den Einwohnern von #Gemeinde_d gibt es #Anzahl_NR_pro_Ort Nationalrätinnen und Nationalräte: #Names_NR_pro_Ort.</t>
-  </si>
-  <si>
-    <t>2-4 NR in Gemeinde.</t>
-  </si>
-  <si>
-    <t>Add_NR_im_Wohnort_one_f</t>
-  </si>
-  <si>
-    <t>In der Gemeinde #Gemeinde_d wohnt auch eine Nationalrätin: #Names_NR_pro_Ort.</t>
-  </si>
-  <si>
-    <t>1 NR in Gemeinde - weiblich</t>
-  </si>
-  <si>
-    <t>Add_NR_im_Wohnort_one_m</t>
-  </si>
-  <si>
-    <t>In der Gemeinde #Gemeinde_d wohnt auch ein Nationalrat: #Names_NR_pro_Ort.</t>
-  </si>
-  <si>
-    <t>1 NR in Gemeinde - männlich</t>
-  </si>
-  <si>
-    <t>Easteregg_Normalo</t>
-  </si>
-  <si>
-    <t>Durchschnittlichste Gemeinde in Bezug auf Parteistärken</t>
-  </si>
-  <si>
-    <t>done</t>
-  </si>
-  <si>
-    <t>followed by</t>
-  </si>
-  <si>
-    <t>variante für "uebrige"</t>
-  </si>
-  <si>
-    <t>Intro_unchanged_normal</t>
-  </si>
-  <si>
-    <t>Stinknormal: Grösste Partei gleichgeblieben</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Mit deutlichem Abstand bleibt die #Party_1_partei_bezeichnung_de die grösste Partei in #Gemeinde_d. Ihre Parteistärke beträgt #Party_1_partei_staerke Prozent (#Party_1_plus_minus_d). Das ist ein Vorsprung von #Party_1_distance_to_next Prozentpunkten auf die nächstgrössere Partei. Die zweitplatzierte #Party_2_partei_bezeichnung_de erhielt #Party_2_partei_staerke Prozent (#Party_2_plus_minus_d).</t>
-  </si>
-  <si>
-    <t>Ganz knapp ist die #Party_1_partei_bezeichnung_de die grösste Partei geblieben in #Gemeinde_d. Sie holte #Party_1_partei_staerke Prozent der Stimmen und blieb damit #Party_1_distance_to_next Prozentpunkte vor der #Party_2_partei_bezeichnung_de. Diese musste sich mit #Party_2_partei_staerke Prozent mit Platz zwei begnügen. Die Veränderungen gegenüber 2015: #Party_1_partei_bezeichnung_de: #Party_1_plus_minus_d; #Party_2_partei_bezeichnung_de: #Party_2_plus_minus_d.</t>
-  </si>
-  <si>
-    <t>Die #Party_1_partei_bezeichnung_de ist weiterhin die stärkste Partei in #Gemeinde_d. Mit #Party_1_partei_staerke Prozent Wähleranteil verwies sie die #Party_2_partei_bezeichnung_de allerdings nur mit #Party_1_distance_to_next Prozentpunkten Abstand auf den zweiten Platz. Diese holte #Party_2_partei_staerke Prozent. Die Veränderungen gegenüber 2015: #Party_1_partei_bezeichnung_de: #Party_1_plus_minus_d; #Party_2_partei_bezeichnung_de: #Party_2_plus_minus_d.</t>
-  </si>
-  <si>
-    <t>Intro_unchanged_1_2_3</t>
-  </si>
-  <si>
-    <t>Die Reihenfolge der Parteien in #Gemeinde_d hat sich im Vergleich zu den Wahlen 2015 nicht verändert: Die #Party_1_partei_bezeichnung_de blieb mit #Party_1_partei_staerke Prozent die stärkste Kraft, gefolgt von der #Party_2_partei_bezeichnung_de (#Party_2_partei_staerke Prozent, #Party_2_plus_minus_d) und der #Party_3_partei_bezeichnung_de (#Party_3_partei_staerke, #Party_3_plus_minus_d).</t>
-  </si>
-  <si>
-    <t>Die Parteien auf den Plätzen 1, 2 und 3 sind gleichgeblieben</t>
-  </si>
-  <si>
-    <t>Intro_unchanged_1_2_3_big_gap_1</t>
-  </si>
-  <si>
-    <t>Die Reihenfolge der Parteien in #Gemeinde_d hat sich im Vergleich zu den Wahlen 2015 nicht verändert: Die #Party_1_partei_bezeichnung_de blieb mit #Party_1_partei_staerke Prozent mit grossem Abstand die stärkste Kraft, gefolgt von der #Party_2_partei_bezeichnung_de (#Party_2_partei_staerke Prozent, #Party_2_plus_minus_d) und der #Party_3_partei_bezeichnung_de (#Party_3_partei_staerke, #Party_3_plus_minus_d).</t>
-  </si>
-  <si>
-    <t>"deutlicher Abstand" = 10 und mehr Prozentpunkte</t>
-  </si>
-  <si>
-    <t>Alles bleibt beim Alten in #Gemeinde_d: Die drei stärksten Parteien haben ihre Spitzenplätze in unveränderter Reihenfolge verteidigt: Die #Party_1_partei_bezeichnung_de geht mit #Party_1_partei_staerke Prozent (#Party_2_plus_minus_d) wiederum mit deutlichem Abstand als stärkste Kraft aus den Nationalratswahlen. Zweitstärkste Partei ist die #Party_2_partei_bezeichnung_de (#Party_2_partei_staerke Prozent, #Party_2_plus_minus_d), drittstärkste die #Party_3_partei_bezeichnung_de (#Party_3_partei_staerke Prozent, #Party_3_plus_minus_d).</t>
-  </si>
-  <si>
-    <t>Etwas Besonderes gab es in #Gemeinde_d: Die #Party_1_partei_bezeichnung_de und die #Party_2_partei_bezeichnung_de sind genau gleich stark. Mit je #Pary_1_AnzahlStimmen Stimmen kommen beide Parteien auf #Party_1_partei_staerke.</t>
-  </si>
-  <si>
-    <t>Spec_majority</t>
-  </si>
-  <si>
-    <t>Intro_unchanged_long_term</t>
-  </si>
-  <si>
-    <t>Unverändert wie seit #Party_1_since_year ist die #Party_1_partei_bezeichnung_de die stärkste Partei in #Gemeinde_d. Die Partei holte #Party_1_partei_staerke Prozent (#Party_1_plus_minus_d gegenüber 2015).</t>
-  </si>
-  <si>
-    <t>Eine Partei ist mindestens seit 12 Jahren an erster Stelle</t>
-  </si>
-  <si>
-    <t>Seit #Party_1_since_year ist die #Party_1_partei_bezeichnung_de die stärkste Partei in #Gemeinde_d, so auch bei diesen Nationalratswahlen. Die Partei holte #Party_1_partei_staerke Prozent der Stimmen (#Party_1_plus_minus_d im Vergleich zu 2015).</t>
-  </si>
-  <si>
-    <t>Stärkste Partei neu; Vergleich mit 2015</t>
-  </si>
-  <si>
-    <t>Was, wenn nicht angetreten...?</t>
-  </si>
-  <si>
-    <t>Intro_changed_normal_newParty</t>
-  </si>
-  <si>
-    <t>In #Gemeinde_d ist neu die #Party_1 die stimmenstärkste Partei. Sie holte #Party_1_partei_staerke Prozent aller Stimmen. Vor vier Jahren war die Partei im Kanton #Kanton_d nicht angetreten.</t>
-  </si>
-  <si>
-    <t>Stärkste Partei neu; zuvor nicht angetreten (vorgängig überprüfen, wie häufig dieser Fall ist)</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>Intro_changed_big_jump_ranks</t>
-  </si>
-  <si>
-    <t>Neu ist in #Gemeinde_d die #Party_1_partei_bezeichnung_de die stärkste Partei. Sie machte #Party_1_ranking_diff Plätze gut und holte #Party_1_partei_staerke Prozent Wähleranteil.</t>
-  </si>
-  <si>
-    <t>Intro_changed_2_to_1</t>
-  </si>
-  <si>
-    <t>Die #Party_1_partei_bezeichnung_de verbesserte sich in #Gemeinde_d vom zweiten auf den ersten Platz: Mit #Party_1_partei_staerke ist sie somit neu die stärkste Kraft in der Gemeinde.</t>
-  </si>
-  <si>
-    <t>Intro_changed_2_to_1_1_to_2</t>
-  </si>
-  <si>
-    <t>Stärkste Kraft in #Gemeinde_d ist neu die #Party_1_partei_bezeichnung_de. Sie tauschte die Plätze mit der #Party_2_partei_bezeichnung_de, die nurmehr die zweitgrösste Stimmenzahl erzielte. Die #Party_1_partei_bezeichnung_de kommt auf #Party_1_partei_staerke Prozent (#Party_1_plus_minus_d), die #Party_2_partei_bezeichnung_de auf #Party_2_partei_staerke Prozent (#Party_2_plus_minus_d).</t>
-  </si>
-  <si>
-    <t>In #Gemeinde_d überholte die #Party_1_partei_bezeichnung_de die #Party_2_partei_bezeichnung_de und ist neu stärkste Partei, während die #Party_2_partei_bezeichnung_de auf Rang zwei zurückfiel. Die #Party_1_partei_bezeichnung_de kommt auf #Party_1_partei_staerke Prozent (#Party_1_plus_minus_d), die #Party_2_partei_bezeichnung_de auf #Party_2_partei_staerke Prozent (#Party_2_plus_minus_d).</t>
-  </si>
-  <si>
-    <t>Intro_changed_3_to_1</t>
-  </si>
-  <si>
-    <t>Die #Party_1_partei_bezeichnung_de verbesserte sich in #Gemeinde_d vom dritten auf den ersten Platz: Mit #Party_1_partei_staerke ist sie somit neu die stärkste Kraft in der Gemeinde.</t>
-  </si>
-  <si>
-    <t>Intro_changed_3plus_to_1</t>
-  </si>
-  <si>
-    <t>Neu die stärkste Partei in #Gemeinde_d ist die #Party_1_partei_bezeichnung_de. Die Partei machte einen grossen Sprung nach vorne: Vor vier Jahren lag sie noch auf Platz #Party_1_rank_in_commune_prev. Sie holte #Party_1_partei_staerke der Stimmen (#Party_1_plus_minus_d).</t>
-  </si>
-  <si>
-    <t>Intro_changed_first_time</t>
-  </si>
-  <si>
-    <t>Erstmals seit #Party_1_first_time_since ist die #Party_1_partei_bezeichnung_de die stärkste Partei in #Gemeinde_d. Mit #Party_1_partei_staerke Prozent (#Party_1_plus_minus_d gegenüber 2015) holte sie die meisten Stimmen und überholte damit die #Party_1_overtaken, die seit #Party_1_since_last_time an vorderster Stelle stand.</t>
-  </si>
-  <si>
-    <t>Spezialfall: Erstplatzierte Partei ist erstmals seit mindestens 8 oder 12 Jahren vor der bislang erstplatzierten Partei, die zwingend während der vorherigen Periode auf dem 1. Platz war.</t>
-  </si>
-  <si>
-    <t>First_Second_Third</t>
-  </si>
-  <si>
-    <t>#Party_1_partei_bezeichnung_de ist mit #Party_1_partei_staerke Prozent die stärkste Partei, gefolgt von der #Party_2_partei_bezeichnung_de (#Party_2_partei_staerke Prozent, #Party_2_plus_minus_d). Drittstärkste Kraft in der Gemeinde ist die #Party_3_partei_bezeichnung_de, die es auf #Party_3_partei_staerke Prozent (#Party_3_plus_minus_d) brachte.</t>
-  </si>
-  <si>
-    <t>Zweitstärkste Partei ist mit #Party_2_partei_staerke (#Party_2_plus_minus_d gegenüber 2015) die #Party_2_partei_bezeichnung_de.</t>
-  </si>
-  <si>
-    <t>Nur zweiter Platz</t>
-  </si>
-  <si>
-    <t>Second_and_Third</t>
-  </si>
-  <si>
-    <t>Auf dem zweiten Platz folgt die #Party_2_partei_bezeichnung_de (#Party_2_partei_staerke Prozent, #Party_2_plus_minus_d gegenüber 2015), auf dem dritten die #Party_3_partei_bezeichnung_de (#Party_3_partei_staerke Prozent, #Party_2_plus_minus_d).</t>
-  </si>
-  <si>
-    <t>Plätze 2 und 3</t>
-  </si>
-  <si>
-    <t>Der zweite Platz geht an #Party_2_partei_bezeichnung_de. Die Partei erhielt #Party_2_partei_staerke Prozent der Wählerstimmen (#Party_2_plus_minus_d). Drittstärkste Kraft ist #Party_3_partei_bezeichnung_de, die #Party_3_partei_staerke Prozent (#Party_3_plus_minus_d) auf sich vereinigte.</t>
-  </si>
-  <si>
-    <t>Four_and_Five</t>
-  </si>
-  <si>
-    <t>Platz vier geht an die #Party_4_partei_bezeichnung_de und auf Platz fünf kam die #Party_5_partei_bezeichnung_de zu liegen.</t>
-  </si>
-  <si>
-    <t>Plätze 4 und 5.</t>
-  </si>
-  <si>
-    <t>Die #Party_4_partei_bezeichnung_de landete auf Rang vier, die #Party_5_partei_bezeichnung_de auf Rang fünf.</t>
-  </si>
-  <si>
-    <t>Second_big_jump_rank</t>
-  </si>
-  <si>
-    <t>Zweitstärkste Partei in #Gemeinde_d ist die #Party_2_partei_bezeichnung_de, die damit #Party_2_ranking_diff Plätze gegenüber den Wahlen 2015 vorrückte. Sie holte #Party_2_partei_staerke Prozent Wählerstimmen (#Party_2_plus_minus_d).</t>
-  </si>
-  <si>
-    <t>Die #Party_2_partei_bezeichnung_de machte einen Sprung von #Party_2_ranking_diff Plätzen auf den zweiten Rang. Ihr Wählerlstimmenanteil beträgt in #Gemeinde_d #Party_2_partei_staerke Prozent (#Party_2_plus_minus_d).</t>
-  </si>
-  <si>
-    <t>Zweitstärkste Partei in #Gemeinde_d ist die #Party_2_partei_staerke, die sich gegenüber den Wahlen 2015 um #Party_2_differenz_partei_staerke Prozentpunkte verbesserte.</t>
-  </si>
-  <si>
-    <t>Second_big_jump_rank_percentage</t>
-  </si>
-  <si>
-    <t>Zweitstärkste Partei in #Gemeinde_d ist die #Party_2_partei_bezeichnung_de, die damit #Party_2_ranking_diff Plätze gegenüber den Wahlen 2015 vorrückte. Sie holte mit #Party_2_partei_staerke Prozent auch deutlich mehr Wählerstimmen. Der Zuwachs beträgt #Party_2_differenz_partei_staerke Prozentpunkte.</t>
-  </si>
-  <si>
-    <t>Zweitstärkste Partei in #Gemeinde_d ist die #Party_2_partei_bezeichnung_de, die sich gegenüber den Wahlen 2015 um #Party_2_ranking_diff Plätze und #Party_2_differenz_partei_staerke Prozentpunkte verbesserte. Sie erhielt #Party_2_partei_staerke Prozent Wählerstimmen.</t>
-  </si>
-  <si>
-    <t>Third_big_jump_rank_percentage</t>
-  </si>
-  <si>
-    <t>Einen grossen Sprung machte #Party_3_partei_bezeichnung_de: Mit #Party_3_partei_staerke Prozent Wählerstimmen legte sie um #Party_3_differenz_partei_staerke Prozentpunkte zu, was einen Sprung um #Party_3_ranking_diff Plätze auf Rang 3 bedeutet.</t>
-  </si>
-  <si>
-    <t>Einen markanten Verlust musste die #Party_2_partei_bezeichnung_de in #Gemeinde_d hinnehmen: Die Partei verlor #Party_2_differenz_partei_staerke_abs Prozentpunkte gegenüber den Wahlen 2015 und liegt jetzt noch bei #Party_2_partei_staerke Prozent Wähleranteil. Das bedeutet dennoch Rang 2.</t>
-  </si>
-  <si>
-    <t>mehr als x Prozentpunkte eingebüsst</t>
   </si>
   <si>
     <t>Die #Party_3_partei_bezeichnung_de landete mit #Party_3_partei_staerke Prozent auf dem dritten Platz (Veränderung gegenüber 2015: #Party_3_plus_minus_d).</t>
@@ -796,11 +844,11 @@
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -1660,7 +1708,7 @@
       <c r="B51" s="6"/>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
-      <c r="E51" s="7" t="s">
+      <c r="E51" s="12" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1671,7 +1719,7 @@
       <c r="B52" s="6"/>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
-      <c r="E52" s="7" t="s">
+      <c r="E52" s="12" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1682,7 +1730,7 @@
       <c r="B53" s="6"/>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
-      <c r="E53" s="7" t="s">
+      <c r="E53" s="12" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1695,7 +1743,7 @@
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
-      <c r="E54" s="7" t="s">
+      <c r="E54" s="12" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1706,7 +1754,7 @@
       <c r="B55" s="6"/>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
-      <c r="E55" s="7" t="s">
+      <c r="E55" s="12" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1717,7 +1765,7 @@
       <c r="B56" s="6"/>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
-      <c r="E56" s="7" t="s">
+      <c r="E56" s="12" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1746,7 +1794,7 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="12" t="s">
+      <c r="A59" s="13" t="s">
         <v>72</v>
       </c>
       <c r="B59" s="4" t="s">
@@ -1759,7 +1807,7 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="12" t="s">
+      <c r="A60" s="13" t="s">
         <v>72</v>
       </c>
       <c r="B60" s="4" t="s">
@@ -1772,7 +1820,7 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="12" t="s">
+      <c r="A61" s="13" t="s">
         <v>72</v>
       </c>
       <c r="B61" s="4" t="s">
@@ -1785,24 +1833,24 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="12" t="s">
+      <c r="A62" s="13" t="s">
         <v>77</v>
       </c>
       <c r="B62" s="6"/>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
-      <c r="E62" s="13" t="s">
+      <c r="E62" s="12" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="12" t="s">
+      <c r="A63" s="13" t="s">
         <v>77</v>
       </c>
       <c r="B63" s="6"/>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
-      <c r="E63" s="13" t="s">
+      <c r="E63" s="12" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1815,7 +1863,7 @@
       </c>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
-      <c r="E64" s="13" t="s">
+      <c r="E64" s="12" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1828,7 +1876,7 @@
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
-      <c r="E65" s="13" t="s">
+      <c r="E65" s="12" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1839,7 +1887,7 @@
       <c r="B66" s="8"/>
       <c r="C66" s="16"/>
       <c r="D66" s="16"/>
-      <c r="E66" s="13" t="s">
+      <c r="E66" s="12" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1850,7 +1898,7 @@
       <c r="B67" s="8"/>
       <c r="C67" s="16"/>
       <c r="D67" s="16"/>
-      <c r="E67" s="13" t="s">
+      <c r="E67" s="12" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1863,7 +1911,7 @@
       </c>
       <c r="C68" s="16"/>
       <c r="D68" s="16"/>
-      <c r="E68" s="9" t="s">
+      <c r="E68" s="12" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1876,7 +1924,7 @@
       </c>
       <c r="C69" s="16"/>
       <c r="D69" s="16"/>
-      <c r="E69" s="9" t="s">
+      <c r="E69" s="12" t="s">
         <v>94</v>
       </c>
     </row>
@@ -1887,7 +1935,7 @@
       <c r="B70" s="18"/>
       <c r="C70" s="16"/>
       <c r="D70" s="16"/>
-      <c r="E70" s="9" t="s">
+      <c r="E70" s="12" t="s">
         <v>96</v>
       </c>
     </row>
@@ -1898,7 +1946,7 @@
       <c r="B71" s="18"/>
       <c r="C71" s="16"/>
       <c r="D71" s="16"/>
-      <c r="E71" s="9" t="s">
+      <c r="E71" s="12" t="s">
         <v>98</v>
       </c>
     </row>
@@ -2117,16 +2165,16 @@
         <v>122</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>6</v>
+        <v>123</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="22" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3">
@@ -2134,12 +2182,12 @@
         <v>122</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>8</v>
+        <v>126</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F3" s="5"/>
     </row>
@@ -2148,12 +2196,12 @@
         <v>122</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>9</v>
+        <v>127</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F4" s="5"/>
     </row>
@@ -2167,11 +2215,11 @@
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="5" t="s">
-        <v>16</v>
+        <v>128</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="22" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6">
@@ -2179,16 +2227,16 @@
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="5" t="s">
-        <v>16</v>
+        <v>128</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="22" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7">
@@ -2196,12 +2244,12 @@
         <v>14</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>17</v>
+        <v>130</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="5" t="s">
-        <v>16</v>
+        <v>128</v>
       </c>
       <c r="F7" s="5"/>
     </row>
@@ -2210,7 +2258,7 @@
         <v>14</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>18</v>
+        <v>131</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -2220,16 +2268,16 @@
         <v>19</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="5" t="s">
-        <v>21</v>
+        <v>133</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="22" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10">
@@ -2237,87 +2285,87 @@
         <v>19</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="5" t="s">
-        <v>21</v>
+        <v>133</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="22" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="5" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="22" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="5" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>75</v>
+        <v>138</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="5" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="22" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>76</v>
+        <v>139</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
     </row>
     <row r="14">
       <c r="A14" s="5" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="5" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="F14" s="5"/>
     </row>
     <row r="15">
       <c r="A15" s="5" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="5" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="F15" s="5"/>
     </row>
@@ -2326,14 +2374,14 @@
         <v>23</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
     </row>
     <row r="17">
       <c r="A17" s="5" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>26</v>
@@ -2341,12 +2389,12 @@
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="G17" s="22" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="5" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>28</v>
@@ -2356,29 +2404,29 @@
     </row>
     <row r="19">
       <c r="A19" s="23" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="5" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="F19" s="5"/>
     </row>
     <row r="20">
       <c r="A20" s="23" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="5" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="F20" s="5"/>
     </row>
@@ -2392,14 +2440,14 @@
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="5" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="F21" s="5"/>
       <c r="G21" s="22" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22">
@@ -2417,7 +2465,7 @@
         <v>29</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>33</v>
+        <v>152</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -2427,7 +2475,7 @@
         <v>29</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>34</v>
+        <v>153</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -2437,39 +2485,39 @@
         <v>29</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>35</v>
+        <v>154</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
     </row>
     <row r="26">
       <c r="A26" s="5" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="5" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="F26" s="5"/>
       <c r="G26" s="22" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="5" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="G27" s="22" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="28" ht="27.0" customHeight="1">
@@ -2482,91 +2530,91 @@
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="G28" s="22" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="5" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="G29" s="22" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="5" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="G30" s="22" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="5" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
     </row>
     <row r="32">
       <c r="A32" s="5" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="G32" s="22" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="5" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="G33" s="22" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="23" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="5" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="F34" s="5"/>
     </row>
     <row r="35">
       <c r="A35" s="5" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -2576,12 +2624,12 @@
         <v>42</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="5" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="F36" s="5"/>
     </row>
@@ -2590,12 +2638,12 @@
         <v>42</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>45</v>
+        <v>177</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="5" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="F37" s="5"/>
     </row>
@@ -2604,87 +2652,87 @@
         <v>42</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>46</v>
+        <v>178</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="5" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="F38" s="5"/>
     </row>
     <row r="39">
       <c r="A39" s="5" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="5" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="F39" s="5"/>
     </row>
     <row r="40">
       <c r="A40" s="5" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="5" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="F40" s="5"/>
     </row>
     <row r="41">
       <c r="A41" s="5" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="5" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="F41" s="5"/>
     </row>
     <row r="42">
       <c r="A42" s="5" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="5" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="F42" s="5"/>
     </row>
     <row r="43">
       <c r="A43" s="5" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
     </row>
     <row r="44">
       <c r="A44" s="5" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
@@ -2694,7 +2742,7 @@
         <v>47</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
@@ -2704,37 +2752,37 @@
         <v>47</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>50</v>
+        <v>191</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
     </row>
     <row r="47">
       <c r="A47" s="5" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
     </row>
     <row r="48">
       <c r="A48" s="5" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
     </row>
     <row r="49">
       <c r="A49" s="5" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
@@ -2744,12 +2792,12 @@
         <v>51</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="5" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="F50" s="5"/>
     </row>
@@ -2758,12 +2806,12 @@
         <v>64</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>65</v>
+        <v>199</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
       <c r="E51" s="5" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="F51" s="5"/>
     </row>
@@ -2772,14 +2820,14 @@
         <v>59</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
     </row>
     <row r="53">
       <c r="A53" s="5" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>40</v>
@@ -2789,7 +2837,7 @@
     </row>
     <row r="54">
       <c r="A54" s="5" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>57</v>
@@ -2799,7 +2847,7 @@
     </row>
     <row r="55">
       <c r="A55" s="5" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>70</v>
@@ -2809,91 +2857,91 @@
     </row>
     <row r="56">
       <c r="A56" s="11" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
       <c r="E56" s="5" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="F56" s="5"/>
     </row>
     <row r="57">
       <c r="A57" s="11" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
       <c r="E57" s="5" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="F57" s="5"/>
     </row>
     <row r="58">
       <c r="A58" s="11" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
       <c r="E58" s="5" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="F58" s="5"/>
     </row>
     <row r="59">
       <c r="A59" s="11" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
       <c r="E59" s="5" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="F59" s="5"/>
     </row>
     <row r="60">
       <c r="A60" s="11" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
       <c r="E60" s="5" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="F60" s="5"/>
     </row>
     <row r="61">
       <c r="A61" s="11" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
       <c r="E61" s="5" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="F61" s="5"/>
     </row>
     <row r="62">
       <c r="A62" s="23" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>106</v>
@@ -2907,7 +2955,7 @@
     </row>
     <row r="63">
       <c r="A63" s="23" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>109</v>
@@ -2921,7 +2969,7 @@
     </row>
     <row r="64">
       <c r="A64" s="23" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>112</v>
@@ -2935,7 +2983,7 @@
     </row>
     <row r="65">
       <c r="A65" s="23" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>115</v>
@@ -2949,67 +2997,67 @@
     </row>
     <row r="66">
       <c r="A66" s="23" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
       <c r="E66" s="5" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="F66" s="5"/>
     </row>
     <row r="67">
       <c r="A67" s="23" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
     </row>
     <row r="68">
       <c r="A68" s="23" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
       <c r="E68" s="5" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="F68" s="5"/>
     </row>
     <row r="69">
       <c r="A69" s="23" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
       <c r="E69" s="5" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="F69" s="5"/>
     </row>
     <row r="70">
       <c r="A70" s="23" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
       <c r="E70" s="5" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="F70" s="5"/>
     </row>

--- a/Texte/LENA Textbausteine Eidgenössische Wahlen 2023_ Gemeindeebene.xlsx
+++ b/Texte/LENA Textbausteine Eidgenössische Wahlen 2023_ Gemeindeebene.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="233">
   <si>
     <t>Text_ID</t>
   </si>
@@ -116,7 +116,7 @@
     <t>#Party_1_partei_bezeichnung_de hat sich in diesem Jahr von Rang #Party_1_rank_in_commune_prev auf den Spitzenplatz verbessert in #Gemeinde_d. Sie holte #Party_1_partei_staerke Prozent der Stimmen (#Party_1_plus_minus  Prozentpunkte).</t>
   </si>
   <si>
-    <t>Neue stärkste Kraft in #Gemeinde_d: Die #Party_1_partei_bezeichnung_de hat mit #Party_1_partei_staerke Prozent (#Party_1_plus_minus  Prozentpunkte) die meisten Stimmen geholt und verbessert sich damit von Rang #Party_1_rank_in_commune_prev auf den ersten Platz.</t>
+    <t>Neue stärkste Kraft in #Gemeinde_d: Die #Party_1_partei_bezeichnung_de hat mit #Party_1_partei_staerke Prozent (#Party_1_plus_minus Prozentpunkte) die meisten Stimmen geholt und verbessert sich damit von Rang #Party_1_rank_in_commune_prev auf den ersten Platz.</t>
   </si>
   <si>
     <t>#Gemeinde_d hat neu die meisten Stimmen an die #Party_1_partei_bezeichnung_de vergeben. Die Partei holte #Party_1_partei_staerke Prozent der Stimmen (#Party_1_plus_minus Prozentpunkte). Das bedeutet, dass sie sich von Rang #Party_1_rank_in_commune_prev auf den ersten Platz verbessert hat.</t>
@@ -125,376 +125,379 @@
     <t>Intro_changed_big_jump_percentage</t>
   </si>
   <si>
+    <t>Mit einem grossen Sprung von #Party_1_plus_minus Prozentpunkten ist die #Party_1_partei_bezeichnung_de die stärkste Partei geworden in #Gemeinde_d. Die Partei erhielt #Party_1_partei_staerke Prozent der Wählerstimmen.</t>
+  </si>
+  <si>
+    <t>Neue stärkste Partei mit grossem Zugewinn (&gt; 5 PP)</t>
+  </si>
+  <si>
+    <t>Intro_Uebrige</t>
+  </si>
+  <si>
+    <t>Den ersten Rang haben in #Gemeinde_d Listen oder Parteien aus der Kategorie "Übrige" geholt. Diese vereinigten #Party_1_partei_staerke Prozent der Stimmen auf sich.</t>
+  </si>
+  <si>
+    <t>Erste Partei ist "Weitere"</t>
+  </si>
+  <si>
+    <t>Second_normal</t>
+  </si>
+  <si>
+    <t>Zweitstärkste Partei ist mit #Party_2_partei_staerke (#Party_2_plus_minus Prozentpunkte gegenüber 2019) die #Party_2_partei_bezeichnung_de.</t>
+  </si>
+  <si>
+    <t>Zweitstärkste Partei Normal</t>
+  </si>
+  <si>
+    <t>Die #Party_2_partei_bezeichnung_de ist die zweitstärkste Kraft in der Gemeinde. Sie kommt auf #Party_2_partei_staerke Prozent (#Party_2_plus_minus Prozentpunkte).</t>
+  </si>
+  <si>
+    <t>Mit einem Wählerstimmenanteil von #Party_2_partei_staerke Prozent (#Party_2_plus_minus Prozentpunkte) ist die #Party_2_partei_bezeichnung_de die zweitstärkste Kraft in der Gemeinde.</t>
+  </si>
+  <si>
+    <t>Second_big_jump_percentage</t>
+  </si>
+  <si>
+    <t>Zweitstärkste Partei in #Gemeinde_d ist die #Party_2_partei_staerke, die sich gegenüber den Wahlen 2019 um #Party_2_plus_minus Prozentpunkte verbesserte.</t>
+  </si>
+  <si>
+    <t>Zweitstärkste Partei mit grossem Zugewinn (&gt; 5 PP)</t>
+  </si>
+  <si>
+    <t>Mit einer markanten Verbesserung um #Party_2_plus_minus Prozentpunkte ist die #Party_2_partei_bezeichnung_de die zweitstärkste Kraft in der Gemeinde. Ihr Wählerstimmenanteil liegt neu bei #Party_2_partei_staerke Prozent.</t>
+  </si>
+  <si>
+    <t>Second_big_fall_percentage</t>
+  </si>
+  <si>
+    <t>Einen markanten Verlust musste die #Party_2_partei_bezeichnung_de in #Gemeinde_d hinnehmen: Die Partei verlor #Party_2_plus_minus Prozentpunkte gegenüber den Wahlen 2019 und liegt jetzt noch bei #Party_2_partei_staerke Prozent Wähleranteil. Das bedeutet dennoch Rang 2.</t>
+  </si>
+  <si>
+    <t>Zweitstärkste Partei mit grossem Verlust (&lt; 5 PP)</t>
+  </si>
+  <si>
+    <t>Second_tie_third</t>
+  </si>
+  <si>
+    <t>gleicher Stimmenanteil zweit- und drittstärkste Partei</t>
+  </si>
+  <si>
+    <t>Second_Uebrige</t>
+  </si>
+  <si>
+    <t>Am zweitmeisten Stimmen, nämlich #Party_2_partei_staerke Prozent, gingen in #Gemeinde_d an Listen oder Parteien aus der Kategorie "Übrige".</t>
+  </si>
+  <si>
+    <t>Zweite Partei ist "Weitere"</t>
+  </si>
+  <si>
+    <t>Third_normal</t>
+  </si>
+  <si>
+    <t>Die #Party_3_partei_bezeichnung_de landete mit #Party_3_partei_staerke Prozent auf dem dritten Platz (Veränderung gegenüber 2019: #Party_3_plus_minus Prozentpunkte).</t>
+  </si>
+  <si>
+    <t>Drittstärkste Partei Normal</t>
+  </si>
+  <si>
+    <t>Third_big_jump_percentage</t>
+  </si>
+  <si>
+    <t>Drittstärkste Partei mit grossem Zugewinn (&gt; 5 PP)</t>
+  </si>
+  <si>
+    <t>Third_big_fall_percentage</t>
+  </si>
+  <si>
+    <t>Stark eingebüsst hat die drittplatzierte #Party_3_partei_bezeichnung_de. Sie machte noch #Party_3_partei_staerke Prozent Wähleranteil, was einen Verlust von #Party_3_plus_minus Prozentpunkte bedeutet.</t>
+  </si>
+  <si>
+    <t>Drittstärkste Partei mit grossem Verlust (&lt; 5 PP)</t>
+  </si>
+  <si>
+    <t>Third_tie_fourth</t>
+  </si>
+  <si>
+    <t>gleicher Stimmenanteil dritt- und viertstärkste Partei</t>
+  </si>
+  <si>
+    <t>Third_Uebrige</t>
+  </si>
+  <si>
+    <t>Am drittmeisten Stimmen, nämlich #Party_3_partei_staerke Prozent, gingen in #Gemeinde_d an Listen oder Parteien aus der Kategorie "Übrige".</t>
+  </si>
+  <si>
+    <t>Dritte Partei ist "Weitere"</t>
+  </si>
+  <si>
+    <t>Spec_unchanged_1_2_3</t>
+  </si>
+  <si>
+    <t>Die Reihenfolge der Parteien in #Gemeinde_d hat sich im Vergleich zu den Wahlen 2019 nicht verändert: Die #Party_1_partei_bezeichnung_de blieb mit #Party_1_partei_staerke Prozent die stärkste Kraft, gefolgt von der #Party_2_partei_bezeichnung_de (#Party_2_partei_staerke Prozent, #Party_2_plus_minus  Prozentpunkte) und der #Party_3_partei_bezeichnung_de (#Party_3_partei_staerke Prozent, #Party_3_plus_minus Prozentpunkte).</t>
+  </si>
+  <si>
+    <t>Gleiche Reihenfolge wie beim letzten Mal bei den ersten drei Parteien + keine grossen Sprünge (&lt; 5 PP)</t>
+  </si>
+  <si>
+    <t>Alles bleibt beim Alten in #Gemeinde_d: Die drei stärksten Parteien haben ihre Spitzenplätze in unveränderter Reihenfolge verteidigt: Die #Party_1_partei_bezeichnung_de geht mit #Party_1_partei_staerke Prozent (#Party_1_plus_minus Prozentpunkte) wiederum als stärkste Kraft aus den Nationalratswahlen. Zweitstärkste Partei ist die #Party_2_partei_bezeichnung_de (#Party_2_partei_staerke Prozent, #Party_2_plus_minus Prozentpunkte), drittstärkste die #Party_3_partei_bezeichnung_de (#Party_3_partei_staerke Prozent, #Party_3_plus_minus Prozentpunkte).</t>
+  </si>
+  <si>
+    <t>Keine Revolution in #Gemeinde_d: Unverändert belegten #Party_1_partei_bezeichnung_de, #Party_2_partei_bezeichnung_de und #Party_3_partei_bezeichnung_de die ersten drei Plätze. Sie holten #Party_1_partei_staerke Prozent (#Party_1_plus_minus Prozentpunkte), #Party_2_partei_staerke Prozent (#Party_2_plus_minus Prozentpunkte) respektive #Party_3_partei_staerke Prozent (#Party_3_plus_minus Prozentpunkte) der Stimmen.</t>
+  </si>
+  <si>
+    <t>Spec_small_community</t>
+  </si>
+  <si>
+    <t>Kleine Stimmen-Zahlen (wenn 1. Partei &lt; 200 Stimmen) - ohne Prozentzahl</t>
+  </si>
+  <si>
+    <t>Add_highest_in_canton</t>
+  </si>
+  <si>
+    <t>Besonders ist: Die #Party_highest_in_canton_de hat in der Gemeinde das höchste Resultat des Kantons erzielt.</t>
+  </si>
+  <si>
+    <t>Stärkstes Partei-Resultat im Kanton (when &gt;10 Gemeinden in Kanton; nur Top-6-Parteien)</t>
+  </si>
+  <si>
+    <t>Add_lowest_in_canton</t>
+  </si>
+  <si>
+    <t>Speziell: In keiner anderen Gemeinde des Kantons war die #Party_lowest_in_canton_de schwächer.</t>
+  </si>
+  <si>
+    <t>Schwächstes  Partei-Resultat im Kanton (when &gt;10 Gemeinden in Kanton; nur Top-6-Parteien)</t>
+  </si>
+  <si>
+    <t>Add_highest_in_CH</t>
+  </si>
+  <si>
+    <t>Stärkstes Partei-Resultat schweizweit</t>
+  </si>
+  <si>
+    <t>Add_lowest_in_CH</t>
+  </si>
+  <si>
+    <t>Schwächstes Partei-Resultat schweizweit</t>
+  </si>
+  <si>
+    <t>Add_Participation_highest_in_canton</t>
+  </si>
+  <si>
+    <t>Die Gemeinde hat am Wahlsonntag die höchste Beteiligung des ganzen Kantons ausgewiesen: #Gemeinde_participation Prozent.</t>
+  </si>
+  <si>
+    <t>Gemeinde hat am Wahlsonntag höchste Wahlbeteiligung des Kantons ausgewiesen</t>
+  </si>
+  <si>
+    <t>Add_Participation_lowest_in_canton</t>
+  </si>
+  <si>
+    <t>Die Gemeinde hat am Wahlsonntag die tiefeste Wahlbeteiligung des ganzen Kantons gehabt: #Gemeinde_participation Prozent.</t>
+  </si>
+  <si>
+    <t>Gemeinde hat am Wahlsonntag tiefste Wahlbeteiligung des Kantons ausgewiesen</t>
+  </si>
+  <si>
+    <t>Add_Participation_highest_in_CH</t>
+  </si>
+  <si>
+    <t>Gemeinde mit höchster Wahlbeteiligung</t>
+  </si>
+  <si>
+    <t>Add_Participation_lowest_in_CH</t>
+  </si>
+  <si>
+    <t>Gemeinde mit tiefster Wahlbeteiligung</t>
+  </si>
+  <si>
+    <t>Add_Participation_Top10_in_CH</t>
+  </si>
+  <si>
+    <t>Die Gemeinde gehörte in der Schweiz zu den Gemeinden mit der höchsten Wahlbeteiligung mit #Gemeinde_participation Prozent.</t>
+  </si>
+  <si>
+    <t>Gemeinde gehört schweizweit zu den Top-10 der Wahlbeteiligung</t>
+  </si>
+  <si>
+    <t>Add_Participation_Bottom10_in_CH</t>
+  </si>
+  <si>
+    <t>Nur wenige Gemeinden wiesen am Wahlsonntag eine tiefere Wahlbeteiligung auf mit #Gemeinde_participation Prozent.</t>
+  </si>
+  <si>
+    <t>Gemeinde gehört schweizweit zu 10 mit der tiefsten Wahlbeteiligung</t>
+  </si>
+  <si>
+    <t>Add_NR_im_Wohnort_many</t>
+  </si>
+  <si>
+    <t>#Gemeinde_d zählt unter seinen Einwohnern insgesamt #Anzahl_NR_pro_Ort Nationalrätinnen und Nationalräte.</t>
+  </si>
+  <si>
+    <t>Wenn ein Wohnort mehr als 4 NR hat (betrifft Zürich, Bern etc.)</t>
+  </si>
+  <si>
+    <t>Add_NR_im_Wohnort_few</t>
+  </si>
+  <si>
+    <t>Unter den Einwohnern von #Gemeinde_d gibt es #Anzahl_NR_pro_Ort Nationalrätinnen und Nationalräte: #Names_NR_pro_Ort.</t>
+  </si>
+  <si>
+    <t>2-4 NR in Gemeinde.</t>
+  </si>
+  <si>
+    <t>Add_NR_im_Wohnort_one_f</t>
+  </si>
+  <si>
+    <t>In der Gemeinde #Gemeinde_d wohnt auch eine Nationalrätin: #Names_NR_pro_Ort.</t>
+  </si>
+  <si>
+    <t>1 NR in Gemeinde - weiblich</t>
+  </si>
+  <si>
+    <t>Add_NR_im_Wohnort_one_m</t>
+  </si>
+  <si>
+    <t>In der Gemeinde #Gemeinde_d wohnt auch ein Nationalrat: #Names_NR_pro_Ort.</t>
+  </si>
+  <si>
+    <t>1 NR in Gemeinde - männlich</t>
+  </si>
+  <si>
+    <t>Easteregg_Normalo</t>
+  </si>
+  <si>
+    <t>Durchschnittlichste Gemeinde in Bezug auf Parteistärken</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>followed by</t>
+  </si>
+  <si>
+    <t>variante für "uebrige"</t>
+  </si>
+  <si>
+    <t>Intro_unchanged_normal</t>
+  </si>
+  <si>
+    <t>In #Gemeinde_d ist die #Party_1_partei_bezeichnung_de die stimmenstärkste Partei geblieben. Sie holte #Party_1_partei_staerke Prozent aller Stimmen (#Party_1_plus_minus_d).</t>
+  </si>
+  <si>
+    <t>Stinknormal: Grösste Partei gleichgeblieben</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Keine Änderung an der Spitze in #Gemeinde_d: #Party_1_partei_bezeichnung_de holte wie vor vier Jahren die meisten Stimmen (#Party_1_partei_staerke Prozent, #Party_1_plus_minus_d).</t>
+  </si>
+  <si>
+    <t>Unverändert ist die #Party_1_partei_bezeichnung_de die stärkste Partei in #Gemeinde_d geblieben, mit #Party_1_partei_staerke Prozent (#Party_1_plus_minus_d).</t>
+  </si>
+  <si>
+    <t>Grösste Partei gleichgeblieben; mit deutlichem Abstand (10%-Punkte Abstand und mehr)</t>
+  </si>
+  <si>
+    <t>Mit deutlichem Abstand bleibt die #Party_1_partei_bezeichnung_de die grösste Partei in #Gemeinde_d. Ihre Parteistärke beträgt #Party_1_partei_staerke Prozent (#Party_1_plus_minus_d). Das ist ein Vorsprung von #Party_1_distance_to_next Prozentpunkten auf die nächstgrössere Partei. Die zweitplatzierte #Party_2_partei_bezeichnung_de erhielt #Party_2_partei_staerke Prozent (#Party_2_plus_minus_d).</t>
+  </si>
+  <si>
+    <t>Unangefochten bleibt in #Gemeinde_d die #Party_1_partei_bezeichnung_de die stärkste Partei. Sie vereinigte bei den Nationalratswahlen #Party_1_partei_staerke Prozent der Stimmen (#Party_1_plus_minus_d) auf sich, #Party_1_distance_to_next Prozentpunkte mehr als die zweitplatzierte #Party_2_partei_bezeichnung_de (#Party_2_partei_staerke Prozent, #Party_2_plus_minus_d).</t>
+  </si>
+  <si>
+    <t>Mit deutlichem Abstand bleibt die #Party_1_partei_bezeichnung_de die grösste Partei in #Gemeinde_d. Ihre Parteistärke beträgt #Party_1_partei_staerke Prozent (#Party_1_plus_minus_d). Der Vorsprung auf die nächstgrössere Partei, die #Party_2_partei_bezeichnung_de ist gross: #Party_1_distance_to_next Prozentpunkte. Die #Party_2_partei_bezeichnung_de holte #Party_2_partei_staerke Prozent (#Party_2_plus_minus_d).</t>
+  </si>
+  <si>
+    <t>Ganz knapp ist die #Party_1_partei_bezeichnung_de die grösste Partei geblieben in #Gemeinde_d. Sie holte #Party_1_partei_staerke Prozent der Stimmen und blieb damit #Party_1_distance_to_next Prozentpunkte vor der #Party_2_partei_bezeichnung_de. Diese musste sich mit #Party_2_partei_staerke Prozent mit Platz zwei begnügen. Die Veränderungen gegenüber 2015: #Party_1_partei_bezeichnung_de: #Party_1_plus_minus_d; #Party_2_partei_bezeichnung_de: #Party_2_plus_minus_d.</t>
+  </si>
+  <si>
+    <t>Grösste Partei gleichgeblieben; mit geringem Abstand (weniger als 2 Prozentpunkte)</t>
+  </si>
+  <si>
+    <t>Die #Party_1_partei_bezeichnung_de ist weiterhin die stärkste Partei in #Gemeinde_d. Mit #Party_1_partei_staerke Prozent Wähleranteil verwies sie die #Party_2_partei_bezeichnung_de allerdings nur mit #Party_1_distance_to_next Prozentpunkten Abstand auf den zweiten Platz. Diese holte #Party_2_partei_staerke Prozent. Die Veränderungen gegenüber 2015: #Party_1_partei_bezeichnung_de: #Party_1_plus_minus_d; #Party_2_partei_bezeichnung_de: #Party_2_plus_minus_d.</t>
+  </si>
+  <si>
+    <t>Intro_unchanged_1_2_3</t>
+  </si>
+  <si>
+    <t>Die Reihenfolge der Parteien in #Gemeinde_d hat sich im Vergleich zu den Wahlen 2015 nicht verändert: Die #Party_1_partei_bezeichnung_de blieb mit #Party_1_partei_staerke Prozent die stärkste Kraft, gefolgt von der #Party_2_partei_bezeichnung_de (#Party_2_partei_staerke Prozent, #Party_2_plus_minus_d) und der #Party_3_partei_bezeichnung_de (#Party_3_partei_staerke, #Party_3_plus_minus_d).</t>
+  </si>
+  <si>
+    <t>Die Parteien auf den Plätzen 1, 2 und 3 sind gleichgeblieben</t>
+  </si>
+  <si>
+    <t>Alles bleibt beim Alten in #Gemeinde_d: Die drei stärksten Parteien haben ihre Spitzenplätze in unveränderter Reihenfolge verteidigt: Die #Party_1_partei_bezeichnung_de geht mit #Party_1_partei_staerke Prozent (#Party_2_plus_minus_d) wiederum als stärkste Kraft aus den Nationalratswahlen. Zweitstärkste Partei ist die #Party_2_partei_bezeichnung_de (#Party_2_partei_staerke Prozent, #Party_2_plus_minus_d), drittstärkste die #Party_3_partei_bezeichnung_de (#Party_3_partei_staerke Prozent, #Party_3_plus_minus_d).</t>
+  </si>
+  <si>
+    <t>Keine Revolution in #Gemeinde_d: Unverändert belegten #Party_1_partei_bezeichnung_de, #Party_2_partei_bezeichnung_de und #Party_3_partei_bezeichnung_de die ersten drei Plätze. Sie holten #Party_1_partei_staerke (#Party_1_plus_minus_d), #Party_2_partei_staerke (#Party_2_plus_minus_d) respektive #Party_3_partei_staerke Prozent (#Party_3_plus_minus_d) der Stimmen.</t>
+  </si>
+  <si>
+    <t>Intro_unchanged_1_2_3_big_gap_1</t>
+  </si>
+  <si>
+    <t>Die Reihenfolge der Parteien in #Gemeinde_d hat sich im Vergleich zu den Wahlen 2015 nicht verändert: Die #Party_1_partei_bezeichnung_de blieb mit #Party_1_partei_staerke Prozent mit grossem Abstand die stärkste Kraft, gefolgt von der #Party_2_partei_bezeichnung_de (#Party_2_partei_staerke Prozent, #Party_2_plus_minus_d) und der #Party_3_partei_bezeichnung_de (#Party_3_partei_staerke, #Party_3_plus_minus_d).</t>
+  </si>
+  <si>
+    <t>"deutlicher Abstand" = 10 und mehr Prozentpunkte</t>
+  </si>
+  <si>
+    <t>Alles bleibt beim Alten in #Gemeinde_d: Die drei stärksten Parteien haben ihre Spitzenplätze in unveränderter Reihenfolge verteidigt: Die #Party_1_partei_bezeichnung_de geht mit #Party_1_partei_staerke Prozent (#Party_2_plus_minus_d) wiederum mit deutlichem Abstand als stärkste Kraft aus den Nationalratswahlen. Zweitstärkste Partei ist die #Party_2_partei_bezeichnung_de (#Party_2_partei_staerke Prozent, #Party_2_plus_minus_d), drittstärkste die #Party_3_partei_bezeichnung_de (#Party_3_partei_staerke Prozent, #Party_3_plus_minus_d).</t>
+  </si>
+  <si>
+    <t>Etwas Besonderes gab es in #Gemeinde_d: Die #Party_1_partei_bezeichnung_de und die #Party_2_partei_bezeichnung_de sind genau gleich stark. Mit je #Pary_1_AnzahlStimmen Stimmen kommen beide Parteien auf #Party_1_partei_staerke.</t>
+  </si>
+  <si>
+    <t>Spec_majority</t>
+  </si>
+  <si>
+    <t>Intro_unchanged_long_term</t>
+  </si>
+  <si>
+    <t>Unverändert wie seit #Party_1_since_year ist die #Party_1_partei_bezeichnung_de die stärkste Partei in #Gemeinde_d. Die Partei holte #Party_1_partei_staerke Prozent (#Party_1_plus_minus_d gegenüber 2015).</t>
+  </si>
+  <si>
+    <t>Eine Partei ist mindestens seit 12 Jahren an erster Stelle</t>
+  </si>
+  <si>
+    <t>Seit #Party_1_since_year ist die #Party_1_partei_bezeichnung_de die stärkste Partei in #Gemeinde_d, so auch bei diesen Nationalratswahlen. Die Partei holte #Party_1_partei_staerke Prozent der Stimmen (#Party_1_plus_minus_d im Vergleich zu 2015).</t>
+  </si>
+  <si>
+    <t>Stärkste Partei neu; Vergleich mit 2015</t>
+  </si>
+  <si>
+    <t>Was, wenn nicht angetreten...?</t>
+  </si>
+  <si>
+    <t>#Party_1_partei_bezeichnung_de hat sich in diesem Jahr von Rang #Party_1_rank_in_commune_prev auf den Spitzenplatz verbessert in #Gemeinde_d. Sie holte #Party_1_partei_staerke Prozent der Stimmen (#Party_1_plus_minus_d).</t>
+  </si>
+  <si>
+    <t>Neue stärkste Kraft in #Gemeinde_d: Die #Party_1_partei_bezeichnung_de hat mit #Party_1_partei_staerke Prozent (#Party_1_plus_minus_d) die meisten Stimmen geholt und verbessert sich damit von Rang #Party_1_rank_in_commune_prev auf den ersten Platz.</t>
+  </si>
+  <si>
+    <t>#Gemeinde_d hat neu die meisten Stimmen an die #Party_1_partei_bezeichnung_de vergeben. Die Partei holte #Party_1_partei_staerke Prozent der Stimmen (#Party_1_plus_minus_d). Das bedeutet, dass sie sich von Rang #Party_1_rank_in_commune_prev auf den ersten Platz verbessert hat.</t>
+  </si>
+  <si>
+    <t>Intro_changed_normal_newParty</t>
+  </si>
+  <si>
+    <t>In #Gemeinde_d ist neu die #Party_1 die stimmenstärkste Partei. Sie holte #Party_1_partei_staerke Prozent aller Stimmen. Vor vier Jahren war die Partei im Kanton #Kanton_d nicht angetreten.</t>
+  </si>
+  <si>
+    <t>Stärkste Partei neu; zuvor nicht angetreten (vorgängig überprüfen, wie häufig dieser Fall ist)</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Intro_changed_big_jump_ranks</t>
+  </si>
+  <si>
+    <t>Neu ist in #Gemeinde_d die #Party_1_partei_bezeichnung_de die stärkste Partei. Sie machte #Party_1_ranking_diff Plätze gut und holte #Party_1_partei_staerke Prozent Wähleranteil.</t>
+  </si>
+  <si>
     <t>Mit einem grossen Sprung von #Party_1_differenz_partei_staerke Prozentpunkten ist die #Party_1_partei_bezeichnung_de die stärkste Partei geworden in #Gemeinde_d. Die Partei erhielt #Party_1_partei_staerke Prozent der Wählerstimmen.</t>
-  </si>
-  <si>
-    <t>Neue stärkste Partei mit grossem Zugewinn (&gt; 5 PP)</t>
-  </si>
-  <si>
-    <t>Intro_Uebrige</t>
-  </si>
-  <si>
-    <t>Den ersten Rang haben in #Gemeinde_d Listen oder Parteien aus der Kategorie "Übrige" geholt. Diese vereinigten #Party_1_partei_staerke Prozent der Stimmen auf sich.</t>
-  </si>
-  <si>
-    <t>Erste Partei ist "Weitere"</t>
-  </si>
-  <si>
-    <t>Second_normal</t>
-  </si>
-  <si>
-    <t>Zweitstärkste Partei ist mit #Party_2_partei_staerke (#Party_2_plus_minus Prozentpunkte gegenüber 2019) die #Party_2_partei_bezeichnung_de.</t>
-  </si>
-  <si>
-    <t>Zweitstärkste Partei Normal</t>
-  </si>
-  <si>
-    <t>Die #Party_2_partei_bezeichnung_de ist die zweitstärkste Kraft in der Gemeinde. Sie kommt auf #Party_2_partei_staerke Prozent (#Party_2_plus_minus Prozentpunkte).</t>
-  </si>
-  <si>
-    <t>Mit einem Wählerstimmenanteil von #Party_2_partei_staerke Prozent (#Party_2_plus_minus Prozentpunkte) ist die #Party_2_partei_bezeichnung_de die zweitstärkste Kraft in der Gemeinde.</t>
-  </si>
-  <si>
-    <t>Second_big_jump_percentage</t>
-  </si>
-  <si>
-    <t>Zweitstärkste Partei in #Gemeinde_d ist die #Party_2_partei_staerke, die sich gegenüber den Wahlen 2019 um #Party_2_plus_minus Prozentpunkte verbesserte.</t>
-  </si>
-  <si>
-    <t>Zweitstärkste Partei mit grossem Zugewinn (&gt; 5 PP)</t>
-  </si>
-  <si>
-    <t>Mit einer markanten Verbesserung um #Party_2_plus_minus Prozentpunkte ist die #Party_2_partei_bezeichnung_de die zweitstärkste Kraft in der Gemeinde. Ihr Wählerstimmenanteil liegt neu bei #Party_2_partei_staerke Prozent.</t>
-  </si>
-  <si>
-    <t>Second_big_fall_percentage</t>
-  </si>
-  <si>
-    <t>Einen markanten Verlust musste die #Party_2_partei_bezeichnung_de in #Gemeinde_d hinnehmen: Die Partei verlor #Party_2_plus_minus Prozentpunkte gegenüber den Wahlen 2019 und liegt jetzt noch bei #Party_2_partei_staerke Prozent Wähleranteil. Das bedeutet dennoch Rang 2.</t>
-  </si>
-  <si>
-    <t>Zweitstärkste Partei mit grossem Verlust (&lt; 5 PP)</t>
-  </si>
-  <si>
-    <t>Second_tie_third</t>
-  </si>
-  <si>
-    <t>gleicher Stimmenanteil zweit- und drittstärkste Partei</t>
-  </si>
-  <si>
-    <t>Second_Uebrige</t>
-  </si>
-  <si>
-    <t>Am zweitmeisten Stimmen, nämlich #Party_2_partei_staerke Prozent, gingen in #Gemeinde_d an Listen oder Parteien aus der Kategorie "Übrige".</t>
-  </si>
-  <si>
-    <t>Zweite Partei ist "Weitere"</t>
-  </si>
-  <si>
-    <t>Third_normal</t>
-  </si>
-  <si>
-    <t>Die #Party_3_partei_bezeichnung_de landete mit #Party_3_partei_staerke Prozent auf dem dritten Platz (Veränderung gegenüber 2019: #Party_3_plus_minus Prozentpunkte).</t>
-  </si>
-  <si>
-    <t>Drittstärkste Partei Normal</t>
-  </si>
-  <si>
-    <t>Third_big_jump_percentage</t>
-  </si>
-  <si>
-    <t>Drittstärkste Partei mit grossem Zugewinn (&gt; 5 PP)</t>
-  </si>
-  <si>
-    <t>Third_big_fall_percentage</t>
-  </si>
-  <si>
-    <t>Stark eingebüsst hat die drittplatzierte #Party_3_partei_bezeichnung_de. Sie machte noch #Party_3_partei_staerke Prozent Wähleranteil, was einen Verlust von #Party_3_plus_minus Prozentpunkte bedeutet.</t>
-  </si>
-  <si>
-    <t>Drittstärkste Partei mit grossem Verlust (&lt; 5 PP)</t>
-  </si>
-  <si>
-    <t>Third_tie_fourth</t>
-  </si>
-  <si>
-    <t>gleicher Stimmenanteil dritt- und viertstärkste Partei</t>
-  </si>
-  <si>
-    <t>Third_Uebrige</t>
-  </si>
-  <si>
-    <t>Am drittmeisten Stimmen, nämlich #Party_3_partei_staerke Prozent, gingen in #Gemeinde_d an Listen oder Parteien aus der Kategorie "Übrige".</t>
-  </si>
-  <si>
-    <t>Dritte Partei ist "Weitere"</t>
-  </si>
-  <si>
-    <t>Spec_unchanged_1_2_3</t>
-  </si>
-  <si>
-    <t>Die Reihenfolge der Parteien in #Gemeinde_d hat sich im Vergleich zu den Wahlen 2019 nicht verändert: Die #Party_1_partei_bezeichnung_de blieb mit #Party_1_partei_staerke Prozent die stärkste Kraft, gefolgt von der #Party_2_partei_bezeichnung_de (#Party_2_partei_staerke Prozent, #Party_2_plus_minus  Prozentpunkte) und der #Party_3_partei_bezeichnung_de (#Party_3_partei_staerke Prozent, #Party_3_plus_minus Prozentpunkte).</t>
-  </si>
-  <si>
-    <t>Gleiche Reihenfolge wie beim letzten Mal bei den ersten drei Parteien + keine grossen Sprünge (&lt; 5 PP)</t>
-  </si>
-  <si>
-    <t>Alles bleibt beim Alten in #Gemeinde_d: Die drei stärksten Parteien haben ihre Spitzenplätze in unveränderter Reihenfolge verteidigt: Die #Party_1_partei_bezeichnung_de geht mit #Party_1_partei_staerke Prozent (#Party_1_plus_minus Prozentpunkte) wiederum als stärkste Kraft aus den Nationalratswahlen. Zweitstärkste Partei ist die #Party_2_partei_bezeichnung_de (#Party_2_partei_staerke Prozent, #Party_2_plus_minus Prozentpunkte), drittstärkste die #Party_3_partei_bezeichnung_de (#Party_3_partei_staerke Prozent, #Party_3_plus_minus Prozentpunkte).</t>
-  </si>
-  <si>
-    <t>Keine Revolution in #Gemeinde_d: Unverändert belegten #Party_1_partei_bezeichnung_de, #Party_2_partei_bezeichnung_de und #Party_3_partei_bezeichnung_de die ersten drei Plätze. Sie holten #Party_1_partei_staerke Prozent (#Party_1_plus_minus Prozentpunkte), #Party_2_partei_staerke Prozent (#Party_2_plus_minus Prozentpunkte) respektive #Party_3_partei_staerke Prozent (#Party_3_plus_minus Prozentpunkte) der Stimmen.</t>
-  </si>
-  <si>
-    <t>Spec_small_community</t>
-  </si>
-  <si>
-    <t>Kleine Stimmen-Zahlen (wenn 1. Partei &lt; 200 Stimmen) - ohne Prozentzahl</t>
-  </si>
-  <si>
-    <t>Add_highest_in_canton</t>
-  </si>
-  <si>
-    <t>Besonders ist: Die #Party_highest_in_canton_de hat in der Gemeinde das höchste Resultat des Kantons erzielt.</t>
-  </si>
-  <si>
-    <t>Stärkstes Partei-Resultat im Kanton (when &gt;10 Gemeinden in Kanton; nur Top-6-Parteien)</t>
-  </si>
-  <si>
-    <t>Add_lowest_in_canton</t>
-  </si>
-  <si>
-    <t>Speziell: In keiner anderen Gemeinde des Kantons war die #Party_lowest_in_canton_de schwächer.</t>
-  </si>
-  <si>
-    <t>Schwächstes  Partei-Resultat im Kanton (when &gt;10 Gemeinden in Kanton; nur Top-6-Parteien)</t>
-  </si>
-  <si>
-    <t>Add_highest_in_CH</t>
-  </si>
-  <si>
-    <t>Stärkstes Partei-Resultat schweizweit</t>
-  </si>
-  <si>
-    <t>Add_lowest_in_CH</t>
-  </si>
-  <si>
-    <t>Schwächstes Partei-Resultat schweizweit</t>
-  </si>
-  <si>
-    <t>Add_Participation_highest_in_canton</t>
-  </si>
-  <si>
-    <t>Die Gemeinde hat am Wahlsonntag die höchste Beteiligung des ganzen Kantons ausgewiesen: #Gemeinde_participation Prozent.</t>
-  </si>
-  <si>
-    <t>Gemeinde hat am Wahlsonntag höchste Wahlbeteiligung des Kantons ausgewiesen</t>
-  </si>
-  <si>
-    <t>Add_Participation_lowest_in_canton</t>
-  </si>
-  <si>
-    <t>Die Gemeinde hat am Wahlsonntag die tiefeste Wahlbeteiligung des ganzen Kantons gehabt: #Gemeinde_participation Prozent.</t>
-  </si>
-  <si>
-    <t>Gemeinde hat am Wahlsonntag tiefste Wahlbeteiligung des Kantons ausgewiesen</t>
-  </si>
-  <si>
-    <t>Add_Participation_highest_in_CH</t>
-  </si>
-  <si>
-    <t>Gemeinde mit höchster Wahlbeteiligung</t>
-  </si>
-  <si>
-    <t>Add_Participation_lowest_in_CH</t>
-  </si>
-  <si>
-    <t>Gemeinde mit tiefster Wahlbeteiligung</t>
-  </si>
-  <si>
-    <t>Add_Participation_Top10_in_CH</t>
-  </si>
-  <si>
-    <t>Die Gemeinde gehörte in der Schweiz zu den Gemeinden mit der höchsten Wahlbeteiligung mit #Gemeinde_participation Prozent.</t>
-  </si>
-  <si>
-    <t>Gemeinde gehört schweizweit zu den Top-10 der Wahlbeteiligung</t>
-  </si>
-  <si>
-    <t>Add_Participation_Bottom10_in_CH</t>
-  </si>
-  <si>
-    <t>Nur wenige Gemeinden wiesen am Wahlsonntag eine tiefere Wahlbeteiligung auf mit #Gemeinde_participation Prozent.</t>
-  </si>
-  <si>
-    <t>Gemeinde gehört schweizweit zu 10 mit der tiefsten Wahlbeteiligung</t>
-  </si>
-  <si>
-    <t>Add_NR_im_Wohnort_many</t>
-  </si>
-  <si>
-    <t>#Gemeinde_d zählt unter seinen Einwohnern insgesamt #Anzahl_NR_pro_Ort Nationalrätinnen und Nationalräte.</t>
-  </si>
-  <si>
-    <t>Wenn ein Wohnort mehr als 4 NR hat (betrifft Zürich, Bern etc.)</t>
-  </si>
-  <si>
-    <t>Add_NR_im_Wohnort_few</t>
-  </si>
-  <si>
-    <t>Unter den Einwohnern von #Gemeinde_d gibt es #Anzahl_NR_pro_Ort Nationalrätinnen und Nationalräte: #Names_NR_pro_Ort.</t>
-  </si>
-  <si>
-    <t>2-4 NR in Gemeinde.</t>
-  </si>
-  <si>
-    <t>Add_NR_im_Wohnort_one_f</t>
-  </si>
-  <si>
-    <t>In der Gemeinde #Gemeinde_d wohnt auch eine Nationalrätin: #Names_NR_pro_Ort.</t>
-  </si>
-  <si>
-    <t>1 NR in Gemeinde - weiblich</t>
-  </si>
-  <si>
-    <t>Add_NR_im_Wohnort_one_m</t>
-  </si>
-  <si>
-    <t>In der Gemeinde #Gemeinde_d wohnt auch ein Nationalrat: #Names_NR_pro_Ort.</t>
-  </si>
-  <si>
-    <t>1 NR in Gemeinde - männlich</t>
-  </si>
-  <si>
-    <t>Easteregg_Normalo</t>
-  </si>
-  <si>
-    <t>Durchschnittlichste Gemeinde in Bezug auf Parteistärken</t>
-  </si>
-  <si>
-    <t>done</t>
-  </si>
-  <si>
-    <t>followed by</t>
-  </si>
-  <si>
-    <t>variante für "uebrige"</t>
-  </si>
-  <si>
-    <t>Intro_unchanged_normal</t>
-  </si>
-  <si>
-    <t>In #Gemeinde_d ist die #Party_1_partei_bezeichnung_de die stimmenstärkste Partei geblieben. Sie holte #Party_1_partei_staerke Prozent aller Stimmen (#Party_1_plus_minus_d).</t>
-  </si>
-  <si>
-    <t>Stinknormal: Grösste Partei gleichgeblieben</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Keine Änderung an der Spitze in #Gemeinde_d: #Party_1_partei_bezeichnung_de holte wie vor vier Jahren die meisten Stimmen (#Party_1_partei_staerke Prozent, #Party_1_plus_minus_d).</t>
-  </si>
-  <si>
-    <t>Unverändert ist die #Party_1_partei_bezeichnung_de die stärkste Partei in #Gemeinde_d geblieben, mit #Party_1_partei_staerke Prozent (#Party_1_plus_minus_d).</t>
-  </si>
-  <si>
-    <t>Grösste Partei gleichgeblieben; mit deutlichem Abstand (10%-Punkte Abstand und mehr)</t>
-  </si>
-  <si>
-    <t>Mit deutlichem Abstand bleibt die #Party_1_partei_bezeichnung_de die grösste Partei in #Gemeinde_d. Ihre Parteistärke beträgt #Party_1_partei_staerke Prozent (#Party_1_plus_minus_d). Das ist ein Vorsprung von #Party_1_distance_to_next Prozentpunkten auf die nächstgrössere Partei. Die zweitplatzierte #Party_2_partei_bezeichnung_de erhielt #Party_2_partei_staerke Prozent (#Party_2_plus_minus_d).</t>
-  </si>
-  <si>
-    <t>Unangefochten bleibt in #Gemeinde_d die #Party_1_partei_bezeichnung_de die stärkste Partei. Sie vereinigte bei den Nationalratswahlen #Party_1_partei_staerke Prozent der Stimmen (#Party_1_plus_minus_d) auf sich, #Party_1_distance_to_next Prozentpunkte mehr als die zweitplatzierte #Party_2_partei_bezeichnung_de (#Party_2_partei_staerke Prozent, #Party_2_plus_minus_d).</t>
-  </si>
-  <si>
-    <t>Mit deutlichem Abstand bleibt die #Party_1_partei_bezeichnung_de die grösste Partei in #Gemeinde_d. Ihre Parteistärke beträgt #Party_1_partei_staerke Prozent (#Party_1_plus_minus_d). Der Vorsprung auf die nächstgrössere Partei, die #Party_2_partei_bezeichnung_de ist gross: #Party_1_distance_to_next Prozentpunkte. Die #Party_2_partei_bezeichnung_de holte #Party_2_partei_staerke Prozent (#Party_2_plus_minus_d).</t>
-  </si>
-  <si>
-    <t>Ganz knapp ist die #Party_1_partei_bezeichnung_de die grösste Partei geblieben in #Gemeinde_d. Sie holte #Party_1_partei_staerke Prozent der Stimmen und blieb damit #Party_1_distance_to_next Prozentpunkte vor der #Party_2_partei_bezeichnung_de. Diese musste sich mit #Party_2_partei_staerke Prozent mit Platz zwei begnügen. Die Veränderungen gegenüber 2015: #Party_1_partei_bezeichnung_de: #Party_1_plus_minus_d; #Party_2_partei_bezeichnung_de: #Party_2_plus_minus_d.</t>
-  </si>
-  <si>
-    <t>Grösste Partei gleichgeblieben; mit geringem Abstand (weniger als 2 Prozentpunkte)</t>
-  </si>
-  <si>
-    <t>Die #Party_1_partei_bezeichnung_de ist weiterhin die stärkste Partei in #Gemeinde_d. Mit #Party_1_partei_staerke Prozent Wähleranteil verwies sie die #Party_2_partei_bezeichnung_de allerdings nur mit #Party_1_distance_to_next Prozentpunkten Abstand auf den zweiten Platz. Diese holte #Party_2_partei_staerke Prozent. Die Veränderungen gegenüber 2015: #Party_1_partei_bezeichnung_de: #Party_1_plus_minus_d; #Party_2_partei_bezeichnung_de: #Party_2_plus_minus_d.</t>
-  </si>
-  <si>
-    <t>Intro_unchanged_1_2_3</t>
-  </si>
-  <si>
-    <t>Die Reihenfolge der Parteien in #Gemeinde_d hat sich im Vergleich zu den Wahlen 2015 nicht verändert: Die #Party_1_partei_bezeichnung_de blieb mit #Party_1_partei_staerke Prozent die stärkste Kraft, gefolgt von der #Party_2_partei_bezeichnung_de (#Party_2_partei_staerke Prozent, #Party_2_plus_minus_d) und der #Party_3_partei_bezeichnung_de (#Party_3_partei_staerke, #Party_3_plus_minus_d).</t>
-  </si>
-  <si>
-    <t>Die Parteien auf den Plätzen 1, 2 und 3 sind gleichgeblieben</t>
-  </si>
-  <si>
-    <t>Alles bleibt beim Alten in #Gemeinde_d: Die drei stärksten Parteien haben ihre Spitzenplätze in unveränderter Reihenfolge verteidigt: Die #Party_1_partei_bezeichnung_de geht mit #Party_1_partei_staerke Prozent (#Party_2_plus_minus_d) wiederum als stärkste Kraft aus den Nationalratswahlen. Zweitstärkste Partei ist die #Party_2_partei_bezeichnung_de (#Party_2_partei_staerke Prozent, #Party_2_plus_minus_d), drittstärkste die #Party_3_partei_bezeichnung_de (#Party_3_partei_staerke Prozent, #Party_3_plus_minus_d).</t>
-  </si>
-  <si>
-    <t>Keine Revolution in #Gemeinde_d: Unverändert belegten #Party_1_partei_bezeichnung_de, #Party_2_partei_bezeichnung_de und #Party_3_partei_bezeichnung_de die ersten drei Plätze. Sie holten #Party_1_partei_staerke (#Party_1_plus_minus_d), #Party_2_partei_staerke (#Party_2_plus_minus_d) respektive #Party_3_partei_staerke Prozent (#Party_3_plus_minus_d) der Stimmen.</t>
-  </si>
-  <si>
-    <t>Intro_unchanged_1_2_3_big_gap_1</t>
-  </si>
-  <si>
-    <t>Die Reihenfolge der Parteien in #Gemeinde_d hat sich im Vergleich zu den Wahlen 2015 nicht verändert: Die #Party_1_partei_bezeichnung_de blieb mit #Party_1_partei_staerke Prozent mit grossem Abstand die stärkste Kraft, gefolgt von der #Party_2_partei_bezeichnung_de (#Party_2_partei_staerke Prozent, #Party_2_plus_minus_d) und der #Party_3_partei_bezeichnung_de (#Party_3_partei_staerke, #Party_3_plus_minus_d).</t>
-  </si>
-  <si>
-    <t>"deutlicher Abstand" = 10 und mehr Prozentpunkte</t>
-  </si>
-  <si>
-    <t>Alles bleibt beim Alten in #Gemeinde_d: Die drei stärksten Parteien haben ihre Spitzenplätze in unveränderter Reihenfolge verteidigt: Die #Party_1_partei_bezeichnung_de geht mit #Party_1_partei_staerke Prozent (#Party_2_plus_minus_d) wiederum mit deutlichem Abstand als stärkste Kraft aus den Nationalratswahlen. Zweitstärkste Partei ist die #Party_2_partei_bezeichnung_de (#Party_2_partei_staerke Prozent, #Party_2_plus_minus_d), drittstärkste die #Party_3_partei_bezeichnung_de (#Party_3_partei_staerke Prozent, #Party_3_plus_minus_d).</t>
-  </si>
-  <si>
-    <t>Etwas Besonderes gab es in #Gemeinde_d: Die #Party_1_partei_bezeichnung_de und die #Party_2_partei_bezeichnung_de sind genau gleich stark. Mit je #Pary_1_AnzahlStimmen Stimmen kommen beide Parteien auf #Party_1_partei_staerke.</t>
-  </si>
-  <si>
-    <t>Spec_majority</t>
-  </si>
-  <si>
-    <t>Intro_unchanged_long_term</t>
-  </si>
-  <si>
-    <t>Unverändert wie seit #Party_1_since_year ist die #Party_1_partei_bezeichnung_de die stärkste Partei in #Gemeinde_d. Die Partei holte #Party_1_partei_staerke Prozent (#Party_1_plus_minus_d gegenüber 2015).</t>
-  </si>
-  <si>
-    <t>Eine Partei ist mindestens seit 12 Jahren an erster Stelle</t>
-  </si>
-  <si>
-    <t>Seit #Party_1_since_year ist die #Party_1_partei_bezeichnung_de die stärkste Partei in #Gemeinde_d, so auch bei diesen Nationalratswahlen. Die Partei holte #Party_1_partei_staerke Prozent der Stimmen (#Party_1_plus_minus_d im Vergleich zu 2015).</t>
-  </si>
-  <si>
-    <t>Stärkste Partei neu; Vergleich mit 2015</t>
-  </si>
-  <si>
-    <t>Was, wenn nicht angetreten...?</t>
-  </si>
-  <si>
-    <t>#Party_1_partei_bezeichnung_de hat sich in diesem Jahr von Rang #Party_1_rank_in_commune_prev auf den Spitzenplatz verbessert in #Gemeinde_d. Sie holte #Party_1_partei_staerke Prozent der Stimmen (#Party_1_plus_minus_d).</t>
-  </si>
-  <si>
-    <t>Neue stärkste Kraft in #Gemeinde_d: Die #Party_1_partei_bezeichnung_de hat mit #Party_1_partei_staerke Prozent (#Party_1_plus_minus_d) die meisten Stimmen geholt und verbessert sich damit von Rang #Party_1_rank_in_commune_prev auf den ersten Platz.</t>
-  </si>
-  <si>
-    <t>#Gemeinde_d hat neu die meisten Stimmen an die #Party_1_partei_bezeichnung_de vergeben. Die Partei holte #Party_1_partei_staerke Prozent der Stimmen (#Party_1_plus_minus_d). Das bedeutet, dass sie sich von Rang #Party_1_rank_in_commune_prev auf den ersten Platz verbessert hat.</t>
-  </si>
-  <si>
-    <t>Intro_changed_normal_newParty</t>
-  </si>
-  <si>
-    <t>In #Gemeinde_d ist neu die #Party_1 die stimmenstärkste Partei. Sie holte #Party_1_partei_staerke Prozent aller Stimmen. Vor vier Jahren war die Partei im Kanton #Kanton_d nicht angetreten.</t>
-  </si>
-  <si>
-    <t>Stärkste Partei neu; zuvor nicht angetreten (vorgängig überprüfen, wie häufig dieser Fall ist)</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>Intro_changed_big_jump_ranks</t>
-  </si>
-  <si>
-    <t>Neu ist in #Gemeinde_d die #Party_1_partei_bezeichnung_de die stärkste Partei. Sie machte #Party_1_ranking_diff Plätze gut und holte #Party_1_partei_staerke Prozent Wähleranteil.</t>
   </si>
   <si>
     <t>Intro_changed_2_to_1</t>
@@ -2525,7 +2528,7 @@
         <v>36</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>37</v>
+        <v>161</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -2535,10 +2538,10 @@
     </row>
     <row r="29">
       <c r="A29" s="5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -2548,10 +2551,10 @@
     </row>
     <row r="30">
       <c r="A30" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -2561,20 +2564,20 @@
     </row>
     <row r="31">
       <c r="A31" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
     </row>
     <row r="32">
       <c r="A32" s="5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
@@ -2584,10 +2587,10 @@
     </row>
     <row r="33">
       <c r="A33" s="5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
@@ -2597,24 +2600,24 @@
     </row>
     <row r="34">
       <c r="A34" s="23" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F34" s="5"/>
     </row>
     <row r="35">
       <c r="A35" s="5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -2624,12 +2627,12 @@
         <v>42</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F36" s="5"/>
     </row>
@@ -2638,12 +2641,12 @@
         <v>42</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F37" s="5"/>
     </row>
@@ -2652,87 +2655,87 @@
         <v>42</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F38" s="5"/>
     </row>
     <row r="39">
       <c r="A39" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F39" s="5"/>
     </row>
     <row r="40">
       <c r="A40" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F40" s="5"/>
     </row>
     <row r="41">
       <c r="A41" s="5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F41" s="5"/>
     </row>
     <row r="42">
       <c r="A42" s="5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F42" s="5"/>
     </row>
     <row r="43">
       <c r="A43" s="5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
     </row>
     <row r="44">
       <c r="A44" s="5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
@@ -2742,7 +2745,7 @@
         <v>47</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
@@ -2752,37 +2755,37 @@
         <v>47</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
     </row>
     <row r="47">
       <c r="A47" s="5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
     </row>
     <row r="48">
       <c r="A48" s="5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
     </row>
     <row r="49">
       <c r="A49" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
@@ -2792,12 +2795,12 @@
         <v>51</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F50" s="5"/>
     </row>
@@ -2806,12 +2809,12 @@
         <v>64</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
       <c r="E51" s="5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F51" s="5"/>
     </row>
@@ -2820,14 +2823,14 @@
         <v>59</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
     </row>
     <row r="53">
       <c r="A53" s="5" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>40</v>
@@ -2837,7 +2840,7 @@
     </row>
     <row r="54">
       <c r="A54" s="5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>57</v>
@@ -2847,7 +2850,7 @@
     </row>
     <row r="55">
       <c r="A55" s="5" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>70</v>
@@ -2857,91 +2860,91 @@
     </row>
     <row r="56">
       <c r="A56" s="11" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
       <c r="E56" s="5" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F56" s="5"/>
     </row>
     <row r="57">
       <c r="A57" s="11" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
       <c r="E57" s="5" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F57" s="5"/>
     </row>
     <row r="58">
       <c r="A58" s="11" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
       <c r="E58" s="5" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F58" s="5"/>
     </row>
     <row r="59">
       <c r="A59" s="11" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
       <c r="E59" s="5" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F59" s="5"/>
     </row>
     <row r="60">
       <c r="A60" s="11" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
       <c r="E60" s="5" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F60" s="5"/>
     </row>
     <row r="61">
       <c r="A61" s="11" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
       <c r="E61" s="5" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F61" s="5"/>
     </row>
     <row r="62">
       <c r="A62" s="23" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>106</v>
@@ -2955,7 +2958,7 @@
     </row>
     <row r="63">
       <c r="A63" s="23" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>109</v>
@@ -2969,7 +2972,7 @@
     </row>
     <row r="64">
       <c r="A64" s="23" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>112</v>
@@ -2983,7 +2986,7 @@
     </row>
     <row r="65">
       <c r="A65" s="23" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>115</v>
@@ -2997,67 +3000,67 @@
     </row>
     <row r="66">
       <c r="A66" s="23" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
       <c r="E66" s="5" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F66" s="5"/>
     </row>
     <row r="67">
       <c r="A67" s="23" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
     </row>
     <row r="68">
       <c r="A68" s="23" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
       <c r="E68" s="5" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F68" s="5"/>
     </row>
     <row r="69">
       <c r="A69" s="23" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
       <c r="E69" s="5" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F69" s="5"/>
     </row>
     <row r="70">
       <c r="A70" s="23" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
       <c r="E70" s="5" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F70" s="5"/>
     </row>

--- a/Texte/LENA Textbausteine Eidgenössische Wahlen 2023_ Gemeindeebene.xlsx
+++ b/Texte/LENA Textbausteine Eidgenössische Wahlen 2023_ Gemeindeebene.xlsx
@@ -143,7 +143,7 @@
     <t>Second_normal</t>
   </si>
   <si>
-    <t>Zweitstärkste Partei ist mit #Party_2_partei_staerke (#Party_2_plus_minus Prozentpunkte gegenüber 2019) die #Party_2_partei_bezeichnung_de.</t>
+    <t>Zweitstärkste Partei ist mit #Party_2_partei_staerke Prozent (#Party_2_plus_minus Prozentpunkte gegenüber 2019) die #Party_2_partei_bezeichnung_de.</t>
   </si>
   <si>
     <t>Zweitstärkste Partei Normal</t>

--- a/Texte/LENA Textbausteine Eidgenössische Wahlen 2023_ Gemeindeebene.xlsx
+++ b/Texte/LENA Textbausteine Eidgenössische Wahlen 2023_ Gemeindeebene.xlsx
@@ -158,7 +158,7 @@
     <t>Second_big_jump_percentage</t>
   </si>
   <si>
-    <t>Zweitstärkste Partei in #Gemeinde_d ist die #Party_2_partei_staerke, die sich gegenüber den Wahlen 2019 um #Party_2_plus_minus Prozentpunkte verbesserte.</t>
+    <t>Zweitstärkste Partei in #Gemeinde_d ist die #Party_2_partei_bezeichnung_de, die sich gegenüber den Wahlen 2019 um #Party_2_plus_minus Prozentpunkte verbesserte und neu einen Wähleranteil von #Party_2_partei_staerke Prozent aufweist.</t>
   </si>
   <si>
     <t>Zweitstärkste Partei mit grossem Zugewinn (&gt; 5 PP)</t>

--- a/Texte/LENA Textbausteine Eidgenössische Wahlen 2023_ Gemeindeebene.xlsx
+++ b/Texte/LENA Textbausteine Eidgenössische Wahlen 2023_ Gemeindeebene.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="236">
   <si>
     <t>Text_ID</t>
   </si>
@@ -254,7 +254,7 @@
     <t>Add_highest_in_canton</t>
   </si>
   <si>
-    <t>Besonders ist: Die #Party_highest_in_canton_de hat in der Gemeinde das höchste Resultat des Kantons erzielt.</t>
+    <t>Besonders ist: Die #Party_highest_in_canton_de hat in der Gemeinde das höchste Resultat des Kantons erzielt (ohne Kleinstgemeinden).</t>
   </si>
   <si>
     <t>Stärkstes Partei-Resultat im Kanton (when &gt;10 Gemeinden in Kanton; nur Top-6-Parteien)</t>
@@ -263,7 +263,7 @@
     <t>Add_lowest_in_canton</t>
   </si>
   <si>
-    <t>Speziell: In keiner anderen Gemeinde des Kantons war die #Party_lowest_in_canton_de schwächer.</t>
+    <t>Speziell: In keiner anderen Gemeinde des Kantons war die #Party_lowest_in_canton_de schwächer (ohne Kleinstgemeinden).</t>
   </si>
   <si>
     <t>Schwächstes  Partei-Resultat im Kanton (when &gt;10 Gemeinden in Kanton; nur Top-6-Parteien)</t>
@@ -272,19 +272,25 @@
     <t>Add_highest_in_CH</t>
   </si>
   <si>
+    <t>Besonders ist: Die #Party_highest_de hat in der Gemeinde das höchste Resultat der gesamten Schweiz erzielt (ohne Kleinstgemeinden).</t>
+  </si>
+  <si>
     <t>Stärkstes Partei-Resultat schweizweit</t>
   </si>
   <si>
     <t>Add_lowest_in_CH</t>
   </si>
   <si>
+    <t>Speziell: In keiner anderen Gemeinde der Schweiz war die #Party_lowest_de schwächer (ohne Kleinstgemeinden).</t>
+  </si>
+  <si>
     <t>Schwächstes Partei-Resultat schweizweit</t>
   </si>
   <si>
     <t>Add_Participation_highest_in_canton</t>
   </si>
   <si>
-    <t>Die Gemeinde hat am Wahlsonntag die höchste Beteiligung des ganzen Kantons ausgewiesen: #Gemeinde_participation Prozent.</t>
+    <t>Die Gemeinde hat am Wahlsonntag die tiefeste Wahlbeteiligung des ganzen Kantons gehabt: #Gemeinde_participation Prozent.</t>
   </si>
   <si>
     <t>Gemeinde hat am Wahlsonntag höchste Wahlbeteiligung des Kantons ausgewiesen</t>
@@ -293,19 +299,22 @@
     <t>Add_Participation_lowest_in_canton</t>
   </si>
   <si>
-    <t>Die Gemeinde hat am Wahlsonntag die tiefeste Wahlbeteiligung des ganzen Kantons gehabt: #Gemeinde_participation Prozent.</t>
-  </si>
-  <si>
     <t>Gemeinde hat am Wahlsonntag tiefste Wahlbeteiligung des Kantons ausgewiesen</t>
   </si>
   <si>
     <t>Add_Participation_highest_in_CH</t>
   </si>
   <si>
+    <t>Die Gemeinde hat am Wahlsonntag die höchste Beteiligung der gesamten Schweiz ausgewiesen: #Gemeinde_participation Prozent.</t>
+  </si>
+  <si>
     <t>Gemeinde mit höchster Wahlbeteiligung</t>
   </si>
   <si>
     <t>Add_Participation_lowest_in_CH</t>
+  </si>
+  <si>
+    <t>Die Gemeinde hat am Wahlsonntag die tiefeste Wahlbeteiligung der ganzen Schweiz gehabt: #Gemeinde_participation Prozent.</t>
   </si>
   <si>
     <t>Gemeinde mit tiefster Wahlbeteiligung</t>
@@ -812,7 +821,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -864,9 +873,6 @@
     </xf>
     <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="8" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
@@ -1887,159 +1893,164 @@
       <c r="A66" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B66" s="8"/>
+      <c r="B66" s="4" t="s">
+        <v>86</v>
+      </c>
       <c r="C66" s="16"/>
       <c r="D66" s="16"/>
       <c r="E66" s="12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="B67" s="8"/>
+        <v>88</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>89</v>
+      </c>
       <c r="C67" s="16"/>
       <c r="D67" s="16"/>
       <c r="E67" s="12" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="17" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C68" s="16"/>
       <c r="D68" s="16"/>
       <c r="E68" s="12" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C69" s="16"/>
       <c r="D69" s="16"/>
       <c r="E69" s="12" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="B70" s="18"/>
+        <v>96</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>97</v>
+      </c>
       <c r="C70" s="16"/>
       <c r="D70" s="16"/>
       <c r="E70" s="12" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="B71" s="18"/>
+        <v>99</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>100</v>
+      </c>
       <c r="C71" s="16"/>
       <c r="D71" s="16"/>
       <c r="E71" s="12" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="17" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C72" s="16"/>
       <c r="D72" s="16"/>
       <c r="E72" s="9" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="B73" s="19" t="s">
-        <v>103</v>
+        <v>105</v>
+      </c>
+      <c r="B73" s="18" t="s">
+        <v>106</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
       <c r="E73" s="9" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="20" t="s">
-        <v>105</v>
+      <c r="A74" s="19" t="s">
+        <v>108</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
       <c r="E74" s="5" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="20" t="s">
-        <v>108</v>
+      <c r="A75" s="19" t="s">
+        <v>111</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
       <c r="E75" s="5" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="20" t="s">
-        <v>111</v>
+      <c r="A76" s="19" t="s">
+        <v>114</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
       <c r="E76" s="5" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="20" t="s">
-        <v>114</v>
+      <c r="A77" s="19" t="s">
+        <v>117</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
       <c r="E77" s="5" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="21" t="s">
-        <v>117</v>
+      <c r="A78" s="20" t="s">
+        <v>120</v>
       </c>
       <c r="B78" s="6"/>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
       <c r="E78" s="5" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="79">
@@ -2154,57 +2165,57 @@
       </c>
       <c r="F1" s="5"/>
       <c r="G1" s="5" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="5" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F2" s="5"/>
-      <c r="G2" s="22" t="s">
-        <v>125</v>
+      <c r="G2" s="21" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="5" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F3" s="5"/>
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="5" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F4" s="5"/>
     </row>
@@ -2218,11 +2229,11 @@
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="21" t="s">
         <v>128</v>
-      </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="22" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="6">
@@ -2230,16 +2241,16 @@
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="21" t="s">
         <v>128</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="22" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="7">
@@ -2247,12 +2258,12 @@
         <v>14</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="5" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F7" s="5"/>
     </row>
@@ -2261,7 +2272,7 @@
         <v>14</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -2271,16 +2282,16 @@
         <v>19</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="5" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F9" s="5"/>
-      <c r="G9" s="22" t="s">
-        <v>125</v>
+      <c r="G9" s="21" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="10">
@@ -2288,87 +2299,87 @@
         <v>19</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="5" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F10" s="5"/>
-      <c r="G10" s="22" t="s">
-        <v>125</v>
+      <c r="G10" s="21" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="5" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F11" s="5"/>
-      <c r="G11" s="22" t="s">
-        <v>125</v>
+      <c r="G11" s="21" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="5" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="5" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F12" s="5"/>
-      <c r="G12" s="22" t="s">
-        <v>125</v>
+      <c r="G12" s="21" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
     </row>
     <row r="14">
       <c r="A14" s="5" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="5" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F14" s="5"/>
     </row>
     <row r="15">
       <c r="A15" s="5" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="5" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F15" s="5"/>
     </row>
@@ -2377,27 +2388,27 @@
         <v>23</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
     </row>
     <row r="17">
       <c r="A17" s="5" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
-      <c r="G17" s="22" t="s">
-        <v>125</v>
+      <c r="G17" s="21" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="5" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>28</v>
@@ -2406,30 +2417,30 @@
       <c r="D18" s="4"/>
     </row>
     <row r="19">
-      <c r="A19" s="23" t="s">
-        <v>146</v>
+      <c r="A19" s="22" t="s">
+        <v>149</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="5" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F19" s="5"/>
     </row>
     <row r="20">
-      <c r="A20" s="23" t="s">
-        <v>146</v>
+      <c r="A20" s="22" t="s">
+        <v>149</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="5" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F20" s="5"/>
     </row>
@@ -2443,14 +2454,14 @@
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="5" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="F21" s="5"/>
-      <c r="G21" s="22" t="s">
-        <v>125</v>
+      <c r="G21" s="21" t="s">
+        <v>128</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="22">
@@ -2468,7 +2479,7 @@
         <v>29</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -2478,7 +2489,7 @@
         <v>29</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -2488,39 +2499,39 @@
         <v>29</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
     </row>
     <row r="26">
       <c r="A26" s="5" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="5" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F26" s="5"/>
-      <c r="G26" s="22" t="s">
-        <v>158</v>
+      <c r="G26" s="21" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="5" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
-      <c r="G27" s="22" t="s">
-        <v>125</v>
+      <c r="G27" s="21" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="28" ht="27.0" customHeight="1">
@@ -2528,96 +2539,96 @@
         <v>36</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
-      <c r="G28" s="22" t="s">
-        <v>125</v>
+      <c r="G28" s="21" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="5" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
-      <c r="G29" s="22" t="s">
-        <v>125</v>
+      <c r="G29" s="21" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="5" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
-      <c r="G30" s="22" t="s">
-        <v>125</v>
+      <c r="G30" s="21" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="5" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
     </row>
     <row r="32">
       <c r="A32" s="5" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
-      <c r="G32" s="22" t="s">
-        <v>125</v>
+      <c r="G32" s="21" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="5" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
-      <c r="G33" s="22" t="s">
-        <v>125</v>
+      <c r="G33" s="21" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="23" t="s">
-        <v>171</v>
+      <c r="A34" s="22" t="s">
+        <v>174</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="5" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F34" s="5"/>
     </row>
     <row r="35">
       <c r="A35" s="5" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -2627,12 +2638,12 @@
         <v>42</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="5" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="F36" s="5"/>
     </row>
@@ -2641,12 +2652,12 @@
         <v>42</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="5" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="F37" s="5"/>
     </row>
@@ -2655,87 +2666,87 @@
         <v>42</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="5" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="F38" s="5"/>
     </row>
     <row r="39">
       <c r="A39" s="5" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="5" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="F39" s="5"/>
     </row>
     <row r="40">
       <c r="A40" s="5" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="5" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="F40" s="5"/>
     </row>
     <row r="41">
       <c r="A41" s="5" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="5" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F41" s="5"/>
     </row>
     <row r="42">
       <c r="A42" s="5" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="5" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F42" s="5"/>
     </row>
     <row r="43">
       <c r="A43" s="5" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
     </row>
     <row r="44">
       <c r="A44" s="5" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
@@ -2745,7 +2756,7 @@
         <v>47</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
@@ -2755,37 +2766,37 @@
         <v>47</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
     </row>
     <row r="47">
       <c r="A47" s="5" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
     </row>
     <row r="48">
       <c r="A48" s="5" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
     </row>
     <row r="49">
       <c r="A49" s="5" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
@@ -2795,12 +2806,12 @@
         <v>51</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="5" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="F50" s="5"/>
     </row>
@@ -2809,12 +2820,12 @@
         <v>64</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
       <c r="E51" s="5" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="F51" s="5"/>
     </row>
@@ -2823,14 +2834,14 @@
         <v>59</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
     </row>
     <row r="53">
       <c r="A53" s="5" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>40</v>
@@ -2840,7 +2851,7 @@
     </row>
     <row r="54">
       <c r="A54" s="5" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>57</v>
@@ -2850,7 +2861,7 @@
     </row>
     <row r="55">
       <c r="A55" s="5" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>70</v>
@@ -2860,207 +2871,207 @@
     </row>
     <row r="56">
       <c r="A56" s="11" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
       <c r="E56" s="5" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F56" s="5"/>
     </row>
     <row r="57">
       <c r="A57" s="11" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
       <c r="E57" s="5" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="F57" s="5"/>
     </row>
     <row r="58">
       <c r="A58" s="11" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
       <c r="E58" s="5" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="F58" s="5"/>
     </row>
     <row r="59">
       <c r="A59" s="11" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
       <c r="E59" s="5" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="F59" s="5"/>
     </row>
     <row r="60">
       <c r="A60" s="11" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
       <c r="E60" s="5" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="F60" s="5"/>
     </row>
     <row r="61">
       <c r="A61" s="11" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
       <c r="E61" s="5" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="F61" s="5"/>
     </row>
     <row r="62">
-      <c r="A62" s="23" t="s">
-        <v>220</v>
+      <c r="A62" s="22" t="s">
+        <v>223</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
       <c r="E62" s="5" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F62" s="5"/>
     </row>
     <row r="63">
-      <c r="A63" s="23" t="s">
-        <v>221</v>
+      <c r="A63" s="22" t="s">
+        <v>224</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
       <c r="E63" s="5" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="F63" s="5"/>
     </row>
     <row r="64">
-      <c r="A64" s="23" t="s">
-        <v>222</v>
+      <c r="A64" s="22" t="s">
+        <v>225</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
       <c r="E64" s="5" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F64" s="5"/>
     </row>
     <row r="65">
-      <c r="A65" s="23" t="s">
-        <v>223</v>
+      <c r="A65" s="22" t="s">
+        <v>226</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
       <c r="E65" s="5" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F65" s="5"/>
     </row>
     <row r="66">
-      <c r="A66" s="23" t="s">
-        <v>224</v>
+      <c r="A66" s="22" t="s">
+        <v>227</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
       <c r="E66" s="5" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="F66" s="5"/>
     </row>
     <row r="67">
-      <c r="A67" s="23" t="s">
-        <v>224</v>
+      <c r="A67" s="22" t="s">
+        <v>227</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
     </row>
     <row r="68">
-      <c r="A68" s="23" t="s">
-        <v>224</v>
+      <c r="A68" s="22" t="s">
+        <v>227</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
       <c r="E68" s="5" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="F68" s="5"/>
     </row>
     <row r="69">
-      <c r="A69" s="23" t="s">
-        <v>224</v>
+      <c r="A69" s="22" t="s">
+        <v>227</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
       <c r="E69" s="5" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="F69" s="5"/>
     </row>
     <row r="70">
-      <c r="A70" s="23" t="s">
-        <v>224</v>
+      <c r="A70" s="22" t="s">
+        <v>227</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
       <c r="E70" s="5" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="F70" s="5"/>
     </row>

--- a/Texte/LENA Textbausteine Eidgenössische Wahlen 2023_ Gemeindeebene.xlsx
+++ b/Texte/LENA Textbausteine Eidgenössische Wahlen 2023_ Gemeindeebene.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="237">
   <si>
     <t>Text_ID</t>
   </si>
@@ -242,7 +242,7 @@
     <t>Alles bleibt beim Alten in #Gemeinde_d: Die drei stärksten Parteien haben ihre Spitzenplätze in unveränderter Reihenfolge verteidigt: Die #Party_1_partei_bezeichnung_de geht mit #Party_1_partei_staerke Prozent (#Party_1_plus_minus Prozentpunkte) wiederum als stärkste Kraft aus den Nationalratswahlen. Zweitstärkste Partei ist die #Party_2_partei_bezeichnung_de (#Party_2_partei_staerke Prozent, #Party_2_plus_minus Prozentpunkte), drittstärkste die #Party_3_partei_bezeichnung_de (#Party_3_partei_staerke Prozent, #Party_3_plus_minus Prozentpunkte).</t>
   </si>
   <si>
-    <t>Keine Revolution in #Gemeinde_d: Unverändert belegten #Party_1_partei_bezeichnung_de, #Party_2_partei_bezeichnung_de und #Party_3_partei_bezeichnung_de die ersten drei Plätze. Sie holten #Party_1_partei_staerke Prozent (#Party_1_plus_minus Prozentpunkte), #Party_2_partei_staerke Prozent (#Party_2_plus_minus Prozentpunkte) respektive #Party_3_partei_staerke Prozent (#Party_3_plus_minus Prozentpunkte) der Stimmen.</t>
+    <t>Keine Revolution in #Gemeinde_d: Unverändert belegten die #Party_1_partei_bezeichnung_de, die #Party_2_partei_bezeichnung_de und die #Party_3_partei_bezeichnung_de die ersten drei Plätze. Sie holten #Party_1_partei_staerke Prozent (#Party_1_plus_minus Prozentpunkte), #Party_2_partei_staerke Prozent (#Party_2_plus_minus Prozentpunkte) respektive #Party_3_partei_staerke Prozent (#Party_3_plus_minus Prozentpunkte) der Stimmen.</t>
   </si>
   <si>
     <t>Spec_small_community</t>
@@ -257,7 +257,7 @@
     <t>Besonders ist: Die #Party_highest_in_canton_de hat in der Gemeinde das höchste Resultat des Kantons erzielt (ohne Kleinstgemeinden).</t>
   </si>
   <si>
-    <t>Stärkstes Partei-Resultat im Kanton (when &gt;10 Gemeinden in Kanton; nur Top-6-Parteien)</t>
+    <t>Stärkstes Partei-Resultat im Kanton (when &gt;10 Gemeinden in Kanton; nur Top-6-Parteien, ohne Kleinstgemeinden)</t>
   </si>
   <si>
     <t>Add_lowest_in_canton</t>
@@ -266,7 +266,7 @@
     <t>Speziell: In keiner anderen Gemeinde des Kantons war die #Party_lowest_in_canton_de schwächer (ohne Kleinstgemeinden).</t>
   </si>
   <si>
-    <t>Schwächstes  Partei-Resultat im Kanton (when &gt;10 Gemeinden in Kanton; nur Top-6-Parteien)</t>
+    <t>Schwächstes Partei-Resultat im Kanton (when &gt;10 Gemeinden in Kanton; nur Top-6-Parteien, ohne Kleinstgemeinden)</t>
   </si>
   <si>
     <t>Add_highest_in_CH</t>
@@ -275,7 +275,7 @@
     <t>Besonders ist: Die #Party_highest_de hat in der Gemeinde das höchste Resultat der gesamten Schweiz erzielt (ohne Kleinstgemeinden).</t>
   </si>
   <si>
-    <t>Stärkstes Partei-Resultat schweizweit</t>
+    <t>Stärkstes Partei-Resultat schweizweit (nur Top-6-Parteien, ohne Kleinstgemeinden)</t>
   </si>
   <si>
     <t>Add_lowest_in_CH</t>
@@ -284,19 +284,22 @@
     <t>Speziell: In keiner anderen Gemeinde der Schweiz war die #Party_lowest_de schwächer (ohne Kleinstgemeinden).</t>
   </si>
   <si>
-    <t>Schwächstes Partei-Resultat schweizweit</t>
+    <t>Schwächstes Partei-Resultat schweizweit (nur Top-6-Parteien, ohne Kleinstgemeinden)</t>
   </si>
   <si>
     <t>Add_Participation_highest_in_canton</t>
   </si>
   <si>
+    <t>Die Gemeinde hat am Wahlsonntag die höchste Wahlbeteiligung des ganzen Kantons gehabt: #Gemeinde_participation Prozent.</t>
+  </si>
+  <si>
+    <t>Gemeinde hat am Wahlsonntag höchste Wahlbeteiligung des Kantons ausgewiesen</t>
+  </si>
+  <si>
+    <t>Add_Participation_lowest_in_canton</t>
+  </si>
+  <si>
     <t>Die Gemeinde hat am Wahlsonntag die tiefeste Wahlbeteiligung des ganzen Kantons gehabt: #Gemeinde_participation Prozent.</t>
-  </si>
-  <si>
-    <t>Gemeinde hat am Wahlsonntag höchste Wahlbeteiligung des Kantons ausgewiesen</t>
-  </si>
-  <si>
-    <t>Add_Participation_lowest_in_canton</t>
   </si>
   <si>
     <t>Gemeinde hat am Wahlsonntag tiefste Wahlbeteiligung des Kantons ausgewiesen</t>
@@ -1932,125 +1935,128 @@
       <c r="A69" s="17" t="s">
         <v>94</v>
       </c>
+      <c r="B69" s="4" t="s">
+        <v>95</v>
+      </c>
       <c r="C69" s="16"/>
       <c r="D69" s="16"/>
       <c r="E69" s="12" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="17" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C70" s="16"/>
       <c r="D70" s="16"/>
       <c r="E70" s="12" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="17" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C71" s="16"/>
       <c r="D71" s="16"/>
       <c r="E71" s="12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="17" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C72" s="16"/>
       <c r="D72" s="16"/>
       <c r="E72" s="9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="17" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B73" s="18" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
       <c r="E73" s="9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="19" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
       <c r="E74" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="19" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
       <c r="E75" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="19" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
       <c r="E76" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
       <c r="E77" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="20" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B78" s="6"/>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
       <c r="E78" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="79">
@@ -2165,57 +2171,57 @@
       </c>
       <c r="F1" s="5"/>
       <c r="G1" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="21" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F3" s="5"/>
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F4" s="5"/>
     </row>
@@ -2229,11 +2235,11 @@
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="21" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6">
@@ -2241,16 +2247,16 @@
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="21" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7">
@@ -2258,12 +2264,12 @@
         <v>14</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F7" s="5"/>
     </row>
@@ -2272,7 +2278,7 @@
         <v>14</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -2282,16 +2288,16 @@
         <v>19</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="21" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10">
@@ -2299,87 +2305,87 @@
         <v>19</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="21" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="21" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="21" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
     </row>
     <row r="14">
       <c r="A14" s="5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F14" s="5"/>
     </row>
     <row r="15">
       <c r="A15" s="5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F15" s="5"/>
     </row>
@@ -2388,14 +2394,14 @@
         <v>23</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
     </row>
     <row r="17">
       <c r="A17" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>26</v>
@@ -2403,12 +2409,12 @@
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="G17" s="21" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>28</v>
@@ -2418,29 +2424,29 @@
     </row>
     <row r="19">
       <c r="A19" s="22" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F19" s="5"/>
     </row>
     <row r="20">
       <c r="A20" s="22" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F20" s="5"/>
     </row>
@@ -2454,14 +2460,14 @@
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F21" s="5"/>
       <c r="G21" s="21" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="22">
@@ -2479,7 +2485,7 @@
         <v>29</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -2489,7 +2495,7 @@
         <v>29</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -2499,39 +2505,39 @@
         <v>29</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
     </row>
     <row r="26">
       <c r="A26" s="5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F26" s="5"/>
       <c r="G26" s="21" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="G27" s="21" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="28" ht="27.0" customHeight="1">
@@ -2539,96 +2545,96 @@
         <v>36</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="G28" s="21" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="G29" s="21" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="G30" s="21" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
     </row>
     <row r="32">
       <c r="A32" s="5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="G32" s="21" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="G33" s="21" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="22" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F34" s="5"/>
     </row>
     <row r="35">
       <c r="A35" s="5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -2638,12 +2644,12 @@
         <v>42</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F36" s="5"/>
     </row>
@@ -2652,12 +2658,12 @@
         <v>42</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F37" s="5"/>
     </row>
@@ -2666,87 +2672,87 @@
         <v>42</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F38" s="5"/>
     </row>
     <row r="39">
       <c r="A39" s="5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F39" s="5"/>
     </row>
     <row r="40">
       <c r="A40" s="5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F40" s="5"/>
     </row>
     <row r="41">
       <c r="A41" s="5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F41" s="5"/>
     </row>
     <row r="42">
       <c r="A42" s="5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F42" s="5"/>
     </row>
     <row r="43">
       <c r="A43" s="5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
     </row>
     <row r="44">
       <c r="A44" s="5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
@@ -2756,7 +2762,7 @@
         <v>47</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
@@ -2766,37 +2772,37 @@
         <v>47</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
     </row>
     <row r="47">
       <c r="A47" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
     </row>
     <row r="48">
       <c r="A48" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
     </row>
     <row r="49">
       <c r="A49" s="5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
@@ -2806,12 +2812,12 @@
         <v>51</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F50" s="5"/>
     </row>
@@ -2820,12 +2826,12 @@
         <v>64</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
       <c r="E51" s="5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F51" s="5"/>
     </row>
@@ -2834,14 +2840,14 @@
         <v>59</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
     </row>
     <row r="53">
       <c r="A53" s="5" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>40</v>
@@ -2851,7 +2857,7 @@
     </row>
     <row r="54">
       <c r="A54" s="5" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>57</v>
@@ -2861,7 +2867,7 @@
     </row>
     <row r="55">
       <c r="A55" s="5" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>70</v>
@@ -2871,207 +2877,207 @@
     </row>
     <row r="56">
       <c r="A56" s="11" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
       <c r="E56" s="5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F56" s="5"/>
     </row>
     <row r="57">
       <c r="A57" s="11" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
       <c r="E57" s="5" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F57" s="5"/>
     </row>
     <row r="58">
       <c r="A58" s="11" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
       <c r="E58" s="5" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F58" s="5"/>
     </row>
     <row r="59">
       <c r="A59" s="11" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
       <c r="E59" s="5" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F59" s="5"/>
     </row>
     <row r="60">
       <c r="A60" s="11" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
       <c r="E60" s="5" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F60" s="5"/>
     </row>
     <row r="61">
       <c r="A61" s="11" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
       <c r="E61" s="5" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F61" s="5"/>
     </row>
     <row r="62">
       <c r="A62" s="22" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
       <c r="E62" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F62" s="5"/>
     </row>
     <row r="63">
       <c r="A63" s="22" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
       <c r="E63" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F63" s="5"/>
     </row>
     <row r="64">
       <c r="A64" s="22" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
       <c r="E64" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F64" s="5"/>
     </row>
     <row r="65">
       <c r="A65" s="22" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
       <c r="E65" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F65" s="5"/>
     </row>
     <row r="66">
       <c r="A66" s="22" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
       <c r="E66" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F66" s="5"/>
     </row>
     <row r="67">
       <c r="A67" s="22" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
     </row>
     <row r="68">
       <c r="A68" s="22" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
       <c r="E68" s="5" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F68" s="5"/>
     </row>
     <row r="69">
       <c r="A69" s="22" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
       <c r="E69" s="5" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F69" s="5"/>
     </row>
     <row r="70">
       <c r="A70" s="22" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
       <c r="E70" s="5" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F70" s="5"/>
     </row>

--- a/Texte/LENA Textbausteine Eidgenössische Wahlen 2023_ Gemeindeebene.xlsx
+++ b/Texte/LENA Textbausteine Eidgenössische Wahlen 2023_ Gemeindeebene.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="244">
   <si>
     <t>Text_ID</t>
   </si>
@@ -32,16 +32,16 @@
     <t>Intro_normal</t>
   </si>
   <si>
-    <t>In #Gemeinde_d ist die #Party_1_partei_bezeichnung_de die stimmenstärkste Partei geblieben. Sie holte #Party_1_partei_staerke Prozent aller Stimmen (#Party_1_plus_minus Prozentpunkte).</t>
+    <t>In #Gemeinde_d ist die #Party_1_partei_bezeichnung_d die stimmenstärkste Partei geblieben. Sie holte #Party_1_partei_staerke Prozent aller Stimmen (#Party_1_plus_minus Prozentpunkte).</t>
   </si>
   <si>
     <t>Stärkste Partei normal (unverändert)</t>
   </si>
   <si>
-    <t>Keine Änderung an der Spitze in #Gemeinde_d: #Party_1_partei_bezeichnung_de holte wie vor vier Jahren die meisten Stimmen (#Party_1_partei_staerke Prozent, #Party_1_plus_minus Prozentpunkte).</t>
-  </si>
-  <si>
-    <t>Unverändert ist die #Party_1_partei_bezeichnung_de die stärkste Partei in #Gemeinde_d geblieben, mit #Party_1_partei_staerke Prozent (#Party_1_plus_minus Prozentpunkte).</t>
+    <t>Keine Änderung an der Spitze in #Gemeinde_d: #Party_1_partei_bezeichnung_d holte wie vor vier Jahren die meisten Stimmen (#Party_1_partei_staerke Prozent, #Party_1_plus_minus Prozentpunkte).</t>
+  </si>
+  <si>
+    <t>Unverändert ist die #Party_1_partei_bezeichnung_d die stärkste Partei in #Gemeinde_d geblieben, mit #Party_1_partei_staerke Prozent (#Party_1_plus_minus Prozentpunkte).</t>
   </si>
   <si>
     <t>Intro_unchanged_big_jump_percentage</t>
@@ -59,427 +59,448 @@
     <t>Intro_unchanged_big_gap</t>
   </si>
   <si>
+    <t>In #Gemeinde_d ist die #Party_1_partei_bezeichnung_d weiterhin mit deutlichem Abstand die grösste Partei. #Party_1_partei_staerke Prozent der Stimmen entfielen auf sie, #Party_1_distance_to_next Prozentpunkte mehr als die nächstgrössere Partei.</t>
+  </si>
+  <si>
+    <t>Grösste Partei gleichgeblieben; mit deutlichem Abstand (20%-Punkte Abstand und mehr)</t>
+  </si>
+  <si>
+    <t>Unangefochten bleibt in #Gemeinde_d die #Party_1_partei_bezeichnung_d die stärkste Partei. Sie vereinigte bei den Nationalratswahlen #Party_1_partei_staerke Prozent der Stimmen (#Party_1_plus_minus Prozentpunkte) auf sich, #Party_1_distance_to_next Prozentpunkte mehr als die zweitplatzierte #Party_2_partei_bezeichnung_d (#Party_2_partei_staerke Prozent, #Party_2_plus_minus Prozentpunkte).</t>
+  </si>
+  <si>
+    <t>Mit deutlichem Abstand bleibt die #Party_1_partei_bezeichnung_d die grösste Partei in #Gemeinde_d. Ihre Parteistärke beträgt #Party_1_partei_staerke Prozent (#Party_1_plus_minus Prozentpunkte). Der Vorsprung auf die nächstgrössere Partei, die #Party_2_partei_bezeichnung_d ist gross: #Party_1_distance_to_next Prozentpunkte. Die #Party_2_partei_bezeichnung_d holte #Party_2_partei_staerke Prozent (#Party_2_plus_minus Prozentpunkte).</t>
+  </si>
+  <si>
+    <t>Intro_unchanged_small_gap</t>
+  </si>
+  <si>
+    <t>Ganz knapp ist die #Party_1_partei_bezeichnung_d die grösste Partei geblieben in #Gemeinde_d. Sie holte #Party_1_partei_staerke Prozent der Stimmen und blieb damit #Party_1_distance_to_next Prozentpunkte vor der #Party_2_partei_bezeichnung_d. Diese musste sich mit #Party_2_partei_staerke Prozent mit Platz zwei begnügen. Die Veränderungen gegenüber 2019: #Party_1_partei_bezeichnung_d: #Party_1_plus_minus Prozentpunkte; #Party_2_partei_bezeichnung_d: #Party_2_plus_minus Prozentpunkte.</t>
+  </si>
+  <si>
+    <t>Grösste Partei gleichgeblieben; mit geringem Abstand (weniger als 3 Prozentpunkte)</t>
+  </si>
+  <si>
+    <t>Die #Party_1_partei_bezeichnung_d ist weiterhin die stärkste Partei in #Gemeinde_d. Mit #Party_1_partei_staerke Prozent Wähleranteil verwies sie die #Party_2_partei_bezeichnung_d allerdings nur mit #Party_1_distance_to_next Prozentpunkten Abstand auf den zweiten Platz. Diese holte #Party_2_partei_staerke Prozent. Die Veränderungen gegenüber 2019: #Party_1_partei_bezeichnung_d: #Party_1_plus_minus Prozentpunkte; #Party_2_partei_bezeichnung_d: #Party_2_plus_minus Prozentpunkte.</t>
+  </si>
+  <si>
+    <t>Intro_tie_strongest</t>
+  </si>
+  <si>
+    <t>Etwas Besonderes gab es in #Gemeinde_d: Die #Party_1_partei_bezeichnung_d und die #Party_2_partei_bezeichnung_d sind genau gleich stark. Mit je #Party_1_partei_staerke Prozent kommen beide Parteien auf den gleichen Wähleranteil.</t>
+  </si>
+  <si>
+    <t>Intro_majority</t>
+  </si>
+  <si>
+    <t>#Gemeinde_d ist unbestrittenes Territorium der #Party_1_partei_bezeichnung_d. Die Partei holte eine absolute Mehrheit der Stimmen.</t>
+  </si>
+  <si>
+    <t>Absolute Mehrheit für stärkste Partei</t>
+  </si>
+  <si>
+    <t>Kein Weg führt in #Gemeinde_d an der #Party_1_partei_bezeichnung_d vorbei. Sie holte mehr als die Hälfte der Stimmen und damit eine absolute Mehrheit.</t>
+  </si>
+  <si>
+    <t>Intro_changed_normal</t>
+  </si>
+  <si>
+    <t>In #Gemeinde_d ist neu die #Party_1_partei_bezeichnung_d die stimmenstärkste Partei. Sie holte #Party_1_partei_staerke Prozent aller Stimmen. Vor vier Jahren war die Partei noch auf Rang #Party_1_rank_in_commune_prev.</t>
+  </si>
+  <si>
+    <t>Neue stärkste Partei</t>
+  </si>
+  <si>
+    <t>Neu ist in #Gemeinde_d die #Party_1_partei_bezeichnung_d stärkste Kraft (Rang vor vier Jahren: #Party_1_rank_in_commune_prev). Bei den diesjährigen Nationalratswahlen vereinigte sie #Party_1_partei_staerke Prozent der Stimmen auf sich.</t>
+  </si>
+  <si>
+    <t>#Party_1_partei_bezeichnung_d hat sich in diesem Jahr von Rang #Party_1_rank_in_commune_prev auf den Spitzenplatz verbessert in #Gemeinde_d. Sie holte #Party_1_partei_staerke Prozent der Stimmen (#Party_1_plus_minus  Prozentpunkte).</t>
+  </si>
+  <si>
+    <t>Neue stärkste Kraft in #Gemeinde_d: Die #Party_1_partei_bezeichnung_d hat mit #Party_1_partei_staerke Prozent (#Party_1_plus_minus Prozentpunkte) die meisten Stimmen geholt und verbessert sich damit von Rang #Party_1_rank_in_commune_prev auf den ersten Platz.</t>
+  </si>
+  <si>
+    <t>#Gemeinde_d hat neu die meisten Stimmen an die #Party_1_partei_bezeichnung_d vergeben. Die Partei holte #Party_1_partei_staerke Prozent der Stimmen (#Party_1_plus_minus Prozentpunkte). Das bedeutet, dass sie sich von Rang #Party_1_rank_in_commune_prev auf den ersten Platz verbessert hat.</t>
+  </si>
+  <si>
+    <t>Intro_changed_big_jump_percentage</t>
+  </si>
+  <si>
+    <t>Mit einem grossen Sprung von #Party_1_plus_minus Prozentpunkten ist die #Party_1_partei_bezeichnung_d die stärkste Partei geworden in #Gemeinde_d. Die Partei erhielt #Party_1_partei_staerke Prozent der Wählerstimmen.</t>
+  </si>
+  <si>
+    <t>Neue stärkste Partei mit grossem Zugewinn (&gt; 5 PP)</t>
+  </si>
+  <si>
+    <t>Intro_Uebrige</t>
+  </si>
+  <si>
+    <t>Den ersten Rang haben in #Gemeinde_d Listen oder Parteien aus der Kategorie "Übrige" geholt. Diese vereinigten #Party_1_partei_staerke Prozent der Stimmen auf sich.</t>
+  </si>
+  <si>
+    <t>Erste Partei ist "Weitere"</t>
+  </si>
+  <si>
+    <t>Second_normal</t>
+  </si>
+  <si>
+    <t>Zweitstärkste Partei ist mit #Party_2_partei_staerke Prozent (#Party_2_plus_minus Prozentpunkte gegenüber 2019) die #Party_2_partei_bezeichnung_d.</t>
+  </si>
+  <si>
+    <t>Zweitstärkste Partei Normal</t>
+  </si>
+  <si>
+    <t>Die #Party_2_partei_bezeichnung_d ist die zweitstärkste Kraft in der Gemeinde. Sie kommt auf #Party_2_partei_staerke Prozent (#Party_2_plus_minus Prozentpunkte).</t>
+  </si>
+  <si>
+    <t>Mit einem Wählerstimmenanteil von #Party_2_partei_staerke Prozent (#Party_2_plus_minus Prozentpunkte) ist die #Party_2_partei_bezeichnung_d die zweitstärkste Kraft in der Gemeinde.</t>
+  </si>
+  <si>
+    <t>Second_big_jump_percentage</t>
+  </si>
+  <si>
+    <t>Zweitstärkste Partei in #Gemeinde_d ist die #Party_2_partei_bezeichnung_d, die sich gegenüber den Wahlen 2019 um #Party_2_plus_minus Prozentpunkte verbesserte und neu einen Wähleranteil von #Party_2_partei_staerke Prozent aufweist.</t>
+  </si>
+  <si>
+    <t>Zweitstärkste Partei mit grossem Zugewinn (&gt; 5 PP)</t>
+  </si>
+  <si>
+    <t>Mit einer markanten Verbesserung um #Party_2_plus_minus Prozentpunkte ist die #Party_2_partei_bezeichnung_d die zweitstärkste Kraft in der Gemeinde. Ihr Wählerstimmenanteil liegt neu bei #Party_2_partei_staerke Prozent.</t>
+  </si>
+  <si>
+    <t>Second_big_fall_percentage</t>
+  </si>
+  <si>
+    <t>Einen markanten Verlust musste die #Party_2_partei_bezeichnung_d in #Gemeinde_d hinnehmen: Die Partei verlor #Party_2_plus_minus Prozentpunkte gegenüber den Wahlen 2019 und liegt jetzt noch bei #Party_2_partei_staerke Prozent Wähleranteil. Das bedeutet dennoch Rang 2.</t>
+  </si>
+  <si>
+    <t>Zweitstärkste Partei mit grossem Verlust (&lt; 5 PP)</t>
+  </si>
+  <si>
+    <t>Second_tie_third</t>
+  </si>
+  <si>
+    <t>Den zweiten Platz in #Gemeinde_d teilen sich zwei Parteien: Die #Party_2_partei_bezeichnung_d und die #Party_3_partei_bezeichnung_d sind genau gleich stark. Mit je #Party_2_partei_staerke Prozent kommen beide Parteien auf den gleichen Wähleranteil.</t>
+  </si>
+  <si>
+    <t>gleicher Stimmenanteil zweit- und drittstärkste Partei</t>
+  </si>
+  <si>
+    <t>Second_Uebrige</t>
+  </si>
+  <si>
+    <t>Am zweitmeisten Stimmen, nämlich #Party_2_partei_staerke Prozent, gingen in #Gemeinde_d an Listen oder Parteien aus der Kategorie "Übrige".</t>
+  </si>
+  <si>
+    <t>Zweite Partei ist "Weitere"</t>
+  </si>
+  <si>
+    <t>Third_normal</t>
+  </si>
+  <si>
+    <t>Die #Party_3_partei_bezeichnung_d landete mit #Party_3_partei_staerke Prozent auf dem dritten Platz (Veränderung gegenüber 2019: #Party_3_plus_minus Prozentpunkte).</t>
+  </si>
+  <si>
+    <t>Drittstärkste Partei Normal</t>
+  </si>
+  <si>
+    <t>Third_big_jump_percentage</t>
+  </si>
+  <si>
+    <t>Drittstärkste Partei mit grossem Zugewinn (&gt; 5 PP)</t>
+  </si>
+  <si>
+    <t>Third_big_fall_percentage</t>
+  </si>
+  <si>
+    <t>Stark eingebüsst hat die drittplatzierte #Party_3_partei_bezeichnung_d. Sie machte noch #Party_3_partei_staerke Prozent Wähleranteil, was einen Verlust von #Party_3_plus_minus Prozentpunkte bedeutet.</t>
+  </si>
+  <si>
+    <t>Drittstärkste Partei mit grossem Verlust (&lt; 5 PP)</t>
+  </si>
+  <si>
+    <t>Third_tie_fourth</t>
+  </si>
+  <si>
+    <t>Den dritten Platz in #Gemeinde_d teilen sich zwei Parteien: Die #Party_3_partei_bezeichnung_d und die #Party_4_partei_bezeichnung_d sind genau gleich stark. Mit je #Party_3_partei_staerke Prozent kommen beide Parteien auf den gleichen Wähleranteil.</t>
+  </si>
+  <si>
+    <t>gleicher Stimmenanteil dritt- und viertstärkste Partei</t>
+  </si>
+  <si>
+    <t>Third_Uebrige</t>
+  </si>
+  <si>
+    <t>Am drittmeisten Stimmen, nämlich #Party_3_partei_staerke Prozent, gingen in #Gemeinde_d an Listen oder Parteien aus der Kategorie "Übrige".</t>
+  </si>
+  <si>
+    <t>Dritte Partei ist "Weitere"</t>
+  </si>
+  <si>
+    <t>Spec_unchanged_1_2_3</t>
+  </si>
+  <si>
+    <t>Die Reihenfolge der Parteien in #Gemeinde_d hat sich im Vergleich zu den Wahlen 2019 nicht verändert: Die #Party_1_partei_bezeichnung_d blieb mit #Party_1_partei_staerke Prozent die stärkste Kraft, gefolgt von der #Party_2_partei_bezeichnung_d (#Party_2_partei_staerke Prozent, #Party_2_plus_minus  Prozentpunkte) und der #Party_3_partei_bezeichnung_d (#Party_3_partei_staerke Prozent, #Party_3_plus_minus Prozentpunkte).</t>
+  </si>
+  <si>
+    <t>Gleiche Reihenfolge wie beim letzten Mal bei den ersten drei Parteien + keine grossen Sprünge (&lt; 5 PP)</t>
+  </si>
+  <si>
+    <t>Alles bleibt beim Alten in #Gemeinde_d: Die drei stärksten Parteien haben ihre Spitzenplätze in unveränderter Reihenfolge verteidigt: Die #Party_1_partei_bezeichnung_d geht mit #Party_1_partei_staerke Prozent (#Party_1_plus_minus Prozentpunkte) wiederum als stärkste Kraft aus den Nationalratswahlen. Zweitstärkste Partei ist die #Party_2_partei_bezeichnung_d (#Party_2_partei_staerke Prozent, #Party_2_plus_minus Prozentpunkte), drittstärkste die #Party_3_partei_bezeichnung_d (#Party_3_partei_staerke Prozent, #Party_3_plus_minus Prozentpunkte).</t>
+  </si>
+  <si>
+    <t>Keine Revolution in #Gemeinde_d: Unverändert belegten die #Party_1_partei_bezeichnung_d, die #Party_2_partei_bezeichnung_d und die #Party_3_partei_bezeichnung_d die ersten drei Plätze. Sie holten #Party_1_partei_staerke Prozent (#Party_1_plus_minus Prozentpunkte), #Party_2_partei_staerke Prozent (#Party_2_plus_minus Prozentpunkte) respektive #Party_3_partei_staerke Prozent (#Party_3_plus_minus Prozentpunkte) der Stimmen.</t>
+  </si>
+  <si>
+    <t>Spec_small_community</t>
+  </si>
+  <si>
+    <t>Kleine Stimmen-Zahlen (wenn 1. Partei &lt; 200 Stimmen) - ohne Prozentzahl</t>
+  </si>
+  <si>
+    <t>Add_highest_in_canton</t>
+  </si>
+  <si>
+    <t>Besonders ist: Die #Party_highest_in_canton_de hat in der Gemeinde das höchste Resultat des Kantons erzielt (ohne Kleinstgemeinden).</t>
+  </si>
+  <si>
+    <t>Stärkstes Partei-Resultat im Kanton (when &gt;10 Gemeinden in Kanton; nur Top-6-Parteien, ohne Kleinstgemeinden)</t>
+  </si>
+  <si>
+    <t>Add_lowest_in_canton</t>
+  </si>
+  <si>
+    <t>Speziell: In keiner anderen Gemeinde des Kantons war die #Party_lowest_in_canton_de schwächer (ohne Kleinstgemeinden).</t>
+  </si>
+  <si>
+    <t>Schwächstes Partei-Resultat im Kanton (when &gt;10 Gemeinden in Kanton; nur Top-6-Parteien, ohne Kleinstgemeinden)</t>
+  </si>
+  <si>
+    <t>Add_highest_in_CH</t>
+  </si>
+  <si>
+    <t>Besonders ist: Die #Party_highest_de hat in der Gemeinde das höchste Resultat der gesamten Schweiz erzielt (ohne Kleinstgemeinden).</t>
+  </si>
+  <si>
+    <t>Stärkstes Partei-Resultat schweizweit (nur Top-6-Parteien, ohne Kleinstgemeinden)</t>
+  </si>
+  <si>
+    <t>Add_lowest_in_CH</t>
+  </si>
+  <si>
+    <t>Speziell: In keiner anderen Gemeinde der Schweiz war die #Party_lowest_de schwächer (ohne Kleinstgemeinden).</t>
+  </si>
+  <si>
+    <t>Schwächstes Partei-Resultat schweizweit (nur Top-6-Parteien, ohne Kleinstgemeinden)</t>
+  </si>
+  <si>
+    <t>Add_Participation_highest_in_canton</t>
+  </si>
+  <si>
+    <t>Die Gemeinde hat am Wahlsonntag die höchste Wahlbeteiligung des ganzen Kantons gehabt: #Gemeinde_participation Prozent.</t>
+  </si>
+  <si>
+    <t>Gemeinde hat am Wahlsonntag höchste Wahlbeteiligung des Kantons ausgewiesen</t>
+  </si>
+  <si>
+    <t>Add_Participation_lowest_in_canton</t>
+  </si>
+  <si>
+    <t>Die Gemeinde hat am Wahlsonntag die tiefeste Wahlbeteiligung des ganzen Kantons gehabt: #Gemeinde_participation Prozent.</t>
+  </si>
+  <si>
+    <t>Gemeinde hat am Wahlsonntag tiefste Wahlbeteiligung des Kantons ausgewiesen</t>
+  </si>
+  <si>
+    <t>Add_Participation_highest_in_CH</t>
+  </si>
+  <si>
+    <t>Die Gemeinde hat am Wahlsonntag die höchste Beteiligung der gesamten Schweiz ausgewiesen: #Gemeinde_participation Prozent.</t>
+  </si>
+  <si>
+    <t>Gemeinde mit höchster Wahlbeteiligung</t>
+  </si>
+  <si>
+    <t>Add_Participation_lowest_in_CH</t>
+  </si>
+  <si>
+    <t>Die Gemeinde hat am Wahlsonntag die tiefeste Wahlbeteiligung der ganzen Schweiz gehabt: #Gemeinde_participation Prozent.</t>
+  </si>
+  <si>
+    <t>Gemeinde mit tiefster Wahlbeteiligung</t>
+  </si>
+  <si>
+    <t>Add_Participation_Top10_in_CH</t>
+  </si>
+  <si>
+    <t>Die Gemeinde gehörte in der Schweiz zu den Gemeinden mit der höchsten Wahlbeteiligung mit #Gemeinde_participation Prozent.</t>
+  </si>
+  <si>
+    <t>Gemeinde gehört schweizweit zu den Top-10 der Wahlbeteiligung</t>
+  </si>
+  <si>
+    <t>Add_Participation_Bottom10_in_CH</t>
+  </si>
+  <si>
+    <t>Nur wenige Gemeinden wiesen am Wahlsonntag eine tiefere Wahlbeteiligung auf mit #Gemeinde_participation Prozent.</t>
+  </si>
+  <si>
+    <t>Gemeinde gehört schweizweit zu 10 mit der tiefsten Wahlbeteiligung</t>
+  </si>
+  <si>
+    <t>Add_NR_im_Wohnort_many</t>
+  </si>
+  <si>
+    <t>#Gemeinde_d zählt unter seinen Einwohnern insgesamt #Anzahl_NR_pro_Ort Nationalrätinnen und Nationalräte.</t>
+  </si>
+  <si>
+    <t>Wenn ein Wohnort mehr als 4 NR hat (betrifft Zürich, Bern etc.)</t>
+  </si>
+  <si>
+    <t>Add_NR_im_Wohnort_few</t>
+  </si>
+  <si>
+    <t>Unter den Einwohnern von #Gemeinde_d gibt es #Anzahl_NR_pro_Ort Nationalrätinnen und Nationalräte: #Names_NR_pro_Ort.</t>
+  </si>
+  <si>
+    <t>2-4 NR in Gemeinde.</t>
+  </si>
+  <si>
+    <t>Add_NR_im_Wohnort_one_f</t>
+  </si>
+  <si>
+    <t>In der Gemeinde #Gemeinde_d wohnt auch eine Nationalrätin: #Names_NR_pro_Ort.</t>
+  </si>
+  <si>
+    <t>1 NR in Gemeinde - weiblich</t>
+  </si>
+  <si>
+    <t>Add_NR_im_Wohnort_one_m</t>
+  </si>
+  <si>
+    <t>In der Gemeinde #Gemeinde_d wohnt auch ein Nationalrat: #Names_NR_pro_Ort.</t>
+  </si>
+  <si>
+    <t>1 NR in Gemeinde - männlich</t>
+  </si>
+  <si>
+    <t>Easteregg_Normalo</t>
+  </si>
+  <si>
+    <t>Durchschnittlichste Gemeinde in Bezug auf Parteistärken</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>followed by</t>
+  </si>
+  <si>
+    <t>variante für "uebrige"</t>
+  </si>
+  <si>
+    <t>Intro_unchanged_normal</t>
+  </si>
+  <si>
+    <t>In #Gemeinde_d ist die #Party_1_partei_bezeichnung_de die stimmenstärkste Partei geblieben. Sie holte #Party_1_partei_staerke Prozent aller Stimmen (#Party_1_plus_minus_d).</t>
+  </si>
+  <si>
+    <t>Stinknormal: Grösste Partei gleichgeblieben</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Keine Änderung an der Spitze in #Gemeinde_d: #Party_1_partei_bezeichnung_de holte wie vor vier Jahren die meisten Stimmen (#Party_1_partei_staerke Prozent, #Party_1_plus_minus_d).</t>
+  </si>
+  <si>
+    <t>Unverändert ist die #Party_1_partei_bezeichnung_de die stärkste Partei in #Gemeinde_d geblieben, mit #Party_1_partei_staerke Prozent (#Party_1_plus_minus_d).</t>
+  </si>
+  <si>
     <t>In #Gemeinde_d ist die #Party_1_partei_bezeichnung_de weiterhin mit deutlichem Abstand die grösste Partei. #Party_1_partei_staerke Prozent der Stimmen entfielen auf sie, #Party_1_distance_to_next Prozentpunkte mehr als die nächstgrössere Partei.</t>
   </si>
   <si>
-    <t>Grösste Partei gleichgeblieben; mit deutlichem Abstand (20%-Punkte Abstand und mehr)</t>
-  </si>
-  <si>
-    <t>Unangefochten bleibt in #Gemeinde_d die #Party_1_partei_bezeichnung_de die stärkste Partei. Sie vereinigte bei den Nationalratswahlen #Party_1_partei_staerke Prozent der Stimmen (#Party_1_plus_minus Prozentpunkte) auf sich, #Party_1_distance_to_next Prozentpunkte mehr als die zweitplatzierte #Party_2_partei_bezeichnung_de (#Party_2_partei_staerke Prozent, #Party_2_plus_minus Prozentpunkte).</t>
-  </si>
-  <si>
-    <t>Mit deutlichem Abstand bleibt die #Party_1_partei_bezeichnung_de die grösste Partei in #Gemeinde_d. Ihre Parteistärke beträgt #Party_1_partei_staerke Prozent (#Party_1_plus_minus Prozentpunkte). Der Vorsprung auf die nächstgrössere Partei, die #Party_2_partei_bezeichnung_de ist gross: #Party_1_distance_to_next Prozentpunkte. Die #Party_2_partei_bezeichnung_de holte #Party_2_partei_staerke Prozent (#Party_2_plus_minus Prozentpunkte).</t>
-  </si>
-  <si>
-    <t>Intro_unchanged_small_gap</t>
-  </si>
-  <si>
-    <t>Ganz knapp ist die #Party_1_partei_bezeichnung_de die grösste Partei geblieben in #Gemeinde_d. Sie holte #Party_1_partei_staerke Prozent der Stimmen und blieb damit #Party_1_distance_to_next Prozentpunkte vor der #Party_2_partei_bezeichnung_de. Diese musste sich mit #Party_2_partei_staerke Prozent mit Platz zwei begnügen. Die Veränderungen gegenüber 2019: #Party_1_partei_bezeichnung_de: #Party_1_plus_minus Prozentpunkte; #Party_2_partei_bezeichnung_de: #Party_2_plus_minus Prozentpunkte.</t>
-  </si>
-  <si>
-    <t>Grösste Partei gleichgeblieben; mit geringem Abstand (weniger als 3 Prozentpunkte)</t>
-  </si>
-  <si>
-    <t>Die #Party_1_partei_bezeichnung_de ist weiterhin die stärkste Partei in #Gemeinde_d. Mit #Party_1_partei_staerke Prozent Wähleranteil verwies sie die #Party_2_partei_bezeichnung_de allerdings nur mit #Party_1_distance_to_next Prozentpunkten Abstand auf den zweiten Platz. Diese holte #Party_2_partei_staerke Prozent. Die Veränderungen gegenüber 2019: #Party_1_partei_bezeichnung_de: #Party_1_plus_minus Prozentpunkte; #Party_2_partei_bezeichnung_de: #Party_2_plus_minus Prozentpunkte.</t>
-  </si>
-  <si>
-    <t>Intro_tie_strongest</t>
-  </si>
-  <si>
-    <t>Etwas Besonderes gab es in #Gemeinde_d: Die #Party_1_partei_bezeichnung_de und die #Party_2_partei_bezeichnung_de sind genau gleich stark. Mit je #Party_1_partei_staerke Prozent kommen beide Parteien auf den gleichen Wähleranteil.</t>
-  </si>
-  <si>
-    <t>Intro_majority</t>
+    <t>Grösste Partei gleichgeblieben; mit deutlichem Abstand (10%-Punkte Abstand und mehr)</t>
+  </si>
+  <si>
+    <t>Mit deutlichem Abstand bleibt die #Party_1_partei_bezeichnung_de die grösste Partei in #Gemeinde_d. Ihre Parteistärke beträgt #Party_1_partei_staerke Prozent (#Party_1_plus_minus_d). Das ist ein Vorsprung von #Party_1_distance_to_next Prozentpunkten auf die nächstgrössere Partei. Die zweitplatzierte #Party_2_partei_bezeichnung_de erhielt #Party_2_partei_staerke Prozent (#Party_2_plus_minus_d).</t>
+  </si>
+  <si>
+    <t>Unangefochten bleibt in #Gemeinde_d die #Party_1_partei_bezeichnung_de die stärkste Partei. Sie vereinigte bei den Nationalratswahlen #Party_1_partei_staerke Prozent der Stimmen (#Party_1_plus_minus_d) auf sich, #Party_1_distance_to_next Prozentpunkte mehr als die zweitplatzierte #Party_2_partei_bezeichnung_de (#Party_2_partei_staerke Prozent, #Party_2_plus_minus_d).</t>
+  </si>
+  <si>
+    <t>Mit deutlichem Abstand bleibt die #Party_1_partei_bezeichnung_de die grösste Partei in #Gemeinde_d. Ihre Parteistärke beträgt #Party_1_partei_staerke Prozent (#Party_1_plus_minus_d). Der Vorsprung auf die nächstgrössere Partei, die #Party_2_partei_bezeichnung_de ist gross: #Party_1_distance_to_next Prozentpunkte. Die #Party_2_partei_bezeichnung_de holte #Party_2_partei_staerke Prozent (#Party_2_plus_minus_d).</t>
+  </si>
+  <si>
+    <t>Ganz knapp ist die #Party_1_partei_bezeichnung_de die grösste Partei geblieben in #Gemeinde_d. Sie holte #Party_1_partei_staerke Prozent der Stimmen und blieb damit #Party_1_distance_to_next Prozentpunkte vor der #Party_2_partei_bezeichnung_de. Diese musste sich mit #Party_2_partei_staerke Prozent mit Platz zwei begnügen. Die Veränderungen gegenüber 2015: #Party_1_partei_bezeichnung_de: #Party_1_plus_minus_d; #Party_2_partei_bezeichnung_de: #Party_2_plus_minus_d.</t>
+  </si>
+  <si>
+    <t>Grösste Partei gleichgeblieben; mit geringem Abstand (weniger als 2 Prozentpunkte)</t>
+  </si>
+  <si>
+    <t>Die #Party_1_partei_bezeichnung_de ist weiterhin die stärkste Partei in #Gemeinde_d. Mit #Party_1_partei_staerke Prozent Wähleranteil verwies sie die #Party_2_partei_bezeichnung_de allerdings nur mit #Party_1_distance_to_next Prozentpunkten Abstand auf den zweiten Platz. Diese holte #Party_2_partei_staerke Prozent. Die Veränderungen gegenüber 2015: #Party_1_partei_bezeichnung_de: #Party_1_plus_minus_d; #Party_2_partei_bezeichnung_de: #Party_2_plus_minus_d.</t>
+  </si>
+  <si>
+    <t>Intro_unchanged_1_2_3</t>
+  </si>
+  <si>
+    <t>Die Reihenfolge der Parteien in #Gemeinde_d hat sich im Vergleich zu den Wahlen 2015 nicht verändert: Die #Party_1_partei_bezeichnung_de blieb mit #Party_1_partei_staerke Prozent die stärkste Kraft, gefolgt von der #Party_2_partei_bezeichnung_de (#Party_2_partei_staerke Prozent, #Party_2_plus_minus_d) und der #Party_3_partei_bezeichnung_de (#Party_3_partei_staerke, #Party_3_plus_minus_d).</t>
+  </si>
+  <si>
+    <t>Die Parteien auf den Plätzen 1, 2 und 3 sind gleichgeblieben</t>
+  </si>
+  <si>
+    <t>Alles bleibt beim Alten in #Gemeinde_d: Die drei stärksten Parteien haben ihre Spitzenplätze in unveränderter Reihenfolge verteidigt: Die #Party_1_partei_bezeichnung_de geht mit #Party_1_partei_staerke Prozent (#Party_2_plus_minus_d) wiederum als stärkste Kraft aus den Nationalratswahlen. Zweitstärkste Partei ist die #Party_2_partei_bezeichnung_de (#Party_2_partei_staerke Prozent, #Party_2_plus_minus_d), drittstärkste die #Party_3_partei_bezeichnung_de (#Party_3_partei_staerke Prozent, #Party_3_plus_minus_d).</t>
+  </si>
+  <si>
+    <t>Keine Revolution in #Gemeinde_d: Unverändert belegten #Party_1_partei_bezeichnung_de, #Party_2_partei_bezeichnung_de und #Party_3_partei_bezeichnung_de die ersten drei Plätze. Sie holten #Party_1_partei_staerke (#Party_1_plus_minus_d), #Party_2_partei_staerke (#Party_2_plus_minus_d) respektive #Party_3_partei_staerke Prozent (#Party_3_plus_minus_d) der Stimmen.</t>
+  </si>
+  <si>
+    <t>Intro_unchanged_1_2_3_big_gap_1</t>
+  </si>
+  <si>
+    <t>Die Reihenfolge der Parteien in #Gemeinde_d hat sich im Vergleich zu den Wahlen 2015 nicht verändert: Die #Party_1_partei_bezeichnung_de blieb mit #Party_1_partei_staerke Prozent mit grossem Abstand die stärkste Kraft, gefolgt von der #Party_2_partei_bezeichnung_de (#Party_2_partei_staerke Prozent, #Party_2_plus_minus_d) und der #Party_3_partei_bezeichnung_de (#Party_3_partei_staerke, #Party_3_plus_minus_d).</t>
+  </si>
+  <si>
+    <t>"deutlicher Abstand" = 10 und mehr Prozentpunkte</t>
+  </si>
+  <si>
+    <t>Alles bleibt beim Alten in #Gemeinde_d: Die drei stärksten Parteien haben ihre Spitzenplätze in unveränderter Reihenfolge verteidigt: Die #Party_1_partei_bezeichnung_de geht mit #Party_1_partei_staerke Prozent (#Party_2_plus_minus_d) wiederum mit deutlichem Abstand als stärkste Kraft aus den Nationalratswahlen. Zweitstärkste Partei ist die #Party_2_partei_bezeichnung_de (#Party_2_partei_staerke Prozent, #Party_2_plus_minus_d), drittstärkste die #Party_3_partei_bezeichnung_de (#Party_3_partei_staerke Prozent, #Party_3_plus_minus_d).</t>
+  </si>
+  <si>
+    <t>Etwas Besonderes gab es in #Gemeinde_d: Die #Party_1_partei_bezeichnung_de und die #Party_2_partei_bezeichnung_de sind genau gleich stark. Mit je #Pary_1_AnzahlStimmen Stimmen kommen beide Parteien auf #Party_1_partei_staerke.</t>
+  </si>
+  <si>
+    <t>Spec_majority</t>
   </si>
   <si>
     <t>#Gemeinde_d ist unbestrittenes Territorium der #Party_1_partei_bezeichnung_de. Die Partei holte eine absolute Mehrheit der Stimmen.</t>
   </si>
   <si>
-    <t>Absolute Mehrheit für stärkste Partei</t>
-  </si>
-  <si>
     <t>Kein Weg führt in #Gemeinde_d an der #Party_1_partei_bezeichnung_de vorbei. Sie holte mehr als die Hälfte der Stimmen und damit eine absolute Mehrheit.</t>
   </si>
   <si>
-    <t>Intro_changed_normal</t>
+    <t>Intro_unchanged_long_term</t>
+  </si>
+  <si>
+    <t>Unverändert wie seit #Party_1_since_year ist die #Party_1_partei_bezeichnung_de die stärkste Partei in #Gemeinde_d. Die Partei holte #Party_1_partei_staerke Prozent (#Party_1_plus_minus_d gegenüber 2015).</t>
+  </si>
+  <si>
+    <t>Eine Partei ist mindestens seit 12 Jahren an erster Stelle</t>
+  </si>
+  <si>
+    <t>Seit #Party_1_since_year ist die #Party_1_partei_bezeichnung_de die stärkste Partei in #Gemeinde_d, so auch bei diesen Nationalratswahlen. Die Partei holte #Party_1_partei_staerke Prozent der Stimmen (#Party_1_plus_minus_d im Vergleich zu 2015).</t>
   </si>
   <si>
     <t>In #Gemeinde_d ist neu die #Party_1_partei_bezeichnung_de die stimmenstärkste Partei. Sie holte #Party_1_partei_staerke Prozent aller Stimmen. Vor vier Jahren war die Partei noch auf Rang #Party_1_rank_in_commune_prev.</t>
   </si>
   <si>
-    <t>Neue stärkste Partei</t>
+    <t>Stärkste Partei neu; Vergleich mit 2015</t>
+  </si>
+  <si>
+    <t>Was, wenn nicht angetreten...?</t>
   </si>
   <si>
     <t>Neu ist in #Gemeinde_d die #Party_1_partei_bezeichnung_de stärkste Kraft (Rang vor vier Jahren: #Party_1_rank_in_commune_prev). Bei den diesjährigen Nationalratswahlen vereinigte sie #Party_1_partei_staerke Prozent der Stimmen auf sich.</t>
-  </si>
-  <si>
-    <t>#Party_1_partei_bezeichnung_de hat sich in diesem Jahr von Rang #Party_1_rank_in_commune_prev auf den Spitzenplatz verbessert in #Gemeinde_d. Sie holte #Party_1_partei_staerke Prozent der Stimmen (#Party_1_plus_minus  Prozentpunkte).</t>
-  </si>
-  <si>
-    <t>Neue stärkste Kraft in #Gemeinde_d: Die #Party_1_partei_bezeichnung_de hat mit #Party_1_partei_staerke Prozent (#Party_1_plus_minus Prozentpunkte) die meisten Stimmen geholt und verbessert sich damit von Rang #Party_1_rank_in_commune_prev auf den ersten Platz.</t>
-  </si>
-  <si>
-    <t>#Gemeinde_d hat neu die meisten Stimmen an die #Party_1_partei_bezeichnung_de vergeben. Die Partei holte #Party_1_partei_staerke Prozent der Stimmen (#Party_1_plus_minus Prozentpunkte). Das bedeutet, dass sie sich von Rang #Party_1_rank_in_commune_prev auf den ersten Platz verbessert hat.</t>
-  </si>
-  <si>
-    <t>Intro_changed_big_jump_percentage</t>
-  </si>
-  <si>
-    <t>Mit einem grossen Sprung von #Party_1_plus_minus Prozentpunkten ist die #Party_1_partei_bezeichnung_de die stärkste Partei geworden in #Gemeinde_d. Die Partei erhielt #Party_1_partei_staerke Prozent der Wählerstimmen.</t>
-  </si>
-  <si>
-    <t>Neue stärkste Partei mit grossem Zugewinn (&gt; 5 PP)</t>
-  </si>
-  <si>
-    <t>Intro_Uebrige</t>
-  </si>
-  <si>
-    <t>Den ersten Rang haben in #Gemeinde_d Listen oder Parteien aus der Kategorie "Übrige" geholt. Diese vereinigten #Party_1_partei_staerke Prozent der Stimmen auf sich.</t>
-  </si>
-  <si>
-    <t>Erste Partei ist "Weitere"</t>
-  </si>
-  <si>
-    <t>Second_normal</t>
-  </si>
-  <si>
-    <t>Zweitstärkste Partei ist mit #Party_2_partei_staerke Prozent (#Party_2_plus_minus Prozentpunkte gegenüber 2019) die #Party_2_partei_bezeichnung_de.</t>
-  </si>
-  <si>
-    <t>Zweitstärkste Partei Normal</t>
-  </si>
-  <si>
-    <t>Die #Party_2_partei_bezeichnung_de ist die zweitstärkste Kraft in der Gemeinde. Sie kommt auf #Party_2_partei_staerke Prozent (#Party_2_plus_minus Prozentpunkte).</t>
-  </si>
-  <si>
-    <t>Mit einem Wählerstimmenanteil von #Party_2_partei_staerke Prozent (#Party_2_plus_minus Prozentpunkte) ist die #Party_2_partei_bezeichnung_de die zweitstärkste Kraft in der Gemeinde.</t>
-  </si>
-  <si>
-    <t>Second_big_jump_percentage</t>
-  </si>
-  <si>
-    <t>Zweitstärkste Partei in #Gemeinde_d ist die #Party_2_partei_bezeichnung_de, die sich gegenüber den Wahlen 2019 um #Party_2_plus_minus Prozentpunkte verbesserte und neu einen Wähleranteil von #Party_2_partei_staerke Prozent aufweist.</t>
-  </si>
-  <si>
-    <t>Zweitstärkste Partei mit grossem Zugewinn (&gt; 5 PP)</t>
-  </si>
-  <si>
-    <t>Mit einer markanten Verbesserung um #Party_2_plus_minus Prozentpunkte ist die #Party_2_partei_bezeichnung_de die zweitstärkste Kraft in der Gemeinde. Ihr Wählerstimmenanteil liegt neu bei #Party_2_partei_staerke Prozent.</t>
-  </si>
-  <si>
-    <t>Second_big_fall_percentage</t>
-  </si>
-  <si>
-    <t>Einen markanten Verlust musste die #Party_2_partei_bezeichnung_de in #Gemeinde_d hinnehmen: Die Partei verlor #Party_2_plus_minus Prozentpunkte gegenüber den Wahlen 2019 und liegt jetzt noch bei #Party_2_partei_staerke Prozent Wähleranteil. Das bedeutet dennoch Rang 2.</t>
-  </si>
-  <si>
-    <t>Zweitstärkste Partei mit grossem Verlust (&lt; 5 PP)</t>
-  </si>
-  <si>
-    <t>Second_tie_third</t>
-  </si>
-  <si>
-    <t>gleicher Stimmenanteil zweit- und drittstärkste Partei</t>
-  </si>
-  <si>
-    <t>Second_Uebrige</t>
-  </si>
-  <si>
-    <t>Am zweitmeisten Stimmen, nämlich #Party_2_partei_staerke Prozent, gingen in #Gemeinde_d an Listen oder Parteien aus der Kategorie "Übrige".</t>
-  </si>
-  <si>
-    <t>Zweite Partei ist "Weitere"</t>
-  </si>
-  <si>
-    <t>Third_normal</t>
-  </si>
-  <si>
-    <t>Die #Party_3_partei_bezeichnung_de landete mit #Party_3_partei_staerke Prozent auf dem dritten Platz (Veränderung gegenüber 2019: #Party_3_plus_minus Prozentpunkte).</t>
-  </si>
-  <si>
-    <t>Drittstärkste Partei Normal</t>
-  </si>
-  <si>
-    <t>Third_big_jump_percentage</t>
-  </si>
-  <si>
-    <t>Drittstärkste Partei mit grossem Zugewinn (&gt; 5 PP)</t>
-  </si>
-  <si>
-    <t>Third_big_fall_percentage</t>
-  </si>
-  <si>
-    <t>Stark eingebüsst hat die drittplatzierte #Party_3_partei_bezeichnung_de. Sie machte noch #Party_3_partei_staerke Prozent Wähleranteil, was einen Verlust von #Party_3_plus_minus Prozentpunkte bedeutet.</t>
-  </si>
-  <si>
-    <t>Drittstärkste Partei mit grossem Verlust (&lt; 5 PP)</t>
-  </si>
-  <si>
-    <t>Third_tie_fourth</t>
-  </si>
-  <si>
-    <t>gleicher Stimmenanteil dritt- und viertstärkste Partei</t>
-  </si>
-  <si>
-    <t>Third_Uebrige</t>
-  </si>
-  <si>
-    <t>Am drittmeisten Stimmen, nämlich #Party_3_partei_staerke Prozent, gingen in #Gemeinde_d an Listen oder Parteien aus der Kategorie "Übrige".</t>
-  </si>
-  <si>
-    <t>Dritte Partei ist "Weitere"</t>
-  </si>
-  <si>
-    <t>Spec_unchanged_1_2_3</t>
-  </si>
-  <si>
-    <t>Die Reihenfolge der Parteien in #Gemeinde_d hat sich im Vergleich zu den Wahlen 2019 nicht verändert: Die #Party_1_partei_bezeichnung_de blieb mit #Party_1_partei_staerke Prozent die stärkste Kraft, gefolgt von der #Party_2_partei_bezeichnung_de (#Party_2_partei_staerke Prozent, #Party_2_plus_minus  Prozentpunkte) und der #Party_3_partei_bezeichnung_de (#Party_3_partei_staerke Prozent, #Party_3_plus_minus Prozentpunkte).</t>
-  </si>
-  <si>
-    <t>Gleiche Reihenfolge wie beim letzten Mal bei den ersten drei Parteien + keine grossen Sprünge (&lt; 5 PP)</t>
-  </si>
-  <si>
-    <t>Alles bleibt beim Alten in #Gemeinde_d: Die drei stärksten Parteien haben ihre Spitzenplätze in unveränderter Reihenfolge verteidigt: Die #Party_1_partei_bezeichnung_de geht mit #Party_1_partei_staerke Prozent (#Party_1_plus_minus Prozentpunkte) wiederum als stärkste Kraft aus den Nationalratswahlen. Zweitstärkste Partei ist die #Party_2_partei_bezeichnung_de (#Party_2_partei_staerke Prozent, #Party_2_plus_minus Prozentpunkte), drittstärkste die #Party_3_partei_bezeichnung_de (#Party_3_partei_staerke Prozent, #Party_3_plus_minus Prozentpunkte).</t>
-  </si>
-  <si>
-    <t>Keine Revolution in #Gemeinde_d: Unverändert belegten die #Party_1_partei_bezeichnung_de, die #Party_2_partei_bezeichnung_de und die #Party_3_partei_bezeichnung_de die ersten drei Plätze. Sie holten #Party_1_partei_staerke Prozent (#Party_1_plus_minus Prozentpunkte), #Party_2_partei_staerke Prozent (#Party_2_plus_minus Prozentpunkte) respektive #Party_3_partei_staerke Prozent (#Party_3_plus_minus Prozentpunkte) der Stimmen.</t>
-  </si>
-  <si>
-    <t>Spec_small_community</t>
-  </si>
-  <si>
-    <t>Kleine Stimmen-Zahlen (wenn 1. Partei &lt; 200 Stimmen) - ohne Prozentzahl</t>
-  </si>
-  <si>
-    <t>Add_highest_in_canton</t>
-  </si>
-  <si>
-    <t>Besonders ist: Die #Party_highest_in_canton_de hat in der Gemeinde das höchste Resultat des Kantons erzielt (ohne Kleinstgemeinden).</t>
-  </si>
-  <si>
-    <t>Stärkstes Partei-Resultat im Kanton (when &gt;10 Gemeinden in Kanton; nur Top-6-Parteien, ohne Kleinstgemeinden)</t>
-  </si>
-  <si>
-    <t>Add_lowest_in_canton</t>
-  </si>
-  <si>
-    <t>Speziell: In keiner anderen Gemeinde des Kantons war die #Party_lowest_in_canton_de schwächer (ohne Kleinstgemeinden).</t>
-  </si>
-  <si>
-    <t>Schwächstes Partei-Resultat im Kanton (when &gt;10 Gemeinden in Kanton; nur Top-6-Parteien, ohne Kleinstgemeinden)</t>
-  </si>
-  <si>
-    <t>Add_highest_in_CH</t>
-  </si>
-  <si>
-    <t>Besonders ist: Die #Party_highest_de hat in der Gemeinde das höchste Resultat der gesamten Schweiz erzielt (ohne Kleinstgemeinden).</t>
-  </si>
-  <si>
-    <t>Stärkstes Partei-Resultat schweizweit (nur Top-6-Parteien, ohne Kleinstgemeinden)</t>
-  </si>
-  <si>
-    <t>Add_lowest_in_CH</t>
-  </si>
-  <si>
-    <t>Speziell: In keiner anderen Gemeinde der Schweiz war die #Party_lowest_de schwächer (ohne Kleinstgemeinden).</t>
-  </si>
-  <si>
-    <t>Schwächstes Partei-Resultat schweizweit (nur Top-6-Parteien, ohne Kleinstgemeinden)</t>
-  </si>
-  <si>
-    <t>Add_Participation_highest_in_canton</t>
-  </si>
-  <si>
-    <t>Die Gemeinde hat am Wahlsonntag die höchste Wahlbeteiligung des ganzen Kantons gehabt: #Gemeinde_participation Prozent.</t>
-  </si>
-  <si>
-    <t>Gemeinde hat am Wahlsonntag höchste Wahlbeteiligung des Kantons ausgewiesen</t>
-  </si>
-  <si>
-    <t>Add_Participation_lowest_in_canton</t>
-  </si>
-  <si>
-    <t>Die Gemeinde hat am Wahlsonntag die tiefeste Wahlbeteiligung des ganzen Kantons gehabt: #Gemeinde_participation Prozent.</t>
-  </si>
-  <si>
-    <t>Gemeinde hat am Wahlsonntag tiefste Wahlbeteiligung des Kantons ausgewiesen</t>
-  </si>
-  <si>
-    <t>Add_Participation_highest_in_CH</t>
-  </si>
-  <si>
-    <t>Die Gemeinde hat am Wahlsonntag die höchste Beteiligung der gesamten Schweiz ausgewiesen: #Gemeinde_participation Prozent.</t>
-  </si>
-  <si>
-    <t>Gemeinde mit höchster Wahlbeteiligung</t>
-  </si>
-  <si>
-    <t>Add_Participation_lowest_in_CH</t>
-  </si>
-  <si>
-    <t>Die Gemeinde hat am Wahlsonntag die tiefeste Wahlbeteiligung der ganzen Schweiz gehabt: #Gemeinde_participation Prozent.</t>
-  </si>
-  <si>
-    <t>Gemeinde mit tiefster Wahlbeteiligung</t>
-  </si>
-  <si>
-    <t>Add_Participation_Top10_in_CH</t>
-  </si>
-  <si>
-    <t>Die Gemeinde gehörte in der Schweiz zu den Gemeinden mit der höchsten Wahlbeteiligung mit #Gemeinde_participation Prozent.</t>
-  </si>
-  <si>
-    <t>Gemeinde gehört schweizweit zu den Top-10 der Wahlbeteiligung</t>
-  </si>
-  <si>
-    <t>Add_Participation_Bottom10_in_CH</t>
-  </si>
-  <si>
-    <t>Nur wenige Gemeinden wiesen am Wahlsonntag eine tiefere Wahlbeteiligung auf mit #Gemeinde_participation Prozent.</t>
-  </si>
-  <si>
-    <t>Gemeinde gehört schweizweit zu 10 mit der tiefsten Wahlbeteiligung</t>
-  </si>
-  <si>
-    <t>Add_NR_im_Wohnort_many</t>
-  </si>
-  <si>
-    <t>#Gemeinde_d zählt unter seinen Einwohnern insgesamt #Anzahl_NR_pro_Ort Nationalrätinnen und Nationalräte.</t>
-  </si>
-  <si>
-    <t>Wenn ein Wohnort mehr als 4 NR hat (betrifft Zürich, Bern etc.)</t>
-  </si>
-  <si>
-    <t>Add_NR_im_Wohnort_few</t>
-  </si>
-  <si>
-    <t>Unter den Einwohnern von #Gemeinde_d gibt es #Anzahl_NR_pro_Ort Nationalrätinnen und Nationalräte: #Names_NR_pro_Ort.</t>
-  </si>
-  <si>
-    <t>2-4 NR in Gemeinde.</t>
-  </si>
-  <si>
-    <t>Add_NR_im_Wohnort_one_f</t>
-  </si>
-  <si>
-    <t>In der Gemeinde #Gemeinde_d wohnt auch eine Nationalrätin: #Names_NR_pro_Ort.</t>
-  </si>
-  <si>
-    <t>1 NR in Gemeinde - weiblich</t>
-  </si>
-  <si>
-    <t>Add_NR_im_Wohnort_one_m</t>
-  </si>
-  <si>
-    <t>In der Gemeinde #Gemeinde_d wohnt auch ein Nationalrat: #Names_NR_pro_Ort.</t>
-  </si>
-  <si>
-    <t>1 NR in Gemeinde - männlich</t>
-  </si>
-  <si>
-    <t>Easteregg_Normalo</t>
-  </si>
-  <si>
-    <t>Durchschnittlichste Gemeinde in Bezug auf Parteistärken</t>
-  </si>
-  <si>
-    <t>done</t>
-  </si>
-  <si>
-    <t>followed by</t>
-  </si>
-  <si>
-    <t>variante für "uebrige"</t>
-  </si>
-  <si>
-    <t>Intro_unchanged_normal</t>
-  </si>
-  <si>
-    <t>In #Gemeinde_d ist die #Party_1_partei_bezeichnung_de die stimmenstärkste Partei geblieben. Sie holte #Party_1_partei_staerke Prozent aller Stimmen (#Party_1_plus_minus_d).</t>
-  </si>
-  <si>
-    <t>Stinknormal: Grösste Partei gleichgeblieben</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Keine Änderung an der Spitze in #Gemeinde_d: #Party_1_partei_bezeichnung_de holte wie vor vier Jahren die meisten Stimmen (#Party_1_partei_staerke Prozent, #Party_1_plus_minus_d).</t>
-  </si>
-  <si>
-    <t>Unverändert ist die #Party_1_partei_bezeichnung_de die stärkste Partei in #Gemeinde_d geblieben, mit #Party_1_partei_staerke Prozent (#Party_1_plus_minus_d).</t>
-  </si>
-  <si>
-    <t>Grösste Partei gleichgeblieben; mit deutlichem Abstand (10%-Punkte Abstand und mehr)</t>
-  </si>
-  <si>
-    <t>Mit deutlichem Abstand bleibt die #Party_1_partei_bezeichnung_de die grösste Partei in #Gemeinde_d. Ihre Parteistärke beträgt #Party_1_partei_staerke Prozent (#Party_1_plus_minus_d). Das ist ein Vorsprung von #Party_1_distance_to_next Prozentpunkten auf die nächstgrössere Partei. Die zweitplatzierte #Party_2_partei_bezeichnung_de erhielt #Party_2_partei_staerke Prozent (#Party_2_plus_minus_d).</t>
-  </si>
-  <si>
-    <t>Unangefochten bleibt in #Gemeinde_d die #Party_1_partei_bezeichnung_de die stärkste Partei. Sie vereinigte bei den Nationalratswahlen #Party_1_partei_staerke Prozent der Stimmen (#Party_1_plus_minus_d) auf sich, #Party_1_distance_to_next Prozentpunkte mehr als die zweitplatzierte #Party_2_partei_bezeichnung_de (#Party_2_partei_staerke Prozent, #Party_2_plus_minus_d).</t>
-  </si>
-  <si>
-    <t>Mit deutlichem Abstand bleibt die #Party_1_partei_bezeichnung_de die grösste Partei in #Gemeinde_d. Ihre Parteistärke beträgt #Party_1_partei_staerke Prozent (#Party_1_plus_minus_d). Der Vorsprung auf die nächstgrössere Partei, die #Party_2_partei_bezeichnung_de ist gross: #Party_1_distance_to_next Prozentpunkte. Die #Party_2_partei_bezeichnung_de holte #Party_2_partei_staerke Prozent (#Party_2_plus_minus_d).</t>
-  </si>
-  <si>
-    <t>Ganz knapp ist die #Party_1_partei_bezeichnung_de die grösste Partei geblieben in #Gemeinde_d. Sie holte #Party_1_partei_staerke Prozent der Stimmen und blieb damit #Party_1_distance_to_next Prozentpunkte vor der #Party_2_partei_bezeichnung_de. Diese musste sich mit #Party_2_partei_staerke Prozent mit Platz zwei begnügen. Die Veränderungen gegenüber 2015: #Party_1_partei_bezeichnung_de: #Party_1_plus_minus_d; #Party_2_partei_bezeichnung_de: #Party_2_plus_minus_d.</t>
-  </si>
-  <si>
-    <t>Grösste Partei gleichgeblieben; mit geringem Abstand (weniger als 2 Prozentpunkte)</t>
-  </si>
-  <si>
-    <t>Die #Party_1_partei_bezeichnung_de ist weiterhin die stärkste Partei in #Gemeinde_d. Mit #Party_1_partei_staerke Prozent Wähleranteil verwies sie die #Party_2_partei_bezeichnung_de allerdings nur mit #Party_1_distance_to_next Prozentpunkten Abstand auf den zweiten Platz. Diese holte #Party_2_partei_staerke Prozent. Die Veränderungen gegenüber 2015: #Party_1_partei_bezeichnung_de: #Party_1_plus_minus_d; #Party_2_partei_bezeichnung_de: #Party_2_plus_minus_d.</t>
-  </si>
-  <si>
-    <t>Intro_unchanged_1_2_3</t>
-  </si>
-  <si>
-    <t>Die Reihenfolge der Parteien in #Gemeinde_d hat sich im Vergleich zu den Wahlen 2015 nicht verändert: Die #Party_1_partei_bezeichnung_de blieb mit #Party_1_partei_staerke Prozent die stärkste Kraft, gefolgt von der #Party_2_partei_bezeichnung_de (#Party_2_partei_staerke Prozent, #Party_2_plus_minus_d) und der #Party_3_partei_bezeichnung_de (#Party_3_partei_staerke, #Party_3_plus_minus_d).</t>
-  </si>
-  <si>
-    <t>Die Parteien auf den Plätzen 1, 2 und 3 sind gleichgeblieben</t>
-  </si>
-  <si>
-    <t>Alles bleibt beim Alten in #Gemeinde_d: Die drei stärksten Parteien haben ihre Spitzenplätze in unveränderter Reihenfolge verteidigt: Die #Party_1_partei_bezeichnung_de geht mit #Party_1_partei_staerke Prozent (#Party_2_plus_minus_d) wiederum als stärkste Kraft aus den Nationalratswahlen. Zweitstärkste Partei ist die #Party_2_partei_bezeichnung_de (#Party_2_partei_staerke Prozent, #Party_2_plus_minus_d), drittstärkste die #Party_3_partei_bezeichnung_de (#Party_3_partei_staerke Prozent, #Party_3_plus_minus_d).</t>
-  </si>
-  <si>
-    <t>Keine Revolution in #Gemeinde_d: Unverändert belegten #Party_1_partei_bezeichnung_de, #Party_2_partei_bezeichnung_de und #Party_3_partei_bezeichnung_de die ersten drei Plätze. Sie holten #Party_1_partei_staerke (#Party_1_plus_minus_d), #Party_2_partei_staerke (#Party_2_plus_minus_d) respektive #Party_3_partei_staerke Prozent (#Party_3_plus_minus_d) der Stimmen.</t>
-  </si>
-  <si>
-    <t>Intro_unchanged_1_2_3_big_gap_1</t>
-  </si>
-  <si>
-    <t>Die Reihenfolge der Parteien in #Gemeinde_d hat sich im Vergleich zu den Wahlen 2015 nicht verändert: Die #Party_1_partei_bezeichnung_de blieb mit #Party_1_partei_staerke Prozent mit grossem Abstand die stärkste Kraft, gefolgt von der #Party_2_partei_bezeichnung_de (#Party_2_partei_staerke Prozent, #Party_2_plus_minus_d) und der #Party_3_partei_bezeichnung_de (#Party_3_partei_staerke, #Party_3_plus_minus_d).</t>
-  </si>
-  <si>
-    <t>"deutlicher Abstand" = 10 und mehr Prozentpunkte</t>
-  </si>
-  <si>
-    <t>Alles bleibt beim Alten in #Gemeinde_d: Die drei stärksten Parteien haben ihre Spitzenplätze in unveränderter Reihenfolge verteidigt: Die #Party_1_partei_bezeichnung_de geht mit #Party_1_partei_staerke Prozent (#Party_2_plus_minus_d) wiederum mit deutlichem Abstand als stärkste Kraft aus den Nationalratswahlen. Zweitstärkste Partei ist die #Party_2_partei_bezeichnung_de (#Party_2_partei_staerke Prozent, #Party_2_plus_minus_d), drittstärkste die #Party_3_partei_bezeichnung_de (#Party_3_partei_staerke Prozent, #Party_3_plus_minus_d).</t>
-  </si>
-  <si>
-    <t>Etwas Besonderes gab es in #Gemeinde_d: Die #Party_1_partei_bezeichnung_de und die #Party_2_partei_bezeichnung_de sind genau gleich stark. Mit je #Pary_1_AnzahlStimmen Stimmen kommen beide Parteien auf #Party_1_partei_staerke.</t>
-  </si>
-  <si>
-    <t>Spec_majority</t>
-  </si>
-  <si>
-    <t>Intro_unchanged_long_term</t>
-  </si>
-  <si>
-    <t>Unverändert wie seit #Party_1_since_year ist die #Party_1_partei_bezeichnung_de die stärkste Partei in #Gemeinde_d. Die Partei holte #Party_1_partei_staerke Prozent (#Party_1_plus_minus_d gegenüber 2015).</t>
-  </si>
-  <si>
-    <t>Eine Partei ist mindestens seit 12 Jahren an erster Stelle</t>
-  </si>
-  <si>
-    <t>Seit #Party_1_since_year ist die #Party_1_partei_bezeichnung_de die stärkste Partei in #Gemeinde_d, so auch bei diesen Nationalratswahlen. Die Partei holte #Party_1_partei_staerke Prozent der Stimmen (#Party_1_plus_minus_d im Vergleich zu 2015).</t>
-  </si>
-  <si>
-    <t>Stärkste Partei neu; Vergleich mit 2015</t>
-  </si>
-  <si>
-    <t>Was, wenn nicht angetreten...?</t>
   </si>
   <si>
     <t>#Party_1_partei_bezeichnung_de hat sich in diesem Jahr von Rang #Party_1_rank_in_commune_prev auf den Spitzenplatz verbessert in #Gemeinde_d. Sie holte #Party_1_partei_staerke Prozent der Stimmen (#Party_1_plus_minus_d).</t>
@@ -1625,438 +1646,442 @@
       <c r="A43" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B43" s="6"/>
+      <c r="B43" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B46" s="6"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
       <c r="E46" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B47" s="6"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
       <c r="E47" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B48" s="6"/>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
       <c r="E48" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B49" s="6"/>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B50" s="6"/>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B51" s="6"/>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
       <c r="E51" s="12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B52" s="6"/>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
       <c r="E52" s="12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B53" s="6"/>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53" s="12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
       <c r="E54" s="12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B55" s="6"/>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
       <c r="E55" s="12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B56" s="6"/>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
       <c r="E56" s="12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="B57" s="6"/>
+        <v>68</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>69</v>
+      </c>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
       <c r="E57" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="11" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
       <c r="E58" s="9" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="13" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
       <c r="E59" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="13" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
       <c r="E60" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="13" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
       <c r="E61" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="13" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B62" s="6"/>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
       <c r="E62" s="12" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="13" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B63" s="6"/>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
       <c r="E63" s="12" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="14" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
       <c r="E64" s="12" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="14" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
       <c r="E65" s="12" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="15" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C66" s="16"/>
       <c r="D66" s="16"/>
       <c r="E66" s="12" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="15" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C67" s="16"/>
       <c r="D67" s="16"/>
       <c r="E67" s="12" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="17" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C68" s="16"/>
       <c r="D68" s="16"/>
       <c r="E68" s="12" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="17" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C69" s="16"/>
       <c r="D69" s="16"/>
       <c r="E69" s="12" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="17" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C70" s="16"/>
       <c r="D70" s="16"/>
       <c r="E70" s="12" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="17" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C71" s="16"/>
       <c r="D71" s="16"/>
       <c r="E71" s="12" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="17" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C72" s="16"/>
       <c r="D72" s="16"/>
       <c r="E72" s="9" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="17" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B73" s="18" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
       <c r="E73" s="9" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="19" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
       <c r="E74" s="5" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="19" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
       <c r="E75" s="5" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="19" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
       <c r="E76" s="5" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="19" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
       <c r="E77" s="5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="20" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B78" s="6"/>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
       <c r="E78" s="5" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="79">
@@ -2171,57 +2196,57 @@
       </c>
       <c r="F1" s="5"/>
       <c r="G1" s="5" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="21" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F3" s="5"/>
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F4" s="5"/>
     </row>
@@ -2230,16 +2255,16 @@
         <v>14</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>15</v>
+        <v>134</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="5" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="21" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6">
@@ -2247,16 +2272,16 @@
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="5" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="21" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7">
@@ -2264,12 +2289,12 @@
         <v>14</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="5" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F7" s="5"/>
     </row>
@@ -2278,7 +2303,7 @@
         <v>14</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -2288,16 +2313,16 @@
         <v>19</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="5" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="21" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10">
@@ -2305,87 +2330,87 @@
         <v>19</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="5" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="21" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="5" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="21" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="5" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="5" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="21" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
     </row>
     <row r="14">
       <c r="A14" s="5" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="5" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="F14" s="5"/>
     </row>
     <row r="15">
       <c r="A15" s="5" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="5" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="F15" s="5"/>
     </row>
@@ -2394,59 +2419,59 @@
         <v>23</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
     </row>
     <row r="17">
       <c r="A17" s="5" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>26</v>
+        <v>153</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="G17" s="21" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="5" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>28</v>
+        <v>154</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
     </row>
     <row r="19">
       <c r="A19" s="22" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="5" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="F19" s="5"/>
     </row>
     <row r="20">
       <c r="A20" s="22" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="5" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="F20" s="5"/>
     </row>
@@ -2455,19 +2480,19 @@
         <v>29</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>30</v>
+        <v>159</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="5" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="F21" s="5"/>
       <c r="G21" s="21" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
     </row>
     <row r="22">
@@ -2475,7 +2500,7 @@
         <v>29</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>32</v>
+        <v>162</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -2485,7 +2510,7 @@
         <v>29</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -2495,7 +2520,7 @@
         <v>29</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -2505,39 +2530,39 @@
         <v>29</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
     </row>
     <row r="26">
       <c r="A26" s="5" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="5" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="F26" s="5"/>
       <c r="G26" s="21" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="5" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="G27" s="21" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="28" ht="27.0" customHeight="1">
@@ -2545,96 +2570,96 @@
         <v>36</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="G28" s="21" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="5" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="G29" s="21" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="5" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="G30" s="21" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="5" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
     </row>
     <row r="32">
       <c r="A32" s="5" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="G32" s="21" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="5" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="G33" s="21" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="22" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="5" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="F34" s="5"/>
     </row>
     <row r="35">
       <c r="A35" s="5" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -2644,12 +2669,12 @@
         <v>42</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="5" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="F36" s="5"/>
     </row>
@@ -2658,12 +2683,12 @@
         <v>42</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="5" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="F37" s="5"/>
     </row>
@@ -2672,87 +2697,87 @@
         <v>42</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="5" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="F38" s="5"/>
     </row>
     <row r="39">
       <c r="A39" s="5" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="5" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="F39" s="5"/>
     </row>
     <row r="40">
       <c r="A40" s="5" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="5" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="F40" s="5"/>
     </row>
     <row r="41">
       <c r="A41" s="5" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="5" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="F41" s="5"/>
     </row>
     <row r="42">
       <c r="A42" s="5" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="5" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="F42" s="5"/>
     </row>
     <row r="43">
       <c r="A43" s="5" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
     </row>
     <row r="44">
       <c r="A44" s="5" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
@@ -2762,7 +2787,7 @@
         <v>47</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
@@ -2772,37 +2797,37 @@
         <v>47</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
     </row>
     <row r="47">
       <c r="A47" s="5" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
     </row>
     <row r="48">
       <c r="A48" s="5" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
     </row>
     <row r="49">
       <c r="A49" s="5" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
@@ -2812,42 +2837,42 @@
         <v>51</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="5" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="F50" s="5"/>
     </row>
     <row r="51">
       <c r="A51" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
       <c r="E51" s="5" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="F51" s="5"/>
     </row>
     <row r="52">
       <c r="A52" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
     </row>
     <row r="53">
       <c r="A53" s="5" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>40</v>
@@ -2857,227 +2882,227 @@
     </row>
     <row r="54">
       <c r="A54" s="5" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
     </row>
     <row r="55">
       <c r="A55" s="5" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
     </row>
     <row r="56">
       <c r="A56" s="11" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
       <c r="E56" s="5" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="F56" s="5"/>
     </row>
     <row r="57">
       <c r="A57" s="11" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
       <c r="E57" s="5" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="F57" s="5"/>
     </row>
     <row r="58">
       <c r="A58" s="11" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
       <c r="E58" s="5" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="F58" s="5"/>
     </row>
     <row r="59">
       <c r="A59" s="11" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
       <c r="E59" s="5" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="F59" s="5"/>
     </row>
     <row r="60">
       <c r="A60" s="11" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
       <c r="E60" s="5" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="F60" s="5"/>
     </row>
     <row r="61">
       <c r="A61" s="11" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
       <c r="E61" s="5" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="F61" s="5"/>
     </row>
     <row r="62">
       <c r="A62" s="22" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
       <c r="E62" s="5" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F62" s="5"/>
     </row>
     <row r="63">
       <c r="A63" s="22" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
       <c r="E63" s="5" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F63" s="5"/>
     </row>
     <row r="64">
       <c r="A64" s="22" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
       <c r="E64" s="5" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F64" s="5"/>
     </row>
     <row r="65">
       <c r="A65" s="22" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
       <c r="E65" s="5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F65" s="5"/>
     </row>
     <row r="66">
       <c r="A66" s="22" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
       <c r="E66" s="5" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="F66" s="5"/>
     </row>
     <row r="67">
       <c r="A67" s="22" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
     </row>
     <row r="68">
       <c r="A68" s="22" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
       <c r="E68" s="5" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="F68" s="5"/>
     </row>
     <row r="69">
       <c r="A69" s="22" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
       <c r="E69" s="5" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="F69" s="5"/>
     </row>
     <row r="70">
       <c r="A70" s="22" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
       <c r="E70" s="5" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="F70" s="5"/>
     </row>

--- a/Texte/LENA Textbausteine Eidgenössische Wahlen 2023_ Gemeindeebene.xlsx
+++ b/Texte/LENA Textbausteine Eidgenössische Wahlen 2023_ Gemeindeebene.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="245">
   <si>
     <t>Text_ID</t>
   </si>
@@ -254,13 +254,16 @@
     <t>Spec_small_community</t>
   </si>
   <si>
-    <t>Kleine Stimmen-Zahlen (wenn 1. Partei &lt; 200 Stimmen) - ohne Prozentzahl</t>
+    <t>Die wenigen Einwohnerinnen und Einwohner der kleinen Gemeinde #Gemeinde_d gaben den folgenden drei Parteien am meisten Stimmen: Die #Party_1_partei_bezeichnung_d erhielt #Party_1_partei_stimmen Stimmen, die #Party_2_partei_bezeichnung_d #Party_2_partei_stimmen Stimmen und die #Party_3_partei_bezeichnung_d #Party_3_partei_stimmen Stimmen.</t>
+  </si>
+  <si>
+    <t>Kleine Stimmen-Zahlen (wenn 1. Partei &lt; 200 Stimmen) - ohne Prozentzahl, drei Parteien müssen vorhanden sein</t>
   </si>
   <si>
     <t>Add_highest_in_canton</t>
   </si>
   <si>
-    <t>Besonders ist: Die #Party_highest_in_canton_de hat in der Gemeinde das höchste Resultat des Kantons erzielt (ohne Kleinstgemeinden).</t>
+    <t>Besonders ist: Die #Party_highest_in_canton_d hat in der Gemeinde das höchste Resultat des Kantons erzielt (ohne Kleinstgemeinden).</t>
   </si>
   <si>
     <t>Stärkstes Partei-Resultat im Kanton (when &gt;10 Gemeinden in Kanton; nur Top-6-Parteien, ohne Kleinstgemeinden)</t>
@@ -269,7 +272,7 @@
     <t>Add_lowest_in_canton</t>
   </si>
   <si>
-    <t>Speziell: In keiner anderen Gemeinde des Kantons war die #Party_lowest_in_canton_de schwächer (ohne Kleinstgemeinden).</t>
+    <t>Speziell: In keiner anderen Gemeinde des Kantons war die #Party_lowest_in_canton_d schwächer (ohne Kleinstgemeinden).</t>
   </si>
   <si>
     <t>Schwächstes Partei-Resultat im Kanton (when &gt;10 Gemeinden in Kanton; nur Top-6-Parteien, ohne Kleinstgemeinden)</t>
@@ -278,7 +281,7 @@
     <t>Add_highest_in_CH</t>
   </si>
   <si>
-    <t>Besonders ist: Die #Party_highest_de hat in der Gemeinde das höchste Resultat der gesamten Schweiz erzielt (ohne Kleinstgemeinden).</t>
+    <t>Besonders ist: Die #Party_highest_d hat in der Gemeinde das höchste Resultat der gesamten Schweiz erzielt (ohne Kleinstgemeinden).</t>
   </si>
   <si>
     <t>Stärkstes Partei-Resultat schweizweit (nur Top-6-Parteien, ohne Kleinstgemeinden)</t>
@@ -287,7 +290,7 @@
     <t>Add_lowest_in_CH</t>
   </si>
   <si>
-    <t>Speziell: In keiner anderen Gemeinde der Schweiz war die #Party_lowest_de schwächer (ohne Kleinstgemeinden).</t>
+    <t>Speziell: In keiner anderen Gemeinde der Schweiz war die #Party_lowest_d schwächer (ohne Kleinstgemeinden).</t>
   </si>
   <si>
     <t>Schwächstes Partei-Resultat schweizweit (nur Top-6-Parteien, ohne Kleinstgemeinden)</t>
@@ -1873,11 +1876,13 @@
       <c r="A62" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="B62" s="6"/>
+      <c r="B62" s="6" t="s">
+        <v>80</v>
+      </c>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
       <c r="E62" s="12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="63">
@@ -1888,200 +1893,200 @@
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
       <c r="E63" s="12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
       <c r="E64" s="12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="14" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
       <c r="E65" s="12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="15" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C66" s="16"/>
       <c r="D66" s="16"/>
       <c r="E66" s="12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="15" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C67" s="16"/>
       <c r="D67" s="16"/>
       <c r="E67" s="12" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="17" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C68" s="16"/>
       <c r="D68" s="16"/>
       <c r="E68" s="12" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="17" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C69" s="16"/>
       <c r="D69" s="16"/>
       <c r="E69" s="12" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="17" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C70" s="16"/>
       <c r="D70" s="16"/>
       <c r="E70" s="12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="17" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C71" s="16"/>
       <c r="D71" s="16"/>
       <c r="E71" s="12" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="17" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C72" s="16"/>
       <c r="D72" s="16"/>
       <c r="E72" s="9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="17" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B73" s="18" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
       <c r="E73" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="19" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
       <c r="E74" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="19" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
       <c r="E75" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
       <c r="E76" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="19" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
       <c r="E77" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="20" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B78" s="6"/>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
       <c r="E78" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="79">
@@ -2196,57 +2201,57 @@
       </c>
       <c r="F1" s="5"/>
       <c r="G1" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="21" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F3" s="5"/>
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F4" s="5"/>
     </row>
@@ -2255,16 +2260,16 @@
         <v>14</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="21" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6">
@@ -2272,16 +2277,16 @@
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="21" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7">
@@ -2289,12 +2294,12 @@
         <v>14</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F7" s="5"/>
     </row>
@@ -2303,7 +2308,7 @@
         <v>14</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -2313,16 +2318,16 @@
         <v>19</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="21" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10">
@@ -2330,87 +2335,87 @@
         <v>19</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="21" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="21" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="21" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
     </row>
     <row r="14">
       <c r="A14" s="5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F14" s="5"/>
     </row>
     <row r="15">
       <c r="A15" s="5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F15" s="5"/>
     </row>
@@ -2419,59 +2424,59 @@
         <v>23</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
     </row>
     <row r="17">
       <c r="A17" s="5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="G17" s="21" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
     </row>
     <row r="19">
       <c r="A19" s="22" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F19" s="5"/>
     </row>
     <row r="20">
       <c r="A20" s="22" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F20" s="5"/>
     </row>
@@ -2480,19 +2485,19 @@
         <v>29</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F21" s="5"/>
       <c r="G21" s="21" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="22">
@@ -2500,7 +2505,7 @@
         <v>29</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -2510,7 +2515,7 @@
         <v>29</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -2520,7 +2525,7 @@
         <v>29</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -2530,39 +2535,39 @@
         <v>29</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
     </row>
     <row r="26">
       <c r="A26" s="5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F26" s="5"/>
       <c r="G26" s="21" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="G27" s="21" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="28" ht="27.0" customHeight="1">
@@ -2570,96 +2575,96 @@
         <v>36</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="G28" s="21" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="G29" s="21" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="G30" s="21" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
     </row>
     <row r="32">
       <c r="A32" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="G32" s="21" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="G33" s="21" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="22" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="5" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F34" s="5"/>
     </row>
     <row r="35">
       <c r="A35" s="5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -2669,12 +2674,12 @@
         <v>42</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F36" s="5"/>
     </row>
@@ -2683,12 +2688,12 @@
         <v>42</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F37" s="5"/>
     </row>
@@ -2697,87 +2702,87 @@
         <v>42</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F38" s="5"/>
     </row>
     <row r="39">
       <c r="A39" s="5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F39" s="5"/>
     </row>
     <row r="40">
       <c r="A40" s="5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F40" s="5"/>
     </row>
     <row r="41">
       <c r="A41" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F41" s="5"/>
     </row>
     <row r="42">
       <c r="A42" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F42" s="5"/>
     </row>
     <row r="43">
       <c r="A43" s="5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
     </row>
     <row r="44">
       <c r="A44" s="5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
@@ -2787,7 +2792,7 @@
         <v>47</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
@@ -2797,37 +2802,37 @@
         <v>47</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
     </row>
     <row r="47">
       <c r="A47" s="5" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
     </row>
     <row r="48">
       <c r="A48" s="5" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
     </row>
     <row r="49">
       <c r="A49" s="5" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
@@ -2837,12 +2842,12 @@
         <v>51</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F50" s="5"/>
     </row>
@@ -2851,12 +2856,12 @@
         <v>65</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
       <c r="E51" s="5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F51" s="5"/>
     </row>
@@ -2865,14 +2870,14 @@
         <v>60</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
     </row>
     <row r="53">
       <c r="A53" s="5" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>40</v>
@@ -2882,7 +2887,7 @@
     </row>
     <row r="54">
       <c r="A54" s="5" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>58</v>
@@ -2892,7 +2897,7 @@
     </row>
     <row r="55">
       <c r="A55" s="5" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>72</v>
@@ -2902,207 +2907,207 @@
     </row>
     <row r="56">
       <c r="A56" s="11" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
       <c r="E56" s="5" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F56" s="5"/>
     </row>
     <row r="57">
       <c r="A57" s="11" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
       <c r="E57" s="5" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F57" s="5"/>
     </row>
     <row r="58">
       <c r="A58" s="11" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
       <c r="E58" s="5" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F58" s="5"/>
     </row>
     <row r="59">
       <c r="A59" s="11" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
       <c r="E59" s="5" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F59" s="5"/>
     </row>
     <row r="60">
       <c r="A60" s="11" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
       <c r="E60" s="5" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F60" s="5"/>
     </row>
     <row r="61">
       <c r="A61" s="11" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
       <c r="E61" s="5" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F61" s="5"/>
     </row>
     <row r="62">
       <c r="A62" s="22" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
       <c r="E62" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F62" s="5"/>
     </row>
     <row r="63">
       <c r="A63" s="22" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
       <c r="E63" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F63" s="5"/>
     </row>
     <row r="64">
       <c r="A64" s="22" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
       <c r="E64" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F64" s="5"/>
     </row>
     <row r="65">
       <c r="A65" s="22" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
       <c r="E65" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F65" s="5"/>
     </row>
     <row r="66">
       <c r="A66" s="22" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
       <c r="E66" s="5" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F66" s="5"/>
     </row>
     <row r="67">
       <c r="A67" s="22" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
     </row>
     <row r="68">
       <c r="A68" s="22" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
       <c r="E68" s="5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F68" s="5"/>
     </row>
     <row r="69">
       <c r="A69" s="22" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
       <c r="E69" s="5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F69" s="5"/>
     </row>
     <row r="70">
       <c r="A70" s="22" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
       <c r="E70" s="5" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F70" s="5"/>
     </row>

--- a/Texte/LENA Textbausteine Eidgenössische Wahlen 2023_ Gemeindeebene.xlsx
+++ b/Texte/LENA Textbausteine Eidgenössische Wahlen 2023_ Gemeindeebene.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="248">
   <si>
     <t>Text_ID</t>
   </si>
@@ -32,16 +32,16 @@
     <t>Intro_normal</t>
   </si>
   <si>
-    <t>In #Gemeinde_d ist die #Party_1_partei_bezeichnung_d die stimmenstärkste Partei geblieben. Sie holte #Party_1_partei_staerke Prozent aller Stimmen (#Party_1_plus_minus Prozentpunkte).</t>
+    <t>In #Gemeinde_d ist die #Party1_name_d die stimmenstärkste Partei geblieben. Sie holte #Party1_voter_share Prozent aller Stimmen (#Party1_change Prozentpunkte).</t>
   </si>
   <si>
     <t>Stärkste Partei normal (unverändert)</t>
   </si>
   <si>
-    <t>Keine Änderung an der Spitze in #Gemeinde_d: #Party_1_partei_bezeichnung_d holte wie vor vier Jahren die meisten Stimmen (#Party_1_partei_staerke Prozent, #Party_1_plus_minus Prozentpunkte).</t>
-  </si>
-  <si>
-    <t>Unverändert ist die #Party_1_partei_bezeichnung_d die stärkste Partei in #Gemeinde_d geblieben, mit #Party_1_partei_staerke Prozent (#Party_1_plus_minus Prozentpunkte).</t>
+    <t>Keine Änderung an der Spitze in #Gemeinde_d: #Party1_name_d holte wie vor vier Jahren die meisten Stimmen (#Party1_voter_share Prozent, #Party1_change Prozentpunkte).</t>
+  </si>
+  <si>
+    <t>Unverändert ist die #Party1_name_d die stärkste Partei in #Gemeinde_d geblieben, mit #Party1_voter_share Prozent (#Party1_change Prozentpunkte).</t>
   </si>
   <si>
     <t>Intro_unchanged_big_jump_percentage</t>
@@ -59,73 +59,73 @@
     <t>Intro_unchanged_big_gap</t>
   </si>
   <si>
-    <t>In #Gemeinde_d ist die #Party_1_partei_bezeichnung_d weiterhin mit deutlichem Abstand die grösste Partei. #Party_1_partei_staerke Prozent der Stimmen entfielen auf sie, #Party_1_distance_to_next Prozentpunkte mehr als die nächstgrössere Partei.</t>
+    <t>In #Gemeinde_d ist die #Party1_name_d weiterhin mit deutlichem Abstand die grösste Partei. #Party1_voter_share Prozent der Stimmen entfielen auf sie, #Party1_distance_to_next Prozentpunkte mehr als die nächstgrössere Partei.</t>
   </si>
   <si>
     <t>Grösste Partei gleichgeblieben; mit deutlichem Abstand (20%-Punkte Abstand und mehr)</t>
   </si>
   <si>
-    <t>Unangefochten bleibt in #Gemeinde_d die #Party_1_partei_bezeichnung_d die stärkste Partei. Sie vereinigte bei den Nationalratswahlen #Party_1_partei_staerke Prozent der Stimmen (#Party_1_plus_minus Prozentpunkte) auf sich, #Party_1_distance_to_next Prozentpunkte mehr als die zweitplatzierte #Party_2_partei_bezeichnung_d (#Party_2_partei_staerke Prozent, #Party_2_plus_minus Prozentpunkte).</t>
-  </si>
-  <si>
-    <t>Mit deutlichem Abstand bleibt die #Party_1_partei_bezeichnung_d die grösste Partei in #Gemeinde_d. Ihre Parteistärke beträgt #Party_1_partei_staerke Prozent (#Party_1_plus_minus Prozentpunkte). Der Vorsprung auf die nächstgrössere Partei, die #Party_2_partei_bezeichnung_d ist gross: #Party_1_distance_to_next Prozentpunkte. Die #Party_2_partei_bezeichnung_d holte #Party_2_partei_staerke Prozent (#Party_2_plus_minus Prozentpunkte).</t>
+    <t>Unangefochten bleibt in #Gemeinde_d die #Party1_name_d die stärkste Partei. Sie vereinigte bei den Nationalratswahlen #Party1_voter_share Prozent der Stimmen (#Party1_change Prozentpunkte) auf sich, #Party1_distance_to_next Prozentpunkte mehr als die zweitplatzierte #Party2_name_d (#Party2_voter_share Prozent, #Party2_change Prozentpunkte).</t>
+  </si>
+  <si>
+    <t>Mit deutlichem Abstand bleibt die #Party1_name_d die grösste Partei in #Gemeinde_d. Ihre Parteistärke beträgt #Party1_voter_share Prozent (#Party1_change Prozentpunkte). Der Vorsprung auf die nächstgrössere Partei, die #Party2_name_d ist gross: #Party1_distance_to_next Prozentpunkte. Die #Party2_name_d holte #Party2_voter_share Prozent (#Party2_change Prozentpunkte).</t>
   </si>
   <si>
     <t>Intro_unchanged_small_gap</t>
   </si>
   <si>
-    <t>Ganz knapp ist die #Party_1_partei_bezeichnung_d die grösste Partei geblieben in #Gemeinde_d. Sie holte #Party_1_partei_staerke Prozent der Stimmen und blieb damit #Party_1_distance_to_next Prozentpunkte vor der #Party_2_partei_bezeichnung_d. Diese musste sich mit #Party_2_partei_staerke Prozent mit Platz zwei begnügen. Die Veränderungen gegenüber 2019: #Party_1_partei_bezeichnung_d: #Party_1_plus_minus Prozentpunkte; #Party_2_partei_bezeichnung_d: #Party_2_plus_minus Prozentpunkte.</t>
+    <t>Ganz knapp ist die #Party1_name_d die grösste Partei geblieben in #Gemeinde_d. Sie holte #Party1_voter_share Prozent der Stimmen und blieb damit #Party1_distance_to_next Prozentpunkte vor der #Party2_name_d. Diese musste sich mit #Party2_voter_share Prozent mit Platz zwei begnügen. Die Veränderungen gegenüber 2019: #Party1_name_d: #Party1_change Prozentpunkte; #Party2_name_d: #Party2_change Prozentpunkte.</t>
   </si>
   <si>
     <t>Grösste Partei gleichgeblieben; mit geringem Abstand (weniger als 3 Prozentpunkte)</t>
   </si>
   <si>
-    <t>Die #Party_1_partei_bezeichnung_d ist weiterhin die stärkste Partei in #Gemeinde_d. Mit #Party_1_partei_staerke Prozent Wähleranteil verwies sie die #Party_2_partei_bezeichnung_d allerdings nur mit #Party_1_distance_to_next Prozentpunkten Abstand auf den zweiten Platz. Diese holte #Party_2_partei_staerke Prozent. Die Veränderungen gegenüber 2019: #Party_1_partei_bezeichnung_d: #Party_1_plus_minus Prozentpunkte; #Party_2_partei_bezeichnung_d: #Party_2_plus_minus Prozentpunkte.</t>
+    <t>Die #Party1_name_d ist weiterhin die stärkste Partei in #Gemeinde_d. Mit #Party1_voter_share Prozent Wähleranteil verwies sie die #Party2_name_d allerdings nur mit #Party1_distance_to_next Prozentpunkten Abstand auf den zweiten Platz. Diese holte #Party2_voter_share Prozent. Die Veränderungen gegenüber 2019: #Party1_name_d: #Party1_change Prozentpunkte; #Party2_name_d: #Party2_change Prozentpunkte.</t>
   </si>
   <si>
     <t>Intro_tie_strongest</t>
   </si>
   <si>
-    <t>Etwas Besonderes gab es in #Gemeinde_d: Die #Party_1_partei_bezeichnung_d und die #Party_2_partei_bezeichnung_d sind genau gleich stark. Mit je #Party_1_partei_staerke Prozent kommen beide Parteien auf den gleichen Wähleranteil.</t>
+    <t>Etwas Besonderes gab es in #Gemeinde_d: Die #Party1_name_d und die #Party2_name_d sind genau gleich stark. Mit je #Party1_voter_share Prozent kommen beide Parteien auf den gleichen Wähleranteil.</t>
   </si>
   <si>
     <t>Intro_majority</t>
   </si>
   <si>
-    <t>#Gemeinde_d ist unbestrittenes Territorium der #Party_1_partei_bezeichnung_d. Die Partei holte eine absolute Mehrheit der Stimmen.</t>
+    <t>#Gemeinde_d ist unbestrittenes Territorium der #Party1_name_d. Die Partei holte eine absolute Mehrheit der Stimmen.</t>
   </si>
   <si>
     <t>Absolute Mehrheit für stärkste Partei</t>
   </si>
   <si>
-    <t>Kein Weg führt in #Gemeinde_d an der #Party_1_partei_bezeichnung_d vorbei. Sie holte mehr als die Hälfte der Stimmen und damit eine absolute Mehrheit.</t>
+    <t>Kein Weg führt in #Gemeinde_d an der #Party1_name_d vorbei. Sie holte mehr als die Hälfte der Stimmen und damit eine absolute Mehrheit.</t>
   </si>
   <si>
     <t>Intro_changed_normal</t>
   </si>
   <si>
-    <t>In #Gemeinde_d ist neu die #Party_1_partei_bezeichnung_d die stimmenstärkste Partei. Sie holte #Party_1_partei_staerke Prozent aller Stimmen. Vor vier Jahren war die Partei noch auf Rang #Party_1_rank_in_commune_prev.</t>
+    <t>In #Gemeinde_d ist neu die #Party1_name_d die stimmenstärkste Partei. Sie holte #Party1_voter_share Prozent aller Stimmen. Vor vier Jahren war die Partei noch auf Rang #Party1_rank_in_commune_prev.</t>
   </si>
   <si>
     <t>Neue stärkste Partei</t>
   </si>
   <si>
-    <t>Neu ist in #Gemeinde_d die #Party_1_partei_bezeichnung_d stärkste Kraft (Rang vor vier Jahren: #Party_1_rank_in_commune_prev). Bei den diesjährigen Nationalratswahlen vereinigte sie #Party_1_partei_staerke Prozent der Stimmen auf sich.</t>
-  </si>
-  <si>
-    <t>#Party_1_partei_bezeichnung_d hat sich in diesem Jahr von Rang #Party_1_rank_in_commune_prev auf den Spitzenplatz verbessert in #Gemeinde_d. Sie holte #Party_1_partei_staerke Prozent der Stimmen (#Party_1_plus_minus  Prozentpunkte).</t>
-  </si>
-  <si>
-    <t>Neue stärkste Kraft in #Gemeinde_d: Die #Party_1_partei_bezeichnung_d hat mit #Party_1_partei_staerke Prozent (#Party_1_plus_minus Prozentpunkte) die meisten Stimmen geholt und verbessert sich damit von Rang #Party_1_rank_in_commune_prev auf den ersten Platz.</t>
-  </si>
-  <si>
-    <t>#Gemeinde_d hat neu die meisten Stimmen an die #Party_1_partei_bezeichnung_d vergeben. Die Partei holte #Party_1_partei_staerke Prozent der Stimmen (#Party_1_plus_minus Prozentpunkte). Das bedeutet, dass sie sich von Rang #Party_1_rank_in_commune_prev auf den ersten Platz verbessert hat.</t>
+    <t>Neu ist in #Gemeinde_d die #Party1_name_d stärkste Kraft (Rang vor vier Jahren: #Party1_rank_in_commune_prev). Bei den diesjährigen Nationalratswahlen vereinigte sie #Party1_voter_share Prozent der Stimmen auf sich.</t>
+  </si>
+  <si>
+    <t>#Party1_name_d hat sich in diesem Jahr von Rang #Party1_rank_in_commune_prev auf den Spitzenplatz verbessert in #Gemeinde_d. Sie holte #Party1_voter_share Prozent der Stimmen (#Party1_change  Prozentpunkte).</t>
+  </si>
+  <si>
+    <t>Neue stärkste Kraft in #Gemeinde_d: Die #Party1_name_d hat mit #Party1_voter_share Prozent (#Party1_change Prozentpunkte) die meisten Stimmen geholt und verbessert sich damit von Rang #Party1_rank_in_commune_prev auf den ersten Platz.</t>
+  </si>
+  <si>
+    <t>#Gemeinde_d hat neu die meisten Stimmen an die #Party1_name_d vergeben. Die Partei holte #Party1_voter_share Prozent der Stimmen (#Party1_change Prozentpunkte). Das bedeutet, dass sie sich von Rang #Party1_rank_in_commune_prev auf den ersten Platz verbessert hat.</t>
   </si>
   <si>
     <t>Intro_changed_big_jump_percentage</t>
   </si>
   <si>
-    <t>Mit einem grossen Sprung von #Party_1_plus_minus Prozentpunkten ist die #Party_1_partei_bezeichnung_d die stärkste Partei geworden in #Gemeinde_d. Die Partei erhielt #Party_1_partei_staerke Prozent der Wählerstimmen.</t>
+    <t>Mit einem grossen Sprung von #Party1_change Prozentpunkten ist die #Party1_name_d die stärkste Partei geworden in #Gemeinde_d. Die Partei erhielt #Party1_voter_share Prozent der Wählerstimmen.</t>
   </si>
   <si>
     <t>Neue stärkste Partei mit grossem Zugewinn (&gt; 5 PP)</t>
@@ -134,535 +134,544 @@
     <t>Intro_Uebrige</t>
   </si>
   <si>
+    <t>Den ersten Rang haben in #Gemeinde_d Listen oder Parteien aus der Kategorie "Übrige" geholt. Diese vereinigten #Party1_voter_share Prozent der Stimmen auf sich.</t>
+  </si>
+  <si>
+    <t>Erste Partei ist "Weitere"</t>
+  </si>
+  <si>
+    <t>Second_normal</t>
+  </si>
+  <si>
+    <t>Zweitstärkste Partei ist mit #Party2_voter_share Prozent (#Party2_change Prozentpunkte gegenüber 2019) die #Party2_name_d.</t>
+  </si>
+  <si>
+    <t>Zweitstärkste Partei Normal</t>
+  </si>
+  <si>
+    <t>Die #Party2_name_d ist die zweitstärkste Kraft in der Gemeinde. Sie kommt auf #Party2_voter_share Prozent (#Party2_change Prozentpunkte).</t>
+  </si>
+  <si>
+    <t>Mit einem Wählerstimmenanteil von #Party2_voter_share Prozent (#Party2_change Prozentpunkte) ist die #Party2_name_d die zweitstärkste Kraft in der Gemeinde.</t>
+  </si>
+  <si>
+    <t>Second_big_jump_percentage</t>
+  </si>
+  <si>
+    <t>Zweitstärkste Partei in #Gemeinde_d ist die #Party2_name_d, die sich gegenüber den Wahlen 2019 um #Party2_change Prozentpunkte verbesserte und neu einen Wähleranteil von #Party2_voter_share Prozent aufweist.</t>
+  </si>
+  <si>
+    <t>Zweitstärkste Partei mit grossem Zugewinn (&gt; 5 PP)</t>
+  </si>
+  <si>
+    <t>Mit einer markanten Verbesserung um #Party2_change Prozentpunkte ist die #Party2_name_d die zweitstärkste Kraft in der Gemeinde. Ihr Wählerstimmenanteil liegt neu bei #Party2_voter_share Prozent.</t>
+  </si>
+  <si>
+    <t>Second_big_fall_percentage</t>
+  </si>
+  <si>
+    <t>Einen markanten Verlust musste die #Party2_name_d in #Gemeinde_d hinnehmen: Die Partei verlor #Party2_change Prozentpunkte gegenüber den Wahlen 2019 und liegt jetzt noch bei #Party2_voter_share Prozent Wähleranteil. Das bedeutet dennoch Rang 2.</t>
+  </si>
+  <si>
+    <t>Zweitstärkste Partei mit grossem Verlust (&lt; 5 PP)</t>
+  </si>
+  <si>
+    <t>Second_tie_third</t>
+  </si>
+  <si>
+    <t>Den zweiten Platz in #Gemeinde_d teilen sich zwei Parteien: Die #Party2_name_d und die #Party3_name_d sind genau gleich stark. Mit je #Party2_voter_share Prozent kommen beide Parteien auf den gleichen Wähleranteil.</t>
+  </si>
+  <si>
+    <t>gleicher Stimmenanteil zweit- und drittstärkste Partei</t>
+  </si>
+  <si>
+    <t>Second_Uebrige</t>
+  </si>
+  <si>
+    <t>Am zweitmeisten Stimmen, nämlich #Party2_voter_share Prozent, gingen in #Gemeinde_d an Listen oder Parteien aus der Kategorie "Übrige".</t>
+  </si>
+  <si>
+    <t>Zweite Partei ist "Weitere"</t>
+  </si>
+  <si>
+    <t>Third_normal</t>
+  </si>
+  <si>
+    <t>Die #Party3_name_d landete mit #Party3_voter_share Prozent auf dem dritten Platz (Veränderung gegenüber 2019: #Party3_change Prozentpunkte).</t>
+  </si>
+  <si>
+    <t>Drittstärkste Partei Normal</t>
+  </si>
+  <si>
+    <t>Third_big_jump_percentage</t>
+  </si>
+  <si>
+    <t>Drittstärkste Partei mit grossem Zugewinn (&gt; 5 PP)</t>
+  </si>
+  <si>
+    <t>Third_big_fall_percentage</t>
+  </si>
+  <si>
+    <t>Stark eingebüsst hat die drittplatzierte #Party3_name_d. Sie machte noch #Party3_voter_share Prozent Wähleranteil, was einen Verlust von #Party3_change Prozentpunkte bedeutet.</t>
+  </si>
+  <si>
+    <t>Drittstärkste Partei mit grossem Verlust (&lt; 5 PP)</t>
+  </si>
+  <si>
+    <t>Third_tie_fourth</t>
+  </si>
+  <si>
+    <t>Den dritten Platz in #Gemeinde_d teilen sich zwei Parteien: Die #Party3_name_d und die #Party4_name_d sind genau gleich stark. Mit je #Party3_voter_share Prozent kommen beide Parteien auf den gleichen Wähleranteil.</t>
+  </si>
+  <si>
+    <t>gleicher Stimmenanteil dritt- und viertstärkste Partei</t>
+  </si>
+  <si>
+    <t>Third_Uebrige</t>
+  </si>
+  <si>
+    <t>Am drittmeisten Stimmen, nämlich #Party3_voter_share Prozent, gingen in #Gemeinde_d an Listen oder Parteien aus der Kategorie "Übrige".</t>
+  </si>
+  <si>
+    <t>Dritte Partei ist "Weitere"</t>
+  </si>
+  <si>
+    <t>Spec_unchanged_1_2_3</t>
+  </si>
+  <si>
+    <t>Die Reihenfolge der Parteien in #Gemeinde_d hat sich im Vergleich zu den Wahlen 2019 nicht verändert: Die #Party1_name_d blieb mit #Party1_voter_share Prozent die stärkste Kraft, gefolgt von der #Party2_name_d (#Party2_voter_share Prozent, #Party2_change  Prozentpunkte) und der #Party3_name_d (#Party3_voter_share Prozent, #Party3_change Prozentpunkte).</t>
+  </si>
+  <si>
+    <t>Gleiche Reihenfolge wie beim letzten Mal bei den ersten drei Parteien + keine grossen Sprünge (&lt; 5 PP)</t>
+  </si>
+  <si>
+    <t>Alles bleibt beim Alten in #Gemeinde_d: Die drei stärksten Parteien haben ihre Spitzenplätze in unveränderter Reihenfolge verteidigt: Die #Party1_name_d geht mit #Party1_voter_share Prozent (#Party1_change Prozentpunkte) wiederum als stärkste Kraft aus den Nationalratswahlen. Zweitstärkste Partei ist die #Party2_name_d (#Party2_voter_share Prozent, #Party2_change Prozentpunkte), drittstärkste die #Party3_name_d (#Party3_voter_share Prozent, #Party3_change Prozentpunkte).</t>
+  </si>
+  <si>
+    <t>Keine Revolution in #Gemeinde_d: Unverändert belegten die #Party1_name_d, die #Party2_name_d und die #Party3_name_d die ersten drei Plätze. Sie holten #Party1_voter_share Prozent (#Party1_change Prozentpunkte), #Party2_voter_share Prozent (#Party2_change Prozentpunkte) respektive #Party3_voter_share Prozent (#Party3_change Prozentpunkte) der Stimmen.</t>
+  </si>
+  <si>
+    <t>Spec_small_community</t>
+  </si>
+  <si>
+    <t>Die wenigen Einwohnerinnen und Einwohner der kleinen Gemeinde #Gemeinde_d gaben den folgenden drei Parteien am meisten Stimmen: Die #Party1_name_d erhielt #Party1_votes Stimmen, die #Party2_name_d #Party2_votes Stimmen und die #Party3_name_d #Party3_votes Stimmen.</t>
+  </si>
+  <si>
+    <t>Kleine Stimmen-Zahlen (wenn 1. Partei &lt; 200 Stimmen) - ohne Prozentzahl, drei Parteien müssen vorhanden sein</t>
+  </si>
+  <si>
+    <t>Add_highest_in_canton</t>
+  </si>
+  <si>
+    <t>Besonders ist: Die #Party_highest_in_canton_d hat in der Gemeinde das höchste Resultat des Kantons erzielt (ohne Kleinstgemeinden).</t>
+  </si>
+  <si>
+    <t>Stärkstes Partei-Resultat im Kanton (when &gt;10 Gemeinden in Kanton; nur Top-6-Parteien, ohne Kleinstgemeinden)</t>
+  </si>
+  <si>
+    <t>Add_lowest_in_canton</t>
+  </si>
+  <si>
+    <t>Speziell: In keiner anderen Gemeinde des Kantons war die #Party_lowest_in_canton_d schwächer (ohne Kleinstgemeinden).</t>
+  </si>
+  <si>
+    <t>Schwächstes Partei-Resultat im Kanton (when &gt;10 Gemeinden in Kanton; nur Top-6-Parteien, ohne Kleinstgemeinden)</t>
+  </si>
+  <si>
+    <t>Add_highest_in_CH</t>
+  </si>
+  <si>
+    <t>Besonders ist: Die #Party_highest_d hat in der Gemeinde das höchste Resultat der gesamten Schweiz erzielt (ohne Kleinstgemeinden).</t>
+  </si>
+  <si>
+    <t>Stärkstes Partei-Resultat schweizweit (nur Top-6-Parteien, ohne Kleinstgemeinden)</t>
+  </si>
+  <si>
+    <t>Add_lowest_in_CH</t>
+  </si>
+  <si>
+    <t>Speziell: In keiner anderen Gemeinde der Schweiz war die #Party_lowest_d schwächer (ohne Kleinstgemeinden).</t>
+  </si>
+  <si>
+    <t>Schwächstes Partei-Resultat schweizweit (nur Top-6-Parteien, ohne Kleinstgemeinden)</t>
+  </si>
+  <si>
+    <t>Add_Participation_highest_in_canton</t>
+  </si>
+  <si>
+    <t>Die Gemeinde hat am Wahlsonntag die höchste Wahlbeteiligung des ganzen Kantons gehabt: #Gemeinde_participation Prozent.</t>
+  </si>
+  <si>
+    <t>Gemeinde hat am Wahlsonntag höchste Wahlbeteiligung des Kantons ausgewiesen</t>
+  </si>
+  <si>
+    <t>Add_Participation_lowest_in_canton</t>
+  </si>
+  <si>
+    <t>Die Gemeinde hat am Wahlsonntag die tiefeste Wahlbeteiligung des ganzen Kantons gehabt: #Gemeinde_participation Prozent.</t>
+  </si>
+  <si>
+    <t>Gemeinde hat am Wahlsonntag tiefste Wahlbeteiligung des Kantons ausgewiesen</t>
+  </si>
+  <si>
+    <t>Add_Participation_highest_in_CH</t>
+  </si>
+  <si>
+    <t>Die Gemeinde hat am Wahlsonntag die höchste Beteiligung der gesamten Schweiz ausgewiesen: #Gemeinde_participation Prozent.</t>
+  </si>
+  <si>
+    <t>Gemeinde mit höchster Wahlbeteiligung</t>
+  </si>
+  <si>
+    <t>Add_Participation_lowest_in_CH</t>
+  </si>
+  <si>
+    <t>Die Gemeinde hat am Wahlsonntag die tiefeste Wahlbeteiligung der ganzen Schweiz gehabt: #Gemeinde_participation Prozent.</t>
+  </si>
+  <si>
+    <t>Gemeinde mit tiefster Wahlbeteiligung</t>
+  </si>
+  <si>
+    <t>Add_Participation_Top10_in_CH</t>
+  </si>
+  <si>
+    <t>Die Gemeinde gehörte in der Schweiz zu den Gemeinden mit der höchsten Wahlbeteiligung mit #Gemeinde_participation Prozent.</t>
+  </si>
+  <si>
+    <t>Gemeinde gehört schweizweit zu den Top-10 der Wahlbeteiligung</t>
+  </si>
+  <si>
+    <t>Add_Participation_Bottom10_in_CH</t>
+  </si>
+  <si>
+    <t>Nur wenige Gemeinden wiesen am Wahlsonntag eine tiefere Wahlbeteiligung auf mit #Gemeinde_participation Prozent.</t>
+  </si>
+  <si>
+    <t>Gemeinde gehört schweizweit zu 10 mit der tiefsten Wahlbeteiligung</t>
+  </si>
+  <si>
+    <t>Add_NR_im_Wohnort_many</t>
+  </si>
+  <si>
+    <t>#Gemeinde_d zählt unter seinen Einwohnern insgesamt #Anzahl_NR_pro_Ort Nationalrätinnen und Nationalräte.</t>
+  </si>
+  <si>
+    <t>Wenn ein Wohnort mehr als 4 NR hat (betrifft Zürich, Bern etc.)</t>
+  </si>
+  <si>
+    <t>Add_NR_im_Wohnort_few</t>
+  </si>
+  <si>
+    <t>Unter den Einwohnern von #Gemeinde_d gibt es #Anzahl_NR_pro_Ort Nationalrätinnen und Nationalräte: #Names_NR_pro_Ort.</t>
+  </si>
+  <si>
+    <t>2-4 NR in Gemeinde.</t>
+  </si>
+  <si>
+    <t>Add_NR_im_Wohnort_one_f</t>
+  </si>
+  <si>
+    <t>In der Gemeinde #Gemeinde_d wohnt auch eine Nationalrätin: #Names_NR_pro_Ort.</t>
+  </si>
+  <si>
+    <t>1 NR in Gemeinde - weiblich</t>
+  </si>
+  <si>
+    <t>Add_NR_im_Wohnort_one_m</t>
+  </si>
+  <si>
+    <t>In der Gemeinde #Gemeinde_d wohnt auch ein Nationalrat: #Names_NR_pro_Ort.</t>
+  </si>
+  <si>
+    <t>1 NR in Gemeinde - männlich</t>
+  </si>
+  <si>
+    <t>Easteregg_Normalo</t>
+  </si>
+  <si>
+    <t>Durchschnittlichste Gemeinde in Bezug auf Parteistärken</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>followed by</t>
+  </si>
+  <si>
+    <t>variante für "uebrige"</t>
+  </si>
+  <si>
+    <t>Intro_unchanged_normal</t>
+  </si>
+  <si>
+    <t>In #Gemeinde_d ist die #Party_1_partei_bezeichnung_de die stimmenstärkste Partei geblieben. Sie holte #Party_1_partei_staerke Prozent aller Stimmen (#Party_1_plus_minus_d).</t>
+  </si>
+  <si>
+    <t>Stinknormal: Grösste Partei gleichgeblieben</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Keine Änderung an der Spitze in #Gemeinde_d: #Party_1_partei_bezeichnung_de holte wie vor vier Jahren die meisten Stimmen (#Party_1_partei_staerke Prozent, #Party_1_plus_minus_d).</t>
+  </si>
+  <si>
+    <t>Unverändert ist die #Party_1_partei_bezeichnung_de die stärkste Partei in #Gemeinde_d geblieben, mit #Party_1_partei_staerke Prozent (#Party_1_plus_minus_d).</t>
+  </si>
+  <si>
+    <t>In #Gemeinde_d ist die #Party_1_partei_bezeichnung_de weiterhin mit deutlichem Abstand die grösste Partei. #Party_1_partei_staerke Prozent der Stimmen entfielen auf sie, #Party_1_distance_to_next Prozentpunkte mehr als die nächstgrössere Partei.</t>
+  </si>
+  <si>
+    <t>Grösste Partei gleichgeblieben; mit deutlichem Abstand (10%-Punkte Abstand und mehr)</t>
+  </si>
+  <si>
+    <t>Mit deutlichem Abstand bleibt die #Party_1_partei_bezeichnung_de die grösste Partei in #Gemeinde_d. Ihre Parteistärke beträgt #Party_1_partei_staerke Prozent (#Party_1_plus_minus_d). Das ist ein Vorsprung von #Party_1_distance_to_next Prozentpunkten auf die nächstgrössere Partei. Die zweitplatzierte #Party_2_partei_bezeichnung_de erhielt #Party_2_partei_staerke Prozent (#Party_2_plus_minus_d).</t>
+  </si>
+  <si>
+    <t>Unangefochten bleibt in #Gemeinde_d die #Party_1_partei_bezeichnung_de die stärkste Partei. Sie vereinigte bei den Nationalratswahlen #Party_1_partei_staerke Prozent der Stimmen (#Party_1_plus_minus_d) auf sich, #Party_1_distance_to_next Prozentpunkte mehr als die zweitplatzierte #Party_2_partei_bezeichnung_de (#Party_2_partei_staerke Prozent, #Party_2_plus_minus_d).</t>
+  </si>
+  <si>
+    <t>Mit deutlichem Abstand bleibt die #Party_1_partei_bezeichnung_de die grösste Partei in #Gemeinde_d. Ihre Parteistärke beträgt #Party_1_partei_staerke Prozent (#Party_1_plus_minus_d). Der Vorsprung auf die nächstgrössere Partei, die #Party_2_partei_bezeichnung_de ist gross: #Party_1_distance_to_next Prozentpunkte. Die #Party_2_partei_bezeichnung_de holte #Party_2_partei_staerke Prozent (#Party_2_plus_minus_d).</t>
+  </si>
+  <si>
+    <t>Ganz knapp ist die #Party_1_partei_bezeichnung_de die grösste Partei geblieben in #Gemeinde_d. Sie holte #Party_1_partei_staerke Prozent der Stimmen und blieb damit #Party_1_distance_to_next Prozentpunkte vor der #Party_2_partei_bezeichnung_de. Diese musste sich mit #Party_2_partei_staerke Prozent mit Platz zwei begnügen. Die Veränderungen gegenüber 2015: #Party_1_partei_bezeichnung_de: #Party_1_plus_minus_d; #Party_2_partei_bezeichnung_de: #Party_2_plus_minus_d.</t>
+  </si>
+  <si>
+    <t>Grösste Partei gleichgeblieben; mit geringem Abstand (weniger als 2 Prozentpunkte)</t>
+  </si>
+  <si>
+    <t>Die #Party_1_partei_bezeichnung_de ist weiterhin die stärkste Partei in #Gemeinde_d. Mit #Party_1_partei_staerke Prozent Wähleranteil verwies sie die #Party_2_partei_bezeichnung_de allerdings nur mit #Party_1_distance_to_next Prozentpunkten Abstand auf den zweiten Platz. Diese holte #Party_2_partei_staerke Prozent. Die Veränderungen gegenüber 2015: #Party_1_partei_bezeichnung_de: #Party_1_plus_minus_d; #Party_2_partei_bezeichnung_de: #Party_2_plus_minus_d.</t>
+  </si>
+  <si>
+    <t>Intro_unchanged_1_2_3</t>
+  </si>
+  <si>
+    <t>Die Reihenfolge der Parteien in #Gemeinde_d hat sich im Vergleich zu den Wahlen 2015 nicht verändert: Die #Party_1_partei_bezeichnung_de blieb mit #Party_1_partei_staerke Prozent die stärkste Kraft, gefolgt von der #Party_2_partei_bezeichnung_de (#Party_2_partei_staerke Prozent, #Party_2_plus_minus_d) und der #Party_3_partei_bezeichnung_de (#Party_3_partei_staerke, #Party_3_plus_minus_d).</t>
+  </si>
+  <si>
+    <t>Die Parteien auf den Plätzen 1, 2 und 3 sind gleichgeblieben</t>
+  </si>
+  <si>
+    <t>Alles bleibt beim Alten in #Gemeinde_d: Die drei stärksten Parteien haben ihre Spitzenplätze in unveränderter Reihenfolge verteidigt: Die #Party_1_partei_bezeichnung_de geht mit #Party_1_partei_staerke Prozent (#Party_2_plus_minus_d) wiederum als stärkste Kraft aus den Nationalratswahlen. Zweitstärkste Partei ist die #Party_2_partei_bezeichnung_de (#Party_2_partei_staerke Prozent, #Party_2_plus_minus_d), drittstärkste die #Party_3_partei_bezeichnung_de (#Party_3_partei_staerke Prozent, #Party_3_plus_minus_d).</t>
+  </si>
+  <si>
+    <t>Keine Revolution in #Gemeinde_d: Unverändert belegten #Party_1_partei_bezeichnung_de, #Party_2_partei_bezeichnung_de und #Party_3_partei_bezeichnung_de die ersten drei Plätze. Sie holten #Party_1_partei_staerke (#Party_1_plus_minus_d), #Party_2_partei_staerke (#Party_2_plus_minus_d) respektive #Party_3_partei_staerke Prozent (#Party_3_plus_minus_d) der Stimmen.</t>
+  </si>
+  <si>
+    <t>Intro_unchanged_1_2_3_big_gap_1</t>
+  </si>
+  <si>
+    <t>Die Reihenfolge der Parteien in #Gemeinde_d hat sich im Vergleich zu den Wahlen 2015 nicht verändert: Die #Party_1_partei_bezeichnung_de blieb mit #Party_1_partei_staerke Prozent mit grossem Abstand die stärkste Kraft, gefolgt von der #Party_2_partei_bezeichnung_de (#Party_2_partei_staerke Prozent, #Party_2_plus_minus_d) und der #Party_3_partei_bezeichnung_de (#Party_3_partei_staerke, #Party_3_plus_minus_d).</t>
+  </si>
+  <si>
+    <t>"deutlicher Abstand" = 10 und mehr Prozentpunkte</t>
+  </si>
+  <si>
+    <t>Alles bleibt beim Alten in #Gemeinde_d: Die drei stärksten Parteien haben ihre Spitzenplätze in unveränderter Reihenfolge verteidigt: Die #Party_1_partei_bezeichnung_de geht mit #Party_1_partei_staerke Prozent (#Party_2_plus_minus_d) wiederum mit deutlichem Abstand als stärkste Kraft aus den Nationalratswahlen. Zweitstärkste Partei ist die #Party_2_partei_bezeichnung_de (#Party_2_partei_staerke Prozent, #Party_2_plus_minus_d), drittstärkste die #Party_3_partei_bezeichnung_de (#Party_3_partei_staerke Prozent, #Party_3_plus_minus_d).</t>
+  </si>
+  <si>
+    <t>Etwas Besonderes gab es in #Gemeinde_d: Die #Party_1_partei_bezeichnung_de und die #Party_2_partei_bezeichnung_de sind genau gleich stark. Mit je #Pary_1_AnzahlStimmen Stimmen kommen beide Parteien auf #Party_1_partei_staerke.</t>
+  </si>
+  <si>
+    <t>Spec_majority</t>
+  </si>
+  <si>
+    <t>#Gemeinde_d ist unbestrittenes Territorium der #Party_1_partei_bezeichnung_de. Die Partei holte eine absolute Mehrheit der Stimmen.</t>
+  </si>
+  <si>
+    <t>Kein Weg führt in #Gemeinde_d an der #Party_1_partei_bezeichnung_de vorbei. Sie holte mehr als die Hälfte der Stimmen und damit eine absolute Mehrheit.</t>
+  </si>
+  <si>
+    <t>Intro_unchanged_long_term</t>
+  </si>
+  <si>
+    <t>Unverändert wie seit #Party_1_since_year ist die #Party_1_partei_bezeichnung_de die stärkste Partei in #Gemeinde_d. Die Partei holte #Party_1_partei_staerke Prozent (#Party_1_plus_minus_d gegenüber 2015).</t>
+  </si>
+  <si>
+    <t>Eine Partei ist mindestens seit 12 Jahren an erster Stelle</t>
+  </si>
+  <si>
+    <t>Seit #Party_1_since_year ist die #Party_1_partei_bezeichnung_de die stärkste Partei in #Gemeinde_d, so auch bei diesen Nationalratswahlen. Die Partei holte #Party_1_partei_staerke Prozent der Stimmen (#Party_1_plus_minus_d im Vergleich zu 2015).</t>
+  </si>
+  <si>
+    <t>In #Gemeinde_d ist neu die #Party_1_partei_bezeichnung_de die stimmenstärkste Partei. Sie holte #Party_1_partei_staerke Prozent aller Stimmen. Vor vier Jahren war die Partei noch auf Rang #Party_1_rank_in_commune_prev.</t>
+  </si>
+  <si>
+    <t>Stärkste Partei neu; Vergleich mit 2015</t>
+  </si>
+  <si>
+    <t>Was, wenn nicht angetreten...?</t>
+  </si>
+  <si>
+    <t>Neu ist in #Gemeinde_d die #Party_1_partei_bezeichnung_de stärkste Kraft (Rang vor vier Jahren: #Party_1_rank_in_commune_prev). Bei den diesjährigen Nationalratswahlen vereinigte sie #Party_1_partei_staerke Prozent der Stimmen auf sich.</t>
+  </si>
+  <si>
+    <t>#Party_1_partei_bezeichnung_de hat sich in diesem Jahr von Rang #Party_1_rank_in_commune_prev auf den Spitzenplatz verbessert in #Gemeinde_d. Sie holte #Party_1_partei_staerke Prozent der Stimmen (#Party_1_plus_minus_d).</t>
+  </si>
+  <si>
+    <t>Neue stärkste Kraft in #Gemeinde_d: Die #Party_1_partei_bezeichnung_de hat mit #Party_1_partei_staerke Prozent (#Party_1_plus_minus_d) die meisten Stimmen geholt und verbessert sich damit von Rang #Party_1_rank_in_commune_prev auf den ersten Platz.</t>
+  </si>
+  <si>
+    <t>#Gemeinde_d hat neu die meisten Stimmen an die #Party_1_partei_bezeichnung_de vergeben. Die Partei holte #Party_1_partei_staerke Prozent der Stimmen (#Party_1_plus_minus_d). Das bedeutet, dass sie sich von Rang #Party_1_rank_in_commune_prev auf den ersten Platz verbessert hat.</t>
+  </si>
+  <si>
+    <t>Intro_changed_normal_newParty</t>
+  </si>
+  <si>
+    <t>In #Gemeinde_d ist neu die #Party_1 die stimmenstärkste Partei. Sie holte #Party_1_partei_staerke Prozent aller Stimmen. Vor vier Jahren war die Partei im Kanton #Kanton_d nicht angetreten.</t>
+  </si>
+  <si>
+    <t>Stärkste Partei neu; zuvor nicht angetreten (vorgängig überprüfen, wie häufig dieser Fall ist)</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Intro_changed_big_jump_ranks</t>
+  </si>
+  <si>
+    <t>Neu ist in #Gemeinde_d die #Party_1_partei_bezeichnung_de die stärkste Partei. Sie machte #Party_1_ranking_diff Plätze gut und holte #Party_1_partei_staerke Prozent Wähleranteil.</t>
+  </si>
+  <si>
+    <t>Mit einem grossen Sprung von #Party_1_differenz_partei_staerke Prozentpunkten ist die #Party_1_partei_bezeichnung_de die stärkste Partei geworden in #Gemeinde_d. Die Partei erhielt #Party_1_partei_staerke Prozent der Wählerstimmen.</t>
+  </si>
+  <si>
+    <t>Intro_changed_2_to_1</t>
+  </si>
+  <si>
+    <t>Die #Party_1_partei_bezeichnung_de verbesserte sich in #Gemeinde_d vom zweiten auf den ersten Platz: Mit #Party_1_partei_staerke ist sie somit neu die stärkste Kraft in der Gemeinde.</t>
+  </si>
+  <si>
+    <t>Intro_changed_2_to_1_1_to_2</t>
+  </si>
+  <si>
+    <t>Stärkste Kraft in #Gemeinde_d ist neu die #Party_1_partei_bezeichnung_de. Sie tauschte die Plätze mit der #Party_2_partei_bezeichnung_de, die nurmehr die zweitgrösste Stimmenzahl erzielte. Die #Party_1_partei_bezeichnung_de kommt auf #Party_1_partei_staerke Prozent (#Party_1_plus_minus_d), die #Party_2_partei_bezeichnung_de auf #Party_2_partei_staerke Prozent (#Party_2_plus_minus_d).</t>
+  </si>
+  <si>
+    <t>In #Gemeinde_d überholte die #Party_1_partei_bezeichnung_de die #Party_2_partei_bezeichnung_de und ist neu stärkste Partei, während die #Party_2_partei_bezeichnung_de auf Rang zwei zurückfiel. Die #Party_1_partei_bezeichnung_de kommt auf #Party_1_partei_staerke Prozent (#Party_1_plus_minus_d), die #Party_2_partei_bezeichnung_de auf #Party_2_partei_staerke Prozent (#Party_2_plus_minus_d).</t>
+  </si>
+  <si>
+    <t>Intro_changed_3_to_1</t>
+  </si>
+  <si>
+    <t>Die #Party_1_partei_bezeichnung_de verbesserte sich in #Gemeinde_d vom dritten auf den ersten Platz: Mit #Party_1_partei_staerke ist sie somit neu die stärkste Kraft in der Gemeinde.</t>
+  </si>
+  <si>
+    <t>Intro_changed_3plus_to_1</t>
+  </si>
+  <si>
+    <t>Neu die stärkste Partei in #Gemeinde_d ist die #Party_1_partei_bezeichnung_de. Die Partei machte einen grossen Sprung nach vorne: Vor vier Jahren lag sie noch auf Platz #Party_1_rank_in_commune_prev. Sie holte #Party_1_partei_staerke der Stimmen (#Party_1_plus_minus_d).</t>
+  </si>
+  <si>
+    <t>Intro_changed_first_time</t>
+  </si>
+  <si>
+    <t>Erstmals seit #Party_1_first_time_since ist die #Party_1_partei_bezeichnung_de die stärkste Partei in #Gemeinde_d. Mit #Party_1_partei_staerke Prozent (#Party_1_plus_minus_d gegenüber 2015) holte sie die meisten Stimmen und überholte damit die #Party_1_overtaken, die seit #Party_1_since_last_time an vorderster Stelle stand.</t>
+  </si>
+  <si>
+    <t>Spezialfall: Erstplatzierte Partei ist erstmals seit mindestens 8 oder 12 Jahren vor der bislang erstplatzierten Partei, die zwingend während der vorherigen Periode auf dem 1. Platz war.</t>
+  </si>
+  <si>
+    <t>First_Second_Third</t>
+  </si>
+  <si>
+    <t>#Party_1_partei_bezeichnung_de ist mit #Party_1_partei_staerke Prozent die stärkste Partei, gefolgt von der #Party_2_partei_bezeichnung_de (#Party_2_partei_staerke Prozent, #Party_2_plus_minus_d). Drittstärkste Kraft in der Gemeinde ist die #Party_3_partei_bezeichnung_de, die es auf #Party_3_partei_staerke Prozent (#Party_3_plus_minus_d) brachte.</t>
+  </si>
+  <si>
+    <t>Zweitstärkste Partei ist mit #Party_2_partei_staerke (#Party_2_plus_minus_d gegenüber 2015) die #Party_2_partei_bezeichnung_de.</t>
+  </si>
+  <si>
+    <t>Nur zweiter Platz</t>
+  </si>
+  <si>
+    <t>Die #Party_2_partei_bezeichnung_de ist die zweitstärkste Kraft in der Gemeinde. Sie kommt auf #Party_2_partei_staerke Prozent (#Party_2_plus_minus_d).</t>
+  </si>
+  <si>
+    <t>Mit einem Wählerstimmenanteil von #Party_2_partei_staerke Prozent (#Party_2_plus_minus_d) ist die #Party_2_partei_bezeichnung_de die zweitstärkste Kraft in der Gemeinde.</t>
+  </si>
+  <si>
+    <t>Second_and_Third</t>
+  </si>
+  <si>
+    <t>Auf dem zweiten Platz folgt die #Party_2_partei_bezeichnung_de (#Party_2_partei_staerke Prozent, #Party_2_plus_minus_d gegenüber 2015), auf dem dritten die #Party_3_partei_bezeichnung_de (#Party_3_partei_staerke Prozent, #Party_2_plus_minus_d).</t>
+  </si>
+  <si>
+    <t>Plätze 2 und 3</t>
+  </si>
+  <si>
+    <t>Der zweite Platz geht an #Party_2_partei_bezeichnung_de. Die Partei erhielt #Party_2_partei_staerke Prozent der Wählerstimmen (#Party_2_plus_minus_d). Drittstärkste Kraft ist #Party_3_partei_bezeichnung_de, die #Party_3_partei_staerke Prozent (#Party_3_plus_minus_d) auf sich vereinigte.</t>
+  </si>
+  <si>
+    <t>Four_and_Five</t>
+  </si>
+  <si>
+    <t>Platz vier geht an die #Party_4_partei_bezeichnung_de und auf Platz fünf kam die #Party_5_partei_bezeichnung_de zu liegen.</t>
+  </si>
+  <si>
+    <t>Plätze 4 und 5.</t>
+  </si>
+  <si>
+    <t>Die #Party_4_partei_bezeichnung_de landete auf Rang vier, die #Party_5_partei_bezeichnung_de auf Rang fünf.</t>
+  </si>
+  <si>
+    <t>Second_big_jump_rank</t>
+  </si>
+  <si>
+    <t>Zweitstärkste Partei in #Gemeinde_d ist die #Party_2_partei_bezeichnung_de, die damit #Party_2_ranking_diff Plätze gegenüber den Wahlen 2015 vorrückte. Sie holte #Party_2_partei_staerke Prozent Wählerstimmen (#Party_2_plus_minus_d).</t>
+  </si>
+  <si>
+    <t>Die #Party_2_partei_bezeichnung_de machte einen Sprung von #Party_2_ranking_diff Plätzen auf den zweiten Rang. Ihr Wählerlstimmenanteil beträgt in #Gemeinde_d #Party_2_partei_staerke Prozent (#Party_2_plus_minus_d).</t>
+  </si>
+  <si>
+    <t>Zweitstärkste Partei in #Gemeinde_d ist die #Party_2_partei_staerke, die sich gegenüber den Wahlen 2015 um #Party_2_differenz_partei_staerke Prozentpunkte verbesserte.</t>
+  </si>
+  <si>
+    <t>Mit einer markanten Verbesserung um #Party_2_differenz_partei_staerke Prozentpunkte ist die #Party_2_partei_bezeichnung_de die zweitstärkste Kraft in der Gemeinde. Ihr Wählerstimmenanteil liegt neu bei #Party_2_partei_staerke Prozent.</t>
+  </si>
+  <si>
+    <t>Second_big_jump_rank_percentage</t>
+  </si>
+  <si>
+    <t>Zweitstärkste Partei in #Gemeinde_d ist die #Party_2_partei_bezeichnung_de, die damit #Party_2_ranking_diff Plätze gegenüber den Wahlen 2015 vorrückte. Sie holte mit #Party_2_partei_staerke Prozent auch deutlich mehr Wählerstimmen. Der Zuwachs beträgt #Party_2_differenz_partei_staerke Prozentpunkte.</t>
+  </si>
+  <si>
+    <t>Zweitstärkste Partei in #Gemeinde_d ist die #Party_2_partei_bezeichnung_de, die sich gegenüber den Wahlen 2015 um #Party_2_ranking_diff Plätze und #Party_2_differenz_partei_staerke Prozentpunkte verbesserte. Sie erhielt #Party_2_partei_staerke Prozent Wählerstimmen.</t>
+  </si>
+  <si>
+    <t>Third_big_jump_rank_percentage</t>
+  </si>
+  <si>
+    <t>Einen grossen Sprung machte #Party_3_partei_bezeichnung_de: Mit #Party_3_partei_staerke Prozent Wählerstimmen legte sie um #Party_3_differenz_partei_staerke Prozentpunkte zu, was einen Sprung um #Party_3_ranking_diff Plätze auf Rang 3 bedeutet.</t>
+  </si>
+  <si>
+    <t>Einen markanten Verlust musste die #Party_2_partei_bezeichnung_de in #Gemeinde_d hinnehmen: Die Partei verlor #Party_2_differenz_partei_staerke_abs Prozentpunkte gegenüber den Wahlen 2015 und liegt jetzt noch bei #Party_2_partei_staerke Prozent Wähleranteil. Das bedeutet dennoch Rang 2.</t>
+  </si>
+  <si>
+    <t>mehr als x Prozentpunkte eingebüsst</t>
+  </si>
+  <si>
+    <t>Stark eingebüsst hat die drittplatzierte #Party_3_partei_bezeichnung_de. Sie machte noch #Party_3_partei_staerke Prozent Wähleranteil, was einen Verlust von #Party_2_differenz_partei_staerke_abs Prozentpunkte bedeutet.</t>
+  </si>
+  <si>
+    <t>Die #Party_3_partei_bezeichnung_de landete mit #Party_3_partei_staerke Prozent auf dem dritten Platz (Veränderung gegenüber 2015: #Party_3_plus_minus_d).</t>
+  </si>
+  <si>
+    <t>Spec_Uebrige_first</t>
+  </si>
+  <si>
     <t>Den ersten Rang haben in #Gemeinde_d Listen oder Parteien aus der Kategorie "Übrige" geholt. Diese vereinigten #Party_1_partei_staerke Prozent der Stimmen auf sich.</t>
   </si>
   <si>
-    <t>Erste Partei ist "Weitere"</t>
-  </si>
-  <si>
-    <t>Second_normal</t>
-  </si>
-  <si>
-    <t>Zweitstärkste Partei ist mit #Party_2_partei_staerke Prozent (#Party_2_plus_minus Prozentpunkte gegenüber 2019) die #Party_2_partei_bezeichnung_d.</t>
-  </si>
-  <si>
-    <t>Zweitstärkste Partei Normal</t>
-  </si>
-  <si>
-    <t>Die #Party_2_partei_bezeichnung_d ist die zweitstärkste Kraft in der Gemeinde. Sie kommt auf #Party_2_partei_staerke Prozent (#Party_2_plus_minus Prozentpunkte).</t>
-  </si>
-  <si>
-    <t>Mit einem Wählerstimmenanteil von #Party_2_partei_staerke Prozent (#Party_2_plus_minus Prozentpunkte) ist die #Party_2_partei_bezeichnung_d die zweitstärkste Kraft in der Gemeinde.</t>
-  </si>
-  <si>
-    <t>Second_big_jump_percentage</t>
-  </si>
-  <si>
-    <t>Zweitstärkste Partei in #Gemeinde_d ist die #Party_2_partei_bezeichnung_d, die sich gegenüber den Wahlen 2019 um #Party_2_plus_minus Prozentpunkte verbesserte und neu einen Wähleranteil von #Party_2_partei_staerke Prozent aufweist.</t>
-  </si>
-  <si>
-    <t>Zweitstärkste Partei mit grossem Zugewinn (&gt; 5 PP)</t>
-  </si>
-  <si>
-    <t>Mit einer markanten Verbesserung um #Party_2_plus_minus Prozentpunkte ist die #Party_2_partei_bezeichnung_d die zweitstärkste Kraft in der Gemeinde. Ihr Wählerstimmenanteil liegt neu bei #Party_2_partei_staerke Prozent.</t>
-  </si>
-  <si>
-    <t>Second_big_fall_percentage</t>
-  </si>
-  <si>
-    <t>Einen markanten Verlust musste die #Party_2_partei_bezeichnung_d in #Gemeinde_d hinnehmen: Die Partei verlor #Party_2_plus_minus Prozentpunkte gegenüber den Wahlen 2019 und liegt jetzt noch bei #Party_2_partei_staerke Prozent Wähleranteil. Das bedeutet dennoch Rang 2.</t>
-  </si>
-  <si>
-    <t>Zweitstärkste Partei mit grossem Verlust (&lt; 5 PP)</t>
-  </si>
-  <si>
-    <t>Second_tie_third</t>
-  </si>
-  <si>
-    <t>Den zweiten Platz in #Gemeinde_d teilen sich zwei Parteien: Die #Party_2_partei_bezeichnung_d und die #Party_3_partei_bezeichnung_d sind genau gleich stark. Mit je #Party_2_partei_staerke Prozent kommen beide Parteien auf den gleichen Wähleranteil.</t>
-  </si>
-  <si>
-    <t>gleicher Stimmenanteil zweit- und drittstärkste Partei</t>
-  </si>
-  <si>
-    <t>Second_Uebrige</t>
+    <t>Spec_Uebrige_second</t>
   </si>
   <si>
     <t>Am zweitmeisten Stimmen, nämlich #Party_2_partei_staerke Prozent, gingen in #Gemeinde_d an Listen oder Parteien aus der Kategorie "Übrige".</t>
   </si>
   <si>
-    <t>Zweite Partei ist "Weitere"</t>
-  </si>
-  <si>
-    <t>Third_normal</t>
-  </si>
-  <si>
-    <t>Die #Party_3_partei_bezeichnung_d landete mit #Party_3_partei_staerke Prozent auf dem dritten Platz (Veränderung gegenüber 2019: #Party_3_plus_minus Prozentpunkte).</t>
-  </si>
-  <si>
-    <t>Drittstärkste Partei Normal</t>
-  </si>
-  <si>
-    <t>Third_big_jump_percentage</t>
-  </si>
-  <si>
-    <t>Drittstärkste Partei mit grossem Zugewinn (&gt; 5 PP)</t>
-  </si>
-  <si>
-    <t>Third_big_fall_percentage</t>
-  </si>
-  <si>
-    <t>Stark eingebüsst hat die drittplatzierte #Party_3_partei_bezeichnung_d. Sie machte noch #Party_3_partei_staerke Prozent Wähleranteil, was einen Verlust von #Party_3_plus_minus Prozentpunkte bedeutet.</t>
-  </si>
-  <si>
-    <t>Drittstärkste Partei mit grossem Verlust (&lt; 5 PP)</t>
-  </si>
-  <si>
-    <t>Third_tie_fourth</t>
-  </si>
-  <si>
-    <t>Den dritten Platz in #Gemeinde_d teilen sich zwei Parteien: Die #Party_3_partei_bezeichnung_d und die #Party_4_partei_bezeichnung_d sind genau gleich stark. Mit je #Party_3_partei_staerke Prozent kommen beide Parteien auf den gleichen Wähleranteil.</t>
-  </si>
-  <si>
-    <t>gleicher Stimmenanteil dritt- und viertstärkste Partei</t>
-  </si>
-  <si>
-    <t>Third_Uebrige</t>
+    <t>Spec_Uebrige_third</t>
   </si>
   <si>
     <t>Am drittmeisten Stimmen, nämlich #Party_3_partei_staerke Prozent, gingen in #Gemeinde_d an Listen oder Parteien aus der Kategorie "Übrige".</t>
-  </si>
-  <si>
-    <t>Dritte Partei ist "Weitere"</t>
-  </si>
-  <si>
-    <t>Spec_unchanged_1_2_3</t>
-  </si>
-  <si>
-    <t>Die Reihenfolge der Parteien in #Gemeinde_d hat sich im Vergleich zu den Wahlen 2019 nicht verändert: Die #Party_1_partei_bezeichnung_d blieb mit #Party_1_partei_staerke Prozent die stärkste Kraft, gefolgt von der #Party_2_partei_bezeichnung_d (#Party_2_partei_staerke Prozent, #Party_2_plus_minus  Prozentpunkte) und der #Party_3_partei_bezeichnung_d (#Party_3_partei_staerke Prozent, #Party_3_plus_minus Prozentpunkte).</t>
-  </si>
-  <si>
-    <t>Gleiche Reihenfolge wie beim letzten Mal bei den ersten drei Parteien + keine grossen Sprünge (&lt; 5 PP)</t>
-  </si>
-  <si>
-    <t>Alles bleibt beim Alten in #Gemeinde_d: Die drei stärksten Parteien haben ihre Spitzenplätze in unveränderter Reihenfolge verteidigt: Die #Party_1_partei_bezeichnung_d geht mit #Party_1_partei_staerke Prozent (#Party_1_plus_minus Prozentpunkte) wiederum als stärkste Kraft aus den Nationalratswahlen. Zweitstärkste Partei ist die #Party_2_partei_bezeichnung_d (#Party_2_partei_staerke Prozent, #Party_2_plus_minus Prozentpunkte), drittstärkste die #Party_3_partei_bezeichnung_d (#Party_3_partei_staerke Prozent, #Party_3_plus_minus Prozentpunkte).</t>
-  </si>
-  <si>
-    <t>Keine Revolution in #Gemeinde_d: Unverändert belegten die #Party_1_partei_bezeichnung_d, die #Party_2_partei_bezeichnung_d und die #Party_3_partei_bezeichnung_d die ersten drei Plätze. Sie holten #Party_1_partei_staerke Prozent (#Party_1_plus_minus Prozentpunkte), #Party_2_partei_staerke Prozent (#Party_2_plus_minus Prozentpunkte) respektive #Party_3_partei_staerke Prozent (#Party_3_plus_minus Prozentpunkte) der Stimmen.</t>
-  </si>
-  <si>
-    <t>Spec_small_community</t>
-  </si>
-  <si>
-    <t>Die wenigen Einwohnerinnen und Einwohner der kleinen Gemeinde #Gemeinde_d gaben den folgenden drei Parteien am meisten Stimmen: Die #Party_1_partei_bezeichnung_d erhielt #Party_1_partei_stimmen Stimmen, die #Party_2_partei_bezeichnung_d #Party_2_partei_stimmen Stimmen und die #Party_3_partei_bezeichnung_d #Party_3_partei_stimmen Stimmen.</t>
-  </si>
-  <si>
-    <t>Kleine Stimmen-Zahlen (wenn 1. Partei &lt; 200 Stimmen) - ohne Prozentzahl, drei Parteien müssen vorhanden sein</t>
-  </si>
-  <si>
-    <t>Add_highest_in_canton</t>
-  </si>
-  <si>
-    <t>Besonders ist: Die #Party_highest_in_canton_d hat in der Gemeinde das höchste Resultat des Kantons erzielt (ohne Kleinstgemeinden).</t>
-  </si>
-  <si>
-    <t>Stärkstes Partei-Resultat im Kanton (when &gt;10 Gemeinden in Kanton; nur Top-6-Parteien, ohne Kleinstgemeinden)</t>
-  </si>
-  <si>
-    <t>Add_lowest_in_canton</t>
-  </si>
-  <si>
-    <t>Speziell: In keiner anderen Gemeinde des Kantons war die #Party_lowest_in_canton_d schwächer (ohne Kleinstgemeinden).</t>
-  </si>
-  <si>
-    <t>Schwächstes Partei-Resultat im Kanton (when &gt;10 Gemeinden in Kanton; nur Top-6-Parteien, ohne Kleinstgemeinden)</t>
-  </si>
-  <si>
-    <t>Add_highest_in_CH</t>
-  </si>
-  <si>
-    <t>Besonders ist: Die #Party_highest_d hat in der Gemeinde das höchste Resultat der gesamten Schweiz erzielt (ohne Kleinstgemeinden).</t>
-  </si>
-  <si>
-    <t>Stärkstes Partei-Resultat schweizweit (nur Top-6-Parteien, ohne Kleinstgemeinden)</t>
-  </si>
-  <si>
-    <t>Add_lowest_in_CH</t>
-  </si>
-  <si>
-    <t>Speziell: In keiner anderen Gemeinde der Schweiz war die #Party_lowest_d schwächer (ohne Kleinstgemeinden).</t>
-  </si>
-  <si>
-    <t>Schwächstes Partei-Resultat schweizweit (nur Top-6-Parteien, ohne Kleinstgemeinden)</t>
-  </si>
-  <si>
-    <t>Add_Participation_highest_in_canton</t>
-  </si>
-  <si>
-    <t>Die Gemeinde hat am Wahlsonntag die höchste Wahlbeteiligung des ganzen Kantons gehabt: #Gemeinde_participation Prozent.</t>
-  </si>
-  <si>
-    <t>Gemeinde hat am Wahlsonntag höchste Wahlbeteiligung des Kantons ausgewiesen</t>
-  </si>
-  <si>
-    <t>Add_Participation_lowest_in_canton</t>
-  </si>
-  <si>
-    <t>Die Gemeinde hat am Wahlsonntag die tiefeste Wahlbeteiligung des ganzen Kantons gehabt: #Gemeinde_participation Prozent.</t>
-  </si>
-  <si>
-    <t>Gemeinde hat am Wahlsonntag tiefste Wahlbeteiligung des Kantons ausgewiesen</t>
-  </si>
-  <si>
-    <t>Add_Participation_highest_in_CH</t>
-  </si>
-  <si>
-    <t>Die Gemeinde hat am Wahlsonntag die höchste Beteiligung der gesamten Schweiz ausgewiesen: #Gemeinde_participation Prozent.</t>
-  </si>
-  <si>
-    <t>Gemeinde mit höchster Wahlbeteiligung</t>
-  </si>
-  <si>
-    <t>Add_Participation_lowest_in_CH</t>
-  </si>
-  <si>
-    <t>Die Gemeinde hat am Wahlsonntag die tiefeste Wahlbeteiligung der ganzen Schweiz gehabt: #Gemeinde_participation Prozent.</t>
-  </si>
-  <si>
-    <t>Gemeinde mit tiefster Wahlbeteiligung</t>
-  </si>
-  <si>
-    <t>Add_Participation_Top10_in_CH</t>
-  </si>
-  <si>
-    <t>Die Gemeinde gehörte in der Schweiz zu den Gemeinden mit der höchsten Wahlbeteiligung mit #Gemeinde_participation Prozent.</t>
-  </si>
-  <si>
-    <t>Gemeinde gehört schweizweit zu den Top-10 der Wahlbeteiligung</t>
-  </si>
-  <si>
-    <t>Add_Participation_Bottom10_in_CH</t>
-  </si>
-  <si>
-    <t>Nur wenige Gemeinden wiesen am Wahlsonntag eine tiefere Wahlbeteiligung auf mit #Gemeinde_participation Prozent.</t>
-  </si>
-  <si>
-    <t>Gemeinde gehört schweizweit zu 10 mit der tiefsten Wahlbeteiligung</t>
-  </si>
-  <si>
-    <t>Add_NR_im_Wohnort_many</t>
-  </si>
-  <si>
-    <t>#Gemeinde_d zählt unter seinen Einwohnern insgesamt #Anzahl_NR_pro_Ort Nationalrätinnen und Nationalräte.</t>
-  </si>
-  <si>
-    <t>Wenn ein Wohnort mehr als 4 NR hat (betrifft Zürich, Bern etc.)</t>
-  </si>
-  <si>
-    <t>Add_NR_im_Wohnort_few</t>
-  </si>
-  <si>
-    <t>Unter den Einwohnern von #Gemeinde_d gibt es #Anzahl_NR_pro_Ort Nationalrätinnen und Nationalräte: #Names_NR_pro_Ort.</t>
-  </si>
-  <si>
-    <t>2-4 NR in Gemeinde.</t>
-  </si>
-  <si>
-    <t>Add_NR_im_Wohnort_one_f</t>
-  </si>
-  <si>
-    <t>In der Gemeinde #Gemeinde_d wohnt auch eine Nationalrätin: #Names_NR_pro_Ort.</t>
-  </si>
-  <si>
-    <t>1 NR in Gemeinde - weiblich</t>
-  </si>
-  <si>
-    <t>Add_NR_im_Wohnort_one_m</t>
-  </si>
-  <si>
-    <t>In der Gemeinde #Gemeinde_d wohnt auch ein Nationalrat: #Names_NR_pro_Ort.</t>
-  </si>
-  <si>
-    <t>1 NR in Gemeinde - männlich</t>
-  </si>
-  <si>
-    <t>Easteregg_Normalo</t>
-  </si>
-  <si>
-    <t>Durchschnittlichste Gemeinde in Bezug auf Parteistärken</t>
-  </si>
-  <si>
-    <t>done</t>
-  </si>
-  <si>
-    <t>followed by</t>
-  </si>
-  <si>
-    <t>variante für "uebrige"</t>
-  </si>
-  <si>
-    <t>Intro_unchanged_normal</t>
-  </si>
-  <si>
-    <t>In #Gemeinde_d ist die #Party_1_partei_bezeichnung_de die stimmenstärkste Partei geblieben. Sie holte #Party_1_partei_staerke Prozent aller Stimmen (#Party_1_plus_minus_d).</t>
-  </si>
-  <si>
-    <t>Stinknormal: Grösste Partei gleichgeblieben</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Keine Änderung an der Spitze in #Gemeinde_d: #Party_1_partei_bezeichnung_de holte wie vor vier Jahren die meisten Stimmen (#Party_1_partei_staerke Prozent, #Party_1_plus_minus_d).</t>
-  </si>
-  <si>
-    <t>Unverändert ist die #Party_1_partei_bezeichnung_de die stärkste Partei in #Gemeinde_d geblieben, mit #Party_1_partei_staerke Prozent (#Party_1_plus_minus_d).</t>
-  </si>
-  <si>
-    <t>In #Gemeinde_d ist die #Party_1_partei_bezeichnung_de weiterhin mit deutlichem Abstand die grösste Partei. #Party_1_partei_staerke Prozent der Stimmen entfielen auf sie, #Party_1_distance_to_next Prozentpunkte mehr als die nächstgrössere Partei.</t>
-  </si>
-  <si>
-    <t>Grösste Partei gleichgeblieben; mit deutlichem Abstand (10%-Punkte Abstand und mehr)</t>
-  </si>
-  <si>
-    <t>Mit deutlichem Abstand bleibt die #Party_1_partei_bezeichnung_de die grösste Partei in #Gemeinde_d. Ihre Parteistärke beträgt #Party_1_partei_staerke Prozent (#Party_1_plus_minus_d). Das ist ein Vorsprung von #Party_1_distance_to_next Prozentpunkten auf die nächstgrössere Partei. Die zweitplatzierte #Party_2_partei_bezeichnung_de erhielt #Party_2_partei_staerke Prozent (#Party_2_plus_minus_d).</t>
-  </si>
-  <si>
-    <t>Unangefochten bleibt in #Gemeinde_d die #Party_1_partei_bezeichnung_de die stärkste Partei. Sie vereinigte bei den Nationalratswahlen #Party_1_partei_staerke Prozent der Stimmen (#Party_1_plus_minus_d) auf sich, #Party_1_distance_to_next Prozentpunkte mehr als die zweitplatzierte #Party_2_partei_bezeichnung_de (#Party_2_partei_staerke Prozent, #Party_2_plus_minus_d).</t>
-  </si>
-  <si>
-    <t>Mit deutlichem Abstand bleibt die #Party_1_partei_bezeichnung_de die grösste Partei in #Gemeinde_d. Ihre Parteistärke beträgt #Party_1_partei_staerke Prozent (#Party_1_plus_minus_d). Der Vorsprung auf die nächstgrössere Partei, die #Party_2_partei_bezeichnung_de ist gross: #Party_1_distance_to_next Prozentpunkte. Die #Party_2_partei_bezeichnung_de holte #Party_2_partei_staerke Prozent (#Party_2_plus_minus_d).</t>
-  </si>
-  <si>
-    <t>Ganz knapp ist die #Party_1_partei_bezeichnung_de die grösste Partei geblieben in #Gemeinde_d. Sie holte #Party_1_partei_staerke Prozent der Stimmen und blieb damit #Party_1_distance_to_next Prozentpunkte vor der #Party_2_partei_bezeichnung_de. Diese musste sich mit #Party_2_partei_staerke Prozent mit Platz zwei begnügen. Die Veränderungen gegenüber 2015: #Party_1_partei_bezeichnung_de: #Party_1_plus_minus_d; #Party_2_partei_bezeichnung_de: #Party_2_plus_minus_d.</t>
-  </si>
-  <si>
-    <t>Grösste Partei gleichgeblieben; mit geringem Abstand (weniger als 2 Prozentpunkte)</t>
-  </si>
-  <si>
-    <t>Die #Party_1_partei_bezeichnung_de ist weiterhin die stärkste Partei in #Gemeinde_d. Mit #Party_1_partei_staerke Prozent Wähleranteil verwies sie die #Party_2_partei_bezeichnung_de allerdings nur mit #Party_1_distance_to_next Prozentpunkten Abstand auf den zweiten Platz. Diese holte #Party_2_partei_staerke Prozent. Die Veränderungen gegenüber 2015: #Party_1_partei_bezeichnung_de: #Party_1_plus_minus_d; #Party_2_partei_bezeichnung_de: #Party_2_plus_minus_d.</t>
-  </si>
-  <si>
-    <t>Intro_unchanged_1_2_3</t>
-  </si>
-  <si>
-    <t>Die Reihenfolge der Parteien in #Gemeinde_d hat sich im Vergleich zu den Wahlen 2015 nicht verändert: Die #Party_1_partei_bezeichnung_de blieb mit #Party_1_partei_staerke Prozent die stärkste Kraft, gefolgt von der #Party_2_partei_bezeichnung_de (#Party_2_partei_staerke Prozent, #Party_2_plus_minus_d) und der #Party_3_partei_bezeichnung_de (#Party_3_partei_staerke, #Party_3_plus_minus_d).</t>
-  </si>
-  <si>
-    <t>Die Parteien auf den Plätzen 1, 2 und 3 sind gleichgeblieben</t>
-  </si>
-  <si>
-    <t>Alles bleibt beim Alten in #Gemeinde_d: Die drei stärksten Parteien haben ihre Spitzenplätze in unveränderter Reihenfolge verteidigt: Die #Party_1_partei_bezeichnung_de geht mit #Party_1_partei_staerke Prozent (#Party_2_plus_minus_d) wiederum als stärkste Kraft aus den Nationalratswahlen. Zweitstärkste Partei ist die #Party_2_partei_bezeichnung_de (#Party_2_partei_staerke Prozent, #Party_2_plus_minus_d), drittstärkste die #Party_3_partei_bezeichnung_de (#Party_3_partei_staerke Prozent, #Party_3_plus_minus_d).</t>
-  </si>
-  <si>
-    <t>Keine Revolution in #Gemeinde_d: Unverändert belegten #Party_1_partei_bezeichnung_de, #Party_2_partei_bezeichnung_de und #Party_3_partei_bezeichnung_de die ersten drei Plätze. Sie holten #Party_1_partei_staerke (#Party_1_plus_minus_d), #Party_2_partei_staerke (#Party_2_plus_minus_d) respektive #Party_3_partei_staerke Prozent (#Party_3_plus_minus_d) der Stimmen.</t>
-  </si>
-  <si>
-    <t>Intro_unchanged_1_2_3_big_gap_1</t>
-  </si>
-  <si>
-    <t>Die Reihenfolge der Parteien in #Gemeinde_d hat sich im Vergleich zu den Wahlen 2015 nicht verändert: Die #Party_1_partei_bezeichnung_de blieb mit #Party_1_partei_staerke Prozent mit grossem Abstand die stärkste Kraft, gefolgt von der #Party_2_partei_bezeichnung_de (#Party_2_partei_staerke Prozent, #Party_2_plus_minus_d) und der #Party_3_partei_bezeichnung_de (#Party_3_partei_staerke, #Party_3_plus_minus_d).</t>
-  </si>
-  <si>
-    <t>"deutlicher Abstand" = 10 und mehr Prozentpunkte</t>
-  </si>
-  <si>
-    <t>Alles bleibt beim Alten in #Gemeinde_d: Die drei stärksten Parteien haben ihre Spitzenplätze in unveränderter Reihenfolge verteidigt: Die #Party_1_partei_bezeichnung_de geht mit #Party_1_partei_staerke Prozent (#Party_2_plus_minus_d) wiederum mit deutlichem Abstand als stärkste Kraft aus den Nationalratswahlen. Zweitstärkste Partei ist die #Party_2_partei_bezeichnung_de (#Party_2_partei_staerke Prozent, #Party_2_plus_minus_d), drittstärkste die #Party_3_partei_bezeichnung_de (#Party_3_partei_staerke Prozent, #Party_3_plus_minus_d).</t>
-  </si>
-  <si>
-    <t>Etwas Besonderes gab es in #Gemeinde_d: Die #Party_1_partei_bezeichnung_de und die #Party_2_partei_bezeichnung_de sind genau gleich stark. Mit je #Pary_1_AnzahlStimmen Stimmen kommen beide Parteien auf #Party_1_partei_staerke.</t>
-  </si>
-  <si>
-    <t>Spec_majority</t>
-  </si>
-  <si>
-    <t>#Gemeinde_d ist unbestrittenes Territorium der #Party_1_partei_bezeichnung_de. Die Partei holte eine absolute Mehrheit der Stimmen.</t>
-  </si>
-  <si>
-    <t>Kein Weg führt in #Gemeinde_d an der #Party_1_partei_bezeichnung_de vorbei. Sie holte mehr als die Hälfte der Stimmen und damit eine absolute Mehrheit.</t>
-  </si>
-  <si>
-    <t>Intro_unchanged_long_term</t>
-  </si>
-  <si>
-    <t>Unverändert wie seit #Party_1_since_year ist die #Party_1_partei_bezeichnung_de die stärkste Partei in #Gemeinde_d. Die Partei holte #Party_1_partei_staerke Prozent (#Party_1_plus_minus_d gegenüber 2015).</t>
-  </si>
-  <si>
-    <t>Eine Partei ist mindestens seit 12 Jahren an erster Stelle</t>
-  </si>
-  <si>
-    <t>Seit #Party_1_since_year ist die #Party_1_partei_bezeichnung_de die stärkste Partei in #Gemeinde_d, so auch bei diesen Nationalratswahlen. Die Partei holte #Party_1_partei_staerke Prozent der Stimmen (#Party_1_plus_minus_d im Vergleich zu 2015).</t>
-  </si>
-  <si>
-    <t>In #Gemeinde_d ist neu die #Party_1_partei_bezeichnung_de die stimmenstärkste Partei. Sie holte #Party_1_partei_staerke Prozent aller Stimmen. Vor vier Jahren war die Partei noch auf Rang #Party_1_rank_in_commune_prev.</t>
-  </si>
-  <si>
-    <t>Stärkste Partei neu; Vergleich mit 2015</t>
-  </si>
-  <si>
-    <t>Was, wenn nicht angetreten...?</t>
-  </si>
-  <si>
-    <t>Neu ist in #Gemeinde_d die #Party_1_partei_bezeichnung_de stärkste Kraft (Rang vor vier Jahren: #Party_1_rank_in_commune_prev). Bei den diesjährigen Nationalratswahlen vereinigte sie #Party_1_partei_staerke Prozent der Stimmen auf sich.</t>
-  </si>
-  <si>
-    <t>#Party_1_partei_bezeichnung_de hat sich in diesem Jahr von Rang #Party_1_rank_in_commune_prev auf den Spitzenplatz verbessert in #Gemeinde_d. Sie holte #Party_1_partei_staerke Prozent der Stimmen (#Party_1_plus_minus_d).</t>
-  </si>
-  <si>
-    <t>Neue stärkste Kraft in #Gemeinde_d: Die #Party_1_partei_bezeichnung_de hat mit #Party_1_partei_staerke Prozent (#Party_1_plus_minus_d) die meisten Stimmen geholt und verbessert sich damit von Rang #Party_1_rank_in_commune_prev auf den ersten Platz.</t>
-  </si>
-  <si>
-    <t>#Gemeinde_d hat neu die meisten Stimmen an die #Party_1_partei_bezeichnung_de vergeben. Die Partei holte #Party_1_partei_staerke Prozent der Stimmen (#Party_1_plus_minus_d). Das bedeutet, dass sie sich von Rang #Party_1_rank_in_commune_prev auf den ersten Platz verbessert hat.</t>
-  </si>
-  <si>
-    <t>Intro_changed_normal_newParty</t>
-  </si>
-  <si>
-    <t>In #Gemeinde_d ist neu die #Party_1 die stimmenstärkste Partei. Sie holte #Party_1_partei_staerke Prozent aller Stimmen. Vor vier Jahren war die Partei im Kanton #Kanton_d nicht angetreten.</t>
-  </si>
-  <si>
-    <t>Stärkste Partei neu; zuvor nicht angetreten (vorgängig überprüfen, wie häufig dieser Fall ist)</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>Intro_changed_big_jump_ranks</t>
-  </si>
-  <si>
-    <t>Neu ist in #Gemeinde_d die #Party_1_partei_bezeichnung_de die stärkste Partei. Sie machte #Party_1_ranking_diff Plätze gut und holte #Party_1_partei_staerke Prozent Wähleranteil.</t>
-  </si>
-  <si>
-    <t>Mit einem grossen Sprung von #Party_1_differenz_partei_staerke Prozentpunkten ist die #Party_1_partei_bezeichnung_de die stärkste Partei geworden in #Gemeinde_d. Die Partei erhielt #Party_1_partei_staerke Prozent der Wählerstimmen.</t>
-  </si>
-  <si>
-    <t>Intro_changed_2_to_1</t>
-  </si>
-  <si>
-    <t>Die #Party_1_partei_bezeichnung_de verbesserte sich in #Gemeinde_d vom zweiten auf den ersten Platz: Mit #Party_1_partei_staerke ist sie somit neu die stärkste Kraft in der Gemeinde.</t>
-  </si>
-  <si>
-    <t>Intro_changed_2_to_1_1_to_2</t>
-  </si>
-  <si>
-    <t>Stärkste Kraft in #Gemeinde_d ist neu die #Party_1_partei_bezeichnung_de. Sie tauschte die Plätze mit der #Party_2_partei_bezeichnung_de, die nurmehr die zweitgrösste Stimmenzahl erzielte. Die #Party_1_partei_bezeichnung_de kommt auf #Party_1_partei_staerke Prozent (#Party_1_plus_minus_d), die #Party_2_partei_bezeichnung_de auf #Party_2_partei_staerke Prozent (#Party_2_plus_minus_d).</t>
-  </si>
-  <si>
-    <t>In #Gemeinde_d überholte die #Party_1_partei_bezeichnung_de die #Party_2_partei_bezeichnung_de und ist neu stärkste Partei, während die #Party_2_partei_bezeichnung_de auf Rang zwei zurückfiel. Die #Party_1_partei_bezeichnung_de kommt auf #Party_1_partei_staerke Prozent (#Party_1_plus_minus_d), die #Party_2_partei_bezeichnung_de auf #Party_2_partei_staerke Prozent (#Party_2_plus_minus_d).</t>
-  </si>
-  <si>
-    <t>Intro_changed_3_to_1</t>
-  </si>
-  <si>
-    <t>Die #Party_1_partei_bezeichnung_de verbesserte sich in #Gemeinde_d vom dritten auf den ersten Platz: Mit #Party_1_partei_staerke ist sie somit neu die stärkste Kraft in der Gemeinde.</t>
-  </si>
-  <si>
-    <t>Intro_changed_3plus_to_1</t>
-  </si>
-  <si>
-    <t>Neu die stärkste Partei in #Gemeinde_d ist die #Party_1_partei_bezeichnung_de. Die Partei machte einen grossen Sprung nach vorne: Vor vier Jahren lag sie noch auf Platz #Party_1_rank_in_commune_prev. Sie holte #Party_1_partei_staerke der Stimmen (#Party_1_plus_minus_d).</t>
-  </si>
-  <si>
-    <t>Intro_changed_first_time</t>
-  </si>
-  <si>
-    <t>Erstmals seit #Party_1_first_time_since ist die #Party_1_partei_bezeichnung_de die stärkste Partei in #Gemeinde_d. Mit #Party_1_partei_staerke Prozent (#Party_1_plus_minus_d gegenüber 2015) holte sie die meisten Stimmen und überholte damit die #Party_1_overtaken, die seit #Party_1_since_last_time an vorderster Stelle stand.</t>
-  </si>
-  <si>
-    <t>Spezialfall: Erstplatzierte Partei ist erstmals seit mindestens 8 oder 12 Jahren vor der bislang erstplatzierten Partei, die zwingend während der vorherigen Periode auf dem 1. Platz war.</t>
-  </si>
-  <si>
-    <t>First_Second_Third</t>
-  </si>
-  <si>
-    <t>#Party_1_partei_bezeichnung_de ist mit #Party_1_partei_staerke Prozent die stärkste Partei, gefolgt von der #Party_2_partei_bezeichnung_de (#Party_2_partei_staerke Prozent, #Party_2_plus_minus_d). Drittstärkste Kraft in der Gemeinde ist die #Party_3_partei_bezeichnung_de, die es auf #Party_3_partei_staerke Prozent (#Party_3_plus_minus_d) brachte.</t>
-  </si>
-  <si>
-    <t>Zweitstärkste Partei ist mit #Party_2_partei_staerke (#Party_2_plus_minus_d gegenüber 2015) die #Party_2_partei_bezeichnung_de.</t>
-  </si>
-  <si>
-    <t>Nur zweiter Platz</t>
-  </si>
-  <si>
-    <t>Die #Party_2_partei_bezeichnung_de ist die zweitstärkste Kraft in der Gemeinde. Sie kommt auf #Party_2_partei_staerke Prozent (#Party_2_plus_minus_d).</t>
-  </si>
-  <si>
-    <t>Mit einem Wählerstimmenanteil von #Party_2_partei_staerke Prozent (#Party_2_plus_minus_d) ist die #Party_2_partei_bezeichnung_de die zweitstärkste Kraft in der Gemeinde.</t>
-  </si>
-  <si>
-    <t>Second_and_Third</t>
-  </si>
-  <si>
-    <t>Auf dem zweiten Platz folgt die #Party_2_partei_bezeichnung_de (#Party_2_partei_staerke Prozent, #Party_2_plus_minus_d gegenüber 2015), auf dem dritten die #Party_3_partei_bezeichnung_de (#Party_3_partei_staerke Prozent, #Party_2_plus_minus_d).</t>
-  </si>
-  <si>
-    <t>Plätze 2 und 3</t>
-  </si>
-  <si>
-    <t>Der zweite Platz geht an #Party_2_partei_bezeichnung_de. Die Partei erhielt #Party_2_partei_staerke Prozent der Wählerstimmen (#Party_2_plus_minus_d). Drittstärkste Kraft ist #Party_3_partei_bezeichnung_de, die #Party_3_partei_staerke Prozent (#Party_3_plus_minus_d) auf sich vereinigte.</t>
-  </si>
-  <si>
-    <t>Four_and_Five</t>
-  </si>
-  <si>
-    <t>Platz vier geht an die #Party_4_partei_bezeichnung_de und auf Platz fünf kam die #Party_5_partei_bezeichnung_de zu liegen.</t>
-  </si>
-  <si>
-    <t>Plätze 4 und 5.</t>
-  </si>
-  <si>
-    <t>Die #Party_4_partei_bezeichnung_de landete auf Rang vier, die #Party_5_partei_bezeichnung_de auf Rang fünf.</t>
-  </si>
-  <si>
-    <t>Second_big_jump_rank</t>
-  </si>
-  <si>
-    <t>Zweitstärkste Partei in #Gemeinde_d ist die #Party_2_partei_bezeichnung_de, die damit #Party_2_ranking_diff Plätze gegenüber den Wahlen 2015 vorrückte. Sie holte #Party_2_partei_staerke Prozent Wählerstimmen (#Party_2_plus_minus_d).</t>
-  </si>
-  <si>
-    <t>Die #Party_2_partei_bezeichnung_de machte einen Sprung von #Party_2_ranking_diff Plätzen auf den zweiten Rang. Ihr Wählerlstimmenanteil beträgt in #Gemeinde_d #Party_2_partei_staerke Prozent (#Party_2_plus_minus_d).</t>
-  </si>
-  <si>
-    <t>Zweitstärkste Partei in #Gemeinde_d ist die #Party_2_partei_staerke, die sich gegenüber den Wahlen 2015 um #Party_2_differenz_partei_staerke Prozentpunkte verbesserte.</t>
-  </si>
-  <si>
-    <t>Mit einer markanten Verbesserung um #Party_2_differenz_partei_staerke Prozentpunkte ist die #Party_2_partei_bezeichnung_de die zweitstärkste Kraft in der Gemeinde. Ihr Wählerstimmenanteil liegt neu bei #Party_2_partei_staerke Prozent.</t>
-  </si>
-  <si>
-    <t>Second_big_jump_rank_percentage</t>
-  </si>
-  <si>
-    <t>Zweitstärkste Partei in #Gemeinde_d ist die #Party_2_partei_bezeichnung_de, die damit #Party_2_ranking_diff Plätze gegenüber den Wahlen 2015 vorrückte. Sie holte mit #Party_2_partei_staerke Prozent auch deutlich mehr Wählerstimmen. Der Zuwachs beträgt #Party_2_differenz_partei_staerke Prozentpunkte.</t>
-  </si>
-  <si>
-    <t>Zweitstärkste Partei in #Gemeinde_d ist die #Party_2_partei_bezeichnung_de, die sich gegenüber den Wahlen 2015 um #Party_2_ranking_diff Plätze und #Party_2_differenz_partei_staerke Prozentpunkte verbesserte. Sie erhielt #Party_2_partei_staerke Prozent Wählerstimmen.</t>
-  </si>
-  <si>
-    <t>Third_big_jump_rank_percentage</t>
-  </si>
-  <si>
-    <t>Einen grossen Sprung machte #Party_3_partei_bezeichnung_de: Mit #Party_3_partei_staerke Prozent Wählerstimmen legte sie um #Party_3_differenz_partei_staerke Prozentpunkte zu, was einen Sprung um #Party_3_ranking_diff Plätze auf Rang 3 bedeutet.</t>
-  </si>
-  <si>
-    <t>Einen markanten Verlust musste die #Party_2_partei_bezeichnung_de in #Gemeinde_d hinnehmen: Die Partei verlor #Party_2_differenz_partei_staerke_abs Prozentpunkte gegenüber den Wahlen 2015 und liegt jetzt noch bei #Party_2_partei_staerke Prozent Wähleranteil. Das bedeutet dennoch Rang 2.</t>
-  </si>
-  <si>
-    <t>mehr als x Prozentpunkte eingebüsst</t>
-  </si>
-  <si>
-    <t>Stark eingebüsst hat die drittplatzierte #Party_3_partei_bezeichnung_de. Sie machte noch #Party_3_partei_staerke Prozent Wähleranteil, was einen Verlust von #Party_2_differenz_partei_staerke_abs Prozentpunkte bedeutet.</t>
-  </si>
-  <si>
-    <t>Die #Party_3_partei_bezeichnung_de landete mit #Party_3_partei_staerke Prozent auf dem dritten Platz (Veränderung gegenüber 2015: #Party_3_plus_minus_d).</t>
-  </si>
-  <si>
-    <t>Spec_Uebrige_first</t>
-  </si>
-  <si>
-    <t>Spec_Uebrige_second</t>
-  </si>
-  <si>
-    <t>Spec_Uebrige_third</t>
   </si>
   <si>
     <t>Spec_highest_in_canton</t>
@@ -2880,118 +2889,118 @@
         <v>214</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>40</v>
+        <v>215</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
     </row>
     <row r="54">
       <c r="A54" s="5" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>58</v>
+        <v>217</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
     </row>
     <row r="55">
       <c r="A55" s="5" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>72</v>
+        <v>219</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
     </row>
     <row r="56">
       <c r="A56" s="11" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
       <c r="E56" s="5" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="F56" s="5"/>
     </row>
     <row r="57">
       <c r="A57" s="11" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
       <c r="E57" s="5" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="F57" s="5"/>
     </row>
     <row r="58">
       <c r="A58" s="11" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
       <c r="E58" s="5" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="F58" s="5"/>
     </row>
     <row r="59">
       <c r="A59" s="11" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
       <c r="E59" s="5" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="F59" s="5"/>
     </row>
     <row r="60">
       <c r="A60" s="11" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
       <c r="E60" s="5" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="F60" s="5"/>
     </row>
     <row r="61">
       <c r="A61" s="11" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
       <c r="E61" s="5" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="F61" s="5"/>
     </row>
     <row r="62">
       <c r="A62" s="22" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>113</v>
@@ -3005,7 +3014,7 @@
     </row>
     <row r="63">
       <c r="A63" s="22" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>116</v>
@@ -3019,7 +3028,7 @@
     </row>
     <row r="64">
       <c r="A64" s="22" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>119</v>
@@ -3033,7 +3042,7 @@
     </row>
     <row r="65">
       <c r="A65" s="22" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>122</v>
@@ -3047,67 +3056,67 @@
     </row>
     <row r="66">
       <c r="A66" s="22" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
       <c r="E66" s="5" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="F66" s="5"/>
     </row>
     <row r="67">
       <c r="A67" s="22" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
     </row>
     <row r="68">
       <c r="A68" s="22" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
       <c r="E68" s="5" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="F68" s="5"/>
     </row>
     <row r="69">
       <c r="A69" s="22" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
       <c r="E69" s="5" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="F69" s="5"/>
     </row>
     <row r="70">
       <c r="A70" s="22" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
       <c r="E70" s="5" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="F70" s="5"/>
     </row>

--- a/Texte/LENA Textbausteine Eidgenössische Wahlen 2023_ Gemeindeebene.xlsx
+++ b/Texte/LENA Textbausteine Eidgenössische Wahlen 2023_ Gemeindeebene.xlsx
@@ -5,7 +5,6 @@
   <sheets>
     <sheet state="visible" name="Textbausteine_Selektion" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="Variablen" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Textbausteine_Original" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -13,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="262">
   <si>
     <t>Text_ID</t>
   </si>
@@ -799,378 +798,6 @@
   </si>
   <si>
     <t xml:space="preserve">Stimmbeteiligung </t>
-  </si>
-  <si>
-    <t>done</t>
-  </si>
-  <si>
-    <t>followed by</t>
-  </si>
-  <si>
-    <t>variante für "uebrige"</t>
-  </si>
-  <si>
-    <t>Intro_unchanged_normal</t>
-  </si>
-  <si>
-    <t>In #Gemeinde_d ist die #Party_1_partei_bezeichnung_de die stimmenstärkste Partei geblieben. Sie holte #Party_1_partei_staerke Prozent aller Stimmen (#Party_1_plus_minus_d).</t>
-  </si>
-  <si>
-    <t>Stinknormal: Grösste Partei gleichgeblieben</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Keine Änderung an der Spitze in #Gemeinde_d: #Party_1_partei_bezeichnung_de holte wie vor vier Jahren die meisten Stimmen (#Party_1_partei_staerke Prozent, #Party_1_plus_minus_d).</t>
-  </si>
-  <si>
-    <t>Unverändert ist die #Party_1_partei_bezeichnung_de die stärkste Partei in #Gemeinde_d geblieben, mit #Party_1_partei_staerke Prozent (#Party_1_plus_minus_d).</t>
-  </si>
-  <si>
-    <t>In #Gemeinde_d ist die #Party_1_partei_bezeichnung_de weiterhin mit deutlichem Abstand die grösste Partei. #Party_1_partei_staerke Prozent der Stimmen entfielen auf sie, #Party_1_distance_to_next Prozentpunkte mehr als die nächstgrössere Partei.</t>
-  </si>
-  <si>
-    <t>Grösste Partei gleichgeblieben; mit deutlichem Abstand (10%-Punkte Abstand und mehr)</t>
-  </si>
-  <si>
-    <t>Mit deutlichem Abstand bleibt die #Party_1_partei_bezeichnung_de die grösste Partei in #Gemeinde_d. Ihre Parteistärke beträgt #Party_1_partei_staerke Prozent (#Party_1_plus_minus_d). Das ist ein Vorsprung von #Party_1_distance_to_next Prozentpunkten auf die nächstgrössere Partei. Die zweitplatzierte #Party_2_partei_bezeichnung_de erhielt #Party_2_partei_staerke Prozent (#Party_2_plus_minus_d).</t>
-  </si>
-  <si>
-    <t>Unangefochten bleibt in #Gemeinde_d die #Party_1_partei_bezeichnung_de die stärkste Partei. Sie vereinigte bei den Nationalratswahlen #Party_1_partei_staerke Prozent der Stimmen (#Party_1_plus_minus_d) auf sich, #Party_1_distance_to_next Prozentpunkte mehr als die zweitplatzierte #Party_2_partei_bezeichnung_de (#Party_2_partei_staerke Prozent, #Party_2_plus_minus_d).</t>
-  </si>
-  <si>
-    <t>Mit deutlichem Abstand bleibt die #Party_1_partei_bezeichnung_de die grösste Partei in #Gemeinde_d. Ihre Parteistärke beträgt #Party_1_partei_staerke Prozent (#Party_1_plus_minus_d). Der Vorsprung auf die nächstgrössere Partei, die #Party_2_partei_bezeichnung_de ist gross: #Party_1_distance_to_next Prozentpunkte. Die #Party_2_partei_bezeichnung_de holte #Party_2_partei_staerke Prozent (#Party_2_plus_minus_d).</t>
-  </si>
-  <si>
-    <t>Ganz knapp ist die #Party_1_partei_bezeichnung_de die grösste Partei geblieben in #Gemeinde_d. Sie holte #Party_1_partei_staerke Prozent der Stimmen und blieb damit #Party_1_distance_to_next Prozentpunkte vor der #Party_2_partei_bezeichnung_de. Diese musste sich mit #Party_2_partei_staerke Prozent mit Platz zwei begnügen. Die Veränderungen gegenüber 2015: #Party_1_partei_bezeichnung_de: #Party_1_plus_minus_d; #Party_2_partei_bezeichnung_de: #Party_2_plus_minus_d.</t>
-  </si>
-  <si>
-    <t>Grösste Partei gleichgeblieben; mit geringem Abstand (weniger als 2 Prozentpunkte)</t>
-  </si>
-  <si>
-    <t>Die #Party_1_partei_bezeichnung_de ist weiterhin die stärkste Partei in #Gemeinde_d. Mit #Party_1_partei_staerke Prozent Wähleranteil verwies sie die #Party_2_partei_bezeichnung_de allerdings nur mit #Party_1_distance_to_next Prozentpunkten Abstand auf den zweiten Platz. Diese holte #Party_2_partei_staerke Prozent. Die Veränderungen gegenüber 2015: #Party_1_partei_bezeichnung_de: #Party_1_plus_minus_d; #Party_2_partei_bezeichnung_de: #Party_2_plus_minus_d.</t>
-  </si>
-  <si>
-    <t>Intro_unchanged_1_2_3</t>
-  </si>
-  <si>
-    <t>Die Reihenfolge der Parteien in #Gemeinde_d hat sich im Vergleich zu den Wahlen 2015 nicht verändert: Die #Party_1_partei_bezeichnung_de blieb mit #Party_1_partei_staerke Prozent die stärkste Kraft, gefolgt von der #Party_2_partei_bezeichnung_de (#Party_2_partei_staerke Prozent, #Party_2_plus_minus_d) und der #Party_3_partei_bezeichnung_de (#Party_3_partei_staerke, #Party_3_plus_minus_d).</t>
-  </si>
-  <si>
-    <t>Die Parteien auf den Plätzen 1, 2 und 3 sind gleichgeblieben</t>
-  </si>
-  <si>
-    <t>Alles bleibt beim Alten in #Gemeinde_d: Die drei stärksten Parteien haben ihre Spitzenplätze in unveränderter Reihenfolge verteidigt: Die #Party_1_partei_bezeichnung_de geht mit #Party_1_partei_staerke Prozent (#Party_2_plus_minus_d) wiederum als stärkste Kraft aus den Nationalratswahlen. Zweitstärkste Partei ist die #Party_2_partei_bezeichnung_de (#Party_2_partei_staerke Prozent, #Party_2_plus_minus_d), drittstärkste die #Party_3_partei_bezeichnung_de (#Party_3_partei_staerke Prozent, #Party_3_plus_minus_d).</t>
-  </si>
-  <si>
-    <t>Keine Revolution in #Gemeinde_d: Unverändert belegten #Party_1_partei_bezeichnung_de, #Party_2_partei_bezeichnung_de und #Party_3_partei_bezeichnung_de die ersten drei Plätze. Sie holten #Party_1_partei_staerke (#Party_1_plus_minus_d), #Party_2_partei_staerke (#Party_2_plus_minus_d) respektive #Party_3_partei_staerke Prozent (#Party_3_plus_minus_d) der Stimmen.</t>
-  </si>
-  <si>
-    <t>Intro_unchanged_1_2_3_big_gap_1</t>
-  </si>
-  <si>
-    <t>Die Reihenfolge der Parteien in #Gemeinde_d hat sich im Vergleich zu den Wahlen 2015 nicht verändert: Die #Party_1_partei_bezeichnung_de blieb mit #Party_1_partei_staerke Prozent mit grossem Abstand die stärkste Kraft, gefolgt von der #Party_2_partei_bezeichnung_de (#Party_2_partei_staerke Prozent, #Party_2_plus_minus_d) und der #Party_3_partei_bezeichnung_de (#Party_3_partei_staerke, #Party_3_plus_minus_d).</t>
-  </si>
-  <si>
-    <t>"deutlicher Abstand" = 10 und mehr Prozentpunkte</t>
-  </si>
-  <si>
-    <t>Alles bleibt beim Alten in #Gemeinde_d: Die drei stärksten Parteien haben ihre Spitzenplätze in unveränderter Reihenfolge verteidigt: Die #Party_1_partei_bezeichnung_de geht mit #Party_1_partei_staerke Prozent (#Party_2_plus_minus_d) wiederum mit deutlichem Abstand als stärkste Kraft aus den Nationalratswahlen. Zweitstärkste Partei ist die #Party_2_partei_bezeichnung_de (#Party_2_partei_staerke Prozent, #Party_2_plus_minus_d), drittstärkste die #Party_3_partei_bezeichnung_de (#Party_3_partei_staerke Prozent, #Party_3_plus_minus_d).</t>
-  </si>
-  <si>
-    <t>Etwas Besonderes gab es in #Gemeinde_d: Die #Party_1_partei_bezeichnung_de und die #Party_2_partei_bezeichnung_de sind genau gleich stark. Mit je #Pary_1_AnzahlStimmen Stimmen kommen beide Parteien auf #Party_1_partei_staerke.</t>
-  </si>
-  <si>
-    <t>Spec_majority</t>
-  </si>
-  <si>
-    <t>#Gemeinde_d ist unbestrittenes Territorium der #Party_1_partei_bezeichnung_de. Die Partei holte eine absolute Mehrheit der Stimmen.</t>
-  </si>
-  <si>
-    <t>Kein Weg führt in #Gemeinde_d an der #Party_1_partei_bezeichnung_de vorbei. Sie holte mehr als die Hälfte der Stimmen und damit eine absolute Mehrheit.</t>
-  </si>
-  <si>
-    <t>Intro_unchanged_long_term</t>
-  </si>
-  <si>
-    <t>Unverändert wie seit #Party_1_since_year ist die #Party_1_partei_bezeichnung_de die stärkste Partei in #Gemeinde_d. Die Partei holte #Party_1_partei_staerke Prozent (#Party_1_plus_minus_d gegenüber 2015).</t>
-  </si>
-  <si>
-    <t>Eine Partei ist mindestens seit 12 Jahren an erster Stelle</t>
-  </si>
-  <si>
-    <t>Seit #Party_1_since_year ist die #Party_1_partei_bezeichnung_de die stärkste Partei in #Gemeinde_d, so auch bei diesen Nationalratswahlen. Die Partei holte #Party_1_partei_staerke Prozent der Stimmen (#Party_1_plus_minus_d im Vergleich zu 2015).</t>
-  </si>
-  <si>
-    <t>In #Gemeinde_d ist neu die #Party_1_partei_bezeichnung_de die stimmenstärkste Partei. Sie holte #Party_1_partei_staerke Prozent aller Stimmen. Vor vier Jahren war die Partei noch auf Rang #Party_1_rank_in_commune_prev.</t>
-  </si>
-  <si>
-    <t>Stärkste Partei neu; Vergleich mit 2015</t>
-  </si>
-  <si>
-    <t>Was, wenn nicht angetreten...?</t>
-  </si>
-  <si>
-    <t>Neu ist in #Gemeinde_d die #Party_1_partei_bezeichnung_de stärkste Kraft (Rang vor vier Jahren: #Party_1_rank_in_commune_prev). Bei den diesjährigen Nationalratswahlen vereinigte sie #Party_1_partei_staerke Prozent der Stimmen auf sich.</t>
-  </si>
-  <si>
-    <t>#Party_1_partei_bezeichnung_de hat sich in diesem Jahr von Rang #Party_1_rank_in_commune_prev auf den Spitzenplatz verbessert in #Gemeinde_d. Sie holte #Party_1_partei_staerke Prozent der Stimmen (#Party_1_plus_minus_d).</t>
-  </si>
-  <si>
-    <t>Neue stärkste Kraft in #Gemeinde_d: Die #Party_1_partei_bezeichnung_de hat mit #Party_1_partei_staerke Prozent (#Party_1_plus_minus_d) die meisten Stimmen geholt und verbessert sich damit von Rang #Party_1_rank_in_commune_prev auf den ersten Platz.</t>
-  </si>
-  <si>
-    <t>#Gemeinde_d hat neu die meisten Stimmen an die #Party_1_partei_bezeichnung_de vergeben. Die Partei holte #Party_1_partei_staerke Prozent der Stimmen (#Party_1_plus_minus_d). Das bedeutet, dass sie sich von Rang #Party_1_rank_in_commune_prev auf den ersten Platz verbessert hat.</t>
-  </si>
-  <si>
-    <t>Intro_changed_normal_newParty</t>
-  </si>
-  <si>
-    <t>In #Gemeinde_d ist neu die #Party_1 die stimmenstärkste Partei. Sie holte #Party_1_partei_staerke Prozent aller Stimmen. Vor vier Jahren war die Partei im Kanton #Kanton_d nicht angetreten.</t>
-  </si>
-  <si>
-    <t>Stärkste Partei neu; zuvor nicht angetreten (vorgängig überprüfen, wie häufig dieser Fall ist)</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>Intro_changed_big_jump_ranks</t>
-  </si>
-  <si>
-    <t>Neu ist in #Gemeinde_d die #Party_1_partei_bezeichnung_de die stärkste Partei. Sie machte #Party_1_ranking_diff Plätze gut und holte #Party_1_partei_staerke Prozent Wähleranteil.</t>
-  </si>
-  <si>
-    <t>Mit einem grossen Sprung von #Party_1_differenz_partei_staerke Prozentpunkten ist die #Party_1_partei_bezeichnung_de die stärkste Partei geworden in #Gemeinde_d. Die Partei erhielt #Party_1_partei_staerke Prozent der Wählerstimmen.</t>
-  </si>
-  <si>
-    <t>Intro_changed_2_to_1</t>
-  </si>
-  <si>
-    <t>Die #Party_1_partei_bezeichnung_de verbesserte sich in #Gemeinde_d vom zweiten auf den ersten Platz: Mit #Party_1_partei_staerke ist sie somit neu die stärkste Kraft in der Gemeinde.</t>
-  </si>
-  <si>
-    <t>Intro_changed_2_to_1_1_to_2</t>
-  </si>
-  <si>
-    <t>Stärkste Kraft in #Gemeinde_d ist neu die #Party_1_partei_bezeichnung_de. Sie tauschte die Plätze mit der #Party_2_partei_bezeichnung_de, die nurmehr die zweitgrösste Stimmenzahl erzielte. Die #Party_1_partei_bezeichnung_de kommt auf #Party_1_partei_staerke Prozent (#Party_1_plus_minus_d), die #Party_2_partei_bezeichnung_de auf #Party_2_partei_staerke Prozent (#Party_2_plus_minus_d).</t>
-  </si>
-  <si>
-    <t>In #Gemeinde_d überholte die #Party_1_partei_bezeichnung_de die #Party_2_partei_bezeichnung_de und ist neu stärkste Partei, während die #Party_2_partei_bezeichnung_de auf Rang zwei zurückfiel. Die #Party_1_partei_bezeichnung_de kommt auf #Party_1_partei_staerke Prozent (#Party_1_plus_minus_d), die #Party_2_partei_bezeichnung_de auf #Party_2_partei_staerke Prozent (#Party_2_plus_minus_d).</t>
-  </si>
-  <si>
-    <t>Intro_changed_3_to_1</t>
-  </si>
-  <si>
-    <t>Die #Party_1_partei_bezeichnung_de verbesserte sich in #Gemeinde_d vom dritten auf den ersten Platz: Mit #Party_1_partei_staerke ist sie somit neu die stärkste Kraft in der Gemeinde.</t>
-  </si>
-  <si>
-    <t>Intro_changed_3plus_to_1</t>
-  </si>
-  <si>
-    <t>Neu die stärkste Partei in #Gemeinde_d ist die #Party_1_partei_bezeichnung_de. Die Partei machte einen grossen Sprung nach vorne: Vor vier Jahren lag sie noch auf Platz #Party_1_rank_in_commune_prev. Sie holte #Party_1_partei_staerke der Stimmen (#Party_1_plus_minus_d).</t>
-  </si>
-  <si>
-    <t>Intro_changed_first_time</t>
-  </si>
-  <si>
-    <t>Erstmals seit #Party_1_first_time_since ist die #Party_1_partei_bezeichnung_de die stärkste Partei in #Gemeinde_d. Mit #Party_1_partei_staerke Prozent (#Party_1_plus_minus_d gegenüber 2015) holte sie die meisten Stimmen und überholte damit die #Party_1_overtaken, die seit #Party_1_since_last_time an vorderster Stelle stand.</t>
-  </si>
-  <si>
-    <t>Spezialfall: Erstplatzierte Partei ist erstmals seit mindestens 8 oder 12 Jahren vor der bislang erstplatzierten Partei, die zwingend während der vorherigen Periode auf dem 1. Platz war.</t>
-  </si>
-  <si>
-    <t>First_Second_Third</t>
-  </si>
-  <si>
-    <t>#Party_1_partei_bezeichnung_de ist mit #Party_1_partei_staerke Prozent die stärkste Partei, gefolgt von der #Party_2_partei_bezeichnung_de (#Party_2_partei_staerke Prozent, #Party_2_plus_minus_d). Drittstärkste Kraft in der Gemeinde ist die #Party_3_partei_bezeichnung_de, die es auf #Party_3_partei_staerke Prozent (#Party_3_plus_minus_d) brachte.</t>
-  </si>
-  <si>
-    <t>Zweitstärkste Partei ist mit #Party_2_partei_staerke (#Party_2_plus_minus_d gegenüber 2015) die #Party_2_partei_bezeichnung_de.</t>
-  </si>
-  <si>
-    <t>Nur zweiter Platz</t>
-  </si>
-  <si>
-    <t>Die #Party_2_partei_bezeichnung_de ist die zweitstärkste Kraft in der Gemeinde. Sie kommt auf #Party_2_partei_staerke Prozent (#Party_2_plus_minus_d).</t>
-  </si>
-  <si>
-    <t>Mit einem Wählerstimmenanteil von #Party_2_partei_staerke Prozent (#Party_2_plus_minus_d) ist die #Party_2_partei_bezeichnung_de die zweitstärkste Kraft in der Gemeinde.</t>
-  </si>
-  <si>
-    <t>Second_and_Third</t>
-  </si>
-  <si>
-    <t>Auf dem zweiten Platz folgt die #Party_2_partei_bezeichnung_de (#Party_2_partei_staerke Prozent, #Party_2_plus_minus_d gegenüber 2015), auf dem dritten die #Party_3_partei_bezeichnung_de (#Party_3_partei_staerke Prozent, #Party_2_plus_minus_d).</t>
-  </si>
-  <si>
-    <t>Plätze 2 und 3</t>
-  </si>
-  <si>
-    <t>Der zweite Platz geht an #Party_2_partei_bezeichnung_de. Die Partei erhielt #Party_2_partei_staerke Prozent der Wählerstimmen (#Party_2_plus_minus_d). Drittstärkste Kraft ist #Party_3_partei_bezeichnung_de, die #Party_3_partei_staerke Prozent (#Party_3_plus_minus_d) auf sich vereinigte.</t>
-  </si>
-  <si>
-    <t>Four_and_Five</t>
-  </si>
-  <si>
-    <t>Platz vier geht an die #Party_4_partei_bezeichnung_de und auf Platz fünf kam die #Party_5_partei_bezeichnung_de zu liegen.</t>
-  </si>
-  <si>
-    <t>Plätze 4 und 5.</t>
-  </si>
-  <si>
-    <t>Die #Party_4_partei_bezeichnung_de landete auf Rang vier, die #Party_5_partei_bezeichnung_de auf Rang fünf.</t>
-  </si>
-  <si>
-    <t>Second_big_jump_rank</t>
-  </si>
-  <si>
-    <t>Zweitstärkste Partei in #Gemeinde_d ist die #Party_2_partei_bezeichnung_de, die damit #Party_2_ranking_diff Plätze gegenüber den Wahlen 2015 vorrückte. Sie holte #Party_2_partei_staerke Prozent Wählerstimmen (#Party_2_plus_minus_d).</t>
-  </si>
-  <si>
-    <t>Die #Party_2_partei_bezeichnung_de machte einen Sprung von #Party_2_ranking_diff Plätzen auf den zweiten Rang. Ihr Wählerlstimmenanteil beträgt in #Gemeinde_d #Party_2_partei_staerke Prozent (#Party_2_plus_minus_d).</t>
-  </si>
-  <si>
-    <t>Zweitstärkste Partei in #Gemeinde_d ist die #Party_2_partei_staerke, die sich gegenüber den Wahlen 2015 um #Party_2_differenz_partei_staerke Prozentpunkte verbesserte.</t>
-  </si>
-  <si>
-    <t>Mit einer markanten Verbesserung um #Party_2_differenz_partei_staerke Prozentpunkte ist die #Party_2_partei_bezeichnung_de die zweitstärkste Kraft in der Gemeinde. Ihr Wählerstimmenanteil liegt neu bei #Party_2_partei_staerke Prozent.</t>
-  </si>
-  <si>
-    <t>Second_big_jump_rank_percentage</t>
-  </si>
-  <si>
-    <t>Zweitstärkste Partei in #Gemeinde_d ist die #Party_2_partei_bezeichnung_de, die damit #Party_2_ranking_diff Plätze gegenüber den Wahlen 2015 vorrückte. Sie holte mit #Party_2_partei_staerke Prozent auch deutlich mehr Wählerstimmen. Der Zuwachs beträgt #Party_2_differenz_partei_staerke Prozentpunkte.</t>
-  </si>
-  <si>
-    <t>Zweitstärkste Partei in #Gemeinde_d ist die #Party_2_partei_bezeichnung_de, die sich gegenüber den Wahlen 2015 um #Party_2_ranking_diff Plätze und #Party_2_differenz_partei_staerke Prozentpunkte verbesserte. Sie erhielt #Party_2_partei_staerke Prozent Wählerstimmen.</t>
-  </si>
-  <si>
-    <t>Third_big_jump_rank_percentage</t>
-  </si>
-  <si>
-    <t>Einen grossen Sprung machte #Party_3_partei_bezeichnung_de: Mit #Party_3_partei_staerke Prozent Wählerstimmen legte sie um #Party_3_differenz_partei_staerke Prozentpunkte zu, was einen Sprung um #Party_3_ranking_diff Plätze auf Rang 3 bedeutet.</t>
-  </si>
-  <si>
-    <t>Einen markanten Verlust musste die #Party_2_partei_bezeichnung_de in #Gemeinde_d hinnehmen: Die Partei verlor #Party_2_differenz_partei_staerke_abs Prozentpunkte gegenüber den Wahlen 2015 und liegt jetzt noch bei #Party_2_partei_staerke Prozent Wähleranteil. Das bedeutet dennoch Rang 2.</t>
-  </si>
-  <si>
-    <t>mehr als x Prozentpunkte eingebüsst</t>
-  </si>
-  <si>
-    <t>Stark eingebüsst hat die drittplatzierte #Party_3_partei_bezeichnung_de. Sie machte noch #Party_3_partei_staerke Prozent Wähleranteil, was einen Verlust von #Party_2_differenz_partei_staerke_abs Prozentpunkte bedeutet.</t>
-  </si>
-  <si>
-    <t>Die #Party_3_partei_bezeichnung_de landete mit #Party_3_partei_staerke Prozent auf dem dritten Platz (Veränderung gegenüber 2015: #Party_3_plus_minus_d).</t>
-  </si>
-  <si>
-    <t>Spec_Uebrige_first</t>
-  </si>
-  <si>
-    <t>Den ersten Rang haben in #Gemeinde_d Listen oder Parteien aus der Kategorie "Übrige" geholt. Diese vereinigten #Party_1_partei_staerke Prozent der Stimmen auf sich.</t>
-  </si>
-  <si>
-    <t>Spec_Uebrige_second</t>
-  </si>
-  <si>
-    <t>Am zweitmeisten Stimmen, nämlich #Party_2_partei_staerke Prozent, gingen in #Gemeinde_d an Listen oder Parteien aus der Kategorie "Übrige".</t>
-  </si>
-  <si>
-    <t>Spec_Uebrige_third</t>
-  </si>
-  <si>
-    <t>Am drittmeisten Stimmen, nämlich #Party_3_partei_staerke Prozent, gingen in #Gemeinde_d an Listen oder Parteien aus der Kategorie "Übrige".</t>
-  </si>
-  <si>
-    <t>Spec_highest_in_canton</t>
-  </si>
-  <si>
-    <t>Besonders ist: Die #Party_highest_in_canton hat in #Gemeinde_d das höchste Resultat erzielt.</t>
-  </si>
-  <si>
-    <t>Stärkstes Resultat im Kanton (Regel: Mehr 10 Gemeinden im Kanton; nur Top-7-Parteien.</t>
-  </si>
-  <si>
-    <t>Spec_lowest_in_canton</t>
-  </si>
-  <si>
-    <t>Speziell: In keiner anderen Gemeinde war #Party_lowest_in_canton schwächer.</t>
-  </si>
-  <si>
-    <t>Schwächstes Resultat im Kanton (Regel: Mehr 10 Gemeinden im Kanton; nur Top-7-Parteien.</t>
-  </si>
-  <si>
-    <t>Spec_Participation_Highest</t>
-  </si>
-  <si>
-    <t>#Gemeinde_d hat am Wahlsonntag die höchste Beteiligung des ganzen Kantons ausgewiesen: #Gemeinde_participation Prozent.</t>
-  </si>
-  <si>
-    <t>5+5-Regel</t>
-  </si>
-  <si>
-    <t>Spec_Participation_High</t>
-  </si>
-  <si>
-    <t>#Gemeinde_d gehörte im Kanton #Kanton_d zu den Gemeinden mit der höchsten Wahlbeteiligung. #Gemeinde_participation Prozent bedeutet Rang #Gemeinde_participation_rank im Kanton.</t>
-  </si>
-  <si>
-    <t>Spec_Participation_Lowest</t>
-  </si>
-  <si>
-    <t>#Gemeinde_d hat am Wahlsonntag die tiefeste Wahlbeteiligung des ganzen Kantons gehabt: #Gemeinde_participation Prozent. #Gemeinde_participation Prozent bedeutet Rang #Gemeinde_participation_rank im Kanton.</t>
-  </si>
-  <si>
-    <t>Spec_Participation_Low</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nur wenige Gemeinden wiesen am Wahlsonntag eine tiefere Wahlbeteiligung auf, als #Gemeinde_d. </t>
-  </si>
-  <si>
-    <t>NR_im_Wohnort_many</t>
-  </si>
-  <si>
-    <t>NR_im_Wohnort_few</t>
-  </si>
-  <si>
-    <t>NR_im_Wohnort_one_f</t>
-  </si>
-  <si>
-    <t>1 NR in Gemeinde - weiblich</t>
-  </si>
-  <si>
-    <t>NR_im_Wohnort_one_m</t>
-  </si>
-  <si>
-    <t>1 NR in Gemeinde - männlich</t>
-  </si>
-  <si>
-    <t>Kleinkanton_</t>
-  </si>
-  <si>
-    <t>In #Gemeinde_d hat der wiedergewählte Nationalrat #Party_1_partei_bezeichnung_de am meisten Stimmen geholt. #Party_1_stimmen wollten ihn für eine weitere Legislatur nach Bern schicken. Auf dem zweiten Platz landete #Party_2_partei_bezeichnung_de von der #Party_2_Partei mit #Party_2_Stimmen Stimmen (#Party_2_partei_staerke Prozent).</t>
-  </si>
-  <si>
-    <t>Amtsinhaber, wiedergewählt und stärkster Kandidat</t>
-  </si>
-  <si>
-    <t>Am meisten Stimmen holte in #Gemeinde_d #Party_1_partei_bezeichnung_de. Er/Sie wurde von #Party_1_Stimmen gewählt. Das entspricht #Party_1_partei_staerke Prozent. Zweiter ist in der Gemeinde #Party_2_partei_bezeichnung_de.</t>
-  </si>
-  <si>
-    <t>Am meisten Stimmen hat in #Gemeinde_d die #Party_1_partei_bezeichnung_de und damit #Party_1_kandidat geholt. ...</t>
-  </si>
-  <si>
-    <t>Neutral</t>
-  </si>
-  <si>
-    <t>Die meisten Stimmen sind in #Gemeinde_d an #Party_1_Kandidat von der #Party_1_partei_bezeichnung_de gegangen. ...</t>
-  </si>
-  <si>
-    <t>Nicht der gewählte #Party_elected_kandidat (#Party_elected_partei_bezeichnung_de) hat in #Gemeinde_d die meisten geholt, sondern #Party_1_kandidat von der #Party_1_partei_bezeichnung_de. Er/Sie holte #Party_1_stimmen Stimmen (#Party_1_partei_staerke Prozent). Es folgten: ...</t>
-  </si>
-  <si>
-    <t>Anderer als gewählter Kandidat erhielt am meisten Stimmen</t>
   </si>
 </sst>
 </file>
@@ -1212,7 +839,7 @@
       <name val="&quot;Calibri&quot;"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1285,12 +912,6 @@
         <bgColor rgb="FFFF9900"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FFFF0000"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border/>
@@ -1298,7 +919,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="32">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1393,12 +1014,6 @@
     <xf quotePrefix="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf quotePrefix="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="13" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1412,10 +1027,6 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -13195,5601 +12806,4 @@
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <cols>
-    <col customWidth="1" min="1" max="1" width="27.75"/>
-    <col customWidth="1" min="2" max="2" width="92.25"/>
-    <col customWidth="1" min="3" max="4" width="23.63"/>
-    <col customWidth="1" min="5" max="6" width="136.13"/>
-    <col customWidth="1" min="7" max="7" width="4.75"/>
-    <col customWidth="1" min="8" max="8" width="23.88"/>
-    <col customWidth="1" min="9" max="9" width="16.5"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="32" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="F3" s="5"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="F4" s="5"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="32" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="32" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="32" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="32" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="32" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="32" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="F14" s="5"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="F15" s="5"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="G17" s="32" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="33" t="s">
-        <v>292</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="F19" s="5"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="33" t="s">
-        <v>292</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="F20" s="5"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="F21" s="5"/>
-      <c r="G21" s="32" t="s">
-        <v>268</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="F26" s="5"/>
-      <c r="G26" s="32" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="G27" s="32" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="28" ht="27.0" customHeight="1">
-      <c r="A28" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="G28" s="32" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="G29" s="32" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="G30" s="32" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="G32" s="32" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="G33" s="32" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="33" t="s">
-        <v>319</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="F34" s="5"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="F36" s="5"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="F37" s="5"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="F38" s="5"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="F39" s="5"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="F40" s="5"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="5" t="s">
-        <v>332</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="F41" s="5"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="5" t="s">
-        <v>332</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="F42" s="5"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="F50" s="5"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="F51" s="5"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="5" t="s">
-        <v>350</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="5" t="s">
-        <v>352</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="5" t="s">
-        <v>354</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="12" t="s">
-        <v>356</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="5" t="s">
-        <v>358</v>
-      </c>
-      <c r="F56" s="5"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="12" t="s">
-        <v>359</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="5" t="s">
-        <v>361</v>
-      </c>
-      <c r="F57" s="5"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="12" t="s">
-        <v>362</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="F58" s="5"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="12" t="s">
-        <v>365</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="F59" s="5"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="12" t="s">
-        <v>367</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="F60" s="5"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="12" t="s">
-        <v>369</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="F61" s="5"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="33" t="s">
-        <v>371</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="F62" s="5"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="33" t="s">
-        <v>372</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="F63" s="5"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="33" t="s">
-        <v>373</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="F64" s="5"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="33" t="s">
-        <v>375</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
-      <c r="E65" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="F65" s="5"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="33" t="s">
-        <v>377</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="C66" s="4"/>
-      <c r="D66" s="4"/>
-      <c r="E66" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="F66" s="5"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="33" t="s">
-        <v>377</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>380</v>
-      </c>
-      <c r="C67" s="4"/>
-      <c r="D67" s="4"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="33" t="s">
-        <v>377</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>381</v>
-      </c>
-      <c r="C68" s="4"/>
-      <c r="D68" s="4"/>
-      <c r="E68" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="F68" s="5"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="33" t="s">
-        <v>377</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="C69" s="4"/>
-      <c r="D69" s="4"/>
-      <c r="E69" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="F69" s="5"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="33" t="s">
-        <v>377</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="C70" s="4"/>
-      <c r="D70" s="4"/>
-      <c r="E70" s="5" t="s">
-        <v>385</v>
-      </c>
-      <c r="F70" s="5"/>
-    </row>
-    <row r="71">
-      <c r="B71" s="19"/>
-      <c r="C71" s="19"/>
-      <c r="D71" s="19"/>
-    </row>
-    <row r="72">
-      <c r="B72" s="19"/>
-      <c r="C72" s="19"/>
-      <c r="D72" s="19"/>
-    </row>
-    <row r="73">
-      <c r="B73" s="19"/>
-      <c r="C73" s="19"/>
-      <c r="D73" s="19"/>
-    </row>
-    <row r="74">
-      <c r="B74" s="19"/>
-      <c r="C74" s="19"/>
-      <c r="D74" s="19"/>
-    </row>
-    <row r="75">
-      <c r="B75" s="19"/>
-      <c r="C75" s="19"/>
-      <c r="D75" s="19"/>
-    </row>
-    <row r="76">
-      <c r="B76" s="19"/>
-      <c r="C76" s="19"/>
-      <c r="D76" s="19"/>
-    </row>
-    <row r="77">
-      <c r="B77" s="19"/>
-      <c r="C77" s="19"/>
-      <c r="D77" s="19"/>
-    </row>
-    <row r="78">
-      <c r="B78" s="19"/>
-      <c r="C78" s="19"/>
-      <c r="D78" s="19"/>
-    </row>
-    <row r="79">
-      <c r="B79" s="19"/>
-      <c r="C79" s="19"/>
-      <c r="D79" s="19"/>
-    </row>
-    <row r="80">
-      <c r="B80" s="19"/>
-      <c r="C80" s="19"/>
-      <c r="D80" s="19"/>
-    </row>
-    <row r="81">
-      <c r="B81" s="19"/>
-      <c r="C81" s="19"/>
-      <c r="D81" s="19"/>
-    </row>
-    <row r="82">
-      <c r="B82" s="19"/>
-      <c r="C82" s="19"/>
-      <c r="D82" s="19"/>
-    </row>
-    <row r="83">
-      <c r="B83" s="19"/>
-      <c r="C83" s="19"/>
-      <c r="D83" s="19"/>
-    </row>
-    <row r="84">
-      <c r="B84" s="19"/>
-      <c r="C84" s="19"/>
-      <c r="D84" s="19"/>
-    </row>
-    <row r="85">
-      <c r="B85" s="19"/>
-      <c r="C85" s="19"/>
-      <c r="D85" s="19"/>
-    </row>
-    <row r="86">
-      <c r="B86" s="19"/>
-      <c r="C86" s="19"/>
-      <c r="D86" s="19"/>
-    </row>
-    <row r="87">
-      <c r="B87" s="19"/>
-      <c r="C87" s="19"/>
-      <c r="D87" s="19"/>
-    </row>
-    <row r="88">
-      <c r="B88" s="19"/>
-      <c r="C88" s="19"/>
-      <c r="D88" s="19"/>
-    </row>
-    <row r="89">
-      <c r="B89" s="19"/>
-      <c r="C89" s="19"/>
-      <c r="D89" s="19"/>
-    </row>
-    <row r="90">
-      <c r="B90" s="19"/>
-      <c r="C90" s="19"/>
-      <c r="D90" s="19"/>
-    </row>
-    <row r="91">
-      <c r="B91" s="19"/>
-      <c r="C91" s="19"/>
-      <c r="D91" s="19"/>
-    </row>
-    <row r="92">
-      <c r="B92" s="19"/>
-      <c r="C92" s="19"/>
-      <c r="D92" s="19"/>
-    </row>
-    <row r="93">
-      <c r="B93" s="19"/>
-      <c r="C93" s="19"/>
-      <c r="D93" s="19"/>
-    </row>
-    <row r="94">
-      <c r="B94" s="19"/>
-      <c r="C94" s="19"/>
-      <c r="D94" s="19"/>
-    </row>
-    <row r="95">
-      <c r="B95" s="19"/>
-      <c r="C95" s="19"/>
-      <c r="D95" s="19"/>
-    </row>
-    <row r="96">
-      <c r="B96" s="19"/>
-      <c r="C96" s="19"/>
-      <c r="D96" s="19"/>
-    </row>
-    <row r="97">
-      <c r="B97" s="19"/>
-      <c r="C97" s="19"/>
-      <c r="D97" s="19"/>
-    </row>
-    <row r="98">
-      <c r="B98" s="19"/>
-      <c r="C98" s="19"/>
-      <c r="D98" s="19"/>
-    </row>
-    <row r="99">
-      <c r="B99" s="19"/>
-      <c r="C99" s="19"/>
-      <c r="D99" s="19"/>
-    </row>
-    <row r="100">
-      <c r="B100" s="19"/>
-      <c r="C100" s="19"/>
-      <c r="D100" s="19"/>
-    </row>
-    <row r="101">
-      <c r="B101" s="19"/>
-      <c r="C101" s="19"/>
-      <c r="D101" s="19"/>
-    </row>
-    <row r="102">
-      <c r="B102" s="19"/>
-      <c r="C102" s="19"/>
-      <c r="D102" s="19"/>
-    </row>
-    <row r="103">
-      <c r="B103" s="19"/>
-      <c r="C103" s="19"/>
-      <c r="D103" s="19"/>
-    </row>
-    <row r="104">
-      <c r="B104" s="19"/>
-      <c r="C104" s="19"/>
-      <c r="D104" s="19"/>
-    </row>
-    <row r="105">
-      <c r="B105" s="19"/>
-      <c r="C105" s="19"/>
-      <c r="D105" s="19"/>
-    </row>
-    <row r="106">
-      <c r="B106" s="19"/>
-      <c r="C106" s="19"/>
-      <c r="D106" s="19"/>
-    </row>
-    <row r="107">
-      <c r="B107" s="19"/>
-      <c r="C107" s="19"/>
-      <c r="D107" s="19"/>
-    </row>
-    <row r="108">
-      <c r="B108" s="19"/>
-      <c r="C108" s="19"/>
-      <c r="D108" s="19"/>
-    </row>
-    <row r="109">
-      <c r="B109" s="19"/>
-      <c r="C109" s="19"/>
-      <c r="D109" s="19"/>
-    </row>
-    <row r="110">
-      <c r="B110" s="19"/>
-      <c r="C110" s="19"/>
-      <c r="D110" s="19"/>
-    </row>
-    <row r="111">
-      <c r="B111" s="19"/>
-      <c r="C111" s="19"/>
-      <c r="D111" s="19"/>
-    </row>
-    <row r="112">
-      <c r="B112" s="19"/>
-      <c r="C112" s="19"/>
-      <c r="D112" s="19"/>
-    </row>
-    <row r="113">
-      <c r="B113" s="19"/>
-      <c r="C113" s="19"/>
-      <c r="D113" s="19"/>
-    </row>
-    <row r="114">
-      <c r="B114" s="19"/>
-      <c r="C114" s="19"/>
-      <c r="D114" s="19"/>
-    </row>
-    <row r="115">
-      <c r="B115" s="19"/>
-      <c r="C115" s="19"/>
-      <c r="D115" s="19"/>
-    </row>
-    <row r="116">
-      <c r="B116" s="19"/>
-      <c r="C116" s="19"/>
-      <c r="D116" s="19"/>
-    </row>
-    <row r="117">
-      <c r="B117" s="19"/>
-      <c r="C117" s="19"/>
-      <c r="D117" s="19"/>
-    </row>
-    <row r="118">
-      <c r="B118" s="19"/>
-      <c r="C118" s="19"/>
-      <c r="D118" s="19"/>
-    </row>
-    <row r="119">
-      <c r="B119" s="19"/>
-      <c r="C119" s="19"/>
-      <c r="D119" s="19"/>
-    </row>
-    <row r="120">
-      <c r="B120" s="19"/>
-      <c r="C120" s="19"/>
-      <c r="D120" s="19"/>
-    </row>
-    <row r="121">
-      <c r="B121" s="19"/>
-      <c r="C121" s="19"/>
-      <c r="D121" s="19"/>
-    </row>
-    <row r="122">
-      <c r="B122" s="19"/>
-      <c r="C122" s="19"/>
-      <c r="D122" s="19"/>
-    </row>
-    <row r="123">
-      <c r="B123" s="19"/>
-      <c r="C123" s="19"/>
-      <c r="D123" s="19"/>
-    </row>
-    <row r="124">
-      <c r="B124" s="19"/>
-      <c r="C124" s="19"/>
-      <c r="D124" s="19"/>
-    </row>
-    <row r="125">
-      <c r="B125" s="19"/>
-      <c r="C125" s="19"/>
-      <c r="D125" s="19"/>
-    </row>
-    <row r="126">
-      <c r="B126" s="19"/>
-      <c r="C126" s="19"/>
-      <c r="D126" s="19"/>
-    </row>
-    <row r="127">
-      <c r="B127" s="19"/>
-      <c r="C127" s="19"/>
-      <c r="D127" s="19"/>
-    </row>
-    <row r="128">
-      <c r="B128" s="19"/>
-      <c r="C128" s="19"/>
-      <c r="D128" s="19"/>
-    </row>
-    <row r="129">
-      <c r="B129" s="19"/>
-      <c r="C129" s="19"/>
-      <c r="D129" s="19"/>
-    </row>
-    <row r="130">
-      <c r="B130" s="19"/>
-      <c r="C130" s="19"/>
-      <c r="D130" s="19"/>
-    </row>
-    <row r="131">
-      <c r="B131" s="19"/>
-      <c r="C131" s="19"/>
-      <c r="D131" s="19"/>
-    </row>
-    <row r="132">
-      <c r="B132" s="19"/>
-      <c r="C132" s="19"/>
-      <c r="D132" s="19"/>
-    </row>
-    <row r="133">
-      <c r="B133" s="19"/>
-      <c r="C133" s="19"/>
-      <c r="D133" s="19"/>
-    </row>
-    <row r="134">
-      <c r="B134" s="19"/>
-      <c r="C134" s="19"/>
-      <c r="D134" s="19"/>
-    </row>
-    <row r="135">
-      <c r="B135" s="19"/>
-      <c r="C135" s="19"/>
-      <c r="D135" s="19"/>
-    </row>
-    <row r="136">
-      <c r="B136" s="19"/>
-      <c r="C136" s="19"/>
-      <c r="D136" s="19"/>
-    </row>
-    <row r="137">
-      <c r="B137" s="19"/>
-      <c r="C137" s="19"/>
-      <c r="D137" s="19"/>
-    </row>
-    <row r="138">
-      <c r="B138" s="19"/>
-      <c r="C138" s="19"/>
-      <c r="D138" s="19"/>
-    </row>
-    <row r="139">
-      <c r="B139" s="19"/>
-      <c r="C139" s="19"/>
-      <c r="D139" s="19"/>
-    </row>
-    <row r="140">
-      <c r="B140" s="19"/>
-      <c r="C140" s="19"/>
-      <c r="D140" s="19"/>
-    </row>
-    <row r="141">
-      <c r="B141" s="19"/>
-      <c r="C141" s="19"/>
-      <c r="D141" s="19"/>
-    </row>
-    <row r="142">
-      <c r="B142" s="19"/>
-      <c r="C142" s="19"/>
-      <c r="D142" s="19"/>
-    </row>
-    <row r="143">
-      <c r="B143" s="19"/>
-      <c r="C143" s="19"/>
-      <c r="D143" s="19"/>
-    </row>
-    <row r="144">
-      <c r="B144" s="19"/>
-      <c r="C144" s="19"/>
-      <c r="D144" s="19"/>
-    </row>
-    <row r="145">
-      <c r="B145" s="19"/>
-      <c r="C145" s="19"/>
-      <c r="D145" s="19"/>
-    </row>
-    <row r="146">
-      <c r="B146" s="19"/>
-      <c r="C146" s="19"/>
-      <c r="D146" s="19"/>
-    </row>
-    <row r="147">
-      <c r="B147" s="19"/>
-      <c r="C147" s="19"/>
-      <c r="D147" s="19"/>
-    </row>
-    <row r="148">
-      <c r="B148" s="19"/>
-      <c r="C148" s="19"/>
-      <c r="D148" s="19"/>
-    </row>
-    <row r="149">
-      <c r="B149" s="19"/>
-      <c r="C149" s="19"/>
-      <c r="D149" s="19"/>
-    </row>
-    <row r="150">
-      <c r="B150" s="19"/>
-      <c r="C150" s="19"/>
-      <c r="D150" s="19"/>
-    </row>
-    <row r="151">
-      <c r="B151" s="19"/>
-      <c r="C151" s="19"/>
-      <c r="D151" s="19"/>
-    </row>
-    <row r="152">
-      <c r="B152" s="19"/>
-      <c r="C152" s="19"/>
-      <c r="D152" s="19"/>
-    </row>
-    <row r="153">
-      <c r="B153" s="19"/>
-      <c r="C153" s="19"/>
-      <c r="D153" s="19"/>
-    </row>
-    <row r="154">
-      <c r="B154" s="19"/>
-      <c r="C154" s="19"/>
-      <c r="D154" s="19"/>
-    </row>
-    <row r="155">
-      <c r="B155" s="19"/>
-      <c r="C155" s="19"/>
-      <c r="D155" s="19"/>
-    </row>
-    <row r="156">
-      <c r="B156" s="19"/>
-      <c r="C156" s="19"/>
-      <c r="D156" s="19"/>
-    </row>
-    <row r="157">
-      <c r="B157" s="19"/>
-      <c r="C157" s="19"/>
-      <c r="D157" s="19"/>
-    </row>
-    <row r="158">
-      <c r="B158" s="19"/>
-      <c r="C158" s="19"/>
-      <c r="D158" s="19"/>
-    </row>
-    <row r="159">
-      <c r="B159" s="19"/>
-      <c r="C159" s="19"/>
-      <c r="D159" s="19"/>
-    </row>
-    <row r="160">
-      <c r="B160" s="19"/>
-      <c r="C160" s="19"/>
-      <c r="D160" s="19"/>
-    </row>
-    <row r="161">
-      <c r="B161" s="19"/>
-      <c r="C161" s="19"/>
-      <c r="D161" s="19"/>
-    </row>
-    <row r="162">
-      <c r="B162" s="19"/>
-      <c r="C162" s="19"/>
-      <c r="D162" s="19"/>
-    </row>
-    <row r="163">
-      <c r="B163" s="19"/>
-      <c r="C163" s="19"/>
-      <c r="D163" s="19"/>
-    </row>
-    <row r="164">
-      <c r="B164" s="19"/>
-      <c r="C164" s="19"/>
-      <c r="D164" s="19"/>
-    </row>
-    <row r="165">
-      <c r="B165" s="19"/>
-      <c r="C165" s="19"/>
-      <c r="D165" s="19"/>
-    </row>
-    <row r="166">
-      <c r="B166" s="19"/>
-      <c r="C166" s="19"/>
-      <c r="D166" s="19"/>
-    </row>
-    <row r="167">
-      <c r="B167" s="19"/>
-      <c r="C167" s="19"/>
-      <c r="D167" s="19"/>
-    </row>
-    <row r="168">
-      <c r="B168" s="19"/>
-      <c r="C168" s="19"/>
-      <c r="D168" s="19"/>
-    </row>
-    <row r="169">
-      <c r="B169" s="19"/>
-      <c r="C169" s="19"/>
-      <c r="D169" s="19"/>
-    </row>
-    <row r="170">
-      <c r="B170" s="19"/>
-      <c r="C170" s="19"/>
-      <c r="D170" s="19"/>
-    </row>
-    <row r="171">
-      <c r="B171" s="19"/>
-      <c r="C171" s="19"/>
-      <c r="D171" s="19"/>
-    </row>
-    <row r="172">
-      <c r="B172" s="19"/>
-      <c r="C172" s="19"/>
-      <c r="D172" s="19"/>
-    </row>
-    <row r="173">
-      <c r="B173" s="19"/>
-      <c r="C173" s="19"/>
-      <c r="D173" s="19"/>
-    </row>
-    <row r="174">
-      <c r="B174" s="19"/>
-      <c r="C174" s="19"/>
-      <c r="D174" s="19"/>
-    </row>
-    <row r="175">
-      <c r="B175" s="19"/>
-      <c r="C175" s="19"/>
-      <c r="D175" s="19"/>
-    </row>
-    <row r="176">
-      <c r="B176" s="19"/>
-      <c r="C176" s="19"/>
-      <c r="D176" s="19"/>
-    </row>
-    <row r="177">
-      <c r="B177" s="19"/>
-      <c r="C177" s="19"/>
-      <c r="D177" s="19"/>
-    </row>
-    <row r="178">
-      <c r="B178" s="19"/>
-      <c r="C178" s="19"/>
-      <c r="D178" s="19"/>
-    </row>
-    <row r="179">
-      <c r="B179" s="19"/>
-      <c r="C179" s="19"/>
-      <c r="D179" s="19"/>
-    </row>
-    <row r="180">
-      <c r="B180" s="19"/>
-      <c r="C180" s="19"/>
-      <c r="D180" s="19"/>
-    </row>
-    <row r="181">
-      <c r="B181" s="19"/>
-      <c r="C181" s="19"/>
-      <c r="D181" s="19"/>
-    </row>
-    <row r="182">
-      <c r="B182" s="19"/>
-      <c r="C182" s="19"/>
-      <c r="D182" s="19"/>
-    </row>
-    <row r="183">
-      <c r="B183" s="19"/>
-      <c r="C183" s="19"/>
-      <c r="D183" s="19"/>
-    </row>
-    <row r="184">
-      <c r="B184" s="19"/>
-      <c r="C184" s="19"/>
-      <c r="D184" s="19"/>
-    </row>
-    <row r="185">
-      <c r="B185" s="19"/>
-      <c r="C185" s="19"/>
-      <c r="D185" s="19"/>
-    </row>
-    <row r="186">
-      <c r="B186" s="19"/>
-      <c r="C186" s="19"/>
-      <c r="D186" s="19"/>
-    </row>
-    <row r="187">
-      <c r="B187" s="19"/>
-      <c r="C187" s="19"/>
-      <c r="D187" s="19"/>
-    </row>
-    <row r="188">
-      <c r="B188" s="19"/>
-      <c r="C188" s="19"/>
-      <c r="D188" s="19"/>
-    </row>
-    <row r="189">
-      <c r="B189" s="19"/>
-      <c r="C189" s="19"/>
-      <c r="D189" s="19"/>
-    </row>
-    <row r="190">
-      <c r="B190" s="19"/>
-      <c r="C190" s="19"/>
-      <c r="D190" s="19"/>
-    </row>
-    <row r="191">
-      <c r="B191" s="19"/>
-      <c r="C191" s="19"/>
-      <c r="D191" s="19"/>
-    </row>
-    <row r="192">
-      <c r="B192" s="19"/>
-      <c r="C192" s="19"/>
-      <c r="D192" s="19"/>
-    </row>
-    <row r="193">
-      <c r="B193" s="19"/>
-      <c r="C193" s="19"/>
-      <c r="D193" s="19"/>
-    </row>
-    <row r="194">
-      <c r="B194" s="19"/>
-      <c r="C194" s="19"/>
-      <c r="D194" s="19"/>
-    </row>
-    <row r="195">
-      <c r="B195" s="19"/>
-      <c r="C195" s="19"/>
-      <c r="D195" s="19"/>
-    </row>
-    <row r="196">
-      <c r="B196" s="19"/>
-      <c r="C196" s="19"/>
-      <c r="D196" s="19"/>
-    </row>
-    <row r="197">
-      <c r="B197" s="19"/>
-      <c r="C197" s="19"/>
-      <c r="D197" s="19"/>
-    </row>
-    <row r="198">
-      <c r="B198" s="19"/>
-      <c r="C198" s="19"/>
-      <c r="D198" s="19"/>
-    </row>
-    <row r="199">
-      <c r="B199" s="19"/>
-      <c r="C199" s="19"/>
-      <c r="D199" s="19"/>
-    </row>
-    <row r="200">
-      <c r="B200" s="19"/>
-      <c r="C200" s="19"/>
-      <c r="D200" s="19"/>
-    </row>
-    <row r="201">
-      <c r="B201" s="19"/>
-      <c r="C201" s="19"/>
-      <c r="D201" s="19"/>
-    </row>
-    <row r="202">
-      <c r="B202" s="19"/>
-      <c r="C202" s="19"/>
-      <c r="D202" s="19"/>
-    </row>
-    <row r="203">
-      <c r="B203" s="19"/>
-      <c r="C203" s="19"/>
-      <c r="D203" s="19"/>
-    </row>
-    <row r="204">
-      <c r="B204" s="19"/>
-      <c r="C204" s="19"/>
-      <c r="D204" s="19"/>
-    </row>
-    <row r="205">
-      <c r="B205" s="19"/>
-      <c r="C205" s="19"/>
-      <c r="D205" s="19"/>
-    </row>
-    <row r="206">
-      <c r="B206" s="19"/>
-      <c r="C206" s="19"/>
-      <c r="D206" s="19"/>
-    </row>
-    <row r="207">
-      <c r="B207" s="19"/>
-      <c r="C207" s="19"/>
-      <c r="D207" s="19"/>
-    </row>
-    <row r="208">
-      <c r="B208" s="19"/>
-      <c r="C208" s="19"/>
-      <c r="D208" s="19"/>
-    </row>
-    <row r="209">
-      <c r="B209" s="19"/>
-      <c r="C209" s="19"/>
-      <c r="D209" s="19"/>
-    </row>
-    <row r="210">
-      <c r="B210" s="19"/>
-      <c r="C210" s="19"/>
-      <c r="D210" s="19"/>
-    </row>
-    <row r="211">
-      <c r="B211" s="19"/>
-      <c r="C211" s="19"/>
-      <c r="D211" s="19"/>
-    </row>
-    <row r="212">
-      <c r="B212" s="19"/>
-      <c r="C212" s="19"/>
-      <c r="D212" s="19"/>
-    </row>
-    <row r="213">
-      <c r="B213" s="19"/>
-      <c r="C213" s="19"/>
-      <c r="D213" s="19"/>
-    </row>
-    <row r="214">
-      <c r="B214" s="19"/>
-      <c r="C214" s="19"/>
-      <c r="D214" s="19"/>
-    </row>
-    <row r="215">
-      <c r="B215" s="19"/>
-      <c r="C215" s="19"/>
-      <c r="D215" s="19"/>
-    </row>
-    <row r="216">
-      <c r="B216" s="19"/>
-      <c r="C216" s="19"/>
-      <c r="D216" s="19"/>
-    </row>
-    <row r="217">
-      <c r="B217" s="19"/>
-      <c r="C217" s="19"/>
-      <c r="D217" s="19"/>
-    </row>
-    <row r="218">
-      <c r="B218" s="19"/>
-      <c r="C218" s="19"/>
-      <c r="D218" s="19"/>
-    </row>
-    <row r="219">
-      <c r="B219" s="19"/>
-      <c r="C219" s="19"/>
-      <c r="D219" s="19"/>
-    </row>
-    <row r="220">
-      <c r="B220" s="19"/>
-      <c r="C220" s="19"/>
-      <c r="D220" s="19"/>
-    </row>
-    <row r="221">
-      <c r="B221" s="19"/>
-      <c r="C221" s="19"/>
-      <c r="D221" s="19"/>
-    </row>
-    <row r="222">
-      <c r="B222" s="19"/>
-      <c r="C222" s="19"/>
-      <c r="D222" s="19"/>
-    </row>
-    <row r="223">
-      <c r="B223" s="19"/>
-      <c r="C223" s="19"/>
-      <c r="D223" s="19"/>
-    </row>
-    <row r="224">
-      <c r="B224" s="19"/>
-      <c r="C224" s="19"/>
-      <c r="D224" s="19"/>
-    </row>
-    <row r="225">
-      <c r="B225" s="19"/>
-      <c r="C225" s="19"/>
-      <c r="D225" s="19"/>
-    </row>
-    <row r="226">
-      <c r="B226" s="19"/>
-      <c r="C226" s="19"/>
-      <c r="D226" s="19"/>
-    </row>
-    <row r="227">
-      <c r="B227" s="19"/>
-      <c r="C227" s="19"/>
-      <c r="D227" s="19"/>
-    </row>
-    <row r="228">
-      <c r="B228" s="19"/>
-      <c r="C228" s="19"/>
-      <c r="D228" s="19"/>
-    </row>
-    <row r="229">
-      <c r="B229" s="19"/>
-      <c r="C229" s="19"/>
-      <c r="D229" s="19"/>
-    </row>
-    <row r="230">
-      <c r="B230" s="19"/>
-      <c r="C230" s="19"/>
-      <c r="D230" s="19"/>
-    </row>
-    <row r="231">
-      <c r="B231" s="19"/>
-      <c r="C231" s="19"/>
-      <c r="D231" s="19"/>
-    </row>
-    <row r="232">
-      <c r="B232" s="19"/>
-      <c r="C232" s="19"/>
-      <c r="D232" s="19"/>
-    </row>
-    <row r="233">
-      <c r="B233" s="19"/>
-      <c r="C233" s="19"/>
-      <c r="D233" s="19"/>
-    </row>
-    <row r="234">
-      <c r="B234" s="19"/>
-      <c r="C234" s="19"/>
-      <c r="D234" s="19"/>
-    </row>
-    <row r="235">
-      <c r="B235" s="19"/>
-      <c r="C235" s="19"/>
-      <c r="D235" s="19"/>
-    </row>
-    <row r="236">
-      <c r="B236" s="19"/>
-      <c r="C236" s="19"/>
-      <c r="D236" s="19"/>
-    </row>
-    <row r="237">
-      <c r="B237" s="19"/>
-      <c r="C237" s="19"/>
-      <c r="D237" s="19"/>
-    </row>
-    <row r="238">
-      <c r="B238" s="19"/>
-      <c r="C238" s="19"/>
-      <c r="D238" s="19"/>
-    </row>
-    <row r="239">
-      <c r="B239" s="19"/>
-      <c r="C239" s="19"/>
-      <c r="D239" s="19"/>
-    </row>
-    <row r="240">
-      <c r="B240" s="19"/>
-      <c r="C240" s="19"/>
-      <c r="D240" s="19"/>
-    </row>
-    <row r="241">
-      <c r="B241" s="19"/>
-      <c r="C241" s="19"/>
-      <c r="D241" s="19"/>
-    </row>
-    <row r="242">
-      <c r="B242" s="19"/>
-      <c r="C242" s="19"/>
-      <c r="D242" s="19"/>
-    </row>
-    <row r="243">
-      <c r="B243" s="19"/>
-      <c r="C243" s="19"/>
-      <c r="D243" s="19"/>
-    </row>
-    <row r="244">
-      <c r="B244" s="19"/>
-      <c r="C244" s="19"/>
-      <c r="D244" s="19"/>
-    </row>
-    <row r="245">
-      <c r="B245" s="19"/>
-      <c r="C245" s="19"/>
-      <c r="D245" s="19"/>
-    </row>
-    <row r="246">
-      <c r="B246" s="19"/>
-      <c r="C246" s="19"/>
-      <c r="D246" s="19"/>
-    </row>
-    <row r="247">
-      <c r="B247" s="19"/>
-      <c r="C247" s="19"/>
-      <c r="D247" s="19"/>
-    </row>
-    <row r="248">
-      <c r="B248" s="19"/>
-      <c r="C248" s="19"/>
-      <c r="D248" s="19"/>
-    </row>
-    <row r="249">
-      <c r="B249" s="19"/>
-      <c r="C249" s="19"/>
-      <c r="D249" s="19"/>
-    </row>
-    <row r="250">
-      <c r="B250" s="19"/>
-      <c r="C250" s="19"/>
-      <c r="D250" s="19"/>
-    </row>
-    <row r="251">
-      <c r="B251" s="19"/>
-      <c r="C251" s="19"/>
-      <c r="D251" s="19"/>
-    </row>
-    <row r="252">
-      <c r="B252" s="19"/>
-      <c r="C252" s="19"/>
-      <c r="D252" s="19"/>
-    </row>
-    <row r="253">
-      <c r="B253" s="19"/>
-      <c r="C253" s="19"/>
-      <c r="D253" s="19"/>
-    </row>
-    <row r="254">
-      <c r="B254" s="19"/>
-      <c r="C254" s="19"/>
-      <c r="D254" s="19"/>
-    </row>
-    <row r="255">
-      <c r="B255" s="19"/>
-      <c r="C255" s="19"/>
-      <c r="D255" s="19"/>
-    </row>
-    <row r="256">
-      <c r="B256" s="19"/>
-      <c r="C256" s="19"/>
-      <c r="D256" s="19"/>
-    </row>
-    <row r="257">
-      <c r="B257" s="19"/>
-      <c r="C257" s="19"/>
-      <c r="D257" s="19"/>
-    </row>
-    <row r="258">
-      <c r="B258" s="19"/>
-      <c r="C258" s="19"/>
-      <c r="D258" s="19"/>
-    </row>
-    <row r="259">
-      <c r="B259" s="19"/>
-      <c r="C259" s="19"/>
-      <c r="D259" s="19"/>
-    </row>
-    <row r="260">
-      <c r="B260" s="19"/>
-      <c r="C260" s="19"/>
-      <c r="D260" s="19"/>
-    </row>
-    <row r="261">
-      <c r="B261" s="19"/>
-      <c r="C261" s="19"/>
-      <c r="D261" s="19"/>
-    </row>
-    <row r="262">
-      <c r="B262" s="19"/>
-      <c r="C262" s="19"/>
-      <c r="D262" s="19"/>
-    </row>
-    <row r="263">
-      <c r="B263" s="19"/>
-      <c r="C263" s="19"/>
-      <c r="D263" s="19"/>
-    </row>
-    <row r="264">
-      <c r="B264" s="19"/>
-      <c r="C264" s="19"/>
-      <c r="D264" s="19"/>
-    </row>
-    <row r="265">
-      <c r="B265" s="19"/>
-      <c r="C265" s="19"/>
-      <c r="D265" s="19"/>
-    </row>
-    <row r="266">
-      <c r="B266" s="19"/>
-      <c r="C266" s="19"/>
-      <c r="D266" s="19"/>
-    </row>
-    <row r="267">
-      <c r="B267" s="19"/>
-      <c r="C267" s="19"/>
-      <c r="D267" s="19"/>
-    </row>
-    <row r="268">
-      <c r="B268" s="19"/>
-      <c r="C268" s="19"/>
-      <c r="D268" s="19"/>
-    </row>
-    <row r="269">
-      <c r="B269" s="19"/>
-      <c r="C269" s="19"/>
-      <c r="D269" s="19"/>
-    </row>
-    <row r="270">
-      <c r="B270" s="19"/>
-      <c r="C270" s="19"/>
-      <c r="D270" s="19"/>
-    </row>
-    <row r="271">
-      <c r="B271" s="19"/>
-      <c r="C271" s="19"/>
-      <c r="D271" s="19"/>
-    </row>
-    <row r="272">
-      <c r="B272" s="19"/>
-      <c r="C272" s="19"/>
-      <c r="D272" s="19"/>
-    </row>
-    <row r="273">
-      <c r="B273" s="19"/>
-      <c r="C273" s="19"/>
-      <c r="D273" s="19"/>
-    </row>
-    <row r="274">
-      <c r="B274" s="19"/>
-      <c r="C274" s="19"/>
-      <c r="D274" s="19"/>
-    </row>
-    <row r="275">
-      <c r="B275" s="19"/>
-      <c r="C275" s="19"/>
-      <c r="D275" s="19"/>
-    </row>
-    <row r="276">
-      <c r="B276" s="19"/>
-      <c r="C276" s="19"/>
-      <c r="D276" s="19"/>
-    </row>
-    <row r="277">
-      <c r="B277" s="19"/>
-      <c r="C277" s="19"/>
-      <c r="D277" s="19"/>
-    </row>
-    <row r="278">
-      <c r="B278" s="19"/>
-      <c r="C278" s="19"/>
-      <c r="D278" s="19"/>
-    </row>
-    <row r="279">
-      <c r="B279" s="19"/>
-      <c r="C279" s="19"/>
-      <c r="D279" s="19"/>
-    </row>
-    <row r="280">
-      <c r="B280" s="19"/>
-      <c r="C280" s="19"/>
-      <c r="D280" s="19"/>
-    </row>
-    <row r="281">
-      <c r="B281" s="19"/>
-      <c r="C281" s="19"/>
-      <c r="D281" s="19"/>
-    </row>
-    <row r="282">
-      <c r="B282" s="19"/>
-      <c r="C282" s="19"/>
-      <c r="D282" s="19"/>
-    </row>
-    <row r="283">
-      <c r="B283" s="19"/>
-      <c r="C283" s="19"/>
-      <c r="D283" s="19"/>
-    </row>
-    <row r="284">
-      <c r="B284" s="19"/>
-      <c r="C284" s="19"/>
-      <c r="D284" s="19"/>
-    </row>
-    <row r="285">
-      <c r="B285" s="19"/>
-      <c r="C285" s="19"/>
-      <c r="D285" s="19"/>
-    </row>
-    <row r="286">
-      <c r="B286" s="19"/>
-      <c r="C286" s="19"/>
-      <c r="D286" s="19"/>
-    </row>
-    <row r="287">
-      <c r="B287" s="19"/>
-      <c r="C287" s="19"/>
-      <c r="D287" s="19"/>
-    </row>
-    <row r="288">
-      <c r="B288" s="19"/>
-      <c r="C288" s="19"/>
-      <c r="D288" s="19"/>
-    </row>
-    <row r="289">
-      <c r="B289" s="19"/>
-      <c r="C289" s="19"/>
-      <c r="D289" s="19"/>
-    </row>
-    <row r="290">
-      <c r="B290" s="19"/>
-      <c r="C290" s="19"/>
-      <c r="D290" s="19"/>
-    </row>
-    <row r="291">
-      <c r="B291" s="19"/>
-      <c r="C291" s="19"/>
-      <c r="D291" s="19"/>
-    </row>
-    <row r="292">
-      <c r="B292" s="19"/>
-      <c r="C292" s="19"/>
-      <c r="D292" s="19"/>
-    </row>
-    <row r="293">
-      <c r="B293" s="19"/>
-      <c r="C293" s="19"/>
-      <c r="D293" s="19"/>
-    </row>
-    <row r="294">
-      <c r="B294" s="19"/>
-      <c r="C294" s="19"/>
-      <c r="D294" s="19"/>
-    </row>
-    <row r="295">
-      <c r="B295" s="19"/>
-      <c r="C295" s="19"/>
-      <c r="D295" s="19"/>
-    </row>
-    <row r="296">
-      <c r="B296" s="19"/>
-      <c r="C296" s="19"/>
-      <c r="D296" s="19"/>
-    </row>
-    <row r="297">
-      <c r="B297" s="19"/>
-      <c r="C297" s="19"/>
-      <c r="D297" s="19"/>
-    </row>
-    <row r="298">
-      <c r="B298" s="19"/>
-      <c r="C298" s="19"/>
-      <c r="D298" s="19"/>
-    </row>
-    <row r="299">
-      <c r="B299" s="19"/>
-      <c r="C299" s="19"/>
-      <c r="D299" s="19"/>
-    </row>
-    <row r="300">
-      <c r="B300" s="19"/>
-      <c r="C300" s="19"/>
-      <c r="D300" s="19"/>
-    </row>
-    <row r="301">
-      <c r="B301" s="19"/>
-      <c r="C301" s="19"/>
-      <c r="D301" s="19"/>
-    </row>
-    <row r="302">
-      <c r="B302" s="19"/>
-      <c r="C302" s="19"/>
-      <c r="D302" s="19"/>
-    </row>
-    <row r="303">
-      <c r="B303" s="19"/>
-      <c r="C303" s="19"/>
-      <c r="D303" s="19"/>
-    </row>
-    <row r="304">
-      <c r="B304" s="19"/>
-      <c r="C304" s="19"/>
-      <c r="D304" s="19"/>
-    </row>
-    <row r="305">
-      <c r="B305" s="19"/>
-      <c r="C305" s="19"/>
-      <c r="D305" s="19"/>
-    </row>
-    <row r="306">
-      <c r="B306" s="19"/>
-      <c r="C306" s="19"/>
-      <c r="D306" s="19"/>
-    </row>
-    <row r="307">
-      <c r="B307" s="19"/>
-      <c r="C307" s="19"/>
-      <c r="D307" s="19"/>
-    </row>
-    <row r="308">
-      <c r="B308" s="19"/>
-      <c r="C308" s="19"/>
-      <c r="D308" s="19"/>
-    </row>
-    <row r="309">
-      <c r="B309" s="19"/>
-      <c r="C309" s="19"/>
-      <c r="D309" s="19"/>
-    </row>
-    <row r="310">
-      <c r="B310" s="19"/>
-      <c r="C310" s="19"/>
-      <c r="D310" s="19"/>
-    </row>
-    <row r="311">
-      <c r="B311" s="19"/>
-      <c r="C311" s="19"/>
-      <c r="D311" s="19"/>
-    </row>
-    <row r="312">
-      <c r="B312" s="19"/>
-      <c r="C312" s="19"/>
-      <c r="D312" s="19"/>
-    </row>
-    <row r="313">
-      <c r="B313" s="19"/>
-      <c r="C313" s="19"/>
-      <c r="D313" s="19"/>
-    </row>
-    <row r="314">
-      <c r="B314" s="19"/>
-      <c r="C314" s="19"/>
-      <c r="D314" s="19"/>
-    </row>
-    <row r="315">
-      <c r="B315" s="19"/>
-      <c r="C315" s="19"/>
-      <c r="D315" s="19"/>
-    </row>
-    <row r="316">
-      <c r="B316" s="19"/>
-      <c r="C316" s="19"/>
-      <c r="D316" s="19"/>
-    </row>
-    <row r="317">
-      <c r="B317" s="19"/>
-      <c r="C317" s="19"/>
-      <c r="D317" s="19"/>
-    </row>
-    <row r="318">
-      <c r="B318" s="19"/>
-      <c r="C318" s="19"/>
-      <c r="D318" s="19"/>
-    </row>
-    <row r="319">
-      <c r="B319" s="19"/>
-      <c r="C319" s="19"/>
-      <c r="D319" s="19"/>
-    </row>
-    <row r="320">
-      <c r="B320" s="19"/>
-      <c r="C320" s="19"/>
-      <c r="D320" s="19"/>
-    </row>
-    <row r="321">
-      <c r="B321" s="19"/>
-      <c r="C321" s="19"/>
-      <c r="D321" s="19"/>
-    </row>
-    <row r="322">
-      <c r="B322" s="19"/>
-      <c r="C322" s="19"/>
-      <c r="D322" s="19"/>
-    </row>
-    <row r="323">
-      <c r="B323" s="19"/>
-      <c r="C323" s="19"/>
-      <c r="D323" s="19"/>
-    </row>
-    <row r="324">
-      <c r="B324" s="19"/>
-      <c r="C324" s="19"/>
-      <c r="D324" s="19"/>
-    </row>
-    <row r="325">
-      <c r="B325" s="19"/>
-      <c r="C325" s="19"/>
-      <c r="D325" s="19"/>
-    </row>
-    <row r="326">
-      <c r="B326" s="19"/>
-      <c r="C326" s="19"/>
-      <c r="D326" s="19"/>
-    </row>
-    <row r="327">
-      <c r="B327" s="19"/>
-      <c r="C327" s="19"/>
-      <c r="D327" s="19"/>
-    </row>
-    <row r="328">
-      <c r="B328" s="19"/>
-      <c r="C328" s="19"/>
-      <c r="D328" s="19"/>
-    </row>
-    <row r="329">
-      <c r="B329" s="19"/>
-      <c r="C329" s="19"/>
-      <c r="D329" s="19"/>
-    </row>
-    <row r="330">
-      <c r="B330" s="19"/>
-      <c r="C330" s="19"/>
-      <c r="D330" s="19"/>
-    </row>
-    <row r="331">
-      <c r="B331" s="19"/>
-      <c r="C331" s="19"/>
-      <c r="D331" s="19"/>
-    </row>
-    <row r="332">
-      <c r="B332" s="19"/>
-      <c r="C332" s="19"/>
-      <c r="D332" s="19"/>
-    </row>
-    <row r="333">
-      <c r="B333" s="19"/>
-      <c r="C333" s="19"/>
-      <c r="D333" s="19"/>
-    </row>
-    <row r="334">
-      <c r="B334" s="19"/>
-      <c r="C334" s="19"/>
-      <c r="D334" s="19"/>
-    </row>
-    <row r="335">
-      <c r="B335" s="19"/>
-      <c r="C335" s="19"/>
-      <c r="D335" s="19"/>
-    </row>
-    <row r="336">
-      <c r="B336" s="19"/>
-      <c r="C336" s="19"/>
-      <c r="D336" s="19"/>
-    </row>
-    <row r="337">
-      <c r="B337" s="19"/>
-      <c r="C337" s="19"/>
-      <c r="D337" s="19"/>
-    </row>
-    <row r="338">
-      <c r="B338" s="19"/>
-      <c r="C338" s="19"/>
-      <c r="D338" s="19"/>
-    </row>
-    <row r="339">
-      <c r="B339" s="19"/>
-      <c r="C339" s="19"/>
-      <c r="D339" s="19"/>
-    </row>
-    <row r="340">
-      <c r="B340" s="19"/>
-      <c r="C340" s="19"/>
-      <c r="D340" s="19"/>
-    </row>
-    <row r="341">
-      <c r="B341" s="19"/>
-      <c r="C341" s="19"/>
-      <c r="D341" s="19"/>
-    </row>
-    <row r="342">
-      <c r="B342" s="19"/>
-      <c r="C342" s="19"/>
-      <c r="D342" s="19"/>
-    </row>
-    <row r="343">
-      <c r="B343" s="19"/>
-      <c r="C343" s="19"/>
-      <c r="D343" s="19"/>
-    </row>
-    <row r="344">
-      <c r="B344" s="19"/>
-      <c r="C344" s="19"/>
-      <c r="D344" s="19"/>
-    </row>
-    <row r="345">
-      <c r="B345" s="19"/>
-      <c r="C345" s="19"/>
-      <c r="D345" s="19"/>
-    </row>
-    <row r="346">
-      <c r="B346" s="19"/>
-      <c r="C346" s="19"/>
-      <c r="D346" s="19"/>
-    </row>
-    <row r="347">
-      <c r="B347" s="19"/>
-      <c r="C347" s="19"/>
-      <c r="D347" s="19"/>
-    </row>
-    <row r="348">
-      <c r="B348" s="19"/>
-      <c r="C348" s="19"/>
-      <c r="D348" s="19"/>
-    </row>
-    <row r="349">
-      <c r="B349" s="19"/>
-      <c r="C349" s="19"/>
-      <c r="D349" s="19"/>
-    </row>
-    <row r="350">
-      <c r="B350" s="19"/>
-      <c r="C350" s="19"/>
-      <c r="D350" s="19"/>
-    </row>
-    <row r="351">
-      <c r="B351" s="19"/>
-      <c r="C351" s="19"/>
-      <c r="D351" s="19"/>
-    </row>
-    <row r="352">
-      <c r="B352" s="19"/>
-      <c r="C352" s="19"/>
-      <c r="D352" s="19"/>
-    </row>
-    <row r="353">
-      <c r="B353" s="19"/>
-      <c r="C353" s="19"/>
-      <c r="D353" s="19"/>
-    </row>
-    <row r="354">
-      <c r="B354" s="19"/>
-      <c r="C354" s="19"/>
-      <c r="D354" s="19"/>
-    </row>
-    <row r="355">
-      <c r="B355" s="19"/>
-      <c r="C355" s="19"/>
-      <c r="D355" s="19"/>
-    </row>
-    <row r="356">
-      <c r="B356" s="19"/>
-      <c r="C356" s="19"/>
-      <c r="D356" s="19"/>
-    </row>
-    <row r="357">
-      <c r="B357" s="19"/>
-      <c r="C357" s="19"/>
-      <c r="D357" s="19"/>
-    </row>
-    <row r="358">
-      <c r="B358" s="19"/>
-      <c r="C358" s="19"/>
-      <c r="D358" s="19"/>
-    </row>
-    <row r="359">
-      <c r="B359" s="19"/>
-      <c r="C359" s="19"/>
-      <c r="D359" s="19"/>
-    </row>
-    <row r="360">
-      <c r="B360" s="19"/>
-      <c r="C360" s="19"/>
-      <c r="D360" s="19"/>
-    </row>
-    <row r="361">
-      <c r="B361" s="19"/>
-      <c r="C361" s="19"/>
-      <c r="D361" s="19"/>
-    </row>
-    <row r="362">
-      <c r="B362" s="19"/>
-      <c r="C362" s="19"/>
-      <c r="D362" s="19"/>
-    </row>
-    <row r="363">
-      <c r="B363" s="19"/>
-      <c r="C363" s="19"/>
-      <c r="D363" s="19"/>
-    </row>
-    <row r="364">
-      <c r="B364" s="19"/>
-      <c r="C364" s="19"/>
-      <c r="D364" s="19"/>
-    </row>
-    <row r="365">
-      <c r="B365" s="19"/>
-      <c r="C365" s="19"/>
-      <c r="D365" s="19"/>
-    </row>
-    <row r="366">
-      <c r="B366" s="19"/>
-      <c r="C366" s="19"/>
-      <c r="D366" s="19"/>
-    </row>
-    <row r="367">
-      <c r="B367" s="19"/>
-      <c r="C367" s="19"/>
-      <c r="D367" s="19"/>
-    </row>
-    <row r="368">
-      <c r="B368" s="19"/>
-      <c r="C368" s="19"/>
-      <c r="D368" s="19"/>
-    </row>
-    <row r="369">
-      <c r="B369" s="19"/>
-      <c r="C369" s="19"/>
-      <c r="D369" s="19"/>
-    </row>
-    <row r="370">
-      <c r="B370" s="19"/>
-      <c r="C370" s="19"/>
-      <c r="D370" s="19"/>
-    </row>
-    <row r="371">
-      <c r="B371" s="19"/>
-      <c r="C371" s="19"/>
-      <c r="D371" s="19"/>
-    </row>
-    <row r="372">
-      <c r="B372" s="19"/>
-      <c r="C372" s="19"/>
-      <c r="D372" s="19"/>
-    </row>
-    <row r="373">
-      <c r="B373" s="19"/>
-      <c r="C373" s="19"/>
-      <c r="D373" s="19"/>
-    </row>
-    <row r="374">
-      <c r="B374" s="19"/>
-      <c r="C374" s="19"/>
-      <c r="D374" s="19"/>
-    </row>
-    <row r="375">
-      <c r="B375" s="19"/>
-      <c r="C375" s="19"/>
-      <c r="D375" s="19"/>
-    </row>
-    <row r="376">
-      <c r="B376" s="19"/>
-      <c r="C376" s="19"/>
-      <c r="D376" s="19"/>
-    </row>
-    <row r="377">
-      <c r="B377" s="19"/>
-      <c r="C377" s="19"/>
-      <c r="D377" s="19"/>
-    </row>
-    <row r="378">
-      <c r="B378" s="19"/>
-      <c r="C378" s="19"/>
-      <c r="D378" s="19"/>
-    </row>
-    <row r="379">
-      <c r="B379" s="19"/>
-      <c r="C379" s="19"/>
-      <c r="D379" s="19"/>
-    </row>
-    <row r="380">
-      <c r="B380" s="19"/>
-      <c r="C380" s="19"/>
-      <c r="D380" s="19"/>
-    </row>
-    <row r="381">
-      <c r="B381" s="19"/>
-      <c r="C381" s="19"/>
-      <c r="D381" s="19"/>
-    </row>
-    <row r="382">
-      <c r="B382" s="19"/>
-      <c r="C382" s="19"/>
-      <c r="D382" s="19"/>
-    </row>
-    <row r="383">
-      <c r="B383" s="19"/>
-      <c r="C383" s="19"/>
-      <c r="D383" s="19"/>
-    </row>
-    <row r="384">
-      <c r="B384" s="19"/>
-      <c r="C384" s="19"/>
-      <c r="D384" s="19"/>
-    </row>
-    <row r="385">
-      <c r="B385" s="19"/>
-      <c r="C385" s="19"/>
-      <c r="D385" s="19"/>
-    </row>
-    <row r="386">
-      <c r="B386" s="19"/>
-      <c r="C386" s="19"/>
-      <c r="D386" s="19"/>
-    </row>
-    <row r="387">
-      <c r="B387" s="19"/>
-      <c r="C387" s="19"/>
-      <c r="D387" s="19"/>
-    </row>
-    <row r="388">
-      <c r="B388" s="19"/>
-      <c r="C388" s="19"/>
-      <c r="D388" s="19"/>
-    </row>
-    <row r="389">
-      <c r="B389" s="19"/>
-      <c r="C389" s="19"/>
-      <c r="D389" s="19"/>
-    </row>
-    <row r="390">
-      <c r="B390" s="19"/>
-      <c r="C390" s="19"/>
-      <c r="D390" s="19"/>
-    </row>
-    <row r="391">
-      <c r="B391" s="19"/>
-      <c r="C391" s="19"/>
-      <c r="D391" s="19"/>
-    </row>
-    <row r="392">
-      <c r="B392" s="19"/>
-      <c r="C392" s="19"/>
-      <c r="D392" s="19"/>
-    </row>
-    <row r="393">
-      <c r="B393" s="19"/>
-      <c r="C393" s="19"/>
-      <c r="D393" s="19"/>
-    </row>
-    <row r="394">
-      <c r="B394" s="19"/>
-      <c r="C394" s="19"/>
-      <c r="D394" s="19"/>
-    </row>
-    <row r="395">
-      <c r="B395" s="19"/>
-      <c r="C395" s="19"/>
-      <c r="D395" s="19"/>
-    </row>
-    <row r="396">
-      <c r="B396" s="19"/>
-      <c r="C396" s="19"/>
-      <c r="D396" s="19"/>
-    </row>
-    <row r="397">
-      <c r="B397" s="19"/>
-      <c r="C397" s="19"/>
-      <c r="D397" s="19"/>
-    </row>
-    <row r="398">
-      <c r="B398" s="19"/>
-      <c r="C398" s="19"/>
-      <c r="D398" s="19"/>
-    </row>
-    <row r="399">
-      <c r="B399" s="19"/>
-      <c r="C399" s="19"/>
-      <c r="D399" s="19"/>
-    </row>
-    <row r="400">
-      <c r="B400" s="19"/>
-      <c r="C400" s="19"/>
-      <c r="D400" s="19"/>
-    </row>
-    <row r="401">
-      <c r="B401" s="19"/>
-      <c r="C401" s="19"/>
-      <c r="D401" s="19"/>
-    </row>
-    <row r="402">
-      <c r="B402" s="19"/>
-      <c r="C402" s="19"/>
-      <c r="D402" s="19"/>
-    </row>
-    <row r="403">
-      <c r="B403" s="19"/>
-      <c r="C403" s="19"/>
-      <c r="D403" s="19"/>
-    </row>
-    <row r="404">
-      <c r="B404" s="19"/>
-      <c r="C404" s="19"/>
-      <c r="D404" s="19"/>
-    </row>
-    <row r="405">
-      <c r="B405" s="19"/>
-      <c r="C405" s="19"/>
-      <c r="D405" s="19"/>
-    </row>
-    <row r="406">
-      <c r="B406" s="19"/>
-      <c r="C406" s="19"/>
-      <c r="D406" s="19"/>
-    </row>
-    <row r="407">
-      <c r="B407" s="19"/>
-      <c r="C407" s="19"/>
-      <c r="D407" s="19"/>
-    </row>
-    <row r="408">
-      <c r="B408" s="19"/>
-      <c r="C408" s="19"/>
-      <c r="D408" s="19"/>
-    </row>
-    <row r="409">
-      <c r="B409" s="19"/>
-      <c r="C409" s="19"/>
-      <c r="D409" s="19"/>
-    </row>
-    <row r="410">
-      <c r="B410" s="19"/>
-      <c r="C410" s="19"/>
-      <c r="D410" s="19"/>
-    </row>
-    <row r="411">
-      <c r="B411" s="19"/>
-      <c r="C411" s="19"/>
-      <c r="D411" s="19"/>
-    </row>
-    <row r="412">
-      <c r="B412" s="19"/>
-      <c r="C412" s="19"/>
-      <c r="D412" s="19"/>
-    </row>
-    <row r="413">
-      <c r="B413" s="19"/>
-      <c r="C413" s="19"/>
-      <c r="D413" s="19"/>
-    </row>
-    <row r="414">
-      <c r="B414" s="19"/>
-      <c r="C414" s="19"/>
-      <c r="D414" s="19"/>
-    </row>
-    <row r="415">
-      <c r="B415" s="19"/>
-      <c r="C415" s="19"/>
-      <c r="D415" s="19"/>
-    </row>
-    <row r="416">
-      <c r="B416" s="19"/>
-      <c r="C416" s="19"/>
-      <c r="D416" s="19"/>
-    </row>
-    <row r="417">
-      <c r="B417" s="19"/>
-      <c r="C417" s="19"/>
-      <c r="D417" s="19"/>
-    </row>
-    <row r="418">
-      <c r="B418" s="19"/>
-      <c r="C418" s="19"/>
-      <c r="D418" s="19"/>
-    </row>
-    <row r="419">
-      <c r="B419" s="19"/>
-      <c r="C419" s="19"/>
-      <c r="D419" s="19"/>
-    </row>
-    <row r="420">
-      <c r="B420" s="19"/>
-      <c r="C420" s="19"/>
-      <c r="D420" s="19"/>
-    </row>
-    <row r="421">
-      <c r="B421" s="19"/>
-      <c r="C421" s="19"/>
-      <c r="D421" s="19"/>
-    </row>
-    <row r="422">
-      <c r="B422" s="19"/>
-      <c r="C422" s="19"/>
-      <c r="D422" s="19"/>
-    </row>
-    <row r="423">
-      <c r="B423" s="19"/>
-      <c r="C423" s="19"/>
-      <c r="D423" s="19"/>
-    </row>
-    <row r="424">
-      <c r="B424" s="19"/>
-      <c r="C424" s="19"/>
-      <c r="D424" s="19"/>
-    </row>
-    <row r="425">
-      <c r="B425" s="19"/>
-      <c r="C425" s="19"/>
-      <c r="D425" s="19"/>
-    </row>
-    <row r="426">
-      <c r="B426" s="19"/>
-      <c r="C426" s="19"/>
-      <c r="D426" s="19"/>
-    </row>
-    <row r="427">
-      <c r="B427" s="19"/>
-      <c r="C427" s="19"/>
-      <c r="D427" s="19"/>
-    </row>
-    <row r="428">
-      <c r="B428" s="19"/>
-      <c r="C428" s="19"/>
-      <c r="D428" s="19"/>
-    </row>
-    <row r="429">
-      <c r="B429" s="19"/>
-      <c r="C429" s="19"/>
-      <c r="D429" s="19"/>
-    </row>
-    <row r="430">
-      <c r="B430" s="19"/>
-      <c r="C430" s="19"/>
-      <c r="D430" s="19"/>
-    </row>
-    <row r="431">
-      <c r="B431" s="19"/>
-      <c r="C431" s="19"/>
-      <c r="D431" s="19"/>
-    </row>
-    <row r="432">
-      <c r="B432" s="19"/>
-      <c r="C432" s="19"/>
-      <c r="D432" s="19"/>
-    </row>
-    <row r="433">
-      <c r="B433" s="19"/>
-      <c r="C433" s="19"/>
-      <c r="D433" s="19"/>
-    </row>
-    <row r="434">
-      <c r="B434" s="19"/>
-      <c r="C434" s="19"/>
-      <c r="D434" s="19"/>
-    </row>
-    <row r="435">
-      <c r="B435" s="19"/>
-      <c r="C435" s="19"/>
-      <c r="D435" s="19"/>
-    </row>
-    <row r="436">
-      <c r="B436" s="19"/>
-      <c r="C436" s="19"/>
-      <c r="D436" s="19"/>
-    </row>
-    <row r="437">
-      <c r="B437" s="19"/>
-      <c r="C437" s="19"/>
-      <c r="D437" s="19"/>
-    </row>
-    <row r="438">
-      <c r="B438" s="19"/>
-      <c r="C438" s="19"/>
-      <c r="D438" s="19"/>
-    </row>
-    <row r="439">
-      <c r="B439" s="19"/>
-      <c r="C439" s="19"/>
-      <c r="D439" s="19"/>
-    </row>
-    <row r="440">
-      <c r="B440" s="19"/>
-      <c r="C440" s="19"/>
-      <c r="D440" s="19"/>
-    </row>
-    <row r="441">
-      <c r="B441" s="19"/>
-      <c r="C441" s="19"/>
-      <c r="D441" s="19"/>
-    </row>
-    <row r="442">
-      <c r="B442" s="19"/>
-      <c r="C442" s="19"/>
-      <c r="D442" s="19"/>
-    </row>
-    <row r="443">
-      <c r="B443" s="19"/>
-      <c r="C443" s="19"/>
-      <c r="D443" s="19"/>
-    </row>
-    <row r="444">
-      <c r="B444" s="19"/>
-      <c r="C444" s="19"/>
-      <c r="D444" s="19"/>
-    </row>
-    <row r="445">
-      <c r="B445" s="19"/>
-      <c r="C445" s="19"/>
-      <c r="D445" s="19"/>
-    </row>
-    <row r="446">
-      <c r="B446" s="19"/>
-      <c r="C446" s="19"/>
-      <c r="D446" s="19"/>
-    </row>
-    <row r="447">
-      <c r="B447" s="19"/>
-      <c r="C447" s="19"/>
-      <c r="D447" s="19"/>
-    </row>
-    <row r="448">
-      <c r="B448" s="19"/>
-      <c r="C448" s="19"/>
-      <c r="D448" s="19"/>
-    </row>
-    <row r="449">
-      <c r="B449" s="19"/>
-      <c r="C449" s="19"/>
-      <c r="D449" s="19"/>
-    </row>
-    <row r="450">
-      <c r="B450" s="19"/>
-      <c r="C450" s="19"/>
-      <c r="D450" s="19"/>
-    </row>
-    <row r="451">
-      <c r="B451" s="19"/>
-      <c r="C451" s="19"/>
-      <c r="D451" s="19"/>
-    </row>
-    <row r="452">
-      <c r="B452" s="19"/>
-      <c r="C452" s="19"/>
-      <c r="D452" s="19"/>
-    </row>
-    <row r="453">
-      <c r="B453" s="19"/>
-      <c r="C453" s="19"/>
-      <c r="D453" s="19"/>
-    </row>
-    <row r="454">
-      <c r="B454" s="19"/>
-      <c r="C454" s="19"/>
-      <c r="D454" s="19"/>
-    </row>
-    <row r="455">
-      <c r="B455" s="19"/>
-      <c r="C455" s="19"/>
-      <c r="D455" s="19"/>
-    </row>
-    <row r="456">
-      <c r="B456" s="19"/>
-      <c r="C456" s="19"/>
-      <c r="D456" s="19"/>
-    </row>
-    <row r="457">
-      <c r="B457" s="19"/>
-      <c r="C457" s="19"/>
-      <c r="D457" s="19"/>
-    </row>
-    <row r="458">
-      <c r="B458" s="19"/>
-      <c r="C458" s="19"/>
-      <c r="D458" s="19"/>
-    </row>
-    <row r="459">
-      <c r="B459" s="19"/>
-      <c r="C459" s="19"/>
-      <c r="D459" s="19"/>
-    </row>
-    <row r="460">
-      <c r="B460" s="19"/>
-      <c r="C460" s="19"/>
-      <c r="D460" s="19"/>
-    </row>
-    <row r="461">
-      <c r="B461" s="19"/>
-      <c r="C461" s="19"/>
-      <c r="D461" s="19"/>
-    </row>
-    <row r="462">
-      <c r="B462" s="19"/>
-      <c r="C462" s="19"/>
-      <c r="D462" s="19"/>
-    </row>
-    <row r="463">
-      <c r="B463" s="19"/>
-      <c r="C463" s="19"/>
-      <c r="D463" s="19"/>
-    </row>
-    <row r="464">
-      <c r="B464" s="19"/>
-      <c r="C464" s="19"/>
-      <c r="D464" s="19"/>
-    </row>
-    <row r="465">
-      <c r="B465" s="19"/>
-      <c r="C465" s="19"/>
-      <c r="D465" s="19"/>
-    </row>
-    <row r="466">
-      <c r="B466" s="19"/>
-      <c r="C466" s="19"/>
-      <c r="D466" s="19"/>
-    </row>
-    <row r="467">
-      <c r="B467" s="19"/>
-      <c r="C467" s="19"/>
-      <c r="D467" s="19"/>
-    </row>
-    <row r="468">
-      <c r="B468" s="19"/>
-      <c r="C468" s="19"/>
-      <c r="D468" s="19"/>
-    </row>
-    <row r="469">
-      <c r="B469" s="19"/>
-      <c r="C469" s="19"/>
-      <c r="D469" s="19"/>
-    </row>
-    <row r="470">
-      <c r="B470" s="19"/>
-      <c r="C470" s="19"/>
-      <c r="D470" s="19"/>
-    </row>
-    <row r="471">
-      <c r="B471" s="19"/>
-      <c r="C471" s="19"/>
-      <c r="D471" s="19"/>
-    </row>
-    <row r="472">
-      <c r="B472" s="19"/>
-      <c r="C472" s="19"/>
-      <c r="D472" s="19"/>
-    </row>
-    <row r="473">
-      <c r="B473" s="19"/>
-      <c r="C473" s="19"/>
-      <c r="D473" s="19"/>
-    </row>
-    <row r="474">
-      <c r="B474" s="19"/>
-      <c r="C474" s="19"/>
-      <c r="D474" s="19"/>
-    </row>
-    <row r="475">
-      <c r="B475" s="19"/>
-      <c r="C475" s="19"/>
-      <c r="D475" s="19"/>
-    </row>
-    <row r="476">
-      <c r="B476" s="19"/>
-      <c r="C476" s="19"/>
-      <c r="D476" s="19"/>
-    </row>
-    <row r="477">
-      <c r="B477" s="19"/>
-      <c r="C477" s="19"/>
-      <c r="D477" s="19"/>
-    </row>
-    <row r="478">
-      <c r="B478" s="19"/>
-      <c r="C478" s="19"/>
-      <c r="D478" s="19"/>
-    </row>
-    <row r="479">
-      <c r="B479" s="19"/>
-      <c r="C479" s="19"/>
-      <c r="D479" s="19"/>
-    </row>
-    <row r="480">
-      <c r="B480" s="19"/>
-      <c r="C480" s="19"/>
-      <c r="D480" s="19"/>
-    </row>
-    <row r="481">
-      <c r="B481" s="19"/>
-      <c r="C481" s="19"/>
-      <c r="D481" s="19"/>
-    </row>
-    <row r="482">
-      <c r="B482" s="19"/>
-      <c r="C482" s="19"/>
-      <c r="D482" s="19"/>
-    </row>
-    <row r="483">
-      <c r="B483" s="19"/>
-      <c r="C483" s="19"/>
-      <c r="D483" s="19"/>
-    </row>
-    <row r="484">
-      <c r="B484" s="19"/>
-      <c r="C484" s="19"/>
-      <c r="D484" s="19"/>
-    </row>
-    <row r="485">
-      <c r="B485" s="19"/>
-      <c r="C485" s="19"/>
-      <c r="D485" s="19"/>
-    </row>
-    <row r="486">
-      <c r="B486" s="19"/>
-      <c r="C486" s="19"/>
-      <c r="D486" s="19"/>
-    </row>
-    <row r="487">
-      <c r="B487" s="19"/>
-      <c r="C487" s="19"/>
-      <c r="D487" s="19"/>
-    </row>
-    <row r="488">
-      <c r="B488" s="19"/>
-      <c r="C488" s="19"/>
-      <c r="D488" s="19"/>
-    </row>
-    <row r="489">
-      <c r="B489" s="19"/>
-      <c r="C489" s="19"/>
-      <c r="D489" s="19"/>
-    </row>
-    <row r="490">
-      <c r="B490" s="19"/>
-      <c r="C490" s="19"/>
-      <c r="D490" s="19"/>
-    </row>
-    <row r="491">
-      <c r="B491" s="19"/>
-      <c r="C491" s="19"/>
-      <c r="D491" s="19"/>
-    </row>
-    <row r="492">
-      <c r="B492" s="19"/>
-      <c r="C492" s="19"/>
-      <c r="D492" s="19"/>
-    </row>
-    <row r="493">
-      <c r="B493" s="19"/>
-      <c r="C493" s="19"/>
-      <c r="D493" s="19"/>
-    </row>
-    <row r="494">
-      <c r="B494" s="19"/>
-      <c r="C494" s="19"/>
-      <c r="D494" s="19"/>
-    </row>
-    <row r="495">
-      <c r="B495" s="19"/>
-      <c r="C495" s="19"/>
-      <c r="D495" s="19"/>
-    </row>
-    <row r="496">
-      <c r="B496" s="19"/>
-      <c r="C496" s="19"/>
-      <c r="D496" s="19"/>
-    </row>
-    <row r="497">
-      <c r="B497" s="19"/>
-      <c r="C497" s="19"/>
-      <c r="D497" s="19"/>
-    </row>
-    <row r="498">
-      <c r="B498" s="19"/>
-      <c r="C498" s="19"/>
-      <c r="D498" s="19"/>
-    </row>
-    <row r="499">
-      <c r="B499" s="19"/>
-      <c r="C499" s="19"/>
-      <c r="D499" s="19"/>
-    </row>
-    <row r="500">
-      <c r="B500" s="19"/>
-      <c r="C500" s="19"/>
-      <c r="D500" s="19"/>
-    </row>
-    <row r="501">
-      <c r="B501" s="19"/>
-      <c r="C501" s="19"/>
-      <c r="D501" s="19"/>
-    </row>
-    <row r="502">
-      <c r="B502" s="19"/>
-      <c r="C502" s="19"/>
-      <c r="D502" s="19"/>
-    </row>
-    <row r="503">
-      <c r="B503" s="19"/>
-      <c r="C503" s="19"/>
-      <c r="D503" s="19"/>
-    </row>
-    <row r="504">
-      <c r="B504" s="19"/>
-      <c r="C504" s="19"/>
-      <c r="D504" s="19"/>
-    </row>
-    <row r="505">
-      <c r="B505" s="19"/>
-      <c r="C505" s="19"/>
-      <c r="D505" s="19"/>
-    </row>
-    <row r="506">
-      <c r="B506" s="19"/>
-      <c r="C506" s="19"/>
-      <c r="D506" s="19"/>
-    </row>
-    <row r="507">
-      <c r="B507" s="19"/>
-      <c r="C507" s="19"/>
-      <c r="D507" s="19"/>
-    </row>
-    <row r="508">
-      <c r="B508" s="19"/>
-      <c r="C508" s="19"/>
-      <c r="D508" s="19"/>
-    </row>
-    <row r="509">
-      <c r="B509" s="19"/>
-      <c r="C509" s="19"/>
-      <c r="D509" s="19"/>
-    </row>
-    <row r="510">
-      <c r="B510" s="19"/>
-      <c r="C510" s="19"/>
-      <c r="D510" s="19"/>
-    </row>
-    <row r="511">
-      <c r="B511" s="19"/>
-      <c r="C511" s="19"/>
-      <c r="D511" s="19"/>
-    </row>
-    <row r="512">
-      <c r="B512" s="19"/>
-      <c r="C512" s="19"/>
-      <c r="D512" s="19"/>
-    </row>
-    <row r="513">
-      <c r="B513" s="19"/>
-      <c r="C513" s="19"/>
-      <c r="D513" s="19"/>
-    </row>
-    <row r="514">
-      <c r="B514" s="19"/>
-      <c r="C514" s="19"/>
-      <c r="D514" s="19"/>
-    </row>
-    <row r="515">
-      <c r="B515" s="19"/>
-      <c r="C515" s="19"/>
-      <c r="D515" s="19"/>
-    </row>
-    <row r="516">
-      <c r="B516" s="19"/>
-      <c r="C516" s="19"/>
-      <c r="D516" s="19"/>
-    </row>
-    <row r="517">
-      <c r="B517" s="19"/>
-      <c r="C517" s="19"/>
-      <c r="D517" s="19"/>
-    </row>
-    <row r="518">
-      <c r="B518" s="19"/>
-      <c r="C518" s="19"/>
-      <c r="D518" s="19"/>
-    </row>
-    <row r="519">
-      <c r="B519" s="19"/>
-      <c r="C519" s="19"/>
-      <c r="D519" s="19"/>
-    </row>
-    <row r="520">
-      <c r="B520" s="19"/>
-      <c r="C520" s="19"/>
-      <c r="D520" s="19"/>
-    </row>
-    <row r="521">
-      <c r="B521" s="19"/>
-      <c r="C521" s="19"/>
-      <c r="D521" s="19"/>
-    </row>
-    <row r="522">
-      <c r="B522" s="19"/>
-      <c r="C522" s="19"/>
-      <c r="D522" s="19"/>
-    </row>
-    <row r="523">
-      <c r="B523" s="19"/>
-      <c r="C523" s="19"/>
-      <c r="D523" s="19"/>
-    </row>
-    <row r="524">
-      <c r="B524" s="19"/>
-      <c r="C524" s="19"/>
-      <c r="D524" s="19"/>
-    </row>
-    <row r="525">
-      <c r="B525" s="19"/>
-      <c r="C525" s="19"/>
-      <c r="D525" s="19"/>
-    </row>
-    <row r="526">
-      <c r="B526" s="19"/>
-      <c r="C526" s="19"/>
-      <c r="D526" s="19"/>
-    </row>
-    <row r="527">
-      <c r="B527" s="19"/>
-      <c r="C527" s="19"/>
-      <c r="D527" s="19"/>
-    </row>
-    <row r="528">
-      <c r="B528" s="19"/>
-      <c r="C528" s="19"/>
-      <c r="D528" s="19"/>
-    </row>
-    <row r="529">
-      <c r="B529" s="19"/>
-      <c r="C529" s="19"/>
-      <c r="D529" s="19"/>
-    </row>
-    <row r="530">
-      <c r="B530" s="19"/>
-      <c r="C530" s="19"/>
-      <c r="D530" s="19"/>
-    </row>
-    <row r="531">
-      <c r="B531" s="19"/>
-      <c r="C531" s="19"/>
-      <c r="D531" s="19"/>
-    </row>
-    <row r="532">
-      <c r="B532" s="19"/>
-      <c r="C532" s="19"/>
-      <c r="D532" s="19"/>
-    </row>
-    <row r="533">
-      <c r="B533" s="19"/>
-      <c r="C533" s="19"/>
-      <c r="D533" s="19"/>
-    </row>
-    <row r="534">
-      <c r="B534" s="19"/>
-      <c r="C534" s="19"/>
-      <c r="D534" s="19"/>
-    </row>
-    <row r="535">
-      <c r="B535" s="19"/>
-      <c r="C535" s="19"/>
-      <c r="D535" s="19"/>
-    </row>
-    <row r="536">
-      <c r="B536" s="19"/>
-      <c r="C536" s="19"/>
-      <c r="D536" s="19"/>
-    </row>
-    <row r="537">
-      <c r="B537" s="19"/>
-      <c r="C537" s="19"/>
-      <c r="D537" s="19"/>
-    </row>
-    <row r="538">
-      <c r="B538" s="19"/>
-      <c r="C538" s="19"/>
-      <c r="D538" s="19"/>
-    </row>
-    <row r="539">
-      <c r="B539" s="19"/>
-      <c r="C539" s="19"/>
-      <c r="D539" s="19"/>
-    </row>
-    <row r="540">
-      <c r="B540" s="19"/>
-      <c r="C540" s="19"/>
-      <c r="D540" s="19"/>
-    </row>
-    <row r="541">
-      <c r="B541" s="19"/>
-      <c r="C541" s="19"/>
-      <c r="D541" s="19"/>
-    </row>
-    <row r="542">
-      <c r="B542" s="19"/>
-      <c r="C542" s="19"/>
-      <c r="D542" s="19"/>
-    </row>
-    <row r="543">
-      <c r="B543" s="19"/>
-      <c r="C543" s="19"/>
-      <c r="D543" s="19"/>
-    </row>
-    <row r="544">
-      <c r="B544" s="19"/>
-      <c r="C544" s="19"/>
-      <c r="D544" s="19"/>
-    </row>
-    <row r="545">
-      <c r="B545" s="19"/>
-      <c r="C545" s="19"/>
-      <c r="D545" s="19"/>
-    </row>
-    <row r="546">
-      <c r="B546" s="19"/>
-      <c r="C546" s="19"/>
-      <c r="D546" s="19"/>
-    </row>
-    <row r="547">
-      <c r="B547" s="19"/>
-      <c r="C547" s="19"/>
-      <c r="D547" s="19"/>
-    </row>
-    <row r="548">
-      <c r="B548" s="19"/>
-      <c r="C548" s="19"/>
-      <c r="D548" s="19"/>
-    </row>
-    <row r="549">
-      <c r="B549" s="19"/>
-      <c r="C549" s="19"/>
-      <c r="D549" s="19"/>
-    </row>
-    <row r="550">
-      <c r="B550" s="19"/>
-      <c r="C550" s="19"/>
-      <c r="D550" s="19"/>
-    </row>
-    <row r="551">
-      <c r="B551" s="19"/>
-      <c r="C551" s="19"/>
-      <c r="D551" s="19"/>
-    </row>
-    <row r="552">
-      <c r="B552" s="19"/>
-      <c r="C552" s="19"/>
-      <c r="D552" s="19"/>
-    </row>
-    <row r="553">
-      <c r="B553" s="19"/>
-      <c r="C553" s="19"/>
-      <c r="D553" s="19"/>
-    </row>
-    <row r="554">
-      <c r="B554" s="19"/>
-      <c r="C554" s="19"/>
-      <c r="D554" s="19"/>
-    </row>
-    <row r="555">
-      <c r="B555" s="19"/>
-      <c r="C555" s="19"/>
-      <c r="D555" s="19"/>
-    </row>
-    <row r="556">
-      <c r="B556" s="19"/>
-      <c r="C556" s="19"/>
-      <c r="D556" s="19"/>
-    </row>
-    <row r="557">
-      <c r="B557" s="19"/>
-      <c r="C557" s="19"/>
-      <c r="D557" s="19"/>
-    </row>
-    <row r="558">
-      <c r="B558" s="19"/>
-      <c r="C558" s="19"/>
-      <c r="D558" s="19"/>
-    </row>
-    <row r="559">
-      <c r="B559" s="19"/>
-      <c r="C559" s="19"/>
-      <c r="D559" s="19"/>
-    </row>
-    <row r="560">
-      <c r="B560" s="19"/>
-      <c r="C560" s="19"/>
-      <c r="D560" s="19"/>
-    </row>
-    <row r="561">
-      <c r="B561" s="19"/>
-      <c r="C561" s="19"/>
-      <c r="D561" s="19"/>
-    </row>
-    <row r="562">
-      <c r="B562" s="19"/>
-      <c r="C562" s="19"/>
-      <c r="D562" s="19"/>
-    </row>
-    <row r="563">
-      <c r="B563" s="19"/>
-      <c r="C563" s="19"/>
-      <c r="D563" s="19"/>
-    </row>
-    <row r="564">
-      <c r="B564" s="19"/>
-      <c r="C564" s="19"/>
-      <c r="D564" s="19"/>
-    </row>
-    <row r="565">
-      <c r="B565" s="19"/>
-      <c r="C565" s="19"/>
-      <c r="D565" s="19"/>
-    </row>
-    <row r="566">
-      <c r="B566" s="19"/>
-      <c r="C566" s="19"/>
-      <c r="D566" s="19"/>
-    </row>
-    <row r="567">
-      <c r="B567" s="19"/>
-      <c r="C567" s="19"/>
-      <c r="D567" s="19"/>
-    </row>
-    <row r="568">
-      <c r="B568" s="19"/>
-      <c r="C568" s="19"/>
-      <c r="D568" s="19"/>
-    </row>
-    <row r="569">
-      <c r="B569" s="19"/>
-      <c r="C569" s="19"/>
-      <c r="D569" s="19"/>
-    </row>
-    <row r="570">
-      <c r="B570" s="19"/>
-      <c r="C570" s="19"/>
-      <c r="D570" s="19"/>
-    </row>
-    <row r="571">
-      <c r="B571" s="19"/>
-      <c r="C571" s="19"/>
-      <c r="D571" s="19"/>
-    </row>
-    <row r="572">
-      <c r="B572" s="19"/>
-      <c r="C572" s="19"/>
-      <c r="D572" s="19"/>
-    </row>
-    <row r="573">
-      <c r="B573" s="19"/>
-      <c r="C573" s="19"/>
-      <c r="D573" s="19"/>
-    </row>
-    <row r="574">
-      <c r="B574" s="19"/>
-      <c r="C574" s="19"/>
-      <c r="D574" s="19"/>
-    </row>
-    <row r="575">
-      <c r="B575" s="19"/>
-      <c r="C575" s="19"/>
-      <c r="D575" s="19"/>
-    </row>
-    <row r="576">
-      <c r="B576" s="19"/>
-      <c r="C576" s="19"/>
-      <c r="D576" s="19"/>
-    </row>
-    <row r="577">
-      <c r="B577" s="19"/>
-      <c r="C577" s="19"/>
-      <c r="D577" s="19"/>
-    </row>
-    <row r="578">
-      <c r="B578" s="19"/>
-      <c r="C578" s="19"/>
-      <c r="D578" s="19"/>
-    </row>
-    <row r="579">
-      <c r="B579" s="19"/>
-      <c r="C579" s="19"/>
-      <c r="D579" s="19"/>
-    </row>
-    <row r="580">
-      <c r="B580" s="19"/>
-      <c r="C580" s="19"/>
-      <c r="D580" s="19"/>
-    </row>
-    <row r="581">
-      <c r="B581" s="19"/>
-      <c r="C581" s="19"/>
-      <c r="D581" s="19"/>
-    </row>
-    <row r="582">
-      <c r="B582" s="19"/>
-      <c r="C582" s="19"/>
-      <c r="D582" s="19"/>
-    </row>
-    <row r="583">
-      <c r="B583" s="19"/>
-      <c r="C583" s="19"/>
-      <c r="D583" s="19"/>
-    </row>
-    <row r="584">
-      <c r="B584" s="19"/>
-      <c r="C584" s="19"/>
-      <c r="D584" s="19"/>
-    </row>
-    <row r="585">
-      <c r="B585" s="19"/>
-      <c r="C585" s="19"/>
-      <c r="D585" s="19"/>
-    </row>
-    <row r="586">
-      <c r="B586" s="19"/>
-      <c r="C586" s="19"/>
-      <c r="D586" s="19"/>
-    </row>
-    <row r="587">
-      <c r="B587" s="19"/>
-      <c r="C587" s="19"/>
-      <c r="D587" s="19"/>
-    </row>
-    <row r="588">
-      <c r="B588" s="19"/>
-      <c r="C588" s="19"/>
-      <c r="D588" s="19"/>
-    </row>
-    <row r="589">
-      <c r="B589" s="19"/>
-      <c r="C589" s="19"/>
-      <c r="D589" s="19"/>
-    </row>
-    <row r="590">
-      <c r="B590" s="19"/>
-      <c r="C590" s="19"/>
-      <c r="D590" s="19"/>
-    </row>
-    <row r="591">
-      <c r="B591" s="19"/>
-      <c r="C591" s="19"/>
-      <c r="D591" s="19"/>
-    </row>
-    <row r="592">
-      <c r="B592" s="19"/>
-      <c r="C592" s="19"/>
-      <c r="D592" s="19"/>
-    </row>
-    <row r="593">
-      <c r="B593" s="19"/>
-      <c r="C593" s="19"/>
-      <c r="D593" s="19"/>
-    </row>
-    <row r="594">
-      <c r="B594" s="19"/>
-      <c r="C594" s="19"/>
-      <c r="D594" s="19"/>
-    </row>
-    <row r="595">
-      <c r="B595" s="19"/>
-      <c r="C595" s="19"/>
-      <c r="D595" s="19"/>
-    </row>
-    <row r="596">
-      <c r="B596" s="19"/>
-      <c r="C596" s="19"/>
-      <c r="D596" s="19"/>
-    </row>
-    <row r="597">
-      <c r="B597" s="19"/>
-      <c r="C597" s="19"/>
-      <c r="D597" s="19"/>
-    </row>
-    <row r="598">
-      <c r="B598" s="19"/>
-      <c r="C598" s="19"/>
-      <c r="D598" s="19"/>
-    </row>
-    <row r="599">
-      <c r="B599" s="19"/>
-      <c r="C599" s="19"/>
-      <c r="D599" s="19"/>
-    </row>
-    <row r="600">
-      <c r="B600" s="19"/>
-      <c r="C600" s="19"/>
-      <c r="D600" s="19"/>
-    </row>
-    <row r="601">
-      <c r="B601" s="19"/>
-      <c r="C601" s="19"/>
-      <c r="D601" s="19"/>
-    </row>
-    <row r="602">
-      <c r="B602" s="19"/>
-      <c r="C602" s="19"/>
-      <c r="D602" s="19"/>
-    </row>
-    <row r="603">
-      <c r="B603" s="19"/>
-      <c r="C603" s="19"/>
-      <c r="D603" s="19"/>
-    </row>
-    <row r="604">
-      <c r="B604" s="19"/>
-      <c r="C604" s="19"/>
-      <c r="D604" s="19"/>
-    </row>
-    <row r="605">
-      <c r="B605" s="19"/>
-      <c r="C605" s="19"/>
-      <c r="D605" s="19"/>
-    </row>
-    <row r="606">
-      <c r="B606" s="19"/>
-      <c r="C606" s="19"/>
-      <c r="D606" s="19"/>
-    </row>
-    <row r="607">
-      <c r="B607" s="19"/>
-      <c r="C607" s="19"/>
-      <c r="D607" s="19"/>
-    </row>
-    <row r="608">
-      <c r="B608" s="19"/>
-      <c r="C608" s="19"/>
-      <c r="D608" s="19"/>
-    </row>
-    <row r="609">
-      <c r="B609" s="19"/>
-      <c r="C609" s="19"/>
-      <c r="D609" s="19"/>
-    </row>
-    <row r="610">
-      <c r="B610" s="19"/>
-      <c r="C610" s="19"/>
-      <c r="D610" s="19"/>
-    </row>
-    <row r="611">
-      <c r="B611" s="19"/>
-      <c r="C611" s="19"/>
-      <c r="D611" s="19"/>
-    </row>
-    <row r="612">
-      <c r="B612" s="19"/>
-      <c r="C612" s="19"/>
-      <c r="D612" s="19"/>
-    </row>
-    <row r="613">
-      <c r="B613" s="19"/>
-      <c r="C613" s="19"/>
-      <c r="D613" s="19"/>
-    </row>
-    <row r="614">
-      <c r="B614" s="19"/>
-      <c r="C614" s="19"/>
-      <c r="D614" s="19"/>
-    </row>
-    <row r="615">
-      <c r="B615" s="19"/>
-      <c r="C615" s="19"/>
-      <c r="D615" s="19"/>
-    </row>
-    <row r="616">
-      <c r="B616" s="19"/>
-      <c r="C616" s="19"/>
-      <c r="D616" s="19"/>
-    </row>
-    <row r="617">
-      <c r="B617" s="19"/>
-      <c r="C617" s="19"/>
-      <c r="D617" s="19"/>
-    </row>
-    <row r="618">
-      <c r="B618" s="19"/>
-      <c r="C618" s="19"/>
-      <c r="D618" s="19"/>
-    </row>
-    <row r="619">
-      <c r="B619" s="19"/>
-      <c r="C619" s="19"/>
-      <c r="D619" s="19"/>
-    </row>
-    <row r="620">
-      <c r="B620" s="19"/>
-      <c r="C620" s="19"/>
-      <c r="D620" s="19"/>
-    </row>
-    <row r="621">
-      <c r="B621" s="19"/>
-      <c r="C621" s="19"/>
-      <c r="D621" s="19"/>
-    </row>
-    <row r="622">
-      <c r="B622" s="19"/>
-      <c r="C622" s="19"/>
-      <c r="D622" s="19"/>
-    </row>
-    <row r="623">
-      <c r="B623" s="19"/>
-      <c r="C623" s="19"/>
-      <c r="D623" s="19"/>
-    </row>
-    <row r="624">
-      <c r="B624" s="19"/>
-      <c r="C624" s="19"/>
-      <c r="D624" s="19"/>
-    </row>
-    <row r="625">
-      <c r="B625" s="19"/>
-      <c r="C625" s="19"/>
-      <c r="D625" s="19"/>
-    </row>
-    <row r="626">
-      <c r="B626" s="19"/>
-      <c r="C626" s="19"/>
-      <c r="D626" s="19"/>
-    </row>
-    <row r="627">
-      <c r="B627" s="19"/>
-      <c r="C627" s="19"/>
-      <c r="D627" s="19"/>
-    </row>
-    <row r="628">
-      <c r="B628" s="19"/>
-      <c r="C628" s="19"/>
-      <c r="D628" s="19"/>
-    </row>
-    <row r="629">
-      <c r="B629" s="19"/>
-      <c r="C629" s="19"/>
-      <c r="D629" s="19"/>
-    </row>
-    <row r="630">
-      <c r="B630" s="19"/>
-      <c r="C630" s="19"/>
-      <c r="D630" s="19"/>
-    </row>
-    <row r="631">
-      <c r="B631" s="19"/>
-      <c r="C631" s="19"/>
-      <c r="D631" s="19"/>
-    </row>
-    <row r="632">
-      <c r="B632" s="19"/>
-      <c r="C632" s="19"/>
-      <c r="D632" s="19"/>
-    </row>
-    <row r="633">
-      <c r="B633" s="19"/>
-      <c r="C633" s="19"/>
-      <c r="D633" s="19"/>
-    </row>
-    <row r="634">
-      <c r="B634" s="19"/>
-      <c r="C634" s="19"/>
-      <c r="D634" s="19"/>
-    </row>
-    <row r="635">
-      <c r="B635" s="19"/>
-      <c r="C635" s="19"/>
-      <c r="D635" s="19"/>
-    </row>
-    <row r="636">
-      <c r="B636" s="19"/>
-      <c r="C636" s="19"/>
-      <c r="D636" s="19"/>
-    </row>
-    <row r="637">
-      <c r="B637" s="19"/>
-      <c r="C637" s="19"/>
-      <c r="D637" s="19"/>
-    </row>
-    <row r="638">
-      <c r="B638" s="19"/>
-      <c r="C638" s="19"/>
-      <c r="D638" s="19"/>
-    </row>
-    <row r="639">
-      <c r="B639" s="19"/>
-      <c r="C639" s="19"/>
-      <c r="D639" s="19"/>
-    </row>
-    <row r="640">
-      <c r="B640" s="19"/>
-      <c r="C640" s="19"/>
-      <c r="D640" s="19"/>
-    </row>
-    <row r="641">
-      <c r="B641" s="19"/>
-      <c r="C641" s="19"/>
-      <c r="D641" s="19"/>
-    </row>
-    <row r="642">
-      <c r="B642" s="19"/>
-      <c r="C642" s="19"/>
-      <c r="D642" s="19"/>
-    </row>
-    <row r="643">
-      <c r="B643" s="19"/>
-      <c r="C643" s="19"/>
-      <c r="D643" s="19"/>
-    </row>
-    <row r="644">
-      <c r="B644" s="19"/>
-      <c r="C644" s="19"/>
-      <c r="D644" s="19"/>
-    </row>
-    <row r="645">
-      <c r="B645" s="19"/>
-      <c r="C645" s="19"/>
-      <c r="D645" s="19"/>
-    </row>
-    <row r="646">
-      <c r="B646" s="19"/>
-      <c r="C646" s="19"/>
-      <c r="D646" s="19"/>
-    </row>
-    <row r="647">
-      <c r="B647" s="19"/>
-      <c r="C647" s="19"/>
-      <c r="D647" s="19"/>
-    </row>
-    <row r="648">
-      <c r="B648" s="19"/>
-      <c r="C648" s="19"/>
-      <c r="D648" s="19"/>
-    </row>
-    <row r="649">
-      <c r="B649" s="19"/>
-      <c r="C649" s="19"/>
-      <c r="D649" s="19"/>
-    </row>
-    <row r="650">
-      <c r="B650" s="19"/>
-      <c r="C650" s="19"/>
-      <c r="D650" s="19"/>
-    </row>
-    <row r="651">
-      <c r="B651" s="19"/>
-      <c r="C651" s="19"/>
-      <c r="D651" s="19"/>
-    </row>
-    <row r="652">
-      <c r="B652" s="19"/>
-      <c r="C652" s="19"/>
-      <c r="D652" s="19"/>
-    </row>
-    <row r="653">
-      <c r="B653" s="19"/>
-      <c r="C653" s="19"/>
-      <c r="D653" s="19"/>
-    </row>
-    <row r="654">
-      <c r="B654" s="19"/>
-      <c r="C654" s="19"/>
-      <c r="D654" s="19"/>
-    </row>
-    <row r="655">
-      <c r="B655" s="19"/>
-      <c r="C655" s="19"/>
-      <c r="D655" s="19"/>
-    </row>
-    <row r="656">
-      <c r="B656" s="19"/>
-      <c r="C656" s="19"/>
-      <c r="D656" s="19"/>
-    </row>
-    <row r="657">
-      <c r="B657" s="19"/>
-      <c r="C657" s="19"/>
-      <c r="D657" s="19"/>
-    </row>
-    <row r="658">
-      <c r="B658" s="19"/>
-      <c r="C658" s="19"/>
-      <c r="D658" s="19"/>
-    </row>
-    <row r="659">
-      <c r="B659" s="19"/>
-      <c r="C659" s="19"/>
-      <c r="D659" s="19"/>
-    </row>
-    <row r="660">
-      <c r="B660" s="19"/>
-      <c r="C660" s="19"/>
-      <c r="D660" s="19"/>
-    </row>
-    <row r="661">
-      <c r="B661" s="19"/>
-      <c r="C661" s="19"/>
-      <c r="D661" s="19"/>
-    </row>
-    <row r="662">
-      <c r="B662" s="19"/>
-      <c r="C662" s="19"/>
-      <c r="D662" s="19"/>
-    </row>
-    <row r="663">
-      <c r="B663" s="19"/>
-      <c r="C663" s="19"/>
-      <c r="D663" s="19"/>
-    </row>
-    <row r="664">
-      <c r="B664" s="19"/>
-      <c r="C664" s="19"/>
-      <c r="D664" s="19"/>
-    </row>
-    <row r="665">
-      <c r="B665" s="19"/>
-      <c r="C665" s="19"/>
-      <c r="D665" s="19"/>
-    </row>
-    <row r="666">
-      <c r="B666" s="19"/>
-      <c r="C666" s="19"/>
-      <c r="D666" s="19"/>
-    </row>
-    <row r="667">
-      <c r="B667" s="19"/>
-      <c r="C667" s="19"/>
-      <c r="D667" s="19"/>
-    </row>
-    <row r="668">
-      <c r="B668" s="19"/>
-      <c r="C668" s="19"/>
-      <c r="D668" s="19"/>
-    </row>
-    <row r="669">
-      <c r="B669" s="19"/>
-      <c r="C669" s="19"/>
-      <c r="D669" s="19"/>
-    </row>
-    <row r="670">
-      <c r="B670" s="19"/>
-      <c r="C670" s="19"/>
-      <c r="D670" s="19"/>
-    </row>
-    <row r="671">
-      <c r="B671" s="19"/>
-      <c r="C671" s="19"/>
-      <c r="D671" s="19"/>
-    </row>
-    <row r="672">
-      <c r="B672" s="19"/>
-      <c r="C672" s="19"/>
-      <c r="D672" s="19"/>
-    </row>
-    <row r="673">
-      <c r="B673" s="19"/>
-      <c r="C673" s="19"/>
-      <c r="D673" s="19"/>
-    </row>
-    <row r="674">
-      <c r="B674" s="19"/>
-      <c r="C674" s="19"/>
-      <c r="D674" s="19"/>
-    </row>
-    <row r="675">
-      <c r="B675" s="19"/>
-      <c r="C675" s="19"/>
-      <c r="D675" s="19"/>
-    </row>
-    <row r="676">
-      <c r="B676" s="19"/>
-      <c r="C676" s="19"/>
-      <c r="D676" s="19"/>
-    </row>
-    <row r="677">
-      <c r="B677" s="19"/>
-      <c r="C677" s="19"/>
-      <c r="D677" s="19"/>
-    </row>
-    <row r="678">
-      <c r="B678" s="19"/>
-      <c r="C678" s="19"/>
-      <c r="D678" s="19"/>
-    </row>
-    <row r="679">
-      <c r="B679" s="19"/>
-      <c r="C679" s="19"/>
-      <c r="D679" s="19"/>
-    </row>
-    <row r="680">
-      <c r="B680" s="19"/>
-      <c r="C680" s="19"/>
-      <c r="D680" s="19"/>
-    </row>
-    <row r="681">
-      <c r="B681" s="19"/>
-      <c r="C681" s="19"/>
-      <c r="D681" s="19"/>
-    </row>
-    <row r="682">
-      <c r="B682" s="19"/>
-      <c r="C682" s="19"/>
-      <c r="D682" s="19"/>
-    </row>
-    <row r="683">
-      <c r="B683" s="19"/>
-      <c r="C683" s="19"/>
-      <c r="D683" s="19"/>
-    </row>
-    <row r="684">
-      <c r="B684" s="19"/>
-      <c r="C684" s="19"/>
-      <c r="D684" s="19"/>
-    </row>
-    <row r="685">
-      <c r="B685" s="19"/>
-      <c r="C685" s="19"/>
-      <c r="D685" s="19"/>
-    </row>
-    <row r="686">
-      <c r="B686" s="19"/>
-      <c r="C686" s="19"/>
-      <c r="D686" s="19"/>
-    </row>
-    <row r="687">
-      <c r="B687" s="19"/>
-      <c r="C687" s="19"/>
-      <c r="D687" s="19"/>
-    </row>
-    <row r="688">
-      <c r="B688" s="19"/>
-      <c r="C688" s="19"/>
-      <c r="D688" s="19"/>
-    </row>
-    <row r="689">
-      <c r="B689" s="19"/>
-      <c r="C689" s="19"/>
-      <c r="D689" s="19"/>
-    </row>
-    <row r="690">
-      <c r="B690" s="19"/>
-      <c r="C690" s="19"/>
-      <c r="D690" s="19"/>
-    </row>
-    <row r="691">
-      <c r="B691" s="19"/>
-      <c r="C691" s="19"/>
-      <c r="D691" s="19"/>
-    </row>
-    <row r="692">
-      <c r="B692" s="19"/>
-      <c r="C692" s="19"/>
-      <c r="D692" s="19"/>
-    </row>
-    <row r="693">
-      <c r="B693" s="19"/>
-      <c r="C693" s="19"/>
-      <c r="D693" s="19"/>
-    </row>
-    <row r="694">
-      <c r="B694" s="19"/>
-      <c r="C694" s="19"/>
-      <c r="D694" s="19"/>
-    </row>
-    <row r="695">
-      <c r="B695" s="19"/>
-      <c r="C695" s="19"/>
-      <c r="D695" s="19"/>
-    </row>
-    <row r="696">
-      <c r="B696" s="19"/>
-      <c r="C696" s="19"/>
-      <c r="D696" s="19"/>
-    </row>
-    <row r="697">
-      <c r="B697" s="19"/>
-      <c r="C697" s="19"/>
-      <c r="D697" s="19"/>
-    </row>
-    <row r="698">
-      <c r="B698" s="19"/>
-      <c r="C698" s="19"/>
-      <c r="D698" s="19"/>
-    </row>
-    <row r="699">
-      <c r="B699" s="19"/>
-      <c r="C699" s="19"/>
-      <c r="D699" s="19"/>
-    </row>
-    <row r="700">
-      <c r="B700" s="19"/>
-      <c r="C700" s="19"/>
-      <c r="D700" s="19"/>
-    </row>
-    <row r="701">
-      <c r="B701" s="19"/>
-      <c r="C701" s="19"/>
-      <c r="D701" s="19"/>
-    </row>
-    <row r="702">
-      <c r="B702" s="19"/>
-      <c r="C702" s="19"/>
-      <c r="D702" s="19"/>
-    </row>
-    <row r="703">
-      <c r="B703" s="19"/>
-      <c r="C703" s="19"/>
-      <c r="D703" s="19"/>
-    </row>
-    <row r="704">
-      <c r="B704" s="19"/>
-      <c r="C704" s="19"/>
-      <c r="D704" s="19"/>
-    </row>
-    <row r="705">
-      <c r="B705" s="19"/>
-      <c r="C705" s="19"/>
-      <c r="D705" s="19"/>
-    </row>
-    <row r="706">
-      <c r="B706" s="19"/>
-      <c r="C706" s="19"/>
-      <c r="D706" s="19"/>
-    </row>
-    <row r="707">
-      <c r="B707" s="19"/>
-      <c r="C707" s="19"/>
-      <c r="D707" s="19"/>
-    </row>
-    <row r="708">
-      <c r="B708" s="19"/>
-      <c r="C708" s="19"/>
-      <c r="D708" s="19"/>
-    </row>
-    <row r="709">
-      <c r="B709" s="19"/>
-      <c r="C709" s="19"/>
-      <c r="D709" s="19"/>
-    </row>
-    <row r="710">
-      <c r="B710" s="19"/>
-      <c r="C710" s="19"/>
-      <c r="D710" s="19"/>
-    </row>
-    <row r="711">
-      <c r="B711" s="19"/>
-      <c r="C711" s="19"/>
-      <c r="D711" s="19"/>
-    </row>
-    <row r="712">
-      <c r="B712" s="19"/>
-      <c r="C712" s="19"/>
-      <c r="D712" s="19"/>
-    </row>
-    <row r="713">
-      <c r="B713" s="19"/>
-      <c r="C713" s="19"/>
-      <c r="D713" s="19"/>
-    </row>
-    <row r="714">
-      <c r="B714" s="19"/>
-      <c r="C714" s="19"/>
-      <c r="D714" s="19"/>
-    </row>
-    <row r="715">
-      <c r="B715" s="19"/>
-      <c r="C715" s="19"/>
-      <c r="D715" s="19"/>
-    </row>
-    <row r="716">
-      <c r="B716" s="19"/>
-      <c r="C716" s="19"/>
-      <c r="D716" s="19"/>
-    </row>
-    <row r="717">
-      <c r="B717" s="19"/>
-      <c r="C717" s="19"/>
-      <c r="D717" s="19"/>
-    </row>
-    <row r="718">
-      <c r="B718" s="19"/>
-      <c r="C718" s="19"/>
-      <c r="D718" s="19"/>
-    </row>
-    <row r="719">
-      <c r="B719" s="19"/>
-      <c r="C719" s="19"/>
-      <c r="D719" s="19"/>
-    </row>
-    <row r="720">
-      <c r="B720" s="19"/>
-      <c r="C720" s="19"/>
-      <c r="D720" s="19"/>
-    </row>
-    <row r="721">
-      <c r="B721" s="19"/>
-      <c r="C721" s="19"/>
-      <c r="D721" s="19"/>
-    </row>
-    <row r="722">
-      <c r="B722" s="19"/>
-      <c r="C722" s="19"/>
-      <c r="D722" s="19"/>
-    </row>
-    <row r="723">
-      <c r="B723" s="19"/>
-      <c r="C723" s="19"/>
-      <c r="D723" s="19"/>
-    </row>
-    <row r="724">
-      <c r="B724" s="19"/>
-      <c r="C724" s="19"/>
-      <c r="D724" s="19"/>
-    </row>
-    <row r="725">
-      <c r="B725" s="19"/>
-      <c r="C725" s="19"/>
-      <c r="D725" s="19"/>
-    </row>
-    <row r="726">
-      <c r="B726" s="19"/>
-      <c r="C726" s="19"/>
-      <c r="D726" s="19"/>
-    </row>
-    <row r="727">
-      <c r="B727" s="19"/>
-      <c r="C727" s="19"/>
-      <c r="D727" s="19"/>
-    </row>
-    <row r="728">
-      <c r="B728" s="19"/>
-      <c r="C728" s="19"/>
-      <c r="D728" s="19"/>
-    </row>
-    <row r="729">
-      <c r="B729" s="19"/>
-      <c r="C729" s="19"/>
-      <c r="D729" s="19"/>
-    </row>
-    <row r="730">
-      <c r="B730" s="19"/>
-      <c r="C730" s="19"/>
-      <c r="D730" s="19"/>
-    </row>
-    <row r="731">
-      <c r="B731" s="19"/>
-      <c r="C731" s="19"/>
-      <c r="D731" s="19"/>
-    </row>
-    <row r="732">
-      <c r="B732" s="19"/>
-      <c r="C732" s="19"/>
-      <c r="D732" s="19"/>
-    </row>
-    <row r="733">
-      <c r="B733" s="19"/>
-      <c r="C733" s="19"/>
-      <c r="D733" s="19"/>
-    </row>
-    <row r="734">
-      <c r="B734" s="19"/>
-      <c r="C734" s="19"/>
-      <c r="D734" s="19"/>
-    </row>
-    <row r="735">
-      <c r="B735" s="19"/>
-      <c r="C735" s="19"/>
-      <c r="D735" s="19"/>
-    </row>
-    <row r="736">
-      <c r="B736" s="19"/>
-      <c r="C736" s="19"/>
-      <c r="D736" s="19"/>
-    </row>
-    <row r="737">
-      <c r="B737" s="19"/>
-      <c r="C737" s="19"/>
-      <c r="D737" s="19"/>
-    </row>
-    <row r="738">
-      <c r="B738" s="19"/>
-      <c r="C738" s="19"/>
-      <c r="D738" s="19"/>
-    </row>
-    <row r="739">
-      <c r="B739" s="19"/>
-      <c r="C739" s="19"/>
-      <c r="D739" s="19"/>
-    </row>
-    <row r="740">
-      <c r="B740" s="19"/>
-      <c r="C740" s="19"/>
-      <c r="D740" s="19"/>
-    </row>
-    <row r="741">
-      <c r="B741" s="19"/>
-      <c r="C741" s="19"/>
-      <c r="D741" s="19"/>
-    </row>
-    <row r="742">
-      <c r="B742" s="19"/>
-      <c r="C742" s="19"/>
-      <c r="D742" s="19"/>
-    </row>
-    <row r="743">
-      <c r="B743" s="19"/>
-      <c r="C743" s="19"/>
-      <c r="D743" s="19"/>
-    </row>
-    <row r="744">
-      <c r="B744" s="19"/>
-      <c r="C744" s="19"/>
-      <c r="D744" s="19"/>
-    </row>
-    <row r="745">
-      <c r="B745" s="19"/>
-      <c r="C745" s="19"/>
-      <c r="D745" s="19"/>
-    </row>
-    <row r="746">
-      <c r="B746" s="19"/>
-      <c r="C746" s="19"/>
-      <c r="D746" s="19"/>
-    </row>
-    <row r="747">
-      <c r="B747" s="19"/>
-      <c r="C747" s="19"/>
-      <c r="D747" s="19"/>
-    </row>
-    <row r="748">
-      <c r="B748" s="19"/>
-      <c r="C748" s="19"/>
-      <c r="D748" s="19"/>
-    </row>
-    <row r="749">
-      <c r="B749" s="19"/>
-      <c r="C749" s="19"/>
-      <c r="D749" s="19"/>
-    </row>
-    <row r="750">
-      <c r="B750" s="19"/>
-      <c r="C750" s="19"/>
-      <c r="D750" s="19"/>
-    </row>
-    <row r="751">
-      <c r="B751" s="19"/>
-      <c r="C751" s="19"/>
-      <c r="D751" s="19"/>
-    </row>
-    <row r="752">
-      <c r="B752" s="19"/>
-      <c r="C752" s="19"/>
-      <c r="D752" s="19"/>
-    </row>
-    <row r="753">
-      <c r="B753" s="19"/>
-      <c r="C753" s="19"/>
-      <c r="D753" s="19"/>
-    </row>
-    <row r="754">
-      <c r="B754" s="19"/>
-      <c r="C754" s="19"/>
-      <c r="D754" s="19"/>
-    </row>
-    <row r="755">
-      <c r="B755" s="19"/>
-      <c r="C755" s="19"/>
-      <c r="D755" s="19"/>
-    </row>
-    <row r="756">
-      <c r="B756" s="19"/>
-      <c r="C756" s="19"/>
-      <c r="D756" s="19"/>
-    </row>
-    <row r="757">
-      <c r="B757" s="19"/>
-      <c r="C757" s="19"/>
-      <c r="D757" s="19"/>
-    </row>
-    <row r="758">
-      <c r="B758" s="19"/>
-      <c r="C758" s="19"/>
-      <c r="D758" s="19"/>
-    </row>
-    <row r="759">
-      <c r="B759" s="19"/>
-      <c r="C759" s="19"/>
-      <c r="D759" s="19"/>
-    </row>
-    <row r="760">
-      <c r="B760" s="19"/>
-      <c r="C760" s="19"/>
-      <c r="D760" s="19"/>
-    </row>
-    <row r="761">
-      <c r="B761" s="19"/>
-      <c r="C761" s="19"/>
-      <c r="D761" s="19"/>
-    </row>
-    <row r="762">
-      <c r="B762" s="19"/>
-      <c r="C762" s="19"/>
-      <c r="D762" s="19"/>
-    </row>
-    <row r="763">
-      <c r="B763" s="19"/>
-      <c r="C763" s="19"/>
-      <c r="D763" s="19"/>
-    </row>
-    <row r="764">
-      <c r="B764" s="19"/>
-      <c r="C764" s="19"/>
-      <c r="D764" s="19"/>
-    </row>
-    <row r="765">
-      <c r="B765" s="19"/>
-      <c r="C765" s="19"/>
-      <c r="D765" s="19"/>
-    </row>
-    <row r="766">
-      <c r="B766" s="19"/>
-      <c r="C766" s="19"/>
-      <c r="D766" s="19"/>
-    </row>
-    <row r="767">
-      <c r="B767" s="19"/>
-      <c r="C767" s="19"/>
-      <c r="D767" s="19"/>
-    </row>
-    <row r="768">
-      <c r="B768" s="19"/>
-      <c r="C768" s="19"/>
-      <c r="D768" s="19"/>
-    </row>
-    <row r="769">
-      <c r="B769" s="19"/>
-      <c r="C769" s="19"/>
-      <c r="D769" s="19"/>
-    </row>
-    <row r="770">
-      <c r="B770" s="19"/>
-      <c r="C770" s="19"/>
-      <c r="D770" s="19"/>
-    </row>
-    <row r="771">
-      <c r="B771" s="19"/>
-      <c r="C771" s="19"/>
-      <c r="D771" s="19"/>
-    </row>
-    <row r="772">
-      <c r="B772" s="19"/>
-      <c r="C772" s="19"/>
-      <c r="D772" s="19"/>
-    </row>
-    <row r="773">
-      <c r="B773" s="19"/>
-      <c r="C773" s="19"/>
-      <c r="D773" s="19"/>
-    </row>
-    <row r="774">
-      <c r="B774" s="19"/>
-      <c r="C774" s="19"/>
-      <c r="D774" s="19"/>
-    </row>
-    <row r="775">
-      <c r="B775" s="19"/>
-      <c r="C775" s="19"/>
-      <c r="D775" s="19"/>
-    </row>
-    <row r="776">
-      <c r="B776" s="19"/>
-      <c r="C776" s="19"/>
-      <c r="D776" s="19"/>
-    </row>
-    <row r="777">
-      <c r="B777" s="19"/>
-      <c r="C777" s="19"/>
-      <c r="D777" s="19"/>
-    </row>
-    <row r="778">
-      <c r="B778" s="19"/>
-      <c r="C778" s="19"/>
-      <c r="D778" s="19"/>
-    </row>
-    <row r="779">
-      <c r="B779" s="19"/>
-      <c r="C779" s="19"/>
-      <c r="D779" s="19"/>
-    </row>
-    <row r="780">
-      <c r="B780" s="19"/>
-      <c r="C780" s="19"/>
-      <c r="D780" s="19"/>
-    </row>
-    <row r="781">
-      <c r="B781" s="19"/>
-      <c r="C781" s="19"/>
-      <c r="D781" s="19"/>
-    </row>
-    <row r="782">
-      <c r="B782" s="19"/>
-      <c r="C782" s="19"/>
-      <c r="D782" s="19"/>
-    </row>
-    <row r="783">
-      <c r="B783" s="19"/>
-      <c r="C783" s="19"/>
-      <c r="D783" s="19"/>
-    </row>
-    <row r="784">
-      <c r="B784" s="19"/>
-      <c r="C784" s="19"/>
-      <c r="D784" s="19"/>
-    </row>
-    <row r="785">
-      <c r="B785" s="19"/>
-      <c r="C785" s="19"/>
-      <c r="D785" s="19"/>
-    </row>
-    <row r="786">
-      <c r="B786" s="19"/>
-      <c r="C786" s="19"/>
-      <c r="D786" s="19"/>
-    </row>
-    <row r="787">
-      <c r="B787" s="19"/>
-      <c r="C787" s="19"/>
-      <c r="D787" s="19"/>
-    </row>
-    <row r="788">
-      <c r="B788" s="19"/>
-      <c r="C788" s="19"/>
-      <c r="D788" s="19"/>
-    </row>
-    <row r="789">
-      <c r="B789" s="19"/>
-      <c r="C789" s="19"/>
-      <c r="D789" s="19"/>
-    </row>
-    <row r="790">
-      <c r="B790" s="19"/>
-      <c r="C790" s="19"/>
-      <c r="D790" s="19"/>
-    </row>
-    <row r="791">
-      <c r="B791" s="19"/>
-      <c r="C791" s="19"/>
-      <c r="D791" s="19"/>
-    </row>
-    <row r="792">
-      <c r="B792" s="19"/>
-      <c r="C792" s="19"/>
-      <c r="D792" s="19"/>
-    </row>
-    <row r="793">
-      <c r="B793" s="19"/>
-      <c r="C793" s="19"/>
-      <c r="D793" s="19"/>
-    </row>
-    <row r="794">
-      <c r="B794" s="19"/>
-      <c r="C794" s="19"/>
-      <c r="D794" s="19"/>
-    </row>
-    <row r="795">
-      <c r="B795" s="19"/>
-      <c r="C795" s="19"/>
-      <c r="D795" s="19"/>
-    </row>
-    <row r="796">
-      <c r="B796" s="19"/>
-      <c r="C796" s="19"/>
-      <c r="D796" s="19"/>
-    </row>
-    <row r="797">
-      <c r="B797" s="19"/>
-      <c r="C797" s="19"/>
-      <c r="D797" s="19"/>
-    </row>
-    <row r="798">
-      <c r="B798" s="19"/>
-      <c r="C798" s="19"/>
-      <c r="D798" s="19"/>
-    </row>
-    <row r="799">
-      <c r="B799" s="19"/>
-      <c r="C799" s="19"/>
-      <c r="D799" s="19"/>
-    </row>
-    <row r="800">
-      <c r="B800" s="19"/>
-      <c r="C800" s="19"/>
-      <c r="D800" s="19"/>
-    </row>
-    <row r="801">
-      <c r="B801" s="19"/>
-      <c r="C801" s="19"/>
-      <c r="D801" s="19"/>
-    </row>
-    <row r="802">
-      <c r="B802" s="19"/>
-      <c r="C802" s="19"/>
-      <c r="D802" s="19"/>
-    </row>
-    <row r="803">
-      <c r="B803" s="19"/>
-      <c r="C803" s="19"/>
-      <c r="D803" s="19"/>
-    </row>
-    <row r="804">
-      <c r="B804" s="19"/>
-      <c r="C804" s="19"/>
-      <c r="D804" s="19"/>
-    </row>
-    <row r="805">
-      <c r="B805" s="19"/>
-      <c r="C805" s="19"/>
-      <c r="D805" s="19"/>
-    </row>
-    <row r="806">
-      <c r="B806" s="19"/>
-      <c r="C806" s="19"/>
-      <c r="D806" s="19"/>
-    </row>
-    <row r="807">
-      <c r="B807" s="19"/>
-      <c r="C807" s="19"/>
-      <c r="D807" s="19"/>
-    </row>
-    <row r="808">
-      <c r="B808" s="19"/>
-      <c r="C808" s="19"/>
-      <c r="D808" s="19"/>
-    </row>
-    <row r="809">
-      <c r="B809" s="19"/>
-      <c r="C809" s="19"/>
-      <c r="D809" s="19"/>
-    </row>
-    <row r="810">
-      <c r="B810" s="19"/>
-      <c r="C810" s="19"/>
-      <c r="D810" s="19"/>
-    </row>
-    <row r="811">
-      <c r="B811" s="19"/>
-      <c r="C811" s="19"/>
-      <c r="D811" s="19"/>
-    </row>
-    <row r="812">
-      <c r="B812" s="19"/>
-      <c r="C812" s="19"/>
-      <c r="D812" s="19"/>
-    </row>
-    <row r="813">
-      <c r="B813" s="19"/>
-      <c r="C813" s="19"/>
-      <c r="D813" s="19"/>
-    </row>
-    <row r="814">
-      <c r="B814" s="19"/>
-      <c r="C814" s="19"/>
-      <c r="D814" s="19"/>
-    </row>
-    <row r="815">
-      <c r="B815" s="19"/>
-      <c r="C815" s="19"/>
-      <c r="D815" s="19"/>
-    </row>
-    <row r="816">
-      <c r="B816" s="19"/>
-      <c r="C816" s="19"/>
-      <c r="D816" s="19"/>
-    </row>
-    <row r="817">
-      <c r="B817" s="19"/>
-      <c r="C817" s="19"/>
-      <c r="D817" s="19"/>
-    </row>
-    <row r="818">
-      <c r="B818" s="19"/>
-      <c r="C818" s="19"/>
-      <c r="D818" s="19"/>
-    </row>
-    <row r="819">
-      <c r="B819" s="19"/>
-      <c r="C819" s="19"/>
-      <c r="D819" s="19"/>
-    </row>
-    <row r="820">
-      <c r="B820" s="19"/>
-      <c r="C820" s="19"/>
-      <c r="D820" s="19"/>
-    </row>
-    <row r="821">
-      <c r="B821" s="19"/>
-      <c r="C821" s="19"/>
-      <c r="D821" s="19"/>
-    </row>
-    <row r="822">
-      <c r="B822" s="19"/>
-      <c r="C822" s="19"/>
-      <c r="D822" s="19"/>
-    </row>
-    <row r="823">
-      <c r="B823" s="19"/>
-      <c r="C823" s="19"/>
-      <c r="D823" s="19"/>
-    </row>
-    <row r="824">
-      <c r="B824" s="19"/>
-      <c r="C824" s="19"/>
-      <c r="D824" s="19"/>
-    </row>
-    <row r="825">
-      <c r="B825" s="19"/>
-      <c r="C825" s="19"/>
-      <c r="D825" s="19"/>
-    </row>
-    <row r="826">
-      <c r="B826" s="19"/>
-      <c r="C826" s="19"/>
-      <c r="D826" s="19"/>
-    </row>
-    <row r="827">
-      <c r="B827" s="19"/>
-      <c r="C827" s="19"/>
-      <c r="D827" s="19"/>
-    </row>
-    <row r="828">
-      <c r="B828" s="19"/>
-      <c r="C828" s="19"/>
-      <c r="D828" s="19"/>
-    </row>
-    <row r="829">
-      <c r="B829" s="19"/>
-      <c r="C829" s="19"/>
-      <c r="D829" s="19"/>
-    </row>
-    <row r="830">
-      <c r="B830" s="19"/>
-      <c r="C830" s="19"/>
-      <c r="D830" s="19"/>
-    </row>
-    <row r="831">
-      <c r="B831" s="19"/>
-      <c r="C831" s="19"/>
-      <c r="D831" s="19"/>
-    </row>
-    <row r="832">
-      <c r="B832" s="19"/>
-      <c r="C832" s="19"/>
-      <c r="D832" s="19"/>
-    </row>
-    <row r="833">
-      <c r="B833" s="19"/>
-      <c r="C833" s="19"/>
-      <c r="D833" s="19"/>
-    </row>
-    <row r="834">
-      <c r="B834" s="19"/>
-      <c r="C834" s="19"/>
-      <c r="D834" s="19"/>
-    </row>
-    <row r="835">
-      <c r="B835" s="19"/>
-      <c r="C835" s="19"/>
-      <c r="D835" s="19"/>
-    </row>
-    <row r="836">
-      <c r="B836" s="19"/>
-      <c r="C836" s="19"/>
-      <c r="D836" s="19"/>
-    </row>
-    <row r="837">
-      <c r="B837" s="19"/>
-      <c r="C837" s="19"/>
-      <c r="D837" s="19"/>
-    </row>
-    <row r="838">
-      <c r="B838" s="19"/>
-      <c r="C838" s="19"/>
-      <c r="D838" s="19"/>
-    </row>
-    <row r="839">
-      <c r="B839" s="19"/>
-      <c r="C839" s="19"/>
-      <c r="D839" s="19"/>
-    </row>
-    <row r="840">
-      <c r="B840" s="19"/>
-      <c r="C840" s="19"/>
-      <c r="D840" s="19"/>
-    </row>
-    <row r="841">
-      <c r="B841" s="19"/>
-      <c r="C841" s="19"/>
-      <c r="D841" s="19"/>
-    </row>
-    <row r="842">
-      <c r="B842" s="19"/>
-      <c r="C842" s="19"/>
-      <c r="D842" s="19"/>
-    </row>
-    <row r="843">
-      <c r="B843" s="19"/>
-      <c r="C843" s="19"/>
-      <c r="D843" s="19"/>
-    </row>
-    <row r="844">
-      <c r="B844" s="19"/>
-      <c r="C844" s="19"/>
-      <c r="D844" s="19"/>
-    </row>
-    <row r="845">
-      <c r="B845" s="19"/>
-      <c r="C845" s="19"/>
-      <c r="D845" s="19"/>
-    </row>
-    <row r="846">
-      <c r="B846" s="19"/>
-      <c r="C846" s="19"/>
-      <c r="D846" s="19"/>
-    </row>
-    <row r="847">
-      <c r="B847" s="19"/>
-      <c r="C847" s="19"/>
-      <c r="D847" s="19"/>
-    </row>
-    <row r="848">
-      <c r="B848" s="19"/>
-      <c r="C848" s="19"/>
-      <c r="D848" s="19"/>
-    </row>
-    <row r="849">
-      <c r="B849" s="19"/>
-      <c r="C849" s="19"/>
-      <c r="D849" s="19"/>
-    </row>
-    <row r="850">
-      <c r="B850" s="19"/>
-      <c r="C850" s="19"/>
-      <c r="D850" s="19"/>
-    </row>
-    <row r="851">
-      <c r="B851" s="19"/>
-      <c r="C851" s="19"/>
-      <c r="D851" s="19"/>
-    </row>
-    <row r="852">
-      <c r="B852" s="19"/>
-      <c r="C852" s="19"/>
-      <c r="D852" s="19"/>
-    </row>
-    <row r="853">
-      <c r="B853" s="19"/>
-      <c r="C853" s="19"/>
-      <c r="D853" s="19"/>
-    </row>
-    <row r="854">
-      <c r="B854" s="19"/>
-      <c r="C854" s="19"/>
-      <c r="D854" s="19"/>
-    </row>
-    <row r="855">
-      <c r="B855" s="19"/>
-      <c r="C855" s="19"/>
-      <c r="D855" s="19"/>
-    </row>
-    <row r="856">
-      <c r="B856" s="19"/>
-      <c r="C856" s="19"/>
-      <c r="D856" s="19"/>
-    </row>
-    <row r="857">
-      <c r="B857" s="19"/>
-      <c r="C857" s="19"/>
-      <c r="D857" s="19"/>
-    </row>
-    <row r="858">
-      <c r="B858" s="19"/>
-      <c r="C858" s="19"/>
-      <c r="D858" s="19"/>
-    </row>
-    <row r="859">
-      <c r="B859" s="19"/>
-      <c r="C859" s="19"/>
-      <c r="D859" s="19"/>
-    </row>
-    <row r="860">
-      <c r="B860" s="19"/>
-      <c r="C860" s="19"/>
-      <c r="D860" s="19"/>
-    </row>
-    <row r="861">
-      <c r="B861" s="19"/>
-      <c r="C861" s="19"/>
-      <c r="D861" s="19"/>
-    </row>
-    <row r="862">
-      <c r="B862" s="19"/>
-      <c r="C862" s="19"/>
-      <c r="D862" s="19"/>
-    </row>
-    <row r="863">
-      <c r="B863" s="19"/>
-      <c r="C863" s="19"/>
-      <c r="D863" s="19"/>
-    </row>
-    <row r="864">
-      <c r="B864" s="19"/>
-      <c r="C864" s="19"/>
-      <c r="D864" s="19"/>
-    </row>
-    <row r="865">
-      <c r="B865" s="19"/>
-      <c r="C865" s="19"/>
-      <c r="D865" s="19"/>
-    </row>
-    <row r="866">
-      <c r="B866" s="19"/>
-      <c r="C866" s="19"/>
-      <c r="D866" s="19"/>
-    </row>
-    <row r="867">
-      <c r="B867" s="19"/>
-      <c r="C867" s="19"/>
-      <c r="D867" s="19"/>
-    </row>
-    <row r="868">
-      <c r="B868" s="19"/>
-      <c r="C868" s="19"/>
-      <c r="D868" s="19"/>
-    </row>
-    <row r="869">
-      <c r="B869" s="19"/>
-      <c r="C869" s="19"/>
-      <c r="D869" s="19"/>
-    </row>
-    <row r="870">
-      <c r="B870" s="19"/>
-      <c r="C870" s="19"/>
-      <c r="D870" s="19"/>
-    </row>
-    <row r="871">
-      <c r="B871" s="19"/>
-      <c r="C871" s="19"/>
-      <c r="D871" s="19"/>
-    </row>
-    <row r="872">
-      <c r="B872" s="19"/>
-      <c r="C872" s="19"/>
-      <c r="D872" s="19"/>
-    </row>
-    <row r="873">
-      <c r="B873" s="19"/>
-      <c r="C873" s="19"/>
-      <c r="D873" s="19"/>
-    </row>
-    <row r="874">
-      <c r="B874" s="19"/>
-      <c r="C874" s="19"/>
-      <c r="D874" s="19"/>
-    </row>
-    <row r="875">
-      <c r="B875" s="19"/>
-      <c r="C875" s="19"/>
-      <c r="D875" s="19"/>
-    </row>
-    <row r="876">
-      <c r="B876" s="19"/>
-      <c r="C876" s="19"/>
-      <c r="D876" s="19"/>
-    </row>
-    <row r="877">
-      <c r="B877" s="19"/>
-      <c r="C877" s="19"/>
-      <c r="D877" s="19"/>
-    </row>
-    <row r="878">
-      <c r="B878" s="19"/>
-      <c r="C878" s="19"/>
-      <c r="D878" s="19"/>
-    </row>
-    <row r="879">
-      <c r="B879" s="19"/>
-      <c r="C879" s="19"/>
-      <c r="D879" s="19"/>
-    </row>
-    <row r="880">
-      <c r="B880" s="19"/>
-      <c r="C880" s="19"/>
-      <c r="D880" s="19"/>
-    </row>
-    <row r="881">
-      <c r="B881" s="19"/>
-      <c r="C881" s="19"/>
-      <c r="D881" s="19"/>
-    </row>
-    <row r="882">
-      <c r="B882" s="19"/>
-      <c r="C882" s="19"/>
-      <c r="D882" s="19"/>
-    </row>
-    <row r="883">
-      <c r="B883" s="19"/>
-      <c r="C883" s="19"/>
-      <c r="D883" s="19"/>
-    </row>
-    <row r="884">
-      <c r="B884" s="19"/>
-      <c r="C884" s="19"/>
-      <c r="D884" s="19"/>
-    </row>
-    <row r="885">
-      <c r="B885" s="19"/>
-      <c r="C885" s="19"/>
-      <c r="D885" s="19"/>
-    </row>
-    <row r="886">
-      <c r="B886" s="19"/>
-      <c r="C886" s="19"/>
-      <c r="D886" s="19"/>
-    </row>
-    <row r="887">
-      <c r="B887" s="19"/>
-      <c r="C887" s="19"/>
-      <c r="D887" s="19"/>
-    </row>
-    <row r="888">
-      <c r="B888" s="19"/>
-      <c r="C888" s="19"/>
-      <c r="D888" s="19"/>
-    </row>
-    <row r="889">
-      <c r="B889" s="19"/>
-      <c r="C889" s="19"/>
-      <c r="D889" s="19"/>
-    </row>
-    <row r="890">
-      <c r="B890" s="19"/>
-      <c r="C890" s="19"/>
-      <c r="D890" s="19"/>
-    </row>
-    <row r="891">
-      <c r="B891" s="19"/>
-      <c r="C891" s="19"/>
-      <c r="D891" s="19"/>
-    </row>
-    <row r="892">
-      <c r="B892" s="19"/>
-      <c r="C892" s="19"/>
-      <c r="D892" s="19"/>
-    </row>
-    <row r="893">
-      <c r="B893" s="19"/>
-      <c r="C893" s="19"/>
-      <c r="D893" s="19"/>
-    </row>
-    <row r="894">
-      <c r="B894" s="19"/>
-      <c r="C894" s="19"/>
-      <c r="D894" s="19"/>
-    </row>
-    <row r="895">
-      <c r="B895" s="19"/>
-      <c r="C895" s="19"/>
-      <c r="D895" s="19"/>
-    </row>
-    <row r="896">
-      <c r="B896" s="19"/>
-      <c r="C896" s="19"/>
-      <c r="D896" s="19"/>
-    </row>
-    <row r="897">
-      <c r="B897" s="19"/>
-      <c r="C897" s="19"/>
-      <c r="D897" s="19"/>
-    </row>
-    <row r="898">
-      <c r="B898" s="19"/>
-      <c r="C898" s="19"/>
-      <c r="D898" s="19"/>
-    </row>
-    <row r="899">
-      <c r="B899" s="19"/>
-      <c r="C899" s="19"/>
-      <c r="D899" s="19"/>
-    </row>
-    <row r="900">
-      <c r="B900" s="19"/>
-      <c r="C900" s="19"/>
-      <c r="D900" s="19"/>
-    </row>
-    <row r="901">
-      <c r="B901" s="19"/>
-      <c r="C901" s="19"/>
-      <c r="D901" s="19"/>
-    </row>
-    <row r="902">
-      <c r="B902" s="19"/>
-      <c r="C902" s="19"/>
-      <c r="D902" s="19"/>
-    </row>
-    <row r="903">
-      <c r="B903" s="19"/>
-      <c r="C903" s="19"/>
-      <c r="D903" s="19"/>
-    </row>
-    <row r="904">
-      <c r="B904" s="19"/>
-      <c r="C904" s="19"/>
-      <c r="D904" s="19"/>
-    </row>
-    <row r="905">
-      <c r="B905" s="19"/>
-      <c r="C905" s="19"/>
-      <c r="D905" s="19"/>
-    </row>
-    <row r="906">
-      <c r="B906" s="19"/>
-      <c r="C906" s="19"/>
-      <c r="D906" s="19"/>
-    </row>
-    <row r="907">
-      <c r="B907" s="19"/>
-      <c r="C907" s="19"/>
-      <c r="D907" s="19"/>
-    </row>
-    <row r="908">
-      <c r="B908" s="19"/>
-      <c r="C908" s="19"/>
-      <c r="D908" s="19"/>
-    </row>
-    <row r="909">
-      <c r="B909" s="19"/>
-      <c r="C909" s="19"/>
-      <c r="D909" s="19"/>
-    </row>
-    <row r="910">
-      <c r="B910" s="19"/>
-      <c r="C910" s="19"/>
-      <c r="D910" s="19"/>
-    </row>
-    <row r="911">
-      <c r="B911" s="19"/>
-      <c r="C911" s="19"/>
-      <c r="D911" s="19"/>
-    </row>
-    <row r="912">
-      <c r="B912" s="19"/>
-      <c r="C912" s="19"/>
-      <c r="D912" s="19"/>
-    </row>
-    <row r="913">
-      <c r="B913" s="19"/>
-      <c r="C913" s="19"/>
-      <c r="D913" s="19"/>
-    </row>
-    <row r="914">
-      <c r="B914" s="19"/>
-      <c r="C914" s="19"/>
-      <c r="D914" s="19"/>
-    </row>
-    <row r="915">
-      <c r="B915" s="19"/>
-      <c r="C915" s="19"/>
-      <c r="D915" s="19"/>
-    </row>
-    <row r="916">
-      <c r="B916" s="19"/>
-      <c r="C916" s="19"/>
-      <c r="D916" s="19"/>
-    </row>
-    <row r="917">
-      <c r="B917" s="19"/>
-      <c r="C917" s="19"/>
-      <c r="D917" s="19"/>
-    </row>
-    <row r="918">
-      <c r="B918" s="19"/>
-      <c r="C918" s="19"/>
-      <c r="D918" s="19"/>
-    </row>
-    <row r="919">
-      <c r="B919" s="19"/>
-      <c r="C919" s="19"/>
-      <c r="D919" s="19"/>
-    </row>
-    <row r="920">
-      <c r="B920" s="19"/>
-      <c r="C920" s="19"/>
-      <c r="D920" s="19"/>
-    </row>
-    <row r="921">
-      <c r="B921" s="19"/>
-      <c r="C921" s="19"/>
-      <c r="D921" s="19"/>
-    </row>
-    <row r="922">
-      <c r="B922" s="19"/>
-      <c r="C922" s="19"/>
-      <c r="D922" s="19"/>
-    </row>
-    <row r="923">
-      <c r="B923" s="19"/>
-      <c r="C923" s="19"/>
-      <c r="D923" s="19"/>
-    </row>
-    <row r="924">
-      <c r="B924" s="19"/>
-      <c r="C924" s="19"/>
-      <c r="D924" s="19"/>
-    </row>
-    <row r="925">
-      <c r="B925" s="19"/>
-      <c r="C925" s="19"/>
-      <c r="D925" s="19"/>
-    </row>
-    <row r="926">
-      <c r="B926" s="19"/>
-      <c r="C926" s="19"/>
-      <c r="D926" s="19"/>
-    </row>
-    <row r="927">
-      <c r="B927" s="19"/>
-      <c r="C927" s="19"/>
-      <c r="D927" s="19"/>
-    </row>
-    <row r="928">
-      <c r="B928" s="19"/>
-      <c r="C928" s="19"/>
-      <c r="D928" s="19"/>
-    </row>
-    <row r="929">
-      <c r="B929" s="19"/>
-      <c r="C929" s="19"/>
-      <c r="D929" s="19"/>
-    </row>
-    <row r="930">
-      <c r="B930" s="19"/>
-      <c r="C930" s="19"/>
-      <c r="D930" s="19"/>
-    </row>
-    <row r="931">
-      <c r="B931" s="19"/>
-      <c r="C931" s="19"/>
-      <c r="D931" s="19"/>
-    </row>
-    <row r="932">
-      <c r="B932" s="19"/>
-      <c r="C932" s="19"/>
-      <c r="D932" s="19"/>
-    </row>
-    <row r="933">
-      <c r="B933" s="19"/>
-      <c r="C933" s="19"/>
-      <c r="D933" s="19"/>
-    </row>
-    <row r="934">
-      <c r="B934" s="19"/>
-      <c r="C934" s="19"/>
-      <c r="D934" s="19"/>
-    </row>
-    <row r="935">
-      <c r="B935" s="19"/>
-      <c r="C935" s="19"/>
-      <c r="D935" s="19"/>
-    </row>
-    <row r="936">
-      <c r="B936" s="19"/>
-      <c r="C936" s="19"/>
-      <c r="D936" s="19"/>
-    </row>
-    <row r="937">
-      <c r="B937" s="19"/>
-      <c r="C937" s="19"/>
-      <c r="D937" s="19"/>
-    </row>
-    <row r="938">
-      <c r="B938" s="19"/>
-      <c r="C938" s="19"/>
-      <c r="D938" s="19"/>
-    </row>
-    <row r="939">
-      <c r="B939" s="19"/>
-      <c r="C939" s="19"/>
-      <c r="D939" s="19"/>
-    </row>
-    <row r="940">
-      <c r="B940" s="19"/>
-      <c r="C940" s="19"/>
-      <c r="D940" s="19"/>
-    </row>
-    <row r="941">
-      <c r="B941" s="19"/>
-      <c r="C941" s="19"/>
-      <c r="D941" s="19"/>
-    </row>
-    <row r="942">
-      <c r="B942" s="19"/>
-      <c r="C942" s="19"/>
-      <c r="D942" s="19"/>
-    </row>
-    <row r="943">
-      <c r="B943" s="19"/>
-      <c r="C943" s="19"/>
-      <c r="D943" s="19"/>
-    </row>
-    <row r="944">
-      <c r="B944" s="19"/>
-      <c r="C944" s="19"/>
-      <c r="D944" s="19"/>
-    </row>
-    <row r="945">
-      <c r="B945" s="19"/>
-      <c r="C945" s="19"/>
-      <c r="D945" s="19"/>
-    </row>
-    <row r="946">
-      <c r="B946" s="19"/>
-      <c r="C946" s="19"/>
-      <c r="D946" s="19"/>
-    </row>
-    <row r="947">
-      <c r="B947" s="19"/>
-      <c r="C947" s="19"/>
-      <c r="D947" s="19"/>
-    </row>
-    <row r="948">
-      <c r="B948" s="19"/>
-      <c r="C948" s="19"/>
-      <c r="D948" s="19"/>
-    </row>
-    <row r="949">
-      <c r="B949" s="19"/>
-      <c r="C949" s="19"/>
-      <c r="D949" s="19"/>
-    </row>
-    <row r="950">
-      <c r="B950" s="19"/>
-      <c r="C950" s="19"/>
-      <c r="D950" s="19"/>
-    </row>
-    <row r="951">
-      <c r="B951" s="19"/>
-      <c r="C951" s="19"/>
-      <c r="D951" s="19"/>
-    </row>
-    <row r="952">
-      <c r="B952" s="19"/>
-      <c r="C952" s="19"/>
-      <c r="D952" s="19"/>
-    </row>
-    <row r="953">
-      <c r="B953" s="19"/>
-      <c r="C953" s="19"/>
-      <c r="D953" s="19"/>
-    </row>
-    <row r="954">
-      <c r="B954" s="19"/>
-      <c r="C954" s="19"/>
-      <c r="D954" s="19"/>
-    </row>
-    <row r="955">
-      <c r="B955" s="19"/>
-      <c r="C955" s="19"/>
-      <c r="D955" s="19"/>
-    </row>
-    <row r="956">
-      <c r="B956" s="19"/>
-      <c r="C956" s="19"/>
-      <c r="D956" s="19"/>
-    </row>
-    <row r="957">
-      <c r="B957" s="19"/>
-      <c r="C957" s="19"/>
-      <c r="D957" s="19"/>
-    </row>
-    <row r="958">
-      <c r="B958" s="19"/>
-      <c r="C958" s="19"/>
-      <c r="D958" s="19"/>
-    </row>
-    <row r="959">
-      <c r="B959" s="19"/>
-      <c r="C959" s="19"/>
-      <c r="D959" s="19"/>
-    </row>
-    <row r="960">
-      <c r="B960" s="19"/>
-      <c r="C960" s="19"/>
-      <c r="D960" s="19"/>
-    </row>
-    <row r="961">
-      <c r="B961" s="19"/>
-      <c r="C961" s="19"/>
-      <c r="D961" s="19"/>
-    </row>
-    <row r="962">
-      <c r="B962" s="19"/>
-      <c r="C962" s="19"/>
-      <c r="D962" s="19"/>
-    </row>
-    <row r="963">
-      <c r="B963" s="19"/>
-      <c r="C963" s="19"/>
-      <c r="D963" s="19"/>
-    </row>
-    <row r="964">
-      <c r="B964" s="19"/>
-      <c r="C964" s="19"/>
-      <c r="D964" s="19"/>
-    </row>
-    <row r="965">
-      <c r="B965" s="19"/>
-      <c r="C965" s="19"/>
-      <c r="D965" s="19"/>
-    </row>
-    <row r="966">
-      <c r="B966" s="19"/>
-      <c r="C966" s="19"/>
-      <c r="D966" s="19"/>
-    </row>
-    <row r="967">
-      <c r="B967" s="19"/>
-      <c r="C967" s="19"/>
-      <c r="D967" s="19"/>
-    </row>
-    <row r="968">
-      <c r="B968" s="19"/>
-      <c r="C968" s="19"/>
-      <c r="D968" s="19"/>
-    </row>
-    <row r="969">
-      <c r="B969" s="19"/>
-      <c r="C969" s="19"/>
-      <c r="D969" s="19"/>
-    </row>
-    <row r="970">
-      <c r="B970" s="19"/>
-      <c r="C970" s="19"/>
-      <c r="D970" s="19"/>
-    </row>
-    <row r="971">
-      <c r="B971" s="19"/>
-      <c r="C971" s="19"/>
-      <c r="D971" s="19"/>
-    </row>
-    <row r="972">
-      <c r="B972" s="19"/>
-      <c r="C972" s="19"/>
-      <c r="D972" s="19"/>
-    </row>
-    <row r="973">
-      <c r="B973" s="19"/>
-      <c r="C973" s="19"/>
-      <c r="D973" s="19"/>
-    </row>
-    <row r="974">
-      <c r="B974" s="19"/>
-      <c r="C974" s="19"/>
-      <c r="D974" s="19"/>
-    </row>
-    <row r="975">
-      <c r="B975" s="19"/>
-      <c r="C975" s="19"/>
-      <c r="D975" s="19"/>
-    </row>
-    <row r="976">
-      <c r="B976" s="19"/>
-      <c r="C976" s="19"/>
-      <c r="D976" s="19"/>
-    </row>
-    <row r="977">
-      <c r="B977" s="19"/>
-      <c r="C977" s="19"/>
-      <c r="D977" s="19"/>
-    </row>
-    <row r="978">
-      <c r="B978" s="19"/>
-      <c r="C978" s="19"/>
-      <c r="D978" s="19"/>
-    </row>
-    <row r="979">
-      <c r="B979" s="19"/>
-      <c r="C979" s="19"/>
-      <c r="D979" s="19"/>
-    </row>
-    <row r="980">
-      <c r="B980" s="19"/>
-      <c r="C980" s="19"/>
-      <c r="D980" s="19"/>
-    </row>
-    <row r="981">
-      <c r="B981" s="19"/>
-      <c r="C981" s="19"/>
-      <c r="D981" s="19"/>
-    </row>
-    <row r="982">
-      <c r="B982" s="19"/>
-      <c r="C982" s="19"/>
-      <c r="D982" s="19"/>
-    </row>
-    <row r="983">
-      <c r="B983" s="19"/>
-      <c r="C983" s="19"/>
-      <c r="D983" s="19"/>
-    </row>
-    <row r="984">
-      <c r="B984" s="19"/>
-      <c r="C984" s="19"/>
-      <c r="D984" s="19"/>
-    </row>
-    <row r="985">
-      <c r="B985" s="19"/>
-      <c r="C985" s="19"/>
-      <c r="D985" s="19"/>
-    </row>
-    <row r="986">
-      <c r="B986" s="19"/>
-      <c r="C986" s="19"/>
-      <c r="D986" s="19"/>
-    </row>
-    <row r="987">
-      <c r="B987" s="19"/>
-      <c r="C987" s="19"/>
-      <c r="D987" s="19"/>
-    </row>
-    <row r="988">
-      <c r="B988" s="19"/>
-      <c r="C988" s="19"/>
-      <c r="D988" s="19"/>
-    </row>
-    <row r="989">
-      <c r="B989" s="19"/>
-      <c r="C989" s="19"/>
-      <c r="D989" s="19"/>
-    </row>
-    <row r="990">
-      <c r="B990" s="19"/>
-      <c r="C990" s="19"/>
-      <c r="D990" s="19"/>
-    </row>
-    <row r="991">
-      <c r="B991" s="19"/>
-      <c r="C991" s="19"/>
-      <c r="D991" s="19"/>
-    </row>
-    <row r="992">
-      <c r="B992" s="19"/>
-      <c r="C992" s="19"/>
-      <c r="D992" s="19"/>
-    </row>
-    <row r="993">
-      <c r="B993" s="19"/>
-      <c r="C993" s="19"/>
-      <c r="D993" s="19"/>
-    </row>
-    <row r="994">
-      <c r="B994" s="19"/>
-      <c r="C994" s="19"/>
-      <c r="D994" s="19"/>
-    </row>
-    <row r="995">
-      <c r="B995" s="19"/>
-      <c r="C995" s="19"/>
-      <c r="D995" s="19"/>
-    </row>
-    <row r="996">
-      <c r="B996" s="19"/>
-      <c r="C996" s="19"/>
-      <c r="D996" s="19"/>
-    </row>
-    <row r="997">
-      <c r="B997" s="19"/>
-      <c r="C997" s="19"/>
-      <c r="D997" s="19"/>
-    </row>
-    <row r="998">
-      <c r="B998" s="19"/>
-      <c r="C998" s="19"/>
-      <c r="D998" s="19"/>
-    </row>
-    <row r="999">
-      <c r="B999" s="19"/>
-      <c r="C999" s="19"/>
-      <c r="D999" s="19"/>
-    </row>
-  </sheetData>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/Texte/LENA Textbausteine Eidgenössische Wahlen 2023_ Gemeindeebene.xlsx
+++ b/Texte/LENA Textbausteine Eidgenössische Wahlen 2023_ Gemeindeebene.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Textbausteine_Selektion" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Textbausteine" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="Variablen" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
@@ -47,7 +47,7 @@
     <t>Intro_unchanged_big_jump_percentage</t>
   </si>
   <si>
-    <t>In #Gemeinde_d konnte die #Party_1_name_d ihre Vormachtstellung nochmals ausbauen. Die Partei legte im Vergleich zu den Wahlen 2019 um #Party1_change Prozentpunkte zu und kommt neu auf einen Wähleranteil von #Party1_voter_share Prozent.</t>
+    <t>In #Gemeinde_d konnte die #Party1_name_d ihre Vormachtstellung nochmals ausbauen. Die Partei legte im Vergleich zu den Wahlen 2019 um #Party1_change Prozentpunkte zu und kommt neu auf einen Wähleranteil von #Party1_voter_share Prozent.</t>
   </si>
   <si>
     <t>Stärkste Partei mit grossem Zugewinn (&gt; 8 PP)</t>
@@ -56,7 +56,7 @@
     <t>Intro_unchanged_big_fall_percentage</t>
   </si>
   <si>
-    <t>In #Gemeinde_d hat die #Party_1_name_d zwar deutlich an Stimmen verloren, bleibt aber dennoch die stärkste Kraft. Die Partei kommt neu auf einen Wähleranteil von #Party1_voter_share Prozent (#Party1_change Prozentpunkte).</t>
+    <t>In #Gemeinde_d hat die #Party1_name_d zwar deutlich an Stimmen verloren. Die Partei bleibt aber dennoch die stärkste Kraft und kommt neu auf einen Wähleranteil von #Party1_voter_share Prozent (#Party1_change Prozentpunkte).</t>
   </si>
   <si>
     <t>Stärkste Partei mit grossem Verlust (&lt; 8 PP)</t>

--- a/Texte/LENA Textbausteine Eidgenössische Wahlen 2023_ Gemeindeebene.xlsx
+++ b/Texte/LENA Textbausteine Eidgenössische Wahlen 2023_ Gemeindeebene.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="397">
   <si>
     <t>Text_ID</t>
   </si>
@@ -44,7 +44,7 @@
     <t>Keine Änderung an der Spitze in #Gemeinde_d: Die #Party1_name_d holt wie vor vier Jahren die meisten Stimmen (#Party1_voter_share Prozent, #Party1_change Prozentpunkte).</t>
   </si>
   <si>
-    <t>Les électeurs de #Gemeinde_f maintiennent leur confiance au #Party1_name_f, qui termine en tête dans leur commune, comme en 2019, avec #Party1_voter_share des voix (#Party1_change points de pourcentage).</t>
+    <t>Les électeurs de #Gemeinde_f maintiennent leur confiance au #Party1_name_f, qui termine en tête dans leur commune, comme en 2019, avec #Party1_voter_share pour cent des voix (#Party1_change points de pourcentage).</t>
   </si>
   <si>
     <t>Unverändert ist die #Party1_name_d die stärkste Partei in #Gemeinde_d mit #Party1_voter_share Prozent (#Party1_change Prozentpunkte).</t>
@@ -56,19 +56,19 @@
     <t>#Party1_name_d kann ihre Position als dominierende politische Kraft in #Gemeinde_d beibehalten, mit einem Wähleranteil von #Party1_voter_share Prozent (#Party1_change Prozentpunkte).</t>
   </si>
   <si>
-    <t>Aucune formation politique ne parvient à prendre la place de numéro un au parti #Party1_name_f à #Gemeinde_f. Le parti obtient #Party1_voter_share pour cent des suffrages (#Party_change points de pourcentage).</t>
+    <t>Aucune formation politique ne parvient à prendre la place de numéro un au #Party1_name_f à #Gemeinde_f. Le parti obtient #Party1_voter_share pour cent des suffrages (#Party_change points de pourcentage).</t>
   </si>
   <si>
     <t>In #Gemeinde_d behält  #Party1_name_d ihren Status als stärkste politische Kraft und sichert sich einen Wähleranteil von #Party1_voter_share Prozent gesichert (#Party1_change Prozentpunkte).</t>
   </si>
   <si>
-    <t>#Party1_name_f maintient sa position de première force politique dans la commune de #Gemeinde_f. Le parti récolte #Party1_voter_share pour cent des suffrages (#Party_change points de pourcentage).</t>
+    <t>Le #Party1_name_f maintient sa position de première force politique dans la commune de #Gemeinde_f. Le parti récolte #Party1_voter_share pour cent des suffrages (#Party_change points de pourcentage).</t>
   </si>
   <si>
     <t>#Party1_name_d behauptet ihre Position als vorherrschende Partei in #Gemeinde_d und verzeichnet einen Wähleranteil von #Party1_voter_share Prozent (#Party1_change Prozentpunkte).</t>
   </si>
   <si>
-    <t>#Party1_name_f maintient sa première place à #Gemeinde_f et obtient  #Party1_voter_share pour des voix (#Party1_change points de pourcentage).</t>
+    <t>Le #Party1_name_f maintient sa première place à #Gemeinde_f et obtient  #Party1_voter_share pour des voix (#Party1_change points de pourcentage).</t>
   </si>
   <si>
     <t>Intro_unchanged_big_jump_percentage</t>
@@ -86,7 +86,7 @@
     <t>#Party1_name_d festigt in #Gemeinde_d ihre dominierende Rolle. Im Vergleich zu den Wahlen 2019 kann die Partei ihren Wähleranteil um #Party1_change Prozentpunkte steigern und erreicht nun #Party1_voter_share Prozent.</t>
   </si>
   <si>
-    <t>#Party1_name_f consolide sa première place à #Gemeinde_f. Le parti augmente sa part d'électeurs de #Party1_change points de pourcentage. Il atteint désormais #Party1_voter_share pour cent.</t>
+    <t>Le #Party1_name_f consolide sa première place à #Gemeinde_f. Le parti augmente sa part d'électeurs de #Party1_change points de pourcentage. Il atteint désormais #Party1_voter_share pour cent.</t>
   </si>
   <si>
     <t>Intro_unchanged_big_fall_percentage</t>
@@ -95,7 +95,7 @@
     <t>In #Gemeinde_d verliert die #Party1_name_d zwar deutlich an Stimmen. Die Partei bleibt aber dennoch die stärkste Kraft und kommt neu auf einen Wähleranteil von #Party1_voter_share Prozent (#Party1_change Prozentpunkte).</t>
   </si>
   <si>
-    <t>Le #Party1_name_f perd beaucoup des voix à #Gemeinde_f. Le parti reste néanmoins la force la plus importante et obtient quand même  #Party1_voter_share des voix (#Party1_change points de pourcentage).</t>
+    <t>Le #Party1_name_f perd beaucoup de voix à #Gemeinde_f. Le parti reste néanmoins la force la plus importante et obtient quand même #Party1_voter_share des voix (#Party1_change points de pourcentage).</t>
   </si>
   <si>
     <t>Stärkste Partei mit grossem Verlust (&lt; 8 PP)</t>
@@ -140,7 +140,7 @@
     <t>Mit grossem Abstand verteidigt die #Party1_name_d ihre Position als grösste Partei in #Gemeinde_d bei, mit einem Wähleranteil von #Party1_voter_share Prozent (#Party1_change Prozentpunkte). Der Abstand zur zweitgrößten Partei, der #Party2_name_d, beträgt #Party1_distance_to_next Prozentpunkte. #Party2_name_d erhält #Party2_voter_share Prozent der Stimmen (#Party2_change Prozentpunkte).</t>
   </si>
   <si>
-    <t>#Party1_name_f maintient sa position de plus grand parti dans #Gemeinde_f à, avec un pourcentage d'électeurs de #Party1_voter_share (#Party1_change points de pourcentage). L'écart avec le deuxième plus grand parti, le #Party2_name_f, est de #Party1_distance_to_next points de pourcentage. #Party2_name_f obtient #Party2_voter_share pourcentage des voix (#Party2_change points de pourcentage).</t>
+    <t>Le #Party1_name_f maintient sa position de plus grand parti dans la commune de #Gemeinde_f à, avec un pourcentage d'électeurs de #Party1_voter_share (#Party1_change points de pourcentage). L'écart avec le deuxième plus grand parti, le #Party2_name_f, est de #Party1_distance_to_next points de pourcentage. #Party2_name_f obtient #Party2_voter_share pourcent des voix (#Party2_change points de pourcentage).</t>
   </si>
   <si>
     <t>Intro_unchanged_small_gap</t>
@@ -149,7 +149,7 @@
     <t>Ganz knapp bleibt die #Party1_name_d die grösste Partei in #Gemeinde_d. Sie holte #Party1_voter_share Prozent der Stimmen und hält damit ihren Vorsprung von #Party1_distance_to_next Prozentpunkte vor der #Party2_name_d. Diese muss sich mit #Party2_voter_share Prozent und Platz zwei begnügen. Die Veränderungen gegenüber 2019: #Party1_name_d: #Party1_change Prozentpunkte; #Party2_name_d: #Party2_change Prozentpunkte.</t>
   </si>
   <si>
-    <t>Avec#Party1_voter_share pour cent des voix (#Party1_change points de pourcentage), le #Party1_name_f est toujours le parti le plus fort à #Gemeinde_f. Le #Party2_name_f, qui réalise #Party2_voter_share pour cent des suffrages (#Party2_change points de pourcentage), est cependant en embuscade. L'écart entre les deux formations politiques est de #Party1_distance_to_next point.</t>
+    <t>Avec #Party1_voter_share pour cent des voix (#Party1_change points de pourcentage), le #Party1_name_f est toujours le parti le plus fort à #Gemeinde_f. Le #Party2_name_f, qui réalise #Party2_voter_share pour cent des suffrages (#Party2_change points de pourcentage), est cependant en embuscade. L'écart entre les deux formations politiques est de #Party1_distance_to_next point.</t>
   </si>
   <si>
     <t>Grösste Partei gleichgeblieben; mit geringem Abstand (weniger als 3 Prozentpunkte)</t>
@@ -158,7 +158,7 @@
     <t>Die #Party1_name_d ist weiterhin die stärkste Kraft in #Gemeinde_d. Mit #Party1_voter_share Prozent Wähleranteil verweist sie die #Party2_name_d allerdings nur mit #Party1_distance_to_next Prozentpunkten Abstand auf den zweiten Platz. Diese holt #Party2_voter_share Prozent. Die Veränderungen gegenüber 2019: #Party1_name_d: #Party1_change Prozentpunkte; #Party2_name_d: #Party2_change Prozentpunkte.</t>
   </si>
   <si>
-    <t xml:space="preserve">Le #Party1_name_f reste en tête à #Gemeinde_f (#Party1_voter_share pour cent des voix, #Party1_change points de pourcentage). Son poursuivant, le #Party2_name_f menace toutefois de lui ravir son fauteuil (#Party1_voter_share pour cent des suffrages, #Party2_change points de pourcentage). L'écart entre les deux formations politiques n'est que de #Party1_distance_to_next points. </t>
+    <t xml:space="preserve">Le #Party1_name_f reste en tête à #Gemeinde_f (#Party1_voter_share pour cent des voix, #Party1_change points de pourcentage). Son poursuivant, le #Party2_name_f, menace toutefois de lui ravir son fauteuil (#Party1_voter_share pour cent des suffrages, #Party2_change points de pourcentage). L'écart entre les deux formations n'est que de #Party1_distance_to_next points. </t>
   </si>
   <si>
     <t>Intro_tie_strongest</t>
@@ -167,7 +167,7 @@
     <t>Eine Besonderheit gibt es in #Gemeinde_d: Die #Party1_name_d und die #Party2_name_d sind genau gleich stark. Mit je #Party1_voter_share Prozent kommen beide Parteien auf den gleichen Wähleranteil.</t>
   </si>
   <si>
-    <t>#Gemeinde_f se distingue: ses électeurs n'ont pas réussi à se décider entre le #Party1_name_f et le #Party2_name_f. Les deux partis sont à égalité: ils obtiennent chacun #Party1_voter_share pour cent des suffrages.</t>
+    <t>#Gemeinde_f se distingue: ses électeurs n'ont pas réussi à se décider entre le #Party1_name_f et le #Party2_name_f. Les deux formations sont à égalité: elles obtiennent chacune #Party1_voter_share pour cent des suffrages.</t>
   </si>
   <si>
     <t>Intro_majority</t>
@@ -176,12 +176,15 @@
     <t>#Gemeinde_d ist unbestrittenes Territorium der #Party1_name_d. Die Partei holt die absolute Mehrheit der Stimmen.</t>
   </si>
   <si>
-    <t>#Party1_name_f règne en maître à #Gemeinde_f. Le parti remporte la majorité absolue des voix.</t>
+    <t>Le #Party1_name_f règne en maître à #Gemeinde_f. Le parti remporte la majorité absolue des voix.</t>
   </si>
   <si>
     <t>Absolute Mehrheit für stärkste Partei</t>
   </si>
   <si>
+    <t>Faut-il mettre le score ?</t>
+  </si>
+  <si>
     <t>Kein Weg führt in #Gemeinde_d an der #Party1_name_d vorbei. Die Partei holte mehr als die Hälfte der Stimmen und damit eine absolute Mehrheit.</t>
   </si>
   <si>
@@ -200,7 +203,7 @@
     <t>In #Gemeinde_d ist neu die #Party1_name_d die stärkste Partei mit #Party1_voter_share Prozent aller Stimmen. Vor vier Jahren lag die Partei noch auf Rang #Party1_rank_in_commune_prev.</t>
   </si>
   <si>
-    <t>Classé au #Party_1_rank_in_commune_prev ème rang en 2019, le #Party1_name_f est le nouveau parti le plus fort à #Gemeinde_f. Il obtient#Party1_voter_share pour cent des suffrages.</t>
+    <t>Classé au #Party_1_rank_in_commune_prev ème rang en 2019, le #Party1_name_f est le nouveau parti le plus fort à #Gemeinde_f. Il obtient #Party1_voter_share pour cent des suffrages.</t>
   </si>
   <si>
     <t>Neue stärkste Partei</t>
@@ -209,19 +212,19 @@
     <t>Neu ist in #Gemeinde_d die #Party1_name_d stärkste Kraft (Rang vor vier Jahren: #Party1_rank_in_commune_prev). Bei den diesjährigen Nationalratswahlen vereinigt die Partei #Party1_voter_share Prozent der Stimmen auf sich.</t>
   </si>
   <si>
-    <t>Le #Party1_name_f grimpe sur la première place du podium à #Gemeinde_f. Il était #Party1_rank_in_commune_prev ème en 2019. Il obtient#Party1_voter_share pour cent des voix en 2019 lors des élections pour le Conseil national.</t>
+    <t>Le #Party1_name_f grimpe sur la première place du podium à #Gemeinde_f. Il était #Party1_rank_in_commune_prev ème en 2019. Il obtient cette année #Party1_voter_share pour cent des voix.</t>
   </si>
   <si>
     <t>#Party1_name_d kann sich in diesem Jahr von Rang #Party1_rank_in_commune_prev auf den Spitzenplatz in #Gemeinde_d verbessern. Die Partei holt #Party1_voter_share Prozent der Stimmen (#Party1_change Prozentpunkte).</t>
   </si>
   <si>
-    <t>#Party1_name_f progresse. Il passe du rang numero #Party1_rank_in_commune_prev à la première place en #Gemeinde_f.Le parti remporte #Party1_voter_share pourcentage des voix (#Party1_change de points de pourcentage).</t>
+    <t>Le #Party1_name_f progresse. Il passe du rang numero #Party1_rank_in_commune_prev à la première place à #Gemeinde_f. Le parti remporte #Party1_voter_share pourcent des voix (#Party1_change points de pourcentage).</t>
   </si>
   <si>
     <t>Neue stärkste Kraft in #Gemeinde_d: Die #Party1_name_d holt mit #Party1_voter_share Prozent (#Party1_change Prozentpunkte) die meisten Stimmen und verbessert sich damit von Rang #Party1_rank_in_commune_prev auf den ersten Platz.</t>
   </si>
   <si>
-    <t>Les préférences des électeurs de #Gemeinde_f ont changé en quatre ans. #Party1_name_f obtient le plus grand nombre de voix avec #Party1_voter_share % (#Party1_change points de pourcentage) et passe ainsi du rang #Party1_rank_in_commune_prev à la première place.</t>
+    <t>Les préférences des électeurs de #Gemeinde_f ont changé en quatre ans. Le #Party1_name_f obtient le plus grand nombre de voix avec #Party1_voter_share % (#Party1_change points de pourcentage) et passe ainsi du rang #Party1_rank_in_commune_prev à la première place.</t>
   </si>
   <si>
     <t>In #Gemeinde_d steht eine neue Partei auf dem Spitzenplatz: Die #Party1_name_d holt #Party1_voter_share Prozent der Stimmen (#Party1_change Prozentpunkte) und verbessert sich damit von Rang #Party1_rank_in_commune_prev auf den ersten Platz.</t>
@@ -320,7 +323,7 @@
     <t>Die #Party2_name_d steigert sich mit einem Plus von #Party2_change Prozentpunkte stark und belegt nun den zweiten Platz in der Gemeinde. Der Wählerstimmenanteil der Partei beträgt neu #Party2_voter_share Prozent.</t>
   </si>
   <si>
-    <t>Le #Party2_name_f progresse fortement: le parti améliore son résultat d'il y a quatre ans de  #Party2_change points de pourcentage et occupe désormais la deuxième place dans la commune. La proportion de voix du parti s'élève désormais à #Party2_voter_share pour cent.</t>
+    <t>Le #Party2_name_f progresse fortement: le parti améliore son résultat d'il y a quatre ans de #Party2_change points de pourcentage et occupe désormais la deuxième place dans la commune. La proportion de voix du parti s'élève désormais à #Party2_voter_share pour cent.</t>
   </si>
   <si>
     <t>Second_big_fall_percentage</t>
@@ -329,7 +332,7 @@
     <t>Einen markanten Verlust muss die #Party2_name_d hinnehmen: Die Partei verliert #Party2_change Prozentpunkte gegenüber den Wahlen 2019 und liegt jetzt noch bei #Party2_voter_share Prozent Wähleranteil. Das bedeutet dennoch Rang 2.</t>
   </si>
   <si>
-    <t>Le #Party2_name_f connaît un fort recul à #Gemeinde_f. Il perd #Party2_change points de pourcentage par rapport aux élections pour le Conseil national de 2019 et est désormais le deuxième parti de la commune avec#Party2_voter_share pour cent des suffrages.</t>
+    <t>Le #Party2_name_f connaît un fort recul à #Gemeinde_f. Il perd #Party2_change points de pourcentage par rapport aux élections pour le Conseil national de 2019 et est désormais le deuxième parti de la commune avec #Party2_voter_share pour cent des suffrages.</t>
   </si>
   <si>
     <t>Zweitstärkste Partei mit grossem Verlust (&lt; 5 PP)</t>
@@ -353,7 +356,7 @@
     <t>Den zweiten Platz in #Gemeinde_d teilen sich zwei Parteien: Die #Party2_name_d und die #Party3_name_d sind genau gleich stark. Mit je #Party2_voter_share Prozent kommen beide Parteien auf den gleichen Wähleranteil.</t>
   </si>
   <si>
-    <t>Deux partis se partagent la deuxième place à #Gemeine_f :Le #Party2_name_f et le #Party3_name_f obtiennent exactement le même résultat, soit #Party2_voter_share pour cent des voix.</t>
+    <t>Deux partis se partagent la deuxième place à #Gemeine_f : le #Party2_name_f et le #Party3_name_f obtiennent exactement le même résultat, soit #Party2_voter_share pour cent des voix.</t>
   </si>
   <si>
     <t>gleicher Stimmenanteil zweit- und drittstärkste Partei</t>
@@ -365,7 +368,7 @@
     <t>Am zweitmeisten Stimmen, nämlich #Party2_voter_share Prozent, gehen in #Gemeinde_d an Listen oder Parteien aus der Kategorie "Übrige".</t>
   </si>
   <si>
-    <t>Des partis ou des listes issus du groupe "Divers" terminent deuxième à #Gemeinde_f. Ils réalisent#Party2_voter_share pour cent des voix.</t>
+    <t>Des partis ou des listes issus du groupe "Divers" terminent deuxième à #Gemeinde_f. Ils réalisent #Party2_voter_share pour cent des voix.</t>
   </si>
   <si>
     <t>Zweite Partei ist "Weitere"</t>
@@ -377,7 +380,7 @@
     <t>Die #Party3_name_d landet mit #Party3_voter_share Prozent auf dem dritten Platz (Veränderung gegenüber 2019: #Party3_change Prozentpunkte).</t>
   </si>
   <si>
-    <t>Le #Party3_name_f se classe troisième. Il obtient#Party3_voter_share pour cent des voix (#Party3_change points de pourcentage par rapport à 2019).</t>
+    <t>Le #Party3_name_f se classe troisième. Il obtient #Party3_voter_share pour cent des voix (#Party3_change points de pourcentage par rapport à 2019).</t>
   </si>
   <si>
     <t>Drittstärkste Partei Normal</t>
@@ -392,13 +395,13 @@
     <t>Der dritte Platz geht an die #Party3_name_d. Sie erreicht #Party3_voter_share Prozent der Stimmen (Veränderung von #Party3_change Prozentpunkten gegenüber 2019).</t>
   </si>
   <si>
-    <t>Le #Party3_name_f complète le podium. Il récolte#Party3_voter_share pour cent des suffrages (#Party3_change en 2019).</t>
+    <t>Le #Party3_name_f complète le podium. Il récolte #Party3_voter_share pour cent des suffrages (#Party3_change).</t>
   </si>
   <si>
     <t>Die #Party3_name_d sichert sich den dritten Platz, mit einem Wähleranteil von #Party3_voter_share Prozent (Veränderung gegenüber 2019: #Party3_change Prozentpunkte).</t>
   </si>
   <si>
-    <t>A la troisième place figure le #Party3_name_f, qui réalise #Party3_voter_share pour cent des voix (#Party3_change en 2019).</t>
+    <t>A la troisième place figure le #Party3_name_f, qui réalise #Party3_voter_share pour cent des voix (#Party3_change).</t>
   </si>
   <si>
     <t xml:space="preserve">Auf dem dritten Platz landet die #Party3_name_d mit #Party3_voter_share Prozent der Stimmen. Das bedeutet eine Veränderung von #Party3_change Prozentpunkte gegenüber 2019. </t>
@@ -443,7 +446,7 @@
     <t>Viele Wählerstimmen eingebüsst hat die drittplatzierte #Party3_name_d. Die Partei holt noch #Party3_voter_share Prozent, was einen Verlust von #Party3_change Prozentpunkte bedeutet.</t>
   </si>
   <si>
-    <t>Le #Party3_name_f, troisième parti, a perdu beaucoup de voix. La formation politique obtient #Party3_voter_share pour cent des voix, ce qui représente une perte de #Party3_change points de pourcentage.</t>
+    <t>Le #Party3_name_f, troisième parti, a perdu beaucoup de voix. La formation obtient #Party3_voter_share pour cent des voix, ce qui représente une perte de #Party3_change points de pourcentage.</t>
   </si>
   <si>
     <t>Drittstärkste Partei mit grossem Verlust (&lt; 5 PP)</t>
@@ -458,7 +461,7 @@
     <t>#Party3_name_d muss sich mit dem dritten Platz begnügen. Sie erreicht nur noch #Party3_voter_share Prozent der Stimmen und damit #Party3_change Prozentpunkte weniger als vor vier Jahren.</t>
   </si>
   <si>
-    <t>#Party3_name_f doit se contenter de la troisième place. Le parti n'obtient plus que #Party3_voter_share pour cent des voix, soit #Party3_change points de pourcentage de moins qu'il y a quatre ans.</t>
+    <t>Le #Party3_name_f doit se contenter de la troisième place. Le parti n'obtient plus que #Party3_voter_share pour cent des voix, soit #Party3_change points de pourcentage de moins qu'il y a quatre ans.</t>
   </si>
   <si>
     <t>Third_tie_fourth</t>
@@ -491,7 +494,7 @@
     <t>Die Reihenfolge der Parteien in #Gemeinde_d bleibt im Vergleich zu den Wahlen 2019 gleich: Die #Party1_name_d bleibt mit #Party1_voter_share Prozent die stärkste Kraft, gefolgt von der #Party2_name_d (#Party2_voter_share Prozent, #Party2_change  Prozentpunkte) und der #Party3_name_d (#Party3_voter_share Prozent, #Party3_change Prozentpunkte).</t>
   </si>
   <si>
-    <t>Le classement n'a pas changé depuis 4 ans à #Gemeinde_f: le #Party1_name_f reste premier avec #Party1_voter_share pour cent des voix. Il devance le #Party2_name_f (#Party2_voter_share pour cent, #Party2_change points de pourcentage) et le #Party3_name_f (#Party3_voter_share pour cent, #Party3_change points de pourcentage).</t>
+    <t>Le classement n'a pas changé depuis quatre ans à #Gemeinde_f: le #Party1_name_f reste premier avec #Party1_voter_share pour cent des voix. Il devance le #Party2_name_f (#Party2_voter_share pour cent, #Party2_change points de pourcentage) et le #Party3_name_f (#Party3_voter_share pour cent, #Party3_change points de pourcentage).</t>
   </si>
   <si>
     <t>Gleiche Reihenfolge wie beim letzten Mal bei den ersten drei Parteien + keine grossen Sprünge (&lt; 5 PP)</t>
@@ -500,13 +503,13 @@
     <t>Alles bleibt beim Alten in #Gemeinde_d: Die drei stärksten Parteien verteidigen ihre Spitzenplätze in unveränderter Reihenfolge: Die #Party1_name_d geht mit #Party1_voter_share Prozent (#Party1_change Prozentpunkte) wiederum als stärkste Kraft aus den Nationalratswahlen. Zweitstärkste Partei ist die #Party2_name_d (#Party2_voter_share Prozent, #Party2_change Prozentpunkte), drittstärkste die #Party3_name_d (#Party3_voter_share Prozent, #Party3_change Prozentpunkte).</t>
   </si>
   <si>
-    <t>Rien n'a changé en quatre ans à #Gemeinde_f: les trois même partis restent en tête. le #Party1_name_f conserve sa première place avec #Party1_voter_share pour cent des voix. Il devance le #Party2_name_f (#Party2_voter_share pour cent, #Party2_change points de pourcentage) et le #Party3_name_f (#Party3_voter_share pour cent, #Party3_change points de pourcentage).</t>
+    <t>Rien n'a changé en quatre ans à #Gemeinde_f: les trois même partis restent en tête. Le #Party1_name_f conserve sa première place avec #Party1_voter_share pour cent des voix. Il devance le #Party2_name_f (#Party2_voter_share pour cent, #Party2_change points de pourcentage) et le #Party3_name_f (#Party3_voter_share pour cent, #Party3_change points de pourcentage).</t>
   </si>
   <si>
     <t>Die Spitzenplätze in #Gemeinde_d bleiben gleich: Unverändert belegen die #Party1_name_d, die #Party2_name_d und die #Party3_name_d die ersten drei Plätze. Sie holen #Party1_voter_share Prozent (#Party1_change Prozentpunkte), #Party2_voter_share Prozent (#Party2_change Prozentpunkte) respektive #Party3_voter_share Prozent (#Party3_change Prozentpunkte) der Stimmen.</t>
   </si>
   <si>
-    <t xml:space="preserve">Le trio de tête reste inchangé à #Gemeinde_f: le #Party1_name_f reste premier avec #Party1_voter_share pour cent des voix. Il devance le #Party2_name_f (#Party2_voter_share pour cent, #Party2_change points de pourcentage) et le #Party3_name_f (#Party3_voter_share pour cent, #Party3_change points de pourcentage). </t>
+    <t xml:space="preserve">Le trio de tête reste inchangé à #Gemeinde_f: le #Party1_name_f reste premier avec #Party1_voter_share pour cent des voix. Il devance le #Party2_name_f (#Party2_voter_share pour cent, #Party2_change points de pourcentage) et le #Party3_name_f (#Party3_voter_share pour cent, #Party3_change points). </t>
   </si>
   <si>
     <t>Spec_small_community</t>
@@ -515,7 +518,7 @@
     <t>Die Wahlberechtigten der Gemeinde #Gemeinde_d verteilen die meisten ihrer Stimmen an die folgenden drei Parteien: Die #Party1_name_d erhielt #Party1_votes Stimmen, die #Party2_name_d #Party2_votes Stimmen und die #Party3_name_d #Party3_votes Stimmen.</t>
   </si>
   <si>
-    <t>Les électeurs de #Gemeinde_f ont réparti la plupart de leurs voix entre les trois partis suivants : le #Party1_name_f a obtenu #Party1_votes voix, le #Party2_name_f #Party2_votes et le #Party3_name_f #Party3_votes.</t>
+    <t>Les électeurs de #Gemeinde_f ont réparti la plupart de leurs voix entre les trois partis suivants: le #Party1_name_f a obtenu #Party1_votes voix, le #Party2_name_f #Party2_votes et le #Party3_name_f #Party3_votes.</t>
   </si>
   <si>
     <t>Kleine Stimmen-Zahlen (wenn 1. Partei &lt; 200 Stimmen) - ohne Prozentzahl, drei Parteien müssen vorhanden sein</t>
@@ -536,7 +539,7 @@
     <t>#Party1_name_d holt in #Gemeinde_d am meisten Stimmen, nämlich #Party1_votes, gefolgt von der #Party2_name_d mit #Party2_votes Stimmen und der #Party3_name_d mit #Party3_votes Stimmen.</t>
   </si>
   <si>
-    <t>#Party1_name_f obtient le plus de voix (#Party1_votes) à #Gemeinde_f. Il est suivi par #Party2_name_f avec #Party2_votes voix et #Party3_name_f avec #Party3_votes voix.</t>
+    <t>Le #Party1_name_f obtient le plus de voix (#Party1_votes) à #Gemeinde_f. Il est suivi par #Party2_name_f avec #Party2_votes voix et #Party3_name_f avec #Party3_votes voix.</t>
   </si>
   <si>
     <t>In  #Gemeinde_d geben die Wahlberechtigten der #Party1_name_d #Party1_votes Stimmen, der #Party2_name_d #Party2_votes Stimmen und der #Party3_name_d #Party3_votes Stimmen.</t>
@@ -554,7 +557,7 @@
     <t>Die Wahlberechtigten in  #Gemeinde_d geben der #Party1_name_d #Party1_votes Stimmen, der #Party2_name_d #Party2_votes Stimmen und der #Party3_name_d #Party3_votes Stimmen.</t>
   </si>
   <si>
-    <t>Les électeurs de #Gemeinde_f donnent leurs voix au #Party1_name_f #(Party1_votes voix), au #Party2_name_f (#Party2_votes voix) et au #Party3_name_f (#Party3_votes voix).</t>
+    <t>Les électeurs de #Gemeinde_f donnent leurs voix au #Party1_name_f (#Party1_votes voix), au #Party2_name_f (#Party2_votes voix) et au #Party3_name_f (#Party3_votes voix).</t>
   </si>
   <si>
     <t>In  #Gemeinde_d vereinigen die #Party1_name_d, die #Party2_name_d und die #Party3_name_d die meisten Wählerstimmen auf sich. Sie erzielen #Party1_votes Stimmen, #Party2_votes Stimmen respektive #Party3_votes Stimmen.</t>
@@ -590,7 +593,7 @@
     <t>In  #Gemeinde_d verteilen die Wahlberechtigten ihre Stimmen auf die #Party1_name_d (#Party1_votes Stimmen), die #Party2_name_d (#Party2_votes Stimmen) und die #Party3_name_d (#Party3_votes Stimmen) am meisten Stimmen gegeben.</t>
   </si>
   <si>
-    <t>Les électeurs de #Gemeinde_f répartissent leurs voix entre le #Party1_name_f (#Party_1_votes voix), le #Party2_name_f (#Party_2_votes ) et le #Party3_name_d (#Party_3_votes ). Ces trois formations politiques sont celles qui ont récollté le plus de votes.</t>
+    <t>Les électeurs de #Gemeinde_f répartissent leurs voix entre le #Party1_name_f (#Party_1_votes voix), le #Party2_name_f (#Party_2_votes ) et le #Party3_name_f (#Party_3_votes ). Ces trois formations sont celles qui ont récollté le plus de votes.</t>
   </si>
   <si>
     <t>Spec_small_canton_one_candidate</t>
@@ -614,7 +617,7 @@
     <t>Mit #Party1_voter_share Prozent der Stimmen behauptet sich in #Gemeinde_d der #Party1_name_d-Kandidat respektive die #Party1_name_d-Kandidatin behauptet.</t>
   </si>
   <si>
-    <t>Avec #Party1_voter_share pour cent des voix, le candidat ou la candidate de #Party1_name_f termine première à #Gemeinde_f.</t>
+    <t>Avec #Party1_voter_share pour cent des voix, le candidat ou la candidate de #Party1_name_f termine à la première place à #Gemeinde_f.</t>
   </si>
   <si>
     <t>In #Gemeinde_d gehen #Party1_voter_share Prozent der Stimmen an die Kandidatin oder den Kandidaten der #Party1_name_d.</t>
@@ -650,7 +653,7 @@
     <t>In #Gemeinde_d erlangt der Kandidat oder die Kandidatin der #Party1_name_d die Spitzenposition mit #Party1_votes Stimmen, gefolgt vom Kandidierenden der #Party2_name_d mit #Party2_votes Stimmen.</t>
   </si>
   <si>
-    <t>Le candidat ou la candidate du #Party_name_f termine première à #Gemeinde_f avec #Party1_votes, suivi par le candidat ou la candidate du #Party2_name_f avec #Party2_votes voix.</t>
+    <t>Le candidat ou la candidate du #Party_name_f termine en première position à #Gemeinde_f avec #Party1_votes, suivi par le candidat ou la candidate du #Party2_name_f avec #Party2_votes voix.</t>
   </si>
   <si>
     <t>In der Gemeinde #Gemeinde_d gewinnt der #Party1_name_d-Kandidat respektive die #Party1_name_d-Kandidatin mit #Party1_votes Stimmen, während der Kandidat/ die Kandidatin der #Party2_name_d #Party2_votes Stimmen erhält.</t>
@@ -662,19 +665,19 @@
     <t>Mit #Party1_votes Stimmen liegt in #Gemeinde_d der Kandidat beziehungsweise die Kandidatin der #Party1_name_d der an der Spitze. Auf dem zweiten Rang landet mit #Party2_votes Stimmen der Bewerber/die Bewerberin der #Party2_name_d.</t>
   </si>
   <si>
-    <t>Avec #Party1_votes, le candidat ou la candidate du #Party1_name_f arrive en tête dans la #Gemeinde_f. Le candidat ou la candidate du #Party2_name_f arrive en deuxième position (#Party2_votes voix).</t>
+    <t>Avec #Party1_votes, le candidat ou la candidate du #Party1_name_f arrive en tête dans la comme de #Gemeinde_f. Le candidat ou la candidate du #Party2_name_f arrive en deuxième position (#Party2_votes voix).</t>
   </si>
   <si>
     <t>In #Gemeinde_d zieht der Kandidat oder die Kandidatin der #Party1_name_d die meisten Stimmen auf sich, und zwar #Party1_votes . Die #Party2_name_d kommt mit ihrem Bewerber respektive ihrer Bewerberin auf #Party2_votes Stimmen.</t>
   </si>
   <si>
-    <t>Le candidat ou la candidate du #Party1_name_f obtient le plus grand nombre de voix (#Party1_votes) à #Gemeinde_f. Le #Party2_name_f obtient avec son candidat ou sa candidate #Party2_votes.</t>
+    <t>Le candidat ou la candidate du #Party1_name_f obtient le plus grand nombre de voix (#Party1_votes) à #Gemeinde_f. Le #Party2_name_f obtient #Party2_votes voix avec son candidat ou sa candidate.</t>
   </si>
   <si>
     <t>In #Gemeinde_d setzt sich der Kandidat respektive die Kandidatin der #Party1_name_d mit #Party1_votes Stimmen an die Spitze. Der Kandidat oder die Kandidatin der #Party2_name_d kommt auf #Party2_votes Stimmen.</t>
   </si>
   <si>
-    <t>Le candidat ou la candidate du #Party1_name_f termine en tête avec #Party1_votes voix à #Gemeinde_f. Le candidat ou la candidate du #Party2_name_f arrive en tête avec #Party2_votes voix.</t>
+    <t>Le candidat ou la candidate du #Party1_name_f termine en tête à #Gemeinde_f avec #Party1_votes voix. Le candidat ou la candidate du #Party2_name_f se classe deuxième avec #Party2_votes voix.</t>
   </si>
   <si>
     <t>Mit einem Stimmenanteil von #Party1_voter_share Prozent obsiegt in der Gemeinde #Gemeinde_d die Kandidatin respektive der Kandidat der #Party1_name_d. Die #Party2_name_d erhält mit ihrer Bewerberin respektive ihrem Bewerber noch #Party2_voter_share Prozent der Stimmen.</t>
@@ -686,24 +689,27 @@
     <t>Der Kandidat oder die Kandidatin der #Party1_name_d setzt sich in #Gemeinde_d mit einem Anteil von #Party1_voter_share Prozent der Stimmen an die Spitze. Die #Party2_name_d macht mit ihrem Kandidaten oder ihrer Kandidatin #Party2_voter_share Prozent.</t>
   </si>
   <si>
-    <t>Le candidat ou la candidate du #Party1_name_f finit en tête dans #Gemeinde_f avec un #Party1_voter_share pour cent des voix. Le #Party2_name_f réalise lui #Party2_voter_share pour cent avec son candidat (ou sa candidate).</t>
+    <t>Le candidat ou la candidate du #Party1_name_f finit en tête à #Gemeinde_f avec #Party1_voter_share pour cent des voix. Le #Party2_name_f réalise lui #Party2_voter_share pour cent avec son candidat (ou sa candidate).</t>
   </si>
   <si>
     <t>Die #Party1_name_d kann in #Gemeinde_d mit ihrer Kandidatur #Party1_voter_share Prozent der Stimmen für sich gewinnen, die #Party2_name_d #Party2_voter_share Prozent.</t>
   </si>
   <si>
+    <t>Le #Party1_name_f est vainqueur à #Gemeinde_f avec #Party1_voter_share pour cent des voix. Le #Party2_name_f totalise #Party2_voter_share pour cent des suffrages.</t>
+  </si>
+  <si>
+    <t>In der Gemeinde #Gemeinde_d landet die #Party1_name_d-Kandidatur mit #Party1_voter_share Prozent vorn, gefolgt vom Kandidaten respektive der Kandidatin der #Party2_name_d mit einem Wähleranteil von #Party2_voter_share Prozent.</t>
+  </si>
+  <si>
+    <t>Le candidat ou la candidate du #Party1_name_f se classe en tête à #Gemeinde_f avec #Party1_voter_share pour cent des voix. Il est suivi du candidat ou de la candidate du #Party2_name_f avec une part électorale de #Party2_voter_share pour cent.</t>
+  </si>
+  <si>
+    <t>Mit #Party1_voter_share Prozent der Stimmen steht in #Gemeinde_d die Kandidatin respektive der Kandidat der #Party1_name_d an der Spitze. Die #Party2_name_d sammelt mit ihrem Bewerber oder ihrer Bewerberin #Party2_voter_share Prozent.</t>
+  </si>
+  <si>
     <t>Le #Party1_name_f est vainqueur à #Gemeinde_f avec #Party1_voter_share pour cent des voix. Le #Party2_name_f totalise #Party2_voter_share pour cent des voix.</t>
   </si>
   <si>
-    <t>In der Gemeinde #Gemeinde_d landet die #Party1_name_d-Kandidatur mit #Party1_voter_share Prozent vorn, gefolgt vom Kandidaten respektive der Kandidatin der #Party2_name_d mit einem Wähleranteil von #Party2_voter_share Prozent.</t>
-  </si>
-  <si>
-    <t>Le candidat ou la candidate du #Party1_name_f se classe en tête avec #Party1_voter_share pour cent des voix à #Gemeinde_f. Il est suivi du candidat ou de la candidate du #Party2_name_f avec une part électorale de #Party2_voter_share pour cent de voix.</t>
-  </si>
-  <si>
-    <t>Mit #Party1_voter_share Prozent der Stimmen steht in #Gemeinde_d die Kandidatin respektive der Kandidat der #Party1_name_d an der Spitze. Die #Party2_name_d sammelt mit ihrem Bewerber oder ihrer Bewerberin #Party2_voter_share Prozent.</t>
-  </si>
-  <si>
     <t>In #Gemeinde_d kann die #Party1_name_d mit #Party1_voter_share Prozent den Sieg für sich beanspruchen, während die #Party2_name_d mit ihrem Kandidaten oder ihrer Kandidatin #Party2_voter_share Prozent verbucht.</t>
   </si>
   <si>
@@ -824,7 +830,7 @@
     <t>Nur wenige Gemeinden weisen eine tiefere Wahlbeteiligung auf als #Gemeinde_d mit #Gemeinde_participation Prozent.</t>
   </si>
   <si>
-    <t>Peu de communes ont un taux de participation plus bas que celui enregistré à #Gemeinde_f avec (#Gemeinde_participation pour cent).</t>
+    <t>Peu de communes ont un taux de participation plus bas que celui enregistré à #Gemeinde_f (#Gemeinde_participation pour cent).</t>
   </si>
   <si>
     <t>Gemeinde gehört schweizweit zu 10 mit der tiefsten Wahlbeteiligung</t>
@@ -884,7 +890,7 @@
     <t>#Gemeinde_d ist bei den diesjährigen Nationalratswahlen statistisch betrachtet die durchschnittlichste Gemeinde der ganzen Schweiz. Nirgendwo weicht in Bezug auf die Wähleranteile der grössten Parteien das Wahlverhalten so wenig vom gesamtschweizerischen Resultat ab. So kommt die #Party1_name_d in #Gemeinde_d auf #Party1_voter_share Prozent der Wählerstimmen, während der Wähleranteil gesamtschweizerisch #Party1_overall_voter_share Prozent beträgt. Die #Party2_name_d erreicht #Party2_voter_share Prozent (schweizweit #Party2_overall_voter_share Prozent) und die #Party3_name_d(#Party3_voter_share Prozent (#Party3_overall_voter_share Prozent). , #Party3_change Prozentpunkte). Die #Party4_name_d erzielt #Party4_voter_share Prozent, die #Party5_name_d #Party5_voter_share Prozent und die #Party6_name_d #Party6_voter_share Prozent.</t>
   </si>
   <si>
-    <t>D'un point de vue statistique, #Gemeinde_f est la commune la plus représentative de toute la Suisse lors des élections au Conseil national de cette année. Nulle part ailleurs, les choix des électeurs ne se rapprochent autant du résultat national. Ainsi,, le #Party1_name_f obtient #Party1_voter_share pour cent des voix, alors que la part des électeurs s'élève à #Party1_overall_voter_share pour cent au niveau national. Le #Party2_name_f atteint #Party2_voter_share pour cent (#Party2_overall_voter_share pour cent au niveau suisse) et le #Party3_name_f #Party3_voter_share pour cent (#Party3_overall_voter_share pourcent).. Le #Party4_name_f obtient #Party4_voter_share pour cent, le #Party5_name_f #Party5_voter_share pour cent et le #Party6_name_f #Party6_voter_share pour cent.</t>
+    <t>D'un point de vue statistique, #Gemeinde_f est la commune la plus représentative de toute la Suisse lors des élections au Conseil national de cette année. Nulle part ailleurs, les choix des électeurs ne se rapprochent autant du résultat national. Ainsi, le #Party1_name_f obtient #Party1_voter_share pour cent des voix, alors que la part des électeurs s'élève à #Party1_overall_voter_share pour cent au niveau national. Le #Party2_name_f atteint #Party2_voter_share pour cent (#Party2_overall_voter_share pour cent au niveau suisse) et le #Party3_name_f #Party3_voter_share pour cent (#Party3_overall_voter_share pourcent). Le #Party4_name_f obtient #Party4_voter_share pour cent, le #Party5_name_f #Party5_voter_share pour cent et le #Party6_name_f #Party6_voter_share pour cent.</t>
   </si>
   <si>
     <t>Spezialfall: Durchschnittlichste Gemeinde in Bezug auf Parteistärken (sechs grösste Pârteien)</t>
@@ -1944,31 +1950,37 @@
       <c r="E20" s="6" t="s">
         <v>55</v>
       </c>
+      <c r="F20" s="6" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="6" t="s">
         <v>55</v>
       </c>
+      <c r="F21" s="6" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="6" t="s">
@@ -1977,1298 +1989,1298 @@
     </row>
     <row r="23">
       <c r="A23" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" ht="61.5" customHeight="1">
       <c r="A24" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B24" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" s="6" t="s">
         <v>64</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" ht="38.25" customHeight="1">
       <c r="A28" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" ht="37.5" customHeight="1">
       <c r="A29" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" s="9" t="s">
         <v>78</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>77</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="12" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="12" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="12" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="12" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="12" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="12" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="12" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="12" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="14" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="14" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="14" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="14" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="14" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="14" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D50" s="4"/>
       <c r="E50" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="14" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D51" s="4"/>
       <c r="E51" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="14" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D52" s="4"/>
       <c r="E52" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="14" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D53" s="4"/>
       <c r="E53" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="14" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D54" s="4"/>
       <c r="E54" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="14" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D55" s="4"/>
       <c r="E55" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="14" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D56" s="4"/>
       <c r="E56" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="14" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="14" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D58" s="4"/>
       <c r="E58" s="11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="15" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D59" s="4"/>
       <c r="E59" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="15" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D60" s="4"/>
       <c r="E60" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="15" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D61" s="4"/>
       <c r="E61" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="15" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D62" s="4"/>
       <c r="E62" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="15" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D63" s="4"/>
       <c r="E63" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="15" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D64" s="4"/>
       <c r="E64" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="15" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D65" s="4"/>
       <c r="E65" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="15" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D66" s="4"/>
       <c r="E66" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="15" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D67" s="4"/>
       <c r="E67" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="15" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D68" s="4"/>
       <c r="E68" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="15" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D69" s="4"/>
       <c r="E69" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="15" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D70" s="4"/>
       <c r="E70" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="15" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D71" s="4"/>
       <c r="E71" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="15" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D72" s="4"/>
       <c r="E72" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="15" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D73" s="4"/>
       <c r="E73" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="15" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D74" s="4"/>
       <c r="E74" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="16" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D75" s="4"/>
       <c r="E75" s="6" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="16" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D76" s="4"/>
       <c r="E76" s="6" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="16" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D77" s="4"/>
       <c r="E77" s="6" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="16" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D78" s="4"/>
       <c r="E78" s="6" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="16" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D79" s="4"/>
       <c r="E79" s="6" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="16" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D80" s="4"/>
       <c r="E80" s="6" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="16" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D81" s="4"/>
       <c r="E81" s="6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="16" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D82" s="4"/>
       <c r="E82" s="6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="16" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D83" s="4"/>
       <c r="E83" s="6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="16" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D84" s="4"/>
       <c r="E84" s="6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="16" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D85" s="4"/>
       <c r="E85" s="6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="16" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D86" s="4"/>
       <c r="E86" s="6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="16" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D87" s="4"/>
       <c r="E87" s="6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="16" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D88" s="4"/>
       <c r="E88" s="6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="16" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D89" s="4"/>
       <c r="E89" s="6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="16" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D90" s="4"/>
       <c r="E90" s="6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="16" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="D91" s="4"/>
       <c r="E91" s="6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="16" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D92" s="4"/>
       <c r="E92" s="6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="17" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D93" s="4"/>
       <c r="E93" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="17" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D94" s="4"/>
       <c r="E94" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="18" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D95" s="19"/>
       <c r="E95" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="18" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D96" s="19"/>
       <c r="E96" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="20" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D97" s="19"/>
       <c r="E97" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="20" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D98" s="19"/>
       <c r="E98" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="20" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D99" s="19"/>
       <c r="E99" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="20" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C100" s="21" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D100" s="19"/>
       <c r="E100" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="20" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D101" s="19"/>
       <c r="E101" s="11" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="20" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D102" s="4"/>
       <c r="E102" s="11" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="22" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D103" s="4"/>
       <c r="E103" s="6" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="22" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D104" s="4"/>
       <c r="E104" s="6" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="22" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D105" s="4"/>
       <c r="E105" s="6" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="22" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C106" s="21" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D106" s="4"/>
       <c r="E106" s="6" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="23" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D107" s="4"/>
       <c r="E107" s="6" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="6" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B108" s="24" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
       <c r="E108" s="6" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="6" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B109" s="24" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
       <c r="E109" s="6" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="110">
@@ -10222,46 +10234,46 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="26" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="6" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="6" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="5">
@@ -10269,134 +10281,134 @@
     </row>
     <row r="6">
       <c r="A6" s="6" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="6" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="6" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="6" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="6" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="6" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="6" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="6" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="6" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="6" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="6" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="6" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="18">
@@ -10404,35 +10416,35 @@
     </row>
     <row r="19">
       <c r="A19" s="6" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B19" s="31">
         <v>45071.0</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="6" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B20" s="31">
         <v>45071.0</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="6" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B21" s="31">
         <v>45071.0</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="22">
@@ -10440,35 +10452,35 @@
     </row>
     <row r="23">
       <c r="A23" s="6" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B23" s="28">
         <v>200.0</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="6" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B24" s="28">
         <v>150.0</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="6" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B25" s="28">
         <v>120.0</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="26">
@@ -10476,35 +10488,35 @@
     </row>
     <row r="27">
       <c r="A27" s="6" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B27" s="32" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="6" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B28" s="32" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="6" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B29" s="32" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="30">
@@ -10512,24 +10524,24 @@
     </row>
     <row r="31">
       <c r="A31" s="6" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B31" s="31">
         <v>45050.0</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="6" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B32" s="28">
         <v>3.0</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="33">
@@ -10537,134 +10549,134 @@
     </row>
     <row r="34">
       <c r="A34" s="33" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B34" s="28" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="33" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B35" s="28" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="33" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B36" s="28" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="6" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B37" s="28" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="6" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B38" s="28" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="6" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B39" s="28" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="33" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B40" s="28" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="33" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B41" s="28" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="33" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B42" s="28" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="6" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B43" s="28" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="6" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B44" s="28" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="6" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B45" s="28" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="46">
@@ -10672,13 +10684,13 @@
     </row>
     <row r="47">
       <c r="A47" s="6" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B47" s="28" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="48">

--- a/Texte/LENA Textbausteine Eidgenössische Wahlen 2023_ Gemeindeebene.xlsx
+++ b/Texte/LENA Textbausteine Eidgenössische Wahlen 2023_ Gemeindeebene.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="400">
   <si>
     <t>Text_ID</t>
   </si>
@@ -512,6 +512,15 @@
     <t xml:space="preserve">Le trio de tête reste inchangé à #Gemeinde_f: le #Party1_name_f reste premier avec #Party1_voter_share pour cent des voix. Il devance le #Party2_name_f (#Party2_voter_share pour cent, #Party2_change points de pourcentage) et le #Party3_name_f (#Party3_voter_share pour cent, #Party3_change points). </t>
   </si>
   <si>
+    <t>Spec_three_parties_same</t>
+  </si>
+  <si>
+    <t>Eine Besonderheit gibt es in #Gemeinde_d: Die #Party1_name_d, die #Party2_name_d und die #Party3_name_d sind genau gleich stark. Mit je #Party1_voter_share Prozent kommen die drei Parteien auf den gleichen Wähleranteil.</t>
+  </si>
+  <si>
+    <t>Drei Parteien mit dem selben Stimmenanteil</t>
+  </si>
+  <si>
     <t>Spec_small_community</t>
   </si>
   <si>
@@ -899,16 +908,16 @@
     <t>Spec_small_canton_NR_im_Wohnort_m</t>
   </si>
   <si>
-    <t>Die Gemeinde #Gemeinde_d ist der Wohnort des im Kanton #Canton gewählten Nationalrates #Names_NR_pro_Ort. (FRAGE an SW: SINNLOS HIER PARTEI ZU ERWÄHNEN, WEIL THEORETISCH AUCH ANDERER KANDIDAT IN DER GEMEINDE GEWINNEN KANN, ODER?)</t>
-  </si>
-  <si>
-    <t>Spezialfall: Kleinkanton mit nur 1 NR, NR wohnhaft in der Gemeinde (erwähnt werden soll: Gemeinde, Name des Gewählten, Stimmenzahl, ev Stimmanteil)</t>
+    <t>Die Gemeinde #Gemeinde_d ist der Wohnort des im Kanton #Canton gewählten Nationalrates #Names_NR_pro_Ort</t>
+  </si>
+  <si>
+    <t>Spezialfall: Kleinkanton mit nur 1 NR, NR wohnhaft in der Gemeinde</t>
   </si>
   <si>
     <t>Spec_small_canton_NR_im_Wohnort_f</t>
   </si>
   <si>
-    <t>Die Gemeinde #Gemeinde_d ist der Wohnort der im Kanton #Canton gewählten Nationalrätin #Names_NR_pro_Ort. (FRAGE an SW: SINNLOS HIER PARTEI ZU ERWÄHNEN, WEIL THEORETISCH AUCH ANDERER KANDIDAT IN DER GEMEINDE GEWINNEN KANN, ODER?)</t>
+    <t>Die Gemeinde #Gemeinde_d ist der Wohnort der im Kanton #Canton gewählten Nationalrätin #Names_NR_pro_Ort.</t>
   </si>
   <si>
     <t>Variable</t>
@@ -1248,7 +1257,7 @@
       <name val="&quot;Calibri&quot;"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1309,12 +1318,6 @@
         <bgColor rgb="FFFF9900"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00FFFF"/>
-        <bgColor rgb="FF00FFFF"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border/>
@@ -1371,6 +1374,9 @@
     <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -1394,9 +1400,6 @@
     </xf>
     <xf borderId="0" fillId="10" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="11" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
@@ -2376,7 +2379,7 @@
       <c r="A49" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="B49" s="4" t="s">
         <v>130</v>
       </c>
       <c r="C49" s="4" t="s">
@@ -2391,7 +2394,7 @@
       <c r="A50" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="B50" s="4" t="s">
         <v>132</v>
       </c>
       <c r="C50" s="4" t="s">
@@ -2571,20 +2574,18 @@
       <c r="A62" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="B62" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="16" t="s">
         <v>168</v>
-      </c>
-      <c r="D62" s="4"/>
-      <c r="E62" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="15" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>170</v>
@@ -2594,177 +2595,177 @@
       </c>
       <c r="D63" s="4"/>
       <c r="E63" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="15" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D64" s="4"/>
       <c r="E64" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="15" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D65" s="4"/>
       <c r="E65" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="15" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D66" s="4"/>
       <c r="E66" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="15" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D67" s="4"/>
       <c r="E67" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="15" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D68" s="4"/>
       <c r="E68" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="15" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D69" s="4"/>
       <c r="E69" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="15" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D70" s="4"/>
       <c r="E70" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="15" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D71" s="4"/>
       <c r="E71" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="15" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D72" s="4"/>
       <c r="E72" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="15" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D73" s="4"/>
       <c r="E73" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="15" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D74" s="4"/>
       <c r="E74" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="15" t="s">
         <v>169</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="16" t="s">
-        <v>194</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>195</v>
@@ -2773,13 +2774,13 @@
         <v>196</v>
       </c>
       <c r="D75" s="4"/>
-      <c r="E75" s="6" t="s">
+      <c r="E75" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="17" t="s">
         <v>197</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="16" t="s">
-        <v>194</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>198</v>
@@ -2789,72 +2790,72 @@
       </c>
       <c r="D76" s="4"/>
       <c r="E76" s="6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="17" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="16" t="s">
-        <v>194</v>
-      </c>
       <c r="B77" s="4" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D77" s="4"/>
       <c r="E77" s="6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="17" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="16" t="s">
-        <v>194</v>
-      </c>
       <c r="B78" s="4" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D78" s="4"/>
       <c r="E78" s="6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="17" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="16" t="s">
-        <v>194</v>
-      </c>
       <c r="B79" s="4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D79" s="4"/>
       <c r="E79" s="6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="17" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="16" t="s">
-        <v>194</v>
-      </c>
       <c r="B80" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D80" s="4"/>
       <c r="E80" s="6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="17" t="s">
         <v>197</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="16" t="s">
-        <v>208</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>209</v>
@@ -2864,12 +2865,12 @@
       </c>
       <c r="D81" s="4"/>
       <c r="E81" s="6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="17" t="s">
         <v>211</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="16" t="s">
-        <v>208</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>212</v>
@@ -2879,162 +2880,162 @@
       </c>
       <c r="D82" s="4"/>
       <c r="E82" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="17" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="16" t="s">
-        <v>208</v>
-      </c>
       <c r="B83" s="4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D83" s="4"/>
       <c r="E83" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="17" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="16" t="s">
-        <v>208</v>
-      </c>
       <c r="B84" s="4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D84" s="4"/>
       <c r="E84" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="17" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="16" t="s">
-        <v>208</v>
-      </c>
       <c r="B85" s="4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D85" s="4"/>
       <c r="E85" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="17" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="16" t="s">
-        <v>208</v>
-      </c>
       <c r="B86" s="4" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D86" s="4"/>
       <c r="E86" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="17" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="16" t="s">
-        <v>208</v>
-      </c>
       <c r="B87" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D87" s="4"/>
       <c r="E87" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="17" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="16" t="s">
-        <v>208</v>
-      </c>
       <c r="B88" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D88" s="4"/>
       <c r="E88" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="17" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="16" t="s">
-        <v>208</v>
-      </c>
       <c r="B89" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D89" s="4"/>
       <c r="E89" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="17" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="16" t="s">
-        <v>208</v>
-      </c>
       <c r="B90" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D90" s="4"/>
       <c r="E90" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="17" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="16" t="s">
-        <v>208</v>
-      </c>
       <c r="B91" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D91" s="4"/>
       <c r="E91" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="17" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="16" t="s">
-        <v>208</v>
-      </c>
       <c r="B92" s="4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D92" s="4"/>
       <c r="E92" s="6" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="17" t="s">
-        <v>234</v>
+        <v>211</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>235</v>
@@ -3043,228 +3044,230 @@
         <v>236</v>
       </c>
       <c r="D93" s="4"/>
-      <c r="E93" s="7" t="s">
+      <c r="E93" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="18" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="17" t="s">
+      <c r="B94" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="B94" s="4" t="s">
+      <c r="C94" s="4" t="s">
         <v>239</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>240</v>
       </c>
       <c r="D94" s="4"/>
       <c r="E94" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="B95" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="B95" s="4" t="s">
+      <c r="C95" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="C95" s="4" t="s">
+      <c r="D95" s="4"/>
+      <c r="E95" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="D95" s="19"/>
-      <c r="E95" s="7" t="s">
+    </row>
+    <row r="96">
+      <c r="A96" s="19" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="18" t="s">
+      <c r="B96" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="B96" s="4" t="s">
+      <c r="C96" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="C96" s="4" t="s">
+      <c r="D96" s="20"/>
+      <c r="E96" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="D96" s="19"/>
-      <c r="E96" s="7" t="s">
+    </row>
+    <row r="97">
+      <c r="A97" s="19" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="20" t="s">
+      <c r="B97" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="B97" s="4" t="s">
+      <c r="C97" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="C97" s="4" t="s">
+      <c r="D97" s="20"/>
+      <c r="E97" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="D97" s="19"/>
-      <c r="E97" s="7" t="s">
+    </row>
+    <row r="98">
+      <c r="A98" s="21" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="20" t="s">
+      <c r="B98" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="B98" s="4" t="s">
+      <c r="C98" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="C98" s="4" t="s">
+      <c r="D98" s="20"/>
+      <c r="E98" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="D98" s="19"/>
-      <c r="E98" s="7" t="s">
+    </row>
+    <row r="99">
+      <c r="A99" s="21" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="20" t="s">
+      <c r="B99" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="B99" s="4" t="s">
+      <c r="C99" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="C99" s="4" t="s">
+      <c r="D99" s="20"/>
+      <c r="E99" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="D99" s="19"/>
-      <c r="E99" s="7" t="s">
+    </row>
+    <row r="100">
+      <c r="A100" s="21" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="20" t="s">
+      <c r="B100" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="B100" s="4" t="s">
+      <c r="C100" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="C100" s="21" t="s">
+      <c r="D100" s="20"/>
+      <c r="E100" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="D100" s="19"/>
-      <c r="E100" s="7" t="s">
+    </row>
+    <row r="101">
+      <c r="A101" s="21" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="20" t="s">
+      <c r="B101" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="B101" s="4" t="s">
+      <c r="C101" s="22" t="s">
         <v>267</v>
       </c>
-      <c r="C101" s="4" t="s">
+      <c r="D101" s="20"/>
+      <c r="E101" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="D101" s="19"/>
-      <c r="E101" s="11" t="s">
+    </row>
+    <row r="102">
+      <c r="A102" s="21" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="20" t="s">
+      <c r="B102" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="B102" s="4" t="s">
+      <c r="C102" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="C102" s="4" t="s">
+      <c r="D102" s="20"/>
+      <c r="E102" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="D102" s="4"/>
-      <c r="E102" s="11" t="s">
+    </row>
+    <row r="103">
+      <c r="A103" s="21" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="22" t="s">
+      <c r="B103" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="B103" s="4" t="s">
+      <c r="C103" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="C103" s="4" t="s">
+      <c r="D103" s="4"/>
+      <c r="E103" s="11" t="s">
         <v>276</v>
       </c>
-      <c r="D103" s="4"/>
-      <c r="E103" s="6" t="s">
+    </row>
+    <row r="104">
+      <c r="A104" s="23" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="22" t="s">
+      <c r="B104" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="B104" s="4" t="s">
+      <c r="C104" s="4" t="s">
         <v>279</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>280</v>
       </c>
       <c r="D104" s="4"/>
       <c r="E104" s="6" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="23" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="22" t="s">
+      <c r="B105" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="B105" s="4" t="s">
+      <c r="C105" s="4" t="s">
         <v>283</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>284</v>
       </c>
       <c r="D105" s="4"/>
       <c r="E105" s="6" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="23" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="22" t="s">
+      <c r="B106" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="B106" s="4" t="s">
+      <c r="C106" s="4" t="s">
         <v>287</v>
-      </c>
-      <c r="C106" s="21" t="s">
-        <v>288</v>
       </c>
       <c r="D106" s="4"/>
       <c r="E106" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="B107" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="B107" s="4" t="s">
+      <c r="C107" s="22" t="s">
         <v>291</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>292</v>
       </c>
       <c r="D107" s="4"/>
       <c r="E107" s="6" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="24" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="6" t="s">
+      <c r="B108" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="B108" s="24" t="s">
+      <c r="C108" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="C108" s="4"/>
       <c r="D108" s="4"/>
       <c r="E108" s="6" t="s">
         <v>296</v>
@@ -3274,21 +3277,27 @@
       <c r="A109" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="B109" s="24" t="s">
+      <c r="B109" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="C109" s="4"/>
-      <c r="D109" s="4"/>
+      <c r="C109" s="10"/>
+      <c r="D109" s="10"/>
       <c r="E109" s="6" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="6"/>
-      <c r="B110" s="25"/>
-      <c r="C110" s="4"/>
-      <c r="D110" s="4"/>
-      <c r="E110" s="6"/>
+      <c r="A110" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="B110" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="C110" s="10"/>
+      <c r="D110" s="10"/>
+      <c r="E110" s="6" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="6"/>
@@ -10212,6 +10221,13 @@
       <c r="C1099" s="4"/>
       <c r="D1099" s="4"/>
       <c r="E1099" s="6"/>
+    </row>
+    <row r="1100">
+      <c r="A1100" s="6"/>
+      <c r="B1100" s="25"/>
+      <c r="C1100" s="4"/>
+      <c r="D1100" s="4"/>
+      <c r="E1100" s="6"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -10234,46 +10250,46 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="26" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="6" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="6" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
     </row>
     <row r="5">
@@ -10281,134 +10297,134 @@
     </row>
     <row r="6">
       <c r="A6" s="6" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="6" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="6" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="6" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="6" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="6" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="6" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="6" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="6" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="6" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="6" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="6" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
     </row>
     <row r="18">
@@ -10416,35 +10432,35 @@
     </row>
     <row r="19">
       <c r="A19" s="6" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B19" s="31">
         <v>45071.0</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="6" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B20" s="31">
         <v>45071.0</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="6" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="B21" s="31">
         <v>45071.0</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
     </row>
     <row r="22">
@@ -10452,35 +10468,35 @@
     </row>
     <row r="23">
       <c r="A23" s="6" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="B23" s="28">
         <v>200.0</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="6" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="B24" s="28">
         <v>150.0</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="6" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="B25" s="28">
         <v>120.0</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
     <row r="26">
@@ -10488,35 +10504,35 @@
     </row>
     <row r="27">
       <c r="A27" s="6" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="B27" s="32" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="6" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="B28" s="32" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="6" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B29" s="32" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="30">
@@ -10524,24 +10540,24 @@
     </row>
     <row r="31">
       <c r="A31" s="6" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="B31" s="31">
         <v>45050.0</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="6" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="B32" s="28">
         <v>3.0</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
     </row>
     <row r="33">
@@ -10549,134 +10565,134 @@
     </row>
     <row r="34">
       <c r="A34" s="33" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B34" s="28" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="33" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B35" s="28" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="33" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="B36" s="28" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="6" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="B37" s="28" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="6" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="B38" s="28" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="6" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="B39" s="28" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="33" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="B40" s="28" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="33" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="B41" s="28" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="33" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="B42" s="28" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="6" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="B43" s="28" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="6" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="B44" s="28" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="6" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="B45" s="28" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
     </row>
     <row r="46">
@@ -10684,13 +10700,13 @@
     </row>
     <row r="47">
       <c r="A47" s="6" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="B47" s="28" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="48">

--- a/Texte/LENA Textbausteine Eidgenössische Wahlen 2023_ Gemeindeebene.xlsx
+++ b/Texte/LENA Textbausteine Eidgenössische Wahlen 2023_ Gemeindeebene.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="511">
   <si>
     <t>Text_ID</t>
   </si>
@@ -266,7 +266,7 @@
     <t>In #Gemeinde_d ist neu die #Party1_name_d die stärkste Partei mit #Party1_voter_share Prozent aller Stimmen. Vor vier Jahren lag die Partei noch auf Rang #Party1_rank_in_commune_prev.</t>
   </si>
   <si>
-    <t>Classé au #Party_1_rank_in_commune_prev ème rang en 2019, le #Party1_name_f est le nouveau parti le plus fort à #Gemeinde_f. Il obtient #Party1_voter_share pour cent des suffrages.</t>
+    <t>Classé au #Party1_rank_in_commune_prev ème rang en 2019, le #Party1_name_f est le nouveau parti le plus fort à #Gemeinde_f. Il obtient #Party1_voter_share pour cent des suffrages.</t>
   </si>
   <si>
     <t>Classificato al #Party_1_rank_in_commune_prev posto nel 2019, il partito #Party1_name_i è ora il partito più forte a #Gemeinde_i. Ottiene il #Party1_voter_share percento dei voti.</t>
@@ -332,15 +332,18 @@
     <t>Des partis ou des listes issus du groupe "Divers" terminent premiers à #Gemeinde_f. Ils obtiennent#Party1_voter_share pour cent des voix.</t>
   </si>
   <si>
+    <t>Il partito #Party1_name_i aumenta significativamente la sua percentuale di voti a #Gemeinde_i (#Party1_change punti percentuali), diventando così la formazione più forte. Alla fine ottiene il #Party1_voter_share percento dei voti degli elettori.</t>
+  </si>
+  <si>
+    <t>Intro_Uebrige</t>
+  </si>
+  <si>
+    <t>In #Gemeinde_d sichern sich Listen oder Parteien aus der Kategorie "Übrige" den Spitzenplatz. Diese vereinigen #Party1_voter_share Prozent der Stimmen auf sich.</t>
+  </si>
+  <si>
     <t>Partiti o liste del gruppo "Diversi" si classificano al primo posto a #Gemeinde_i. Ottengono il #Party1_voter_share percento dei voti.</t>
   </si>
   <si>
-    <t>Intro_Uebrige</t>
-  </si>
-  <si>
-    <t>In #Gemeinde_d sichern sich Listen oder Parteien aus der Kategorie "Übrige" den Spitzenplatz. Diese vereinigen #Party1_voter_share Prozent der Stimmen auf sich.</t>
-  </si>
-  <si>
     <t>Erste Partei ist "Weitere"</t>
   </si>
   <si>
@@ -836,7 +839,7 @@
     <t>Le candidat ou la candidate du #Party1_name_f obtient #Party1_voter_share pour cent des voix à #Gemeinde_f.</t>
   </si>
   <si>
-    <t>la persona candidata del partito #Party1_name_i ottiene il #Party1_voter_share percento dei voti a #Gemeinde_i.</t>
+    <t>La persona candidata del partito #Party1_name_i ottiene il #Party1_voter_share percento dei voti a #Gemeinde_i.</t>
   </si>
   <si>
     <t>Kantone mit nur einem Nationalratsitz und nur einem Kandidat/einer Kandidatin. (Geschlechtsneutral schreiben, nur Platz 1 plus Wähleranteil und/oder Stimmen)</t>
@@ -926,7 +929,7 @@
     <t>Avec #Party1_votes, le candidat ou la candidate du #Party1_name_f arrive en tête dans la comme de #Gemeinde_f. Le candidat ou la candidate du #Party2_name_f arrive en deuxième position (#Party2_votes voix).</t>
   </si>
   <si>
-    <t>Con #Party1_votes, la persona candidata del partito #Party1_name_i arriva prima nel comune di #Gemeinde_i. Quella del partito #Party2_name_i si classifica al secondo posto con #Party2_votes voti.</t>
+    <t>Con #Party1_votes voti, la persona candidata del partito #Party1_name_i arriva prima nel comune di #Gemeinde_i. Quella del partito #Party2_name_i si classifica al secondo posto con #Party2_votes voti.</t>
   </si>
   <si>
     <t>In #Gemeinde_d zieht der Kandidat oder die Kandidatin der #Party1_name_d die meisten Stimmen auf sich, und zwar #Party1_votes . Die #Party2_name_d kommt mit ihrem Bewerber respektive ihrer Bewerberin auf #Party2_votes Stimmen.</t>
@@ -1127,7 +1130,7 @@
     <t>#Gemeinde_f fait partie des communes où la participation électorale est parmi les plus élevées en Suisse (#Gemeinde_participation pour cent).</t>
   </si>
   <si>
-    <t>#Gemeinde_i è tra i comuni dove la partecipazione elettorale è tra le più alte in Svizzera (#Gemeinde_participation percento).</t>
+    <t>#Gemeinde_i è tra i comuni dove la partecipazione elettorale è più alta (#Gemeinde_participation percento).</t>
   </si>
   <si>
     <t>Gemeinde gehört schweizweit zu den Top-10 der Wahlbeteiligung</t>
@@ -1978,7 +1981,7 @@
     <col customWidth="1" min="1" max="1" width="30.88"/>
     <col customWidth="1" min="2" max="2" width="66.0"/>
     <col customWidth="1" min="3" max="3" width="48.38"/>
-    <col customWidth="1" min="4" max="4" width="31.13"/>
+    <col customWidth="1" min="4" max="4" width="39.25"/>
     <col customWidth="1" min="5" max="5" width="136.13"/>
   </cols>
   <sheetData>
@@ -2444,7 +2447,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="28" ht="38.25" customHeight="1">
+    <row r="28" ht="46.5" customHeight="1">
       <c r="A28" s="3" t="s">
         <v>99</v>
       </c>
@@ -2471,7 +2474,7 @@
       <c r="C29" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="9" t="s">
         <v>106</v>
       </c>
       <c r="E29" s="6" t="s">
@@ -2489,1370 +2492,1370 @@
         <v>105</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B32" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E32" s="6" t="s">
         <v>115</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="11" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="11" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B38" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E38" s="6" t="s">
         <v>135</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="11" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="11" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="11" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B41" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="E41" s="6" t="s">
         <v>146</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="11" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="11" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="13" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="13" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B46" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="E46" s="6" t="s">
         <v>167</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="13" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="13" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="13" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="13" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="13" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="13" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B52" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="E52" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="E52" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="13" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="13" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="13" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B55" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="E55" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="E55" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="13" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="13" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="13" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="14" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="14" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B60" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="E60" s="6" t="s">
         <v>219</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="E60" s="6" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="14" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="14" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C62" s="15" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D62" s="15" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="14" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="14" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B64" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="E64" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="E64" s="7" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="14" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="14" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="14" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="14" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="14" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="14" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="14" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="14" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="14" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="14" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="14" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="17" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="17" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B77" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="E77" s="6" t="s">
         <v>276</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="E77" s="6" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="17" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="17" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="17" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="17" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="17" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="17" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B83" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="E83" s="6" t="s">
         <v>296</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="D83" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="E83" s="6" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="17" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="17" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="17" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="17" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="17" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="17" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="17" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="17" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="17" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="17" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="18" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="18" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="19" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="19" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="20" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="20" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="20" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="20" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C101" s="21" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="20" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E102" s="10" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="20" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E103" s="10" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="22" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="22" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="22" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="22" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C107" s="21" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E107" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="22" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B108" s="15" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C108" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D108" s="15" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E108" s="6" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="22" t="s">
+        <v>404</v>
+      </c>
+      <c r="B109" s="15" t="s">
+        <v>405</v>
+      </c>
+      <c r="C109" s="15" t="s">
+        <v>406</v>
+      </c>
+      <c r="D109" s="15" t="s">
+        <v>407</v>
+      </c>
+      <c r="E109" s="6" t="s">
         <v>403</v>
-      </c>
-      <c r="B109" s="15" t="s">
-        <v>404</v>
-      </c>
-      <c r="C109" s="15" t="s">
-        <v>405</v>
-      </c>
-      <c r="D109" s="15" t="s">
-        <v>406</v>
-      </c>
-      <c r="E109" s="6" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="23" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E110" s="6" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="111">
@@ -10806,46 +10809,46 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="25" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="6" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="6" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="5">
@@ -10853,134 +10856,134 @@
     </row>
     <row r="6">
       <c r="A6" s="6" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="6" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="6" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="6" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="6" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="6" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="6" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="6" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="6" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="6" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="6" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="6" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="18">
@@ -10988,35 +10991,35 @@
     </row>
     <row r="19">
       <c r="A19" s="6" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B19" s="30">
         <v>45071.0</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="6" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B20" s="30">
         <v>45071.0</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="6" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B21" s="30">
         <v>45071.0</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="22">
@@ -11024,35 +11027,35 @@
     </row>
     <row r="23">
       <c r="A23" s="6" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B23" s="27">
         <v>200.0</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="6" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B24" s="27">
         <v>150.0</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="6" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B25" s="27">
         <v>120.0</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="26">
@@ -11060,35 +11063,35 @@
     </row>
     <row r="27">
       <c r="A27" s="6" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B27" s="31" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="6" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B28" s="31" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="6" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B29" s="31" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="30">
@@ -11096,24 +11099,24 @@
     </row>
     <row r="31">
       <c r="A31" s="6" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B31" s="30">
         <v>45050.0</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="6" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B32" s="27">
         <v>3.0</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="33">
@@ -11121,134 +11124,134 @@
     </row>
     <row r="34">
       <c r="A34" s="32" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B34" s="27" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="32" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B35" s="27" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="32" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B36" s="27" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="6" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B37" s="27" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="6" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B38" s="27" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="6" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B39" s="27" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="32" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B40" s="27" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="32" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B41" s="27" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="32" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B42" s="27" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="6" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B43" s="27" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="6" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B44" s="27" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="6" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B45" s="27" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="46">
@@ -11256,13 +11259,13 @@
     </row>
     <row r="47">
       <c r="A47" s="6" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B47" s="27" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="48">

--- a/Texte/LENA Textbausteine Eidgenössische Wahlen 2023_ Gemeindeebene.xlsx
+++ b/Texte/LENA Textbausteine Eidgenössische Wahlen 2023_ Gemeindeebene.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="512">
   <si>
     <t>Text_ID</t>
   </si>
@@ -56,7 +56,7 @@
     <t>Unverändert ist die #Party1_name_d die stärkste Partei in #Gemeinde_d mit #Party1_voter_share Prozent (#Party1_change Prozentpunkte).</t>
   </si>
   <si>
-    <t>Les électeurs de #Gemeinde_f n'ont pas retourné leur veste depuis 2019. Le parti le plus fort dans leur commune reste #Party1_name_f, avec #Party1_voter_share pour cent des suffrages (#Party1_change points de pourcentage).</t>
+    <t>Les électeurs de #Gemeinde_f n'ont pas retourné leur veste depuis 2019. Le parti le plus fort dans leur commune reste le #Party1_name_f, avec #Party1_voter_share pour cent des suffrages (#Party1_change points de pourcentage).</t>
   </si>
   <si>
     <t>Gli elettori di #Gemeinde_i non hanno cambiato idea dal 2019. Il partito più forte nel loro comune rimane partito #Party1_name_i, con il #Party1_voter_share percento dei voti (#Party1_change punti percentuali).</t>
@@ -65,7 +65,7 @@
     <t>#Party1_name_d kann ihre Position als dominierende politische Kraft in #Gemeinde_d beibehalten, mit einem Wähleranteil von #Party1_voter_share Prozent (#Party1_change Prozentpunkte).</t>
   </si>
   <si>
-    <t>Aucune formation politique ne parvient à prendre la place de numéro un au #Party1_name_f à #Gemeinde_f. Le parti obtient #Party1_voter_share pour cent des suffrages (#Party_change points de pourcentage).</t>
+    <t>Aucune formation politique ne parvient à prendre la place de numéro un au #Party1_name_f à #Gemeinde_f. Le parti obtient #Party1_voter_share pour cent des suffrages (#Party1_change points de pourcentage).</t>
   </si>
   <si>
     <t>Il partito #Party1_name_i è imbattuto a #Gemeinde_i, dove ha ottenuto il #Party1_voter_share percento dei voti (#Party_change punti percentuali).</t>
@@ -74,7 +74,7 @@
     <t>In #Gemeinde_d behält  #Party1_name_d ihren Status als stärkste politische Kraft und sichert sich einen Wähleranteil von #Party1_voter_share Prozent gesichert (#Party1_change Prozentpunkte).</t>
   </si>
   <si>
-    <t>Le #Party1_name_f maintient sa position de première force politique dans la commune de #Gemeinde_f. Le parti récolte #Party1_voter_share pour cent des suffrages (#Party_change points de pourcentage).</t>
+    <t>Le #Party1_name_f maintient sa position de première force politique dans la commune de #Gemeinde_f. Le parti récolte #Party1_voter_share pour cent des suffrages (#Party1_change points de pourcentage).</t>
   </si>
   <si>
     <t>Il partito #Party1_name_i mantiene la sua posizione come principale forza politica nel comune di #Gemeinde_i, ottenendo il #Party1_voter_share percento dei voti (#Party_change punti percentuali).</t>
@@ -155,7 +155,7 @@
     <t>Unangefochten bleibt in #Gemeinde_d die #Party1_name_d die stärkste Partei. Die Partei vereinigte bei den Nationalratswahlen #Party1_voter_share Prozent der Stimmen (#Party1_change Prozentpunkte) auf sich, #Party1_distance_to_next Prozentpunkte mehr als die zweitplatzierte #Party2_name_d (#Party2_voter_share Prozent, #Party2_change Prozentpunkte).</t>
   </si>
   <si>
-    <t xml:space="preserve">Le #Party1_name_f est en position de force à #Gemeinde_f. Il remporte #Party1_voter_share pour cent des voix (#Party1_change points de pourcentage). L'écart est important avec le #Party2_name_f (#Party1_distance_to_next points de pourcentage). Le deuxième parti de la commune a convaincu#Party2_voter_share pour cent des électeurs (#Party2_change points de pourcentage). </t>
+    <t xml:space="preserve">Le #Party1_name_f est en position de force à #Gemeinde_f. Il remporte #Party1_voter_share pour cent des voix (#Party1_change points de pourcentage). L'écart est important avec le #Party2_name_f (#Party1_distance_to_next points de pourcentage). Le deuxième parti de la commune a convaincu #Party2_voter_share pour cent des électeurs (#Party2_change points de pourcentage). </t>
   </si>
   <si>
     <t>Il partito #Party1_name_i è in una posizione di forza a #Gemeinde_i. Ottiene il #Party1_voter_share percento dei voti (#Party1_change punti percentuali). La differenza con il partito #Party2_name_i è notevole (#Party1_distance_to_next punti percentuali). Il secondo partito del comune ha convinto il #Party2_voter_share percento degli elettori (#Party2_change punti percentuali).</t>
@@ -194,7 +194,7 @@
     <t>Ganz knapp bleibt die #Party1_name_d die grösste Partei in #Gemeinde_d. Sie holte #Party1_voter_share Prozent der Stimmen und hält damit ihren Vorsprung von #Party1_distance_to_next Prozentpunkte vor der #Party2_name_d. Diese muss sich mit #Party2_voter_share Prozent und Platz zwei begnügen. Die Veränderungen gegenüber 2019: #Party1_name_d: #Party1_change Prozentpunkte; #Party2_name_d: #Party2_change Prozentpunkte.</t>
   </si>
   <si>
-    <t>Avec #Party1_voter_share pour cent des voix (#Party1_change points de pourcentage), le #Party1_name_f est toujours le parti le plus fort à #Gemeinde_f. Le #Party2_name_f, qui réalise #Party2_voter_share pour cent des suffrages (#Party2_change points de pourcentage), est cependant en embuscade. L'écart entre les deux formations politiques est de #Party1_distance_to_next point.</t>
+    <t>Avec #Party1_voter_share pour cent des voix (#Party1_change points de pourcentage), le #Party1_name_f est toujours le parti le plus fort à #Gemeinde_f. Le #Party2_name_f, qui réalise #Party2_voter_share pour cent des suffrages (#Party2_change points de pourcentage), est cependant en embuscade. L'écart entre les deux formations politiques est de #Party1_distance_to_next points.</t>
   </si>
   <si>
     <t>Con il #Party1_voter_share percento dei voti (#Party1_change punti percentuali), il partito #Party1_name_i rimane in testa a #Gemeinde_i. Tuttavia, il partito #Party2_name_i, che ottiene il #Party2_voter_share percento dei voti (#Party2_change punti percentuali), è in agguato. La differenza tra i due partiti è di #Party1_distance_to_next punti.</t>
@@ -206,7 +206,7 @@
     <t>Die #Party1_name_d ist weiterhin die stärkste Kraft in #Gemeinde_d. Mit #Party1_voter_share Prozent Wähleranteil verweist sie die #Party2_name_d allerdings nur mit #Party1_distance_to_next Prozentpunkten Abstand auf den zweiten Platz. Diese holt #Party2_voter_share Prozent. Die Veränderungen gegenüber 2019: #Party1_name_d: #Party1_change Prozentpunkte; #Party2_name_d: #Party2_change Prozentpunkte.</t>
   </si>
   <si>
-    <t xml:space="preserve">Le #Party1_name_f reste en tête à #Gemeinde_f (#Party1_voter_share pour cent des voix, #Party1_change points de pourcentage). Son poursuivant, le #Party2_name_f, menace toutefois de lui ravir son fauteuil (#Party1_voter_share pour cent des suffrages, #Party2_change points de pourcentage). L'écart entre les deux formations n'est que de #Party1_distance_to_next points. </t>
+    <t xml:space="preserve">Le #Party1_name_f reste en tête à #Gemeinde_f (#Party1_voter_share pour cent des voix, #Party1_change points de pourcentage). Son poursuivant, le #Party2_name_f, menace toutefois de lui ravir son fauteuil (#Party2_voter_share pour cent des suffrages, #Party2_change points de pourcentage). L'écart entre les deux formations n'est que de #Party1_distance_to_next points. </t>
   </si>
   <si>
     <t>Il partito #Party1_name_i rimane in testa a #Gemeinde_i con il #Party1_voter_share percento dei voti (#Party1_change punti percentuali). Il suo rivale, il partito #Party2_name_i, minaccia però di sovrastarlo con il #Party1_voter_share percento dei voti (#Party2_change punti percentuali). La differenza tra le due formazioni è solo di #Party1_distance_to_next punti.</t>
@@ -329,7 +329,7 @@
     <t>#Party1_name_d erhöht ihren Stimmenanteil in #Gemeinde_d um #Party1_change Prozentpunkte deutlich und wird damit zur stärksten politischen Kraft. Am Ende holt sie #Party1_voter_share Prozent der Wählerstimmen.</t>
   </si>
   <si>
-    <t>Des partis ou des listes issus du groupe "Divers" terminent premiers à #Gemeinde_f. Ils obtiennent#Party1_voter_share pour cent des voix.</t>
+    <t>Le #Party1_name_f réalise un bond un avant (#Party1_change points de pourcentage). Le voilà le parti le plus fort de #Gemeinde_f, avec #Party1_voter_share pour centage des voix.</t>
   </si>
   <si>
     <t>Il partito #Party1_name_i aumenta significativamente la sua percentuale di voti a #Gemeinde_i (#Party1_change punti percentuali), diventando così la formazione più forte. Alla fine ottiene il #Party1_voter_share percento dei voti degli elettori.</t>
@@ -341,6 +341,9 @@
     <t>In #Gemeinde_d sichern sich Listen oder Parteien aus der Kategorie "Übrige" den Spitzenplatz. Diese vereinigen #Party1_voter_share Prozent der Stimmen auf sich.</t>
   </si>
   <si>
+    <t>Des partis ou des listes issus du groupe "Divers" terminent premiers à #Gemeinde_f. Ils obtiennent #Party1_voter_share pour cent des voix.</t>
+  </si>
+  <si>
     <t>Partiti o liste del gruppo "Diversi" si classificano al primo posto a #Gemeinde_i. Ottengono il #Party1_voter_share percento dei voti.</t>
   </si>
   <si>
@@ -374,7 +377,7 @@
     <t>Mit einem Wählerstimmenanteil von #Party2_voter_share Prozent (#Party2_change Prozentpunkte) ist die #Party2_name_d die zweitstärkste Kraft in der Gemeinde.</t>
   </si>
   <si>
-    <t>Le #Party2_name_f se classe deuxième. Il obtient#Party2_voter_share pour cent des suffrages (#Party2_change points de pourcentage) dans la commune.</t>
+    <t>Le #Party2_name_f se classe deuxième. Il obtient #Party2_voter_share pour cent des suffrages (#Party2_change points de pourcentage) dans la commune.</t>
   </si>
   <si>
     <t>Il partito #Party2_name_i si classifica al secondo posto. Ottiene il #Party2_voter_share percento dei voti (#Party2_change punti percentuali) nel comune.</t>
@@ -479,7 +482,7 @@
     <t>Den zweiten Platz in #Gemeinde_d teilen sich zwei Parteien: Die #Party2_name_d und die #Party3_name_d sind genau gleich stark. Mit je #Party2_voter_share Prozent kommen beide Parteien auf den gleichen Wähleranteil.</t>
   </si>
   <si>
-    <t>Deux partis se partagent la deuxième place à #Gemeine_f : le #Party2_name_f et le #Party3_name_f obtiennent exactement le même résultat, soit #Party2_voter_share pour cent des voix.</t>
+    <t>Deux partis se partagent la deuxième place à #Gemeinde_f : le #Party2_name_f et le #Party3_name_f obtiennent exactement le même résultat, soit #Party2_voter_share pour cent des voix.</t>
   </si>
   <si>
     <t>Due formazioni condividono il secondo posto a #Gemeine_i: il partito #Party2_name_i e il partito #Party3_name_i ottengono esattamente lo stesso risultato, ovvero il #Party2_voter_share percento dei voti.</t>
@@ -788,7 +791,7 @@
     <t>In  #Gemeinde_d sind die drei Parteien mit den meisten Stimmen die #Party1_name_d, die #Party2_name_d und die #Party3_name_d. Sie erzielen #Party1_votes Stimmen, #Party2_votes Stimmen respektive #Party3_votes Stimmen.</t>
   </si>
   <si>
-    <t>Le #Party1_name_f, le #Party2_name_f et #Party3_name_f sont les trois partis ayant obtenu le plus de votes à #Gemeinde_f. Ils obtiennent respectivement #Party1_votes, #Party2_votes et #Party3_votes voix.</t>
+    <t>Le #Party1_name_f, le #Party2_name_f et le #Party3_name_f sont les trois partis ayant obtenu le plus de votes à #Gemeinde_f. Ils obtiennent respectivement #Party1_votes, #Party2_votes et #Party3_votes voix.</t>
   </si>
   <si>
     <t>#Party1_name_i, #Party2_name_i e #Party3_name_i sono i tre partiti che hanno ricevuto più voti a #Gemeinde_i. Ottengono rispettivamente #Party1_votes, #Party2_votes e #Party3_votes voti.</t>
@@ -806,7 +809,7 @@
     <t>Die Wählerinnen und Wähler von  #Gemeinde_d stimmen am meisten für #Party1_name_d (#Party1_votes Stimmen), gefolgt von der #Party2_name_d (#Party2_votes Stimmen) und der #Party3_name_d (#Party3_votes Stimmen).</t>
   </si>
   <si>
-    <t>Les électeurs de #Gemeinde_f font confiance au #Party1_name_f (#Party1_votes voix), au #Party2_name_f (#Party2_votes voix) et #Party3_name_f (#Party3_votes voix).</t>
+    <t>Les électeurs de #Gemeinde_f font confiance au #Party1_name_f (#Party1_votes voix), au #Party2_name_f (#Party2_votes voix) et au #Party3_name_f (#Party3_votes voix).</t>
   </si>
   <si>
     <t>Gli elettori di #Gemeinde_i fanno fiducia al partito #Party1_name_i (#Party1_votes voti), al partito #Party2_name_i (#Party2_votes voti) e partito #Party3_name_i (#Party3_votes voti).</t>
@@ -2471,7 +2474,7 @@
       <c r="B29" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="4" t="s">
         <v>105</v>
       </c>
       <c r="D29" s="9" t="s">
@@ -2489,1373 +2492,1373 @@
         <v>108</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B32" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E32" s="6" t="s">
         <v>116</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B38" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E38" s="6" t="s">
         <v>136</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="11" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="11" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B41" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="E41" s="6" t="s">
         <v>147</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="11" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="11" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="13" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="13" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B46" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E46" s="6" t="s">
         <v>168</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="13" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="13" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="13" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="13" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="13" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="13" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B52" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="E52" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="E52" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="13" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="13" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="13" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B55" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E55" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="E55" s="7" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="13" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="13" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="13" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="14" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="14" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B60" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="E60" s="6" t="s">
         <v>220</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="E60" s="6" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="14" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="14" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C62" s="15" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D62" s="15" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="14" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="14" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B64" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="E64" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="E64" s="7" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="14" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="14" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="14" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="14" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="14" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="14" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="14" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="14" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="14" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="14" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="14" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="17" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="17" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B77" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="E77" s="6" t="s">
         <v>277</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="E77" s="6" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="17" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="17" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="17" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="17" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="17" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="17" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B83" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="E83" s="6" t="s">
         <v>297</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="D83" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="E83" s="6" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="17" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="17" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="17" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="17" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="17" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="17" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="17" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="17" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="17" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="17" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="18" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="18" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="19" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="19" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="20" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="20" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="20" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="20" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C101" s="21" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="20" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E102" s="10" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="20" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E103" s="10" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="22" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="22" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="22" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="22" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C107" s="21" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E107" s="6" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="22" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B108" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C108" s="15" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D108" s="15" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E108" s="6" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="22" t="s">
+        <v>405</v>
+      </c>
+      <c r="B109" s="15" t="s">
+        <v>406</v>
+      </c>
+      <c r="C109" s="15" t="s">
+        <v>407</v>
+      </c>
+      <c r="D109" s="15" t="s">
+        <v>408</v>
+      </c>
+      <c r="E109" s="6" t="s">
         <v>404</v>
-      </c>
-      <c r="B109" s="15" t="s">
-        <v>405</v>
-      </c>
-      <c r="C109" s="15" t="s">
-        <v>406</v>
-      </c>
-      <c r="D109" s="15" t="s">
-        <v>407</v>
-      </c>
-      <c r="E109" s="6" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="23" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E110" s="6" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="111">
@@ -10809,46 +10812,46 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="25" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="6" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="6" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="5">
@@ -10856,134 +10859,134 @@
     </row>
     <row r="6">
       <c r="A6" s="6" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="6" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="6" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="6" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="6" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="6" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="6" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="6" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="6" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="6" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="6" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="6" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="18">
@@ -10991,35 +10994,35 @@
     </row>
     <row r="19">
       <c r="A19" s="6" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B19" s="30">
         <v>45071.0</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="6" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B20" s="30">
         <v>45071.0</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="6" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B21" s="30">
         <v>45071.0</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="22">
@@ -11027,35 +11030,35 @@
     </row>
     <row r="23">
       <c r="A23" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B23" s="27">
         <v>200.0</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="6" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B24" s="27">
         <v>150.0</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="6" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B25" s="27">
         <v>120.0</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="26">
@@ -11063,35 +11066,35 @@
     </row>
     <row r="27">
       <c r="A27" s="6" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B27" s="31" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="6" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B28" s="31" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="6" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B29" s="31" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="30">
@@ -11099,24 +11102,24 @@
     </row>
     <row r="31">
       <c r="A31" s="6" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B31" s="30">
         <v>45050.0</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="6" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B32" s="27">
         <v>3.0</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="33">
@@ -11124,134 +11127,134 @@
     </row>
     <row r="34">
       <c r="A34" s="32" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B34" s="27" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="32" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B35" s="27" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="32" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B36" s="27" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="6" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B37" s="27" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="6" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B38" s="27" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="6" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B39" s="27" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="32" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B40" s="27" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="32" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B41" s="27" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="32" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B42" s="27" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="6" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B43" s="27" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="6" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B44" s="27" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="6" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B45" s="27" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="46">
@@ -11259,13 +11262,13 @@
     </row>
     <row r="47">
       <c r="A47" s="6" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B47" s="27" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="48">

--- a/Texte/LENA Textbausteine Eidgenössische Wahlen 2023_ Gemeindeebene.xlsx
+++ b/Texte/LENA Textbausteine Eidgenössische Wahlen 2023_ Gemeindeebene.xlsx
@@ -62,7 +62,7 @@
     <t>Gli elettori di #Gemeinde_i non hanno cambiato idea dal 2019. Il partito più forte nel loro comune rimane partito #Party1_name_i, con il #Party1_voter_share percento dei voti (#Party1_change punti percentuali).</t>
   </si>
   <si>
-    <t>#Party1_name_d kann ihre Position als dominierende politische Kraft in #Gemeinde_d beibehalten, mit einem Wähleranteil von #Party1_voter_share Prozent (#Party1_change Prozentpunkte).</t>
+    <t>Die #Party1_name_d kann ihre Position als dominierende politische Kraft in #Gemeinde_d beibehalten, mit einem Wähleranteil von #Party1_voter_share Prozent (#Party1_change Prozentpunkte).</t>
   </si>
   <si>
     <t>Aucune formation politique ne parvient à prendre la place de numéro un au #Party1_name_f à #Gemeinde_f. Le parti obtient #Party1_voter_share pour cent des suffrages (#Party1_change points de pourcentage).</t>
@@ -104,7 +104,7 @@
     <t>Stärkste Partei gleich geblieben, mit grossem Zugewinn (&gt; 8 PP)</t>
   </si>
   <si>
-    <t>#Party1_name_d festigt in #Gemeinde_d ihre dominierende Rolle. Im Vergleich zu den Wahlen 2019 kann die Partei ihren Wähleranteil um #Party1_change Prozentpunkte steigern und erreicht nun #Party1_voter_share Prozent.</t>
+    <t>Die #Party1_name_d festigt in #Gemeinde_d ihre dominierende Rolle. Im Vergleich zu den Wahlen 2019 kann die Partei ihren Wähleranteil um #Party1_change Prozentpunkte steigern und erreicht nun #Party1_voter_share Prozent.</t>
   </si>
   <si>
     <t>Le #Party1_name_f consolide sa première place à #Gemeinde_f. Le parti augmente sa part d'électeurs de #Party1_change points de pourcentage. Il atteint désormais #Party1_voter_share pour cent.</t>
@@ -128,7 +128,7 @@
     <t>Stärkste Partei mit grossem Verlust (&lt; 8 PP)</t>
   </si>
   <si>
-    <t>Trotz beträchtlicher Stimmenverluste in #Gemeinde_d bleibt #Party1_name_d die vorherrschende Partei und erreicht neu noch einen Wähleranteil von #Party1_voter_share Prozent (#Party1_change Prozentpunkte).</t>
+    <t>Trotz beträchtlicher Stimmenverluste in #Gemeinde_d bleibt die #Party1_name_d die vorherrschende Partei und erreicht neu noch einen Wähleranteil von #Party1_voter_share Prozent (#Party1_change Prozentpunkte).</t>
   </si>
   <si>
     <t>Malgré des pertes considérables à #Gemeinde_f, le #Party1_name_f reste en tête. Il convainc encore #Party1_voter_share pour cent des électeurs (#Party1_changement de points de pourcentage).</t>
@@ -152,7 +152,7 @@
     <t>Grösste Partei gleichgeblieben; mit deutlichem Abstand (20%-Punkte Abstand und mehr)</t>
   </si>
   <si>
-    <t>Unangefochten bleibt in #Gemeinde_d die #Party1_name_d die stärkste Partei. Die Partei vereinigte bei den Nationalratswahlen #Party1_voter_share Prozent der Stimmen (#Party1_change Prozentpunkte) auf sich, #Party1_distance_to_next Prozentpunkte mehr als die zweitplatzierte #Party2_name_d (#Party2_voter_share Prozent, #Party2_change Prozentpunkte).</t>
+    <t>In #Gemeinde_d bleibt die #Party1_name_d unangefochten die stärkste Partei. Die Partei vereinigte bei den Nationalratswahlen #Party1_voter_share Prozent der Stimmen (#Party1_change Prozentpunkte) auf sich, #Party1_distance_to_next Prozentpunkte mehr als die zweitplatzierte #Party2_name_d (#Party2_voter_share Prozent, #Party2_change Prozentpunkte).</t>
   </si>
   <si>
     <t xml:space="preserve">Le #Party1_name_f est en position de force à #Gemeinde_f. Il remporte #Party1_voter_share pour cent des voix (#Party1_change points de pourcentage). L'écart est important avec le #Party2_name_f (#Party1_distance_to_next points de pourcentage). Le deuxième parti de la commune a convaincu #Party2_voter_share pour cent des électeurs (#Party2_change points de pourcentage). </t>
@@ -191,7 +191,7 @@
     <t>Intro_unchanged_small_gap</t>
   </si>
   <si>
-    <t>Ganz knapp bleibt die #Party1_name_d die grösste Partei in #Gemeinde_d. Sie holte #Party1_voter_share Prozent der Stimmen und hält damit ihren Vorsprung von #Party1_distance_to_next Prozentpunkte vor der #Party2_name_d. Diese muss sich mit #Party2_voter_share Prozent und Platz zwei begnügen. Die Veränderungen gegenüber 2019: #Party1_name_d: #Party1_change Prozentpunkte; #Party2_name_d: #Party2_change Prozentpunkte.</t>
+    <t>Ganz knapp bleibt die #Party1_name_d die grösste Partei in #Gemeinde_d. Die Partei holte #Party1_voter_share Prozent der Stimmen und hält damit ihren Vorsprung von #Party1_distance_to_next Prozentpunkte vor der #Party2_name_d. Diese muss sich mit #Party2_voter_share Prozent und Platz zwei begnügen. Die Veränderungen gegenüber 2019: #Party1_name_d: #Party1_change Prozentpunkte; #Party2_name_d: #Party2_change Prozentpunkte.</t>
   </si>
   <si>
     <t>Avec #Party1_voter_share pour cent des voix (#Party1_change points de pourcentage), le #Party1_name_f est toujours le parti le plus fort à #Gemeinde_f. Le #Party2_name_f, qui réalise #Party2_voter_share pour cent des suffrages (#Party2_change points de pourcentage), est cependant en embuscade. L'écart entre les deux formations politiques est de #Party1_distance_to_next points.</t>
@@ -251,7 +251,7 @@
     <t>Il partito #Party1_name_i è insuperabile a #Gemeinde_i, dato che vince più della metà dei voti ottenendo la maggioranza assoluta.</t>
   </si>
   <si>
-    <t>Die #Party1_name_d ist in #Gemeinde_d unangefochtene Leaderin. Mit einer Stimmenmehrheit von über 50 Prozent erreicht sie die Partei die absolute Mehrheit in der Gemeinde.</t>
+    <t>Die #Party1_name_d ist in #Gemeinde_d unangefochtene Leaderin. Mit einer Stimmenmehrheit von über 50 Prozent erreicht die Partei die absolute Mehrheit in der Gemeinde.</t>
   </si>
   <si>
     <t>Le #Party1_name_f est le leader incontesté à #Gemeinde_f. Le parti obtient la majorité absolue dans la commune.</t>
@@ -275,7 +275,7 @@
     <t>Neue stärkste Partei</t>
   </si>
   <si>
-    <t>Neu ist in #Gemeinde_d die #Party1_name_d stärkste Kraft (Rang vor vier Jahren: #Party1_rank_in_commune_prev). Bei den diesjährigen Nationalratswahlen vereinigt die Partei #Party1_voter_share Prozent der Stimmen auf sich.</t>
+    <t>In #Gemeinde_d  ist neu die #Party1_name_d die stärkste Kraft (Rang vor vier Jahren: #Party1_rank_in_commune_prev). Bei den diesjährigen Nationalratswahlen vereinigt die Partei #Party1_voter_share Prozent der Stimmen auf sich.</t>
   </si>
   <si>
     <t>Le #Party1_name_f grimpe sur la première place du podium à #Gemeinde_f. Il était #Party1_rank_in_commune_prev ème en 2019. Il obtient cette année #Party1_voter_share pour cent des voix.</t>
@@ -284,7 +284,7 @@
     <t>Il partito #Party1_name_i si posiziona al primo posto a #Gemeinde_i. Era al #Party1_rank_in_commune_prev esimo esimo posto nel 2019. Quest'anno ottiene il #Party1_voter_share percento dei voti.</t>
   </si>
   <si>
-    <t>#Party1_name_d kann sich in diesem Jahr von Rang #Party1_rank_in_commune_prev auf den Spitzenplatz in #Gemeinde_d verbessern. Die Partei holt #Party1_voter_share Prozent der Stimmen (#Party1_change Prozentpunkte).</t>
+    <t>Die #Party1_name_d kann sich in diesem Jahr von Rang #Party1_rank_in_commune_prev auf den Spitzenplatz in #Gemeinde_d verbessern. Die Partei holt #Party1_voter_share Prozent der Stimmen (#Party1_change Prozentpunkte).</t>
   </si>
   <si>
     <t>Le #Party1_name_f progresse. Il passe du rang numero #Party1_rank_in_commune_prev à la première place à #Gemeinde_f. Le parti remporte #Party1_voter_share pourcent des voix (#Party1_change points de pourcentage).</t>
@@ -326,7 +326,7 @@
     <t>Neue stärkste Partei mit grossem Zugewinn (&gt; 5 PP)</t>
   </si>
   <si>
-    <t>#Party1_name_d erhöht ihren Stimmenanteil in #Gemeinde_d um #Party1_change Prozentpunkte deutlich und wird damit zur stärksten politischen Kraft. Am Ende holt sie #Party1_voter_share Prozent der Wählerstimmen.</t>
+    <t>Die #Party1_name_d erhöht ihren Stimmenanteil in #Gemeinde_d um #Party1_change Prozentpunkte deutlich und wird damit zur stärksten politischen Kraft. Am Ende holt sie #Party1_voter_share Prozent der Wählerstimmen.</t>
   </si>
   <si>
     <t>Le #Party1_name_f réalise un bond un avant (#Party1_change points de pourcentage). Le voilà le parti le plus fort de #Gemeinde_f, avec #Party1_voter_share pour centage des voix.</t>
@@ -353,7 +353,7 @@
     <t>Second_normal</t>
   </si>
   <si>
-    <t>Zweitstärkste Partei ist mit #Party2_voter_share Prozent (#Party2_change Prozentpunkte gegenüber 2019) die #Party2_name_d.</t>
+    <t>Zweitstärkste Partei ist die #Party2_name_d mit #Party2_voter_share Prozent (#Party2_change Prozentpunkte gegenüber 2019).</t>
   </si>
   <si>
     <t>Le #Party2_name_f est le deuxième parti le plus fort avec #Party2_voter_share pour cent des voix (#Party2_change points de pourcentage par rapport à 2019).</t>
@@ -383,7 +383,7 @@
     <t>Il partito #Party2_name_i si classifica al secondo posto. Ottiene il #Party2_voter_share percento dei voti (#Party2_change punti percentuali) nel comune.</t>
   </si>
   <si>
-    <t>Auf dem zweiten Platz in der Gemeinde liegt die #Party2_name_d, die einen Wählerstimmenanteil von #Party2_voter_share Prozent erreichte (#Party2_change Prozentpunkte)</t>
+    <t>Auf dem zweiten Platz in der Gemeinde liegt die #Party2_name_d. Die Partei erreichte einen Wählerstimmenanteil von #Party2_voter_share Prozent (#Party2_change Prozentpunkte).</t>
   </si>
   <si>
     <t>Le #Party2_name_f arrive en deuxième position dans la commune, avec un pourcentage de votants de #Party2_voter_share (#Party2_change points de pourcentage)</t>
@@ -743,7 +743,7 @@
     <t>Il podio di #Gemeinde_i è composto da: #Party1_name_i (#Party1_votes voti), #Party2_name_i (#Party2_votes voti) e #Party3_name_i (#Party3_votes voti).</t>
   </si>
   <si>
-    <t>#Party1_name_d holt in #Gemeinde_d am meisten Stimmen, nämlich #Party1_votes, gefolgt von der #Party2_name_d mit #Party2_votes Stimmen und der #Party3_name_d mit #Party3_votes Stimmen.</t>
+    <t>Die #Party1_name_d holt in #Gemeinde_d am meisten Stimmen, nämlich #Party1_votes, gefolgt von der #Party2_name_d mit #Party2_votes Stimmen und der #Party3_name_d mit #Party3_votes Stimmen.</t>
   </si>
   <si>
     <t>Le #Party1_name_f obtient le plus de voix (#Party1_votes) à #Gemeinde_f. Il est suivi par #Party2_name_f avec #Party2_votes voix et #Party3_name_f avec #Party3_votes voix.</t>
@@ -806,7 +806,7 @@
     <t>Gli aventi diritto di voto a #Gemeinde_i hanno votato #Party1_name_i (#Party1_votes voti). Seguono #Party2_name_i (#Party2_votes voti) e #Party3_name_i (#Party3_votes voti).</t>
   </si>
   <si>
-    <t>Die Wählerinnen und Wähler von  #Gemeinde_d stimmen am meisten für #Party1_name_d (#Party1_votes Stimmen), gefolgt von der #Party2_name_d (#Party2_votes Stimmen) und der #Party3_name_d (#Party3_votes Stimmen).</t>
+    <t>Die Wählerinnen und Wähler von  #Gemeinde_d stimmen am meisten für die #Party1_name_d (#Party1_votes Stimmen), gefolgt von der #Party2_name_d (#Party2_votes Stimmen) und der #Party3_name_d (#Party3_votes Stimmen).</t>
   </si>
   <si>
     <t>Les électeurs de #Gemeinde_f font confiance au #Party1_name_f (#Party1_votes voix), au #Party2_name_f (#Party2_votes voix) et au #Party3_name_f (#Party3_votes voix).</t>
@@ -857,7 +857,7 @@
     <t>La persona candidata del partito #Party1_name_i raccoglie il #Party1_voter_share percento dei voti a #Gemeinde_i.</t>
   </si>
   <si>
-    <t>Mit #Party1_voter_share Prozent der Stimmen behauptet sich in #Gemeinde_d der #Party1_name_d-Kandidat respektive die #Party1_name_d-Kandidatin behauptet.</t>
+    <t>Mit #Party1_voter_share Prozent der Stimmen behauptet sich in #Gemeinde_d der #Party1_name_d-Kandidat respektive die #Party1_name_d-Kandidatin.</t>
   </si>
   <si>
     <t>Avec #Party1_voter_share pour cent des voix, le candidat ou la candidate de #Party1_name_f termine à la première place à #Gemeinde_f.</t>

--- a/Texte/LENA Textbausteine Eidgenössische Wahlen 2023_ Gemeindeebene.xlsx
+++ b/Texte/LENA Textbausteine Eidgenössische Wahlen 2023_ Gemeindeebene.xlsx
@@ -59,7 +59,7 @@
     <t>Les électeurs de #Gemeinde_f n'ont pas retourné leur veste depuis 2019. Le parti le plus fort dans leur commune reste le #Party1_name_f, avec #Party1_voter_share pour cent des suffrages (#Party1_change points de pourcentage).</t>
   </si>
   <si>
-    <t>Gli elettori di #Gemeinde_i non hanno cambiato idea dal 2019. Il partito più forte nel loro comune rimane partito #Party1_name_i, con il #Party1_voter_share percento dei voti (#Party1_change punti percentuali).</t>
+    <t>Gli elettori di #Gemeinde_i non hanno cambiato idea dal 2019. Il partito #Party1_name_i rimane il più forte nel loro comune, con il #Party1_voter_share percento dei voti (#Party1_change punti percentuali).</t>
   </si>
   <si>
     <t>Die #Party1_name_d kann ihre Position als dominierende politische Kraft in #Gemeinde_d beibehalten, mit einem Wähleranteil von #Party1_voter_share Prozent (#Party1_change Prozentpunkte).</t>
@@ -434,7 +434,7 @@
     <t>Il partito #Party2_name_i subisce una forte diminuzione a #Gemeinde_i. Perde #Party2_change punti percentuali rispetto alle elezioni per il Consiglio Nazionale del 2019 ed è ora il secondo partito del comune con il #Party2_voter_share percento dei voti.</t>
   </si>
   <si>
-    <t>Die #Party2_name_d steigert sich mit einem Plus von #Party2_change Prozentpunkte stark und belegt nun den zweiten Platz in der Gemeinde. Der Wählerstimmenanteil der Partei beträgt neu #Party2_voter_share Prozent.</t>
+    <t>Die #Party2_name_d steigert sich mit einem Plus von #Party2_change Prozentpunkte stark. Die Partei belegt nun den zweiten Platz in der Gemeinde. Der Wählerstimmenanteil d beträgt neu #Party2_voter_share Prozent.</t>
   </si>
   <si>
     <t>Le #Party2_name_f progresse fortement: le parti améliore son résultat d'il y a quatre ans de #Party2_change points de pourcentage et occupe désormais la deuxième place dans la commune. La proportion de voix du parti s'élève désormais à #Party2_voter_share pour cent.</t>
@@ -1097,7 +1097,7 @@
     <t>Add_Participation_highest_in_CH</t>
   </si>
   <si>
-    <t xml:space="preserve">Rekord in #Gemeinde_d : Die Gemeinde erzielt mit #Gemeinde_participation Prozent die höchste Wahlbeteiligung der gesamten Schweiz. </t>
+    <t xml:space="preserve">Rekord in #Gemeinde_d: Die Gemeinde erzielt mit #Gemeinde_participation Prozent die höchste Wahlbeteiligung der gesamten Schweiz. </t>
   </si>
   <si>
     <t>C'est aussi à #Gemeinde_f qu'est enregistré le taux de participation le plus fort de Suisse.</t>

--- a/Texte/LENA Textbausteine Eidgenössische Wahlen 2023_ Gemeindeebene.xlsx
+++ b/Texte/LENA Textbausteine Eidgenössische Wahlen 2023_ Gemeindeebene.xlsx
@@ -746,7 +746,7 @@
     <t>Die #Party1_name_d holt in #Gemeinde_d am meisten Stimmen, nämlich #Party1_votes, gefolgt von der #Party2_name_d mit #Party2_votes Stimmen und der #Party3_name_d mit #Party3_votes Stimmen.</t>
   </si>
   <si>
-    <t>Le #Party1_name_f obtient le plus de voix (#Party1_votes) à #Gemeinde_f. Il est suivi par #Party2_name_f avec #Party2_votes voix et #Party3_name_f avec #Party3_votes voix.</t>
+    <t>Le #Party1_name_f obtient le plus de voix (#Party1_votes) à #Gemeinde_f. Il est suivi par le #Party2_name_f avec #Party2_votes voix et #Party3_name_f avec #Party3_votes voix.</t>
   </si>
   <si>
     <t>Il partito #Party1_name_i riceve il maggior numero di voti (#Party1_votes) a #Gemeinde_i. Seguono partito #Party2_name_i con #Party2_votes voti e partito #Party3_name_i con #Party3_votes voti.</t>
@@ -782,7 +782,7 @@
     <t>In  #Gemeinde_d vereinigen die #Party1_name_d, die #Party2_name_d und die #Party3_name_d die meisten Wählerstimmen auf sich. Sie erzielen #Party1_votes Stimmen, #Party2_votes Stimmen respektive #Party3_votes Stimmen.</t>
   </si>
   <si>
-    <t>La majorité des votes sont répartis entre le #Party1_name_f, le #Party2_name_f und die #Party3_name_f à #Gemeinde_f. Ils obtiennent respectivement #Party1_votes, #Party2_votes et #Party3_votes voix.</t>
+    <t>La majorité des votes sont répartis entre le #Party1_name_f, le #Party2_name_f et le #Party3_name_f à #Gemeinde_f. Ils obtiennent respectivement #Party1_votes, #Party2_votes et #Party3_votes voix.</t>
   </si>
   <si>
     <t>La maggior parte dei voti sono distribuiti tra #Party1_name_i, #Party2_name_i e #Party3_name_i a #Gemeinde_i. Ricevono rispettivamente #Party1_votes, #Party2_votes e #Party3_votes voti.</t>
@@ -1244,7 +1244,7 @@
     <t>Easteregg_Normalo</t>
   </si>
   <si>
-    <t>#Gemeinde_d ist bei den diesjährigen Nationalratswahlen statistisch betrachtet die durchschnittlichste Gemeinde der ganzen Schweiz. Nirgendwo weicht in Bezug auf die Wähleranteile der grössten Parteien das Wahlverhalten so wenig vom gesamtschweizerischen Resultat ab. So kommt die #Party1_name_d in #Gemeinde_d auf #Party1_voter_share Prozent der Wählerstimmen, während der Wähleranteil gesamtschweizerisch #Party1_overall_voter_share Prozent beträgt. Die #Party2_name_d erreicht #Party2_voter_share Prozent (schweizweit #Party2_overall_voter_share Prozent) und die #Party3_name_d(#Party3_voter_share Prozent (#Party3_overall_voter_share Prozent). , #Party3_change Prozentpunkte). Die #Party4_name_d erzielt #Party4_voter_share Prozent, die #Party5_name_d #Party5_voter_share Prozent und die #Party6_name_d #Party6_voter_share Prozent.</t>
+    <t>#Gemeinde_d ist bei den diesjährigen Nationalratswahlen statistisch betrachtet die durchschnittlichste Gemeinde der ganzen Schweiz. Nirgendwo weicht in Bezug auf die Wähleranteile der grössten Parteien das Wahlverhalten so wenig vom gesamtschweizerischen Resultat ab. So kommt die #Party1_name_d in #Gemeinde_d auf #Party1_voter_share Prozent der Wählerstimmen, während der Wähleranteil gesamtschweizerisch #Party1_overall_voter_share Prozent beträgt. Die #Party2_name_d erreicht #Party2_voter_share Prozent (schweizweit #Party2_overall_voter_share Prozent) und die #Party3_name_d (#Party3_voter_share Prozent (#Party3_overall_voter_share Prozent). Die #Party4_name_d erzielt #Party4_voter_share Prozent, die #Party5_name_d #Party5_voter_share Prozent und die #Party6_name_d #Party6_voter_share Prozent.</t>
   </si>
   <si>
     <t>D'un point de vue statistique, #Gemeinde_f est la commune la plus représentative de toute la Suisse lors des élections au Conseil national de cette année. Nulle part ailleurs, les choix des électeurs ne se rapprochent autant du résultat national. Ainsi, le #Party1_name_f obtient #Party1_voter_share pour cent des voix, alors que la part des électeurs s'élève à #Party1_overall_voter_share pour cent au niveau national. Le #Party2_name_f atteint #Party2_voter_share pour cent (#Party2_overall_voter_share pour cent au niveau suisse) et le #Party3_name_f #Party3_voter_share pour cent (#Party3_overall_voter_share pourcent). Le #Party4_name_f obtient #Party4_voter_share pour cent, le #Party5_name_f #Party5_voter_share pour cent et le #Party6_name_f #Party6_voter_share pour cent.</t>

--- a/Texte/LENA Textbausteine Eidgenössische Wahlen 2023_ Gemeindeebene.xlsx
+++ b/Texte/LENA Textbausteine Eidgenössische Wahlen 2023_ Gemeindeebene.xlsx
@@ -1244,7 +1244,7 @@
     <t>Easteregg_Normalo</t>
   </si>
   <si>
-    <t>#Gemeinde_d ist bei den diesjährigen Nationalratswahlen statistisch betrachtet die durchschnittlichste Gemeinde der ganzen Schweiz. Nirgendwo weicht in Bezug auf die Wähleranteile der grössten Parteien das Wahlverhalten so wenig vom gesamtschweizerischen Resultat ab. So kommt die #Party1_name_d in #Gemeinde_d auf #Party1_voter_share Prozent der Wählerstimmen, während der Wähleranteil gesamtschweizerisch #Party1_overall_voter_share Prozent beträgt. Die #Party2_name_d erreicht #Party2_voter_share Prozent (schweizweit #Party2_overall_voter_share Prozent) und die #Party3_name_d (#Party3_voter_share Prozent (#Party3_overall_voter_share Prozent). Die #Party4_name_d erzielt #Party4_voter_share Prozent, die #Party5_name_d #Party5_voter_share Prozent und die #Party6_name_d #Party6_voter_share Prozent.</t>
+    <t>#Gemeinde_d ist bei den diesjährigen Nationalratswahlen statistisch betrachtet die durchschnittlichste Gemeinde der ganzen Schweiz. Nirgendwo weicht in Bezug auf die Wähleranteile der grössten Parteien das Wahlverhalten so wenig vom gesamtschweizerischen Resultat ab. So kommt die #Party1_name_d in #Gemeinde_d auf #Party1_voter_share Prozent der Wählerstimmen, während der Wähleranteil gesamtschweizerisch #Party1_overall_voter_share Prozent beträgt. Die #Party2_name_d erreicht #Party2_voter_share Prozent (schweizweit #Party2_overall_voter_share Prozent) und die #Party3_name_d #Party3_voter_share Prozent (#Party3_overall_voter_share Prozent). Die #Party4_name_d erzielt #Party4_voter_share Prozent, die #Party5_name_d #Party5_voter_share Prozent und die #Party6_name_d #Party6_voter_share Prozent.</t>
   </si>
   <si>
     <t>D'un point de vue statistique, #Gemeinde_f est la commune la plus représentative de toute la Suisse lors des élections au Conseil national de cette année. Nulle part ailleurs, les choix des électeurs ne se rapprochent autant du résultat national. Ainsi, le #Party1_name_f obtient #Party1_voter_share pour cent des voix, alors que la part des électeurs s'élève à #Party1_overall_voter_share pour cent au niveau national. Le #Party2_name_f atteint #Party2_voter_share pour cent (#Party2_overall_voter_share pour cent au niveau suisse) et le #Party3_name_f #Party3_voter_share pour cent (#Party3_overall_voter_share pourcent). Le #Party4_name_f obtient #Party4_voter_share pour cent, le #Party5_name_f #Party5_voter_share pour cent et le #Party6_name_f #Party6_voter_share pour cent.</t>

--- a/Texte/LENA Textbausteine Eidgenössische Wahlen 2023_ Gemeindeebene.xlsx
+++ b/Texte/LENA Textbausteine Eidgenössische Wahlen 2023_ Gemeindeebene.xlsx
@@ -269,7 +269,7 @@
     <t>Classé au #Party1_rank_in_commune_prev ème rang en 2019, le #Party1_name_f est le nouveau parti le plus fort à #Gemeinde_f. Il obtient #Party1_voter_share pour cent des suffrages.</t>
   </si>
   <si>
-    <t>Classificato al #Party_1_rank_in_commune_prev posto nel 2019, il partito #Party1_name_i è ora il partito più forte a #Gemeinde_i. Ottiene il #Party1_voter_share percento dei voti.</t>
+    <t>Classificato al #Party1_rank_in_commune_prev posto nel 2019, il partito #Party1_name_i è ora il partito più forte a #Gemeinde_i. Ottiene il #Party1_voter_share percento dei voti.</t>
   </si>
   <si>
     <t>Neue stärkste Partei</t>
@@ -434,7 +434,7 @@
     <t>Il partito #Party2_name_i subisce una forte diminuzione a #Gemeinde_i. Perde #Party2_change punti percentuali rispetto alle elezioni per il Consiglio Nazionale del 2019 ed è ora il secondo partito del comune con il #Party2_voter_share percento dei voti.</t>
   </si>
   <si>
-    <t>Die #Party2_name_d steigert sich mit einem Plus von #Party2_change Prozentpunkte stark. Die Partei belegt nun den zweiten Platz in der Gemeinde. Der Wählerstimmenanteil d beträgt neu #Party2_voter_share Prozent.</t>
+    <t>Die #Party2_name_d steigert sich mit einem Plus von #Party2_change Prozentpunkte stark. Die Partei belegt nun den zweiten Platz in der Gemeinde. Der Wählerstimmenanteil beträgt neu #Party2_voter_share Prozent.</t>
   </si>
   <si>
     <t>Le #Party2_name_f progresse fortement: le parti améliore son résultat d'il y a quatre ans de #Party2_change points de pourcentage et occupe désormais la deuxième place dans la commune. La proportion de voix du parti s'élève désormais à #Party2_voter_share pour cent.</t>
@@ -818,19 +818,19 @@
     <t>In der Gemeinde  #Gemeinde_d holt sich die #Party1_name_d am meisten Stimmen (#Party1_votes Stimmen). Dahinter folgen die #Party2_name_d (#Party2_votes Stimmen) und die #Party3_name_d (#Party3_votes Stimmen).</t>
   </si>
   <si>
-    <t>Le #Party1_name_f obtient le plus de voix (#Party1_votes) à #Gemeinde_f. Il est suivi par le #Party2_name_f (#Party2_votes voix) et le #Party3_name_f (#Party3_voix).</t>
-  </si>
-  <si>
-    <t>Il partito #Party1_name_i riceve il maggior numero di voti (#Party1_votes) a #Gemeinde_i. È seguito dal partito #Party2_name_i (#Party2_votes voti) e dal partito #Party3_name_i (#Party3_voix).</t>
+    <t>Le #Party1_name_f obtient le plus de voix (#Party1_votes) à #Gemeinde_f. Il est suivi par le #Party2_name_f (#Party2_votes voix) et le #Party3_name_f (#Party3_votes).</t>
+  </si>
+  <si>
+    <t>Il partito #Party1_name_i riceve il maggior numero di voti (#Party1_votes) a #Gemeinde_i. È seguito dal partito #Party2_name_i (#Party2_votes voti) e dal partito #Party3_name_i (#Party3_votes).</t>
   </si>
   <si>
     <t>In  #Gemeinde_d verteilen die Wahlberechtigten ihre Stimmen auf die #Party1_name_d (#Party1_votes Stimmen), die #Party2_name_d (#Party2_votes Stimmen) und die #Party3_name_d (#Party3_votes Stimmen) am meisten Stimmen gegeben.</t>
   </si>
   <si>
-    <t>Les électeurs de #Gemeinde_f répartissent leurs voix entre le #Party1_name_f (#Party_1_votes voix), le #Party2_name_f (#Party_2_votes ) et le #Party3_name_f (#Party_3_votes ). Ces trois formations sont celles qui ont récollté le plus de votes.</t>
-  </si>
-  <si>
-    <t>Gli elettori di #Gemeinde_i distribuiscono i loro voti tra #Party1_name_i (#Party_1_votes voti), #Party2_name_i (#Party_2_votes voti) e #Party3_name_i (#Party_3_votes voti). Questi tre partiti sono quelli che hanno ottenuto più voti.</t>
+    <t>Les électeurs de #Gemeinde_f répartissent leurs voix entre le #Party1_name_f (#Party1_votes voix), le #Party2_name_f (#Party2_votes ) et le #Party3_name_f (#Party3_votes ). Ces trois formations sont celles qui ont récollté le plus de votes.</t>
+  </si>
+  <si>
+    <t>Gli elettori di #Gemeinde_i distribuiscono i loro voti tra #Party1_name_i (#Party1_votes voti), #Party2_name_i (#Party2_votes voti) e #Party3_name_i (#Party3_votes voti). Questi tre partiti sono quelli che hanno ottenuto più voti.</t>
   </si>
   <si>
     <t>Spec_small_canton_one_candidate</t>
@@ -878,10 +878,10 @@
     <t>In #Gemeinde_d gehen am meisten Stimmen an die Kandidatin oder den Kandidaten der #Party1_name_d und zwar #Party1_votes.</t>
   </si>
   <si>
-    <t>La majorité des voix (#Party1_votes) vont au candidat du #Party_name_f à #Gemeinde_f.</t>
-  </si>
-  <si>
-    <t>La maggioranza dei voti (#Party1_votes) va al candidato del #Party_name_f a #Gemeinde_i.</t>
+    <t>La majorité des voix (#Party1_votes) vont au candidat du #Party1_name_f à #Gemeinde_f.</t>
+  </si>
+  <si>
+    <t>La maggioranza dei voti (#Party1_votes) va al candidato del #Party1_name_f a #Gemeinde_i.</t>
   </si>
   <si>
     <t>In #Gemeinde_d siegt der #Party1_name_d-Kandidat beziehungsweise die #Party1_name_d-Kandidatin mit #Party1_votes Stimmen.</t>
@@ -911,10 +911,10 @@
     <t>In #Gemeinde_d erlangt der Kandidat oder die Kandidatin der #Party1_name_d die Spitzenposition mit #Party1_votes Stimmen, gefolgt vom Kandidierenden der #Party2_name_d mit #Party2_votes Stimmen.</t>
   </si>
   <si>
-    <t>Le candidat ou la candidate du #Party_name_f termine en première position à #Gemeinde_f avec #Party1_votes, suivi par le candidat ou la candidate du #Party2_name_f avec #Party2_votes voix.</t>
-  </si>
-  <si>
-    <t>La persona candidata del #Party_name_f finisce in prima posizione a #Gemeinde_i con #Party1_votes voti, seguito dalla persona candidata del partito #Party2_name_i con #Party2_votes voti.</t>
+    <t>Le candidat ou la candidate du #Party1_name_f termine en première position à #Gemeinde_f avec #Party1_votes, suivi par le candidat ou la candidate du #Party2_name_f avec #Party2_votes voix.</t>
+  </si>
+  <si>
+    <t>La persona candidata del #Party1_name_f finisce in prima posizione a #Gemeinde_i con #Party1_votes voti, seguito dalla persona candidata del partito #Party2_name_i con #Party2_votes voti.</t>
   </si>
   <si>
     <t>In der Gemeinde #Gemeinde_d gewinnt der #Party1_name_d-Kandidat respektive die #Party1_name_d-Kandidatin mit #Party1_votes Stimmen, während der Kandidat/ die Kandidatin der #Party2_name_d #Party2_votes Stimmen erhält.</t>

--- a/Texte/LENA Textbausteine Eidgenössische Wahlen 2023_ Gemeindeebene.xlsx
+++ b/Texte/LENA Textbausteine Eidgenössische Wahlen 2023_ Gemeindeebene.xlsx
@@ -68,22 +68,22 @@
     <t>Aucune formation politique ne parvient à prendre la place de numéro un au #Party1_name_f à #Gemeinde_f. Le parti obtient #Party1_voter_share pour cent des suffrages (#Party1_change points de pourcentage).</t>
   </si>
   <si>
-    <t>Il partito #Party1_name_i è imbattuto a #Gemeinde_i, dove ha ottenuto il #Party1_voter_share percento dei voti (#Party_change punti percentuali).</t>
-  </si>
-  <si>
-    <t>In #Gemeinde_d behält  #Party1_name_d ihren Status als stärkste politische Kraft. Die Partei sichert sich einen Wähleranteil von #Party1_voter_share Prozent gesichert (#Party1_change Prozentpunkte).</t>
+    <t>Il partito #Party1_name_i è imbattuto a #Gemeinde_i, dove ha ottenuto il #Party1_voter_share percento dei voti (#Party1_change punti percentuali).</t>
+  </si>
+  <si>
+    <t>In #Gemeinde_d behält #Party1_name_d ihren Status als stärkste politische Kraft. Die Partei sichert sich einen Wähleranteil von #Party1_voter_share Prozent gesichert (#Party1_change Prozentpunkte).</t>
   </si>
   <si>
     <t>Le #Party1_name_f maintient sa position de première force politique dans la commune de #Gemeinde_f. Le parti récolte #Party1_voter_share pour cent des suffrages (#Party1_change points de pourcentage).</t>
   </si>
   <si>
-    <t>Il partito #Party1_name_i mantiene la sua posizione come principale forza politica nel comune di #Gemeinde_i, ottenendo il #Party1_voter_share percento dei voti (#Party_change punti percentuali).</t>
+    <t>Il partito #Party1_name_i mantiene la sua posizione come principale forza politica nel comune di #Gemeinde_i, ottenendo il #Party1_voter_share percento dei voti (#Party1_change punti percentuali).</t>
   </si>
   <si>
     <t>#Party1_name_d behauptet ihre Position als vorherrschende Partei in #Gemeinde_d. Die Partei verzeichnet einen Wähleranteil von #Party1_voter_share Prozent (#Party1_change Prozentpunkte).</t>
   </si>
   <si>
-    <t>Le #Party1_name_f maintient sa première place à #Gemeinde_f et obtient  #Party1_voter_share pour des voix (#Party1_change points de pourcentage).</t>
+    <t>Le #Party1_name_f maintient sa première place à #Gemeinde_f et obtient #Party1_voter_share pour des voix (#Party1_change points de pourcentage).</t>
   </si>
   <si>
     <t>Il partito #Party1_name_i mantiene il primo posto a #Gemeinde_i e ottiene il #Party1_voter_share percento dei voti (#Party1_change punti percentuali).</t>
@@ -95,7 +95,7 @@
     <t>In #Gemeinde_d baut die #Party1_name_d ihre Vormachtstellung nochmals aus. Die Partei legt im Vergleich zu den Wahlen 2019 um #Party1_change Prozentpunkte zu und kommt neu auf einen Wähleranteil von #Party1_voter_share Prozent.</t>
   </si>
   <si>
-    <t>Le #Party1_name_f renforce encore sa suprématie à #Gemeinde_f. Le parti progresse de #Party1_change points de pourcentage par rapport aux élections de 2019. Il convainc désormais  #Party1_voter_share pour cent des électeurs de la commune.</t>
+    <t>Le #Party1_name_f renforce encore sa suprématie à #Gemeinde_f. Le parti progresse de #Party1_change points de pourcentage par rapport aux élections de 2019. Il convainc désormais #Party1_voter_share pour cent des électeurs de la commune.</t>
   </si>
   <si>
     <t>Il partito #Party1_name_i rafforza ulteriormente la sua posizione a #Gemeinde_i, aumentando i propri voti di #Party1_change punti percentuali rispetto alle elezioni del 2019 e convincendo il #Party1_voter_share percento degli elettori del comune.</t>
@@ -173,7 +173,7 @@
     <t xml:space="preserve">Nach wie vor ist die #Party1_name_d in #Gemeinde_d unangefochten die grösste Partei, mit einem Wähleranteil von #Party1_voter_share Prozent (#Party1_change Prozentpunkte). Der Vorsprung auf die zweitstärkste Partei, der #Party2_name_d, ist beträchtlich, nämlich #Party1_distance_to_next Prozentpunkte. Die #Party2_name_d erreicht einen Wähleranteil #Party2_voter_share Prozent (#Party2_change Prozentpunkte). </t>
   </si>
   <si>
-    <t xml:space="preserve">Avec #Party1_voter_share pour cent des voix (#Party1_change points de pourcentage), la position de leader du #Party1_name_f est solide à #Gemeinde_f. L'avance atteint #Party1_distance_to_next points par rapport au parti suivant. En comparaison, le #Party2_name_f se classe deuxième avec #Party2_voter_share pour cent des suffrages (#Party2_change points de pourcentage).  </t>
+    <t xml:space="preserve">Avec #Party1_voter_share pour cent des voix (#Party1_change points de pourcentage), la position de leader du #Party1_name_f est solide à #Gemeinde_f. L'avance atteint #Party1_distance_to_next points par rapport au parti suivant. En comparaison, le #Party2_name_f se classe deuxième avec #Party2_voter_share pour cent des suffrages (#Party2_change points de pourcentage). </t>
   </si>
   <si>
     <t>Con il #Party1_voter_share percento dei voti (#Party1_change punti percentuali), la posizione di leader del partito #Party1_name_i è solida a #Gemeinde_i. La differenza è di #Party1_distance_to_next punti rispetto al partito successivo. In confronto, il partito #Party2_name_i si classifica al secondo posto con il #Party2_voter_share percento dei voti (#Party2_change punti percentuali).</t>
@@ -275,7 +275,7 @@
     <t>Neue stärkste Partei</t>
   </si>
   <si>
-    <t>In #Gemeinde_d  ist neu die #Party1_name_d die stärkste Kraft (Rang vor vier Jahren: #Party1_rank_in_commune_prev). Bei den diesjährigen Nationalratswahlen vereinigt die Partei #Party1_voter_share Prozent der Stimmen auf sich.</t>
+    <t>In #Gemeinde_d ist neu die #Party1_name_d die stärkste Kraft (Rang vor vier Jahren: #Party1_rank_in_commune_prev). Bei den diesjährigen Nationalratswahlen vereinigt die Partei #Party1_voter_share Prozent der Stimmen auf sich.</t>
   </si>
   <si>
     <t>Le #Party1_name_f grimpe sur la première place du podium à #Gemeinde_f. Il était #Party1_rank_in_commune_prev ème en 2019. Il obtient cette année #Party1_voter_share pour cent des voix.</t>
@@ -485,7 +485,7 @@
     <t>Deux partis se partagent la deuxième place à #Gemeinde_f : le #Party2_name_f et le #Party3_name_f obtiennent exactement le même résultat, soit #Party2_voter_share pour cent des voix.</t>
   </si>
   <si>
-    <t>Due formazioni condividono il secondo posto a #Gemeine_i: il partito #Party2_name_i e il partito #Party3_name_i ottengono esattamente lo stesso risultato, ovvero il #Party2_voter_share percento dei voti.</t>
+    <t>Due formazioni condividono il secondo posto a #Gemeinde_i: il partito #Party2_name_i e il partito #Party3_name_i ottengono esattamente lo stesso risultato, ovvero il #Party2_voter_share percento dei voti.</t>
   </si>
   <si>
     <t>gleicher Stimmenanteil zweit- und drittstärkste Partei</t>
@@ -584,7 +584,7 @@
     <t>Die #Party3_name_d verzeichnet einen deutlichen Zuwachs. Die Partei belegt nun den dritten Platz in der Gemeinde und erreicht neu einen Wähleranteil von #Party3_voter_share Prozent. Das sind #Party3_change Prozentpunkte mehr als im Vergleich bei den letzten Wahlen.</t>
   </si>
   <si>
-    <t>Le #Party3_name_f enregistre une nette progression. Il occupe désormais la troisième place dans la commune et obtient désormais  #Party3_voter_share pour cent des voix. Cela représente #Party3_change points de pourcentage de plus qu'en 2019.</t>
+    <t>Le #Party3_name_f enregistre une nette progression. Il occupe désormais la troisième place dans la commune et obtient désormais #Party3_voter_share pour cent des voix. Cela représente #Party3_change points de pourcentage de plus qu'en 2019.</t>
   </si>
   <si>
     <t>Il partito #Party3_name_i registra una forte crescita. Ora si classifica terzo nel comune e riceve il #Party3_voter_share percento dei voti, ovvero #Party3_change punti percentuali in più rispetto al 2019.</t>
@@ -665,7 +665,7 @@
     <t>Spec_unchanged_1_2_3</t>
   </si>
   <si>
-    <t>Die Reihenfolge der Parteien in #Gemeinde_d bleibt im Vergleich zu den Wahlen 2019 gleich: Die #Party1_name_d bleibt mit #Party1_voter_share Prozent die stärkste Kraft, gefolgt von der #Party2_name_d (#Party2_voter_share Prozent, #Party2_change  Prozentpunkte) und der #Party3_name_d (#Party3_voter_share Prozent, #Party3_change Prozentpunkte).</t>
+    <t>Die Reihenfolge der Parteien in #Gemeinde_d bleibt im Vergleich zu den Wahlen 2019 gleich: Die #Party1_name_d bleibt mit #Party1_voter_share Prozent die stärkste Kraft, gefolgt von der #Party2_name_d (#Party2_voter_share Prozent, #Party2_change Prozentpunkte) und der #Party3_name_d (#Party3_voter_share Prozent, #Party3_change Prozentpunkte).</t>
   </si>
   <si>
     <t>Le classement n'a pas changé depuis quatre ans à #Gemeinde_f: le #Party1_name_f reste premier avec #Party1_voter_share pour cent des voix. Il devance le #Party2_name_f (#Party2_voter_share pour cent, #Party2_change points de pourcentage) et le #Party3_name_f (#Party3_voter_share pour cent, #Party3_change points de pourcentage).</t>
@@ -725,7 +725,7 @@
     <t>Kleine Stimmen-Zahlen (wenn 1. Partei &lt; 200 Stimmen) - ohne Prozentzahl, drei Parteien müssen vorhanden sein</t>
   </si>
   <si>
-    <t>In  #Gemeinde_d steht die #Party1_name_d mit #Party1_votes Stimmen an erster Stelle. Dahinter folgen die #Party2_name_d mit #Party2_votes Stimmen und die #Party3_name_d mit #Party3_votes Stimmen.</t>
+    <t>In #Gemeinde_d steht die #Party1_name_d mit #Party1_votes Stimmen an erster Stelle. Dahinter folgen die #Party2_name_d mit #Party2_votes Stimmen und die #Party3_name_d mit #Party3_votes Stimmen.</t>
   </si>
   <si>
     <t>Le #Party1_name_f est premier à #Gemeinde_f avec #Party1_votes voix. Il est suivi par le #Party2_name_f avec #Party2_votes voix et le #Party3_name_f avec #Party3_votes voix.</t>
@@ -734,7 +734,7 @@
     <t>Il partito #Party1_name_i è primo a #Gemeinde_i con #Party1_votes voti. È seguito dal partito #Party2_name_i con #Party2_votes voti e dal partito #Party3_name_i con #Party3_votes voti.</t>
   </si>
   <si>
-    <t>Die drei führenden Parteien in  #Gemeinde_d sind die #Party1_name_d mit #Party1_votes Stimmen, die #Party2_name_d mit #Party2_votes Stimmen und die #Party3_name_d mit #Party3_votes Stimmen.</t>
+    <t>Die drei führenden Parteien in #Gemeinde_d sind die #Party1_name_d mit #Party1_votes Stimmen, die #Party2_name_d mit #Party2_votes Stimmen und die #Party3_name_d mit #Party3_votes Stimmen.</t>
   </si>
   <si>
     <t>Le podium de #Gemeinde_f est constitué du #Party1_name_f (#Party1_votes voix), du #Party2_name_f (#Party2_votes voix) et du #Party3_name_f (#Party3_votes voix).</t>
@@ -752,7 +752,7 @@
     <t>Il partito #Party1_name_i riceve il maggior numero di voti (#Party1_votes) a #Gemeinde_i. Seguono partito #Party2_name_i con #Party2_votes voti e partito #Party3_name_i con #Party3_votes voti.</t>
   </si>
   <si>
-    <t>In  #Gemeinde_d geben die Wahlberechtigten der #Party1_name_d #Party1_votes Stimmen, der #Party2_name_d #Party2_votes Stimmen und der #Party3_name_d #Party3_votes Stimmen.</t>
+    <t>In #Gemeinde_d geben die Wahlberechtigten der #Party1_name_d #Party1_votes Stimmen, der #Party2_name_d #Party2_votes Stimmen und der #Party3_name_d #Party3_votes Stimmen.</t>
   </si>
   <si>
     <t>Les électeurs de #Gemeinde_f accordent leur confiance au #Party1_name_f (#Party1_votes voix), au #Party2_name_f (#Party2_votes voix) et au #Party3_name_f (#Party3_votes voix).</t>
@@ -770,7 +770,7 @@
     <t>A #Gemeinde_i, il partito #Party1_name_i riceve #Party1_votes voti, il partito #Party2_name_i #Party2_votes voti e il partito #Party3_name_i ottiene #Party3_votes voti.</t>
   </si>
   <si>
-    <t>Die Wahlberechtigten in  #Gemeinde_d geben der #Party1_name_d #Party1_votes Stimmen, der #Party2_name_d #Party2_votes Stimmen und der #Party3_name_d #Party3_votes Stimmen.</t>
+    <t>Die Wahlberechtigten in #Gemeinde_d geben der #Party1_name_d #Party1_votes Stimmen, der #Party2_name_d #Party2_votes Stimmen und der #Party3_name_d #Party3_votes Stimmen.</t>
   </si>
   <si>
     <t>Les électeurs de #Gemeinde_f donnent leurs voix au #Party1_name_f (#Party1_votes voix), au #Party2_name_f (#Party2_votes voix) et au #Party3_name_f (#Party3_votes voix).</t>
@@ -779,7 +779,7 @@
     <t>Gli elettori di #Gemeinde_i votano #Party1_name_i (#Party1_votes voti), #Party2_name_i (#Party2_votes voti) e #Party3_name_i (#Party3_votes voti).</t>
   </si>
   <si>
-    <t>In  #Gemeinde_d vereinigen die #Party1_name_d, die #Party2_name_d und die #Party3_name_d die meisten Wählerstimmen auf sich. Sie erzielen #Party1_votes Stimmen, #Party2_votes Stimmen respektive #Party3_votes Stimmen.</t>
+    <t>In #Gemeinde_d vereinigen die #Party1_name_d, die #Party2_name_d und die #Party3_name_d die meisten Wählerstimmen auf sich. Sie erzielen #Party1_votes Stimmen, #Party2_votes Stimmen respektive #Party3_votes Stimmen.</t>
   </si>
   <si>
     <t>La majorité des votes sont répartis entre le #Party1_name_f, le #Party2_name_f et le #Party3_name_f à #Gemeinde_f. Ils obtiennent respectivement #Party1_votes, #Party2_votes et #Party3_votes voix.</t>
@@ -788,7 +788,7 @@
     <t>La maggior parte dei voti sono distribuiti tra #Party1_name_i, #Party2_name_i e #Party3_name_i a #Gemeinde_i. Ricevono rispettivamente #Party1_votes, #Party2_votes e #Party3_votes voti.</t>
   </si>
   <si>
-    <t>In  #Gemeinde_d sind die drei Parteien mit den meisten Stimmen die #Party1_name_d, die #Party2_name_d und die #Party3_name_d. Sie erzielen #Party1_votes Stimmen, #Party2_votes Stimmen respektive #Party3_votes Stimmen.</t>
+    <t>In #Gemeinde_d sind die drei Parteien mit den meisten Stimmen die #Party1_name_d, die #Party2_name_d und die #Party3_name_d. Sie erzielen #Party1_votes Stimmen, #Party2_votes Stimmen respektive #Party3_votes Stimmen.</t>
   </si>
   <si>
     <t>Le #Party1_name_f, le #Party2_name_f et le #Party3_name_f sont les trois partis ayant obtenu le plus de votes à #Gemeinde_f. Ils obtiennent respectivement #Party1_votes, #Party2_votes et #Party3_votes voix.</t>
@@ -797,7 +797,7 @@
     <t>#Party1_name_i, #Party2_name_i e #Party3_name_i sono i tre partiti che hanno ricevuto più voti a #Gemeinde_i. Ottengono rispettivamente #Party1_votes, #Party2_votes e #Party3_votes voti.</t>
   </si>
   <si>
-    <t>Die Stimmberechtigten der Gemeinde  #Gemeinde_d geben am meisten Stimmen der #Party1_name_d (#Party1_votes Stimmen). Dahinter folgen die #Party2_name_d (#Party2_votes Stimmen) und die #Party3_name_d (#Party3_votes Stimmen).</t>
+    <t>Die Stimmberechtigten der Gemeinde #Gemeinde_d geben am meisten Stimmen der #Party1_name_d (#Party1_votes Stimmen). Dahinter folgen die #Party2_name_d (#Party2_votes Stimmen) und die #Party3_name_d (#Party3_votes Stimmen).</t>
   </si>
   <si>
     <t>Les ayants-droit de #Gemeinde_f ont voté en faveur du #Party1_name_f (#Party1_votes voix). Suivent le #Party2_name_f (#Party2_votes voix) et le #Party3_name_f (#Party3_votes voix).</t>
@@ -806,7 +806,7 @@
     <t>Gli aventi diritto di voto a #Gemeinde_i hanno votato #Party1_name_i (#Party1_votes voti). Seguono #Party2_name_i (#Party2_votes voti) e #Party3_name_i (#Party3_votes voti).</t>
   </si>
   <si>
-    <t>Die Wählerinnen und Wähler von  #Gemeinde_d stimmen am meisten für die #Party1_name_d (#Party1_votes Stimmen), gefolgt von der #Party2_name_d (#Party2_votes Stimmen) und der #Party3_name_d (#Party3_votes Stimmen).</t>
+    <t>Die Wählerinnen und Wähler von #Gemeinde_d stimmen am meisten für die #Party1_name_d (#Party1_votes Stimmen), gefolgt von der #Party2_name_d (#Party2_votes Stimmen) und der #Party3_name_d (#Party3_votes Stimmen).</t>
   </si>
   <si>
     <t>Les électeurs de #Gemeinde_f font confiance au #Party1_name_f (#Party1_votes voix), au #Party2_name_f (#Party2_votes voix) et au #Party3_name_f (#Party3_votes voix).</t>
@@ -815,19 +815,19 @@
     <t>Gli elettori di #Gemeinde_i fanno fiducia al partito #Party1_name_i (#Party1_votes voti), al partito #Party2_name_i (#Party2_votes voti) e partito #Party3_name_i (#Party3_votes voti).</t>
   </si>
   <si>
-    <t>In der Gemeinde  #Gemeinde_d holt sich die #Party1_name_d am meisten Stimmen (#Party1_votes Stimmen). Dahinter folgen die #Party2_name_d (#Party2_votes Stimmen) und die #Party3_name_d (#Party3_votes Stimmen).</t>
-  </si>
-  <si>
-    <t>Le #Party1_name_f obtient le plus de voix (#Party1_votes) à #Gemeinde_f. Il est suivi par le #Party2_name_f (#Party2_votes voix) et le #Party3_name_f (#Party3_votes).</t>
-  </si>
-  <si>
-    <t>Il partito #Party1_name_i riceve il maggior numero di voti (#Party1_votes) a #Gemeinde_i. È seguito dal partito #Party2_name_i (#Party2_votes voti) e dal partito #Party3_name_i (#Party3_votes).</t>
-  </si>
-  <si>
-    <t>In  #Gemeinde_d verteilen die Wahlberechtigten ihre Stimmen auf die #Party1_name_d (#Party1_votes Stimmen), die #Party2_name_d (#Party2_votes Stimmen) und die #Party3_name_d (#Party3_votes Stimmen) am meisten Stimmen gegeben.</t>
-  </si>
-  <si>
-    <t>Les électeurs de #Gemeinde_f répartissent leurs voix entre le #Party1_name_f (#Party1_votes voix), le #Party2_name_f (#Party2_votes ) et le #Party3_name_f (#Party3_votes ). Ces trois formations sont celles qui ont récollté le plus de votes.</t>
+    <t>In der Gemeinde #Gemeinde_d holt sich die #Party1_name_d am meisten Stimmen (#Party1_votes Stimmen). Dahinter folgen die #Party2_name_d (#Party2_votes Stimmen) und die #Party3_name_d (#Party3_votes Stimmen).</t>
+  </si>
+  <si>
+    <t>Le #Party1_name_f obtient le plus de voix (#Party1_votes) à #Gemeinde_f. Il est suivi par le #Party2_name_f (#Party2_votes voix) et le #Party3_name_f (#Party3_votes voix).</t>
+  </si>
+  <si>
+    <t>Il partito #Party1_name_i riceve il maggior numero di voti (#Party1_votes) a #Gemeinde_i. È seguito dal partito #Party2_name_i (#Party2_votes voti) e dal partito #Party3_name_i (#Party3_votes voti).</t>
+  </si>
+  <si>
+    <t>In #Gemeinde_d verteilen die Wahlberechtigten ihre Stimmen auf die #Party1_name_d (#Party1_votes Stimmen), die #Party2_name_d (#Party2_votes Stimmen) und die #Party3_name_d (#Party3_votes Stimmen) am meisten Stimmen gegeben.</t>
+  </si>
+  <si>
+    <t>Les électeurs de #Gemeinde_f répartissent leurs voix entre le #Party1_name_f (#Party1_votes voix), le #Party2_name_f (#Party2_votes voix) et le #Party3_name_f (#Party3_votes voix). Ces trois formations sont celles qui ont récollté le plus de votes.</t>
   </si>
   <si>
     <t>Gli elettori di #Gemeinde_i distribuiscono i loro voti tra #Party1_name_i (#Party1_votes voti), #Party2_name_i (#Party2_votes voti) e #Party3_name_i (#Party3_votes voti). Questi tre partiti sono quelli che hanno ottenuto più voti.</t>

--- a/Texte/LENA Textbausteine Eidgenössische Wahlen 2023_ Gemeindeebene.xlsx
+++ b/Texte/LENA Textbausteine Eidgenössische Wahlen 2023_ Gemeindeebene.xlsx
@@ -35,7 +35,7 @@
     <t>In #Gemeinde_d bleibt die #Party1_name_d die stimmenstärkste Partei. Die Partei holte #Party1_voter_share Prozent aller Stimmen (#Party1_change Prozentpunkte).</t>
   </si>
   <si>
-    <t>Le #Party1_name_f reste le parti le plus fort à #Gemeinde_f. Le parti remporte #Party1_voter_share pour cent des voix (#Party1_change points de pourcentage).</t>
+    <t>Le #Party1_name_f reste le parti le plus fort à #Gemeinde_f. Le parti remporte #Party1_voter_share % des voix (#Party1_change points de pourcentage).</t>
   </si>
   <si>
     <t>Il partito #Party1_name_i rimane il più forte a #Gemeinde_i, con il #Party1_voter_share percento dei voti (#Party1_change punti percentuali).</t>
@@ -47,7 +47,7 @@
     <t>Keine Änderung an der Spitze in #Gemeinde_d: Die #Party1_name_d holt wie vor vier Jahren die meisten Stimmen (#Party1_voter_share Prozent, #Party1_change Prozentpunkte).</t>
   </si>
   <si>
-    <t>Les électeurs de #Gemeinde_f maintiennent leur confiance au #Party1_name_f, qui termine en tête dans leur commune, comme en 2019, avec #Party1_voter_share pour cent des voix (#Party1_change points de pourcentage).</t>
+    <t>Les électeurs de #Gemeinde_f maintiennent leur confiance au #Party1_name_f, qui termine en tête dans leur commune, comme en 2019, avec #Party1_voter_share % des voix (#Party1_change points de pourcentage).</t>
   </si>
   <si>
     <t>Gli elettori di #Gemeinde_i mantengono la loro fiducia nel partito #Party1_name_i, che risulta il primo nel loro comune, come nel 2019, con il #Party1_voter_share percento dei voti (#Party1_change punti percentuali).</t>
@@ -56,7 +56,7 @@
     <t>Unverändert ist die #Party1_name_d die stärkste Partei in #Gemeinde_d mit #Party1_voter_share Prozent (#Party1_change Prozentpunkte).</t>
   </si>
   <si>
-    <t>Les électeurs de #Gemeinde_f n'ont pas retourné leur veste depuis 2019. Le parti le plus fort dans leur commune reste le #Party1_name_f, avec #Party1_voter_share pour cent des suffrages (#Party1_change points de pourcentage).</t>
+    <t>Les électeurs de #Gemeinde_f n'ont pas retourné leur veste depuis 2019. Le parti le plus fort dans leur commune reste le #Party1_name_f, avec #Party1_voter_share % des suffrages (#Party1_change points de pourcentage).</t>
   </si>
   <si>
     <t>Gli elettori di #Gemeinde_i non hanno cambiato idea dal 2019. Il partito #Party1_name_i rimane il più forte nel loro comune, con il #Party1_voter_share percento dei voti (#Party1_change punti percentuali).</t>
@@ -65,22 +65,22 @@
     <t>Die #Party1_name_d kann ihre Position als dominierende politische Kraft in #Gemeinde_d beibehalten, mit einem Wähleranteil von #Party1_voter_share Prozent (#Party1_change Prozentpunkte).</t>
   </si>
   <si>
-    <t>Aucune formation politique ne parvient à prendre la place de numéro un au #Party1_name_f à #Gemeinde_f. Le parti obtient #Party1_voter_share pour cent des suffrages (#Party1_change points de pourcentage).</t>
+    <t>Aucune formation politique ne parvient à prendre la place de numéro un au #Party1_name_f à #Gemeinde_f. Le parti obtient #Party1_voter_share % des suffrages (#Party1_change points de pourcentage).</t>
   </si>
   <si>
     <t>Il partito #Party1_name_i è imbattuto a #Gemeinde_i, dove ha ottenuto il #Party1_voter_share percento dei voti (#Party1_change punti percentuali).</t>
   </si>
   <si>
-    <t>In #Gemeinde_d behält #Party1_name_d ihren Status als stärkste politische Kraft. Die Partei sichert sich einen Wähleranteil von #Party1_voter_share Prozent gesichert (#Party1_change Prozentpunkte).</t>
-  </si>
-  <si>
-    <t>Le #Party1_name_f maintient sa position de première force politique dans la commune de #Gemeinde_f. Le parti récolte #Party1_voter_share pour cent des suffrages (#Party1_change points de pourcentage).</t>
+    <t>In #Gemeinde_d behält die #Party1_name_d ihren Status als stärkste politische Kraft. Die Partei sichert sich einen Wähleranteil von #Party1_voter_share Prozent (#Party1_change Prozentpunkte).</t>
+  </si>
+  <si>
+    <t>Le #Party1_name_f maintient sa position de première force politique dans la commune de #Gemeinde_f. Le parti récolte #Party1_voter_share % des suffrages (#Party1_change points de pourcentage).</t>
   </si>
   <si>
     <t>Il partito #Party1_name_i mantiene la sua posizione come principale forza politica nel comune di #Gemeinde_i, ottenendo il #Party1_voter_share percento dei voti (#Party1_change punti percentuali).</t>
   </si>
   <si>
-    <t>#Party1_name_d behauptet ihre Position als vorherrschende Partei in #Gemeinde_d. Die Partei verzeichnet einen Wähleranteil von #Party1_voter_share Prozent (#Party1_change Prozentpunkte).</t>
+    <t>Die #Party1_name_d behauptet ihre Position als vorherrschende Partei in #Gemeinde_d. Die Partei verzeichnet einen Wähleranteil von #Party1_voter_share Prozent (#Party1_change Prozentpunkte).</t>
   </si>
   <si>
     <t>Le #Party1_name_f maintient sa première place à #Gemeinde_f et obtient #Party1_voter_share pour des voix (#Party1_change points de pourcentage).</t>
@@ -95,7 +95,7 @@
     <t>In #Gemeinde_d baut die #Party1_name_d ihre Vormachtstellung nochmals aus. Die Partei legt im Vergleich zu den Wahlen 2019 um #Party1_change Prozentpunkte zu und kommt neu auf einen Wähleranteil von #Party1_voter_share Prozent.</t>
   </si>
   <si>
-    <t>Le #Party1_name_f renforce encore sa suprématie à #Gemeinde_f. Le parti progresse de #Party1_change points de pourcentage par rapport aux élections de 2019. Il convainc désormais #Party1_voter_share pour cent des électeurs de la commune.</t>
+    <t>Le #Party1_name_f renforce encore sa suprématie à #Gemeinde_f. Le parti progresse de #Party1_change points de pourcentage par rapport aux élections de 2019. Le parti convainc désormais #Party1_voter_share % des électeurs de la commune.</t>
   </si>
   <si>
     <t>Il partito #Party1_name_i rafforza ulteriormente la sua posizione a #Gemeinde_i, aumentando i propri voti di #Party1_change punti percentuali rispetto alle elezioni del 2019 e convincendo il #Party1_voter_share percento degli elettori del comune.</t>
@@ -107,7 +107,7 @@
     <t>Die #Party1_name_d festigt in #Gemeinde_d ihre dominierende Rolle. Im Vergleich zu den Wahlen 2019 kann die Partei ihren Wähleranteil um #Party1_change Prozentpunkte steigern und erreicht nun #Party1_voter_share Prozent.</t>
   </si>
   <si>
-    <t>Le #Party1_name_f consolide sa première place à #Gemeinde_f. Le parti augmente sa part d'électeurs de #Party1_change points de pourcentage. Il atteint désormais #Party1_voter_share pour cent.</t>
+    <t>Le #Party1_name_f consolide sa première place à #Gemeinde_f. Le parti augmente sa part d'électeurs de #Party1_change points de pourcentage. Le parti atteint désormais #Party1_voter_share %.</t>
   </si>
   <si>
     <t>Il partito #Party1_name_i consolida il suo primo posto a #Gemeinde_i, aumentando il suo contingente di elettori di #Party1_change punti percentuali. Ora raggiunge il #Party1_voter_share percento.</t>
@@ -131,7 +131,7 @@
     <t>Trotz beträchtlicher Stimmenverluste in #Gemeinde_d bleibt die #Party1_name_d die vorherrschende Kraft. Die Partei erreicht neu noch einen Wähleranteil von #Party1_voter_share Prozent (#Party1_change Prozentpunkte).</t>
   </si>
   <si>
-    <t>Malgré des pertes considérables à #Gemeinde_f, le #Party1_name_f reste en tête. Il convainc encore #Party1_voter_share pour cent des électeurs (#Party1_changement de points de pourcentage).</t>
+    <t>Malgré des pertes considérables à #Gemeinde_f, le #Party1_name_f reste en tête. La formation convainc encore #Party1_voter_share % des électeurs (#Party1_changement de points de pourcentage).</t>
   </si>
   <si>
     <t>Nonostante le significative perdite a #Gemeinde_i, il partito #Party1_name_i rimane in testa. Riesce ancora a convincere il #Party1_voter_share percento degli elettori (#Party1_changement punti percentuali).</t>
@@ -140,10 +140,10 @@
     <t>Intro_unchanged_big_gap</t>
   </si>
   <si>
-    <t>In #Gemeinde_d ist die #Party1_name_d weiterhin mit deutlichem Abstand die grösste Partei. Die Partei holt #Party1_voter_share Prozent der Stimmen, #Party1_distance_to_next Prozentpunkte mehr als die nächstgrössere Partei.</t>
-  </si>
-  <si>
-    <t>Le #Party1_name_f reste le parti préféré des électeurs de #Gemeinde_f. La formation politique réalise #Party1_voter_share pour cent des voix (#Party1_change points de pourcentage par rapport à 2019). C'est #Party1_distance_to_next points de plus que le #Party2_name_f qui, avec #Party2_voter_share pour cent des voix (#Party2_change points de pourcentage), se classe en deuxième position dans cette commune.</t>
+    <t>In #Gemeinde_d ist die #Party1_name_d weiterhin mit deutlichem Abstand die grösste Partei. Sie holt #Party1_voter_share Prozent der Stimmen, #Party1_distance_to_next Prozentpunkte mehr als die nächstgrössere Partei.</t>
+  </si>
+  <si>
+    <t>Le #Party1_name_f reste le parti préféré des électeurs de #Gemeinde_f. La formation politique réalise #Party1_voter_share % des voix (#Party1_change points de pourcentage par rapport à 2019). C'est #Party1_distance_to_next points de plus que le #Party2_name_f qui, avec #Party2_voter_share % des voix (#Party2_change points de pourcentage), se classe en deuxième position dans cette commune.</t>
   </si>
   <si>
     <t>Il partito #Party1_name_i rimane il partito preferito degli elettori di #Gemeinde_i, totalizzando il #Party1_voter_share percento dei voti (#Party1_change punti percentuali rispetto al 2019). Ha #Party1_distance_to_next punti in più del partito #Party2_name_i che, con il #Party2_voter_share percento dei voti (#Party2_change punti percentuali), si classifica al secondo posto in questo comune.</t>
@@ -152,10 +152,10 @@
     <t>Grösste Partei gleichgeblieben; mit deutlichem Abstand (20%-Punkte Abstand und mehr)</t>
   </si>
   <si>
-    <t>In #Gemeinde_d bleibt die #Party1_name_d unangefochten die stärkste Partei. Die Partei vereinigte bei den Nationalratswahlen #Party1_voter_share Prozent der Stimmen (#Party1_change Prozentpunkte) auf sich, #Party1_distance_to_next Prozentpunkte mehr als die zweitplatzierte #Party2_name_d (#Party2_voter_share Prozent, #Party2_change Prozentpunkte).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le #Party1_name_f est en position de force à #Gemeinde_f. Il remporte #Party1_voter_share pour cent des voix (#Party1_change points de pourcentage). L'écart est important avec le #Party2_name_f (#Party1_distance_to_next points de pourcentage). Le deuxième parti de la commune a convaincu #Party2_voter_share pour cent des électeurs (#Party2_change points de pourcentage). </t>
+    <t>In #Gemeinde_d bleibt die #Party1_name_d unangefochten die stärkste Partei. Sie vereinigt bei den Nationalratswahlen #Party1_voter_share Prozent der Stimmen (#Party1_change Prozentpunkte) auf sich, #Party1_distance_to_next Prozentpunkte mehr als die zweitplatzierte #Party2_name_d (#Party2_voter_share Prozent, #Party2_change Prozentpunkte).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le #Party1_name_f est en position de force à #Gemeinde_f. La formation remporte #Party1_voter_share % des voix (#Party1_change points de pourcentage). L'écart est important avec le #Party2_name_f (#Party1_distance_to_next points de pourcentage). Le deuxième parti de la commune a convaincu #Party2_voter_share % des électeurs (#Party2_change points de pourcentage). </t>
   </si>
   <si>
     <t>Il partito #Party1_name_i è in una posizione di forza a #Gemeinde_i. Ottiene il #Party1_voter_share percento dei voti (#Party1_change punti percentuali). La differenza con il partito #Party2_name_i è notevole (#Party1_distance_to_next punti percentuali). Il secondo partito del comune ha convinto il #Party2_voter_share percento degli elettori (#Party2_change punti percentuali).</t>
@@ -164,22 +164,22 @@
     <t>Mit deutlichem Abstand bleibt die #Party1_name_d die grösste Partei in #Gemeinde_d. Ihre Parteistärke beträgt #Party1_voter_share Prozent (#Party1_change Prozentpunkte). Der Vorsprung auf die nächstgrössere Partei, die #Party2_name_d, ist gross: #Party1_distance_to_next Prozentpunkte. Die #Party2_name_d holt #Party2_voter_share Prozent (#Party2_change Prozentpunkte).</t>
   </si>
   <si>
-    <t>Le #Party1_name_f reste nettement le parti le plus fort à #Gemeinde_f, avec #Party1_voter_share pour cent des voix (#Party1_change points de pourcentage). Son avance sur le #Party2_name_f, qui réalise #Party2_voter_share pour cent des suffrages (#Party2_change points de pourcentage) est importante. Elle est de #Party1_distance_to_next points de pourcentage.</t>
+    <t>Le #Party1_name_f reste nettement le parti le plus fort à #Gemeinde_f, avec #Party1_voter_share % des voix (#Party1_change points de pourcentage). Son avance sur le #Party2_name_f, qui réalise #Party2_voter_share % des suffrages (#Party2_change points de pourcentage) est importante. Elle est de #Party1_distance_to_next points de pourcentage.</t>
   </si>
   <si>
     <t>Il partito #Party1_name_i rimane nettamente il partito più forte a #Gemeinde_i, con il #Party1_voter_share percento dei voti (#Party1_change punti percentuali). Il vantaggio sul partito #Party2_name_i, che ottiene il #Party2_voter_share percento dei voti (#Party2_change punti percentuali), è notevole. La differenza è di #Party1_distance_to_next punti percentuali.</t>
   </si>
   <si>
-    <t xml:space="preserve">Nach wie vor ist die #Party1_name_d in #Gemeinde_d unangefochten die grösste Partei, mit einem Wähleranteil von #Party1_voter_share Prozent (#Party1_change Prozentpunkte). Der Vorsprung auf die zweitstärkste Partei, der #Party2_name_d, ist beträchtlich, nämlich #Party1_distance_to_next Prozentpunkte. Die #Party2_name_d erreicht einen Wähleranteil #Party2_voter_share Prozent (#Party2_change Prozentpunkte). </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Avec #Party1_voter_share pour cent des voix (#Party1_change points de pourcentage), la position de leader du #Party1_name_f est solide à #Gemeinde_f. L'avance atteint #Party1_distance_to_next points par rapport au parti suivant. En comparaison, le #Party2_name_f se classe deuxième avec #Party2_voter_share pour cent des suffrages (#Party2_change points de pourcentage). </t>
+    <t xml:space="preserve">Nach wie vor ist die #Party1_name_d in #Gemeinde_d unangefochten die grösste Partei, mit einem Wähleranteil von #Party1_voter_share Prozent (#Party1_change Prozentpunkte). Der Vorsprung auf die zweitstärkste Partei, die #Party2_name_d, ist beträchtlich - nämlich #Party1_distance_to_next Prozentpunkte. Die #Party2_name_d erreicht einen Wähleranteil von #Party2_voter_share Prozent (#Party2_change Prozentpunkte). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avec #Party1_voter_share % des voix (#Party1_change points de pourcentage), la position de leader du #Party1_name_f est solide à #Gemeinde_f. L'avance atteint #Party1_distance_to_next points par rapport au parti suivant. En comparaison, le #Party2_name_f se classe deuxième avec #Party2_voter_share % des suffrages (#Party2_change points de pourcentage). </t>
   </si>
   <si>
     <t>Con il #Party1_voter_share percento dei voti (#Party1_change punti percentuali), la posizione di leader del partito #Party1_name_i è solida a #Gemeinde_i. La differenza è di #Party1_distance_to_next punti rispetto al partito successivo. In confronto, il partito #Party2_name_i si classifica al secondo posto con il #Party2_voter_share percento dei voti (#Party2_change punti percentuali).</t>
   </si>
   <si>
-    <t>Mit grossem Abstand verteidigt die #Party1_name_d ihre Position als grösste Partei in #Gemeinde_d bei, mit einem Wähleranteil von #Party1_voter_share Prozent (#Party1_change Prozentpunkte). Der Abstand zur zweitgrößten Partei, der #Party2_name_d, beträgt #Party1_distance_to_next Prozentpunkte. #Party2_name_d erhält #Party2_voter_share Prozent der Stimmen (#Party2_change Prozentpunkte).</t>
+    <t>Mit grossem Abstand verteidigt die #Party1_name_d ihre Position als grösste Partei in #Gemeinde_d, mit einem Wähleranteil von #Party1_voter_share Prozent (#Party1_change Prozentpunkte). Der Abstand zur zweitgrößten Partei, der #Party2_name_d, beträgt #Party1_distance_to_next Prozentpunkte. Die #Party2_name_d erhält #Party2_voter_share Prozent der Stimmen (#Party2_change Prozentpunkte).</t>
   </si>
   <si>
     <t>Le #Party1_name_f maintient sa position de plus grand parti dans la commune de #Gemeinde_f à, avec un pourcentage d'électeurs de #Party1_voter_share (#Party1_change points de pourcentage). L'écart avec le deuxième plus grand parti, le #Party2_name_f, est de #Party1_distance_to_next points de pourcentage. #Party2_name_f obtient #Party2_voter_share pourcent des voix (#Party2_change points de pourcentage).</t>
@@ -191,10 +191,10 @@
     <t>Intro_unchanged_small_gap</t>
   </si>
   <si>
-    <t>Ganz knapp bleibt die #Party1_name_d die grösste Partei in #Gemeinde_d. Die Partei holte #Party1_voter_share Prozent der Stimmen und hält damit ihren Vorsprung von #Party1_distance_to_next Prozentpunkte vor der #Party2_name_d. Diese muss sich mit #Party2_voter_share Prozent und Platz zwei begnügen. Die Veränderungen gegenüber 2019: #Party1_name_d: #Party1_change Prozentpunkte; #Party2_name_d: #Party2_change Prozentpunkte.</t>
-  </si>
-  <si>
-    <t>Avec #Party1_voter_share pour cent des voix (#Party1_change points de pourcentage), le #Party1_name_f est toujours le parti le plus fort à #Gemeinde_f. Le #Party2_name_f, qui réalise #Party2_voter_share pour cent des suffrages (#Party2_change points de pourcentage), est cependant en embuscade. L'écart entre les deux formations politiques est de #Party1_distance_to_next points.</t>
+    <t>Ganz knapp bleibt die #Party1_name_d die grösste Partei in #Gemeinde_d. Die Partei holt #Party1_voter_share Prozent der Stimmen und hält damit ihren Vorsprung, mit #Party1_distance_to_next Prozentpunkten, vor der #Party2_name_d. Diese muss sich mit #Party2_voter_share Prozent und Platz zwei begnügen. Die Veränderungen gegenüber 2019: #Party1_name_d: #Party1_change Prozentpunkte; #Party2_name_d: #Party2_change Prozentpunkte.</t>
+  </si>
+  <si>
+    <t>Avec #Party1_voter_share % des voix (#Party1_change points de pourcentage), le #Party1_name_f est toujours le parti le plus fort à #Gemeinde_f. Le #Party2_name_f, qui réalise #Party2_voter_share % des suffrages (#Party2_change points de pourcentage), est cependant en embuscade. L'écart entre les deux formations politiques est de #Party1_distance_to_next points.</t>
   </si>
   <si>
     <t>Con il #Party1_voter_share percento dei voti (#Party1_change punti percentuali), il partito #Party1_name_i rimane in testa a #Gemeinde_i. Tuttavia, il partito #Party2_name_i, che ottiene il #Party2_voter_share percento dei voti (#Party2_change punti percentuali), è in agguato. La differenza tra i due partiti è di #Party1_distance_to_next punti.</t>
@@ -206,7 +206,7 @@
     <t>Die #Party1_name_d ist weiterhin die stärkste Kraft in #Gemeinde_d. Mit #Party1_voter_share Prozent Wähleranteil verweist die Partei die #Party2_name_d allerdings nur mit #Party1_distance_to_next Prozentpunkten Abstand auf den zweiten Platz. Die zweitstärkste Partei holt #Party2_voter_share Prozent. Die Veränderungen gegenüber 2019: #Party1_name_d: #Party1_change Prozentpunkte; #Party2_name_d: #Party2_change Prozentpunkte.</t>
   </si>
   <si>
-    <t xml:space="preserve">Le #Party1_name_f reste en tête à #Gemeinde_f (#Party1_voter_share pour cent des voix, #Party1_change points de pourcentage). Son poursuivant, le #Party2_name_f, menace toutefois de lui ravir son fauteuil (#Party2_voter_share pour cent des suffrages, #Party2_change points de pourcentage). L'écart entre les deux formations n'est que de #Party1_distance_to_next points. </t>
+    <t xml:space="preserve">Le #Party1_name_f reste en tête à #Gemeinde_f (#Party1_voter_share % des voix, #Party1_change points de pourcentage). Son poursuivant, le #Party2_name_f, menace toutefois de lui ravir son fauteuil (#Party2_voter_share % des suffrages, #Party2_change points de pourcentage). L'écart entre les deux formations n'est que de #Party1_distance_to_next points. </t>
   </si>
   <si>
     <t>Il partito #Party1_name_i rimane in testa a #Gemeinde_i con il #Party1_voter_share percento dei voti (#Party1_change punti percentuali). Il suo rivale, il partito #Party2_name_i, minaccia però di sovrastarlo con il #Party1_voter_share percento dei voti (#Party2_change punti percentuali). La differenza tra le due formazioni è solo di #Party1_distance_to_next punti.</t>
@@ -218,7 +218,7 @@
     <t>Eine Besonderheit gibt es in #Gemeinde_d: Die #Party1_name_d und die #Party2_name_d sind genau gleich stark. Mit je #Party1_voter_share Prozent kommen beide Parteien auf den gleichen Wähleranteil.</t>
   </si>
   <si>
-    <t>#Gemeinde_f se distingue: ses électeurs n'ont pas réussi à se décider entre le #Party1_name_f et le #Party2_name_f. Les deux formations sont à égalité: elles obtiennent chacune #Party1_voter_share pour cent des suffrages.</t>
+    <t>#Gemeinde_f se distingue: ses électeurs n'ont pas réussi à se décider entre le #Party1_name_f et le #Party2_name_f. Les deux formations sont à égalité: elles obtiennent chacune #Party1_voter_share % des suffrages.</t>
   </si>
   <si>
     <t>#Gemeinde_i si distingue: i suoi elettori non sono riusciti a decidere tra il partito #Party1_name_i e il partito #Party2_name_i. Le formazioni sono alla pari: ottengono entrambe il #Party1_voter_share percento dei voti.</t>
@@ -242,7 +242,7 @@
     <t>Faut-il mettre le score ?</t>
   </si>
   <si>
-    <t>Kein Weg führt in #Gemeinde_d an der #Party1_name_d vorbei. Die Partei holte mehr als die Hälfte der Stimmen und damit eine absolute Mehrheit.</t>
+    <t>Kein Weg führt in #Gemeinde_d an der #Party1_name_d vorbei. Die Partei holt mehr als die Hälfte der Stimmen und damit eine absolute Mehrheit.</t>
   </si>
   <si>
     <t>Le #Party1_name_f est incontournable à #Gemeinde_f. Le parti a remporté plus de la moitié des voix et donc obtenu la majorité absolue.</t>
@@ -266,7 +266,7 @@
     <t>In #Gemeinde_d ist neu die #Party1_name_d die stärkste Partei mit #Party1_voter_share Prozent aller Stimmen. Vor vier Jahren lag die Partei noch auf Rang #Party1_rank_in_commune_prev.</t>
   </si>
   <si>
-    <t>Classé au #Party1_rank_in_commune_prev ème rang en 2019, le #Party1_name_f est le nouveau parti le plus fort à #Gemeinde_f. Il obtient #Party1_voter_share pour cent des suffrages.</t>
+    <t>Classé au #Party1_rank_in_commune_prev ème rang en 2019, le #Party1_name_f est le nouveau parti le plus fort à #Gemeinde_f. La formation obtient #Party1_voter_share % des suffrages.</t>
   </si>
   <si>
     <t>Classificato al #Party1_rank_in_commune_prev posto nel 2019, il partito #Party1_name_i è ora il partito più forte a #Gemeinde_i. Ottiene il #Party1_voter_share percento dei voti.</t>
@@ -278,7 +278,7 @@
     <t>In #Gemeinde_d ist neu die #Party1_name_d die stärkste Kraft (Rang vor vier Jahren: #Party1_rank_in_commune_prev). Bei den diesjährigen Nationalratswahlen vereinigt die Partei #Party1_voter_share Prozent der Stimmen auf sich.</t>
   </si>
   <si>
-    <t>Le #Party1_name_f grimpe sur la première place du podium à #Gemeinde_f. Il était #Party1_rank_in_commune_prev ème en 2019. Il obtient cette année #Party1_voter_share pour cent des voix.</t>
+    <t>Le #Party1_name_f grimpe sur la première place du podium à #Gemeinde_f. La formation était #Party1_rank_in_commune_prev ème en 2019 et obtient cette année #Party1_voter_share % des voix.</t>
   </si>
   <si>
     <t>Il partito #Party1_name_i si posiziona al primo posto a #Gemeinde_i. Era al #Party1_rank_in_commune_prev esimo esimo posto nel 2019. Quest'anno ottiene il #Party1_voter_share percento dei voti.</t>
@@ -287,7 +287,7 @@
     <t>Die #Party1_name_d kann sich in diesem Jahr von Rang #Party1_rank_in_commune_prev auf den Spitzenplatz in #Gemeinde_d verbessern. Die Partei holt #Party1_voter_share Prozent der Stimmen (#Party1_change Prozentpunkte).</t>
   </si>
   <si>
-    <t>Le #Party1_name_f progresse. Il passe du rang numero #Party1_rank_in_commune_prev à la première place à #Gemeinde_f. Le parti remporte #Party1_voter_share pourcent des voix (#Party1_change points de pourcentage).</t>
+    <t>Le #Party1_name_f progresse. La formation passe du rang numero #Party1_rank_in_commune_prev à la première place à #Gemeinde_f. Le parti remporte #Party1_voter_share pourcent des voix (#Party1_change points de pourcentage).</t>
   </si>
   <si>
     <t>Il partito #Party1_name_i progredisce. Passa dal #Party1_rank_in_commune_prev esimo posto al primo a #Gemeinde_i, ottenendo il #Party1_voter_share percento dei voti (#Party1_change punti percentuali).</t>
@@ -305,7 +305,7 @@
     <t>In #Gemeinde_d steht eine neue Partei auf dem Spitzenplatz: Die #Party1_name_d holt #Party1_voter_share Prozent der Stimmen (#Party1_change Prozentpunkte) und verbessert sich damit von Rang #Party1_rank_in_commune_prev auf den ersten Platz.</t>
   </si>
   <si>
-    <t>Un nouveau parti arrive en tête à #Gemeinde_f. Le #Party1_name_f obtient #Party1_voter_share pour cent des voix (#Party1_change points de pourcentage) et passe ainsi du rang #Party1_rank_in_commune_prev à la première place.</t>
+    <t>Un nouveau parti arrive en tête à #Gemeinde_f. Le #Party1_name_f obtient #Party1_voter_share % des voix (#Party1_change points de pourcentage) et passe ainsi du rang #Party1_rank_in_commune_prev à la première place.</t>
   </si>
   <si>
     <t>Una nuova formazione si colloca al primo posto a #Gemeinde_i. Il partito #Party1_name_i ottiene il #Party1_voter_share percento dei voti (#Party1_change punti percentuali) e passa così dalla posizione #Party1_rank_in_commune_prev al primo.</t>
@@ -317,7 +317,7 @@
     <t>Mit einem grossen Sprung von #Party1_change Prozentpunkten ist die #Party1_name_d neu die stärkste Partei in #Gemeinde_d. Die Partei erhält #Party1_voter_share Prozent der Wählerstimmen.</t>
   </si>
   <si>
-    <t>Le #Party1_name_f réalise une forte progression (#Party1_change points de pourcentage) Il est désormais le parti le plus fort de #Gemeinde_f. Le parti obtient #Party1_voter_share pour centage des voix.</t>
+    <t>Le #Party1_name_f réalise une forte progression (#Party1_change points de pourcentage) La formation est désormais le parti le plus fort de #Gemeinde_f. Le parti obtient #Party1_voter_share %age des voix.</t>
   </si>
   <si>
     <t>Il partito #Party1_name_i realizza una forte progressione (#Party1_change punti percentuali). Ora è il partito più forte di #Gemeinde_i, ottenendo il #Party1_voter_share percento dei voti.</t>
@@ -329,7 +329,7 @@
     <t>Die #Party1_name_d erhöht ihren Stimmenanteil in #Gemeinde_d um #Party1_change Prozentpunkte deutlich und wird damit zur stärksten politischen Kraft. Am Ende holt die Partei #Party1_voter_share Prozent der Wählerstimmen.</t>
   </si>
   <si>
-    <t>Le #Party1_name_f réalise un bond un avant (#Party1_change points de pourcentage). Le voilà le parti le plus fort de #Gemeinde_f, avec #Party1_voter_share pour centage des voix.</t>
+    <t>Le #Party1_name_f réalise un bond un avant (#Party1_change points de pourcentage). Le voilà le parti le plus fort de #Gemeinde_f, avec #Party1_voter_share %age des voix.</t>
   </si>
   <si>
     <t>Il partito #Party1_name_i aumenta significativamente la sua percentuale di voti a #Gemeinde_i (#Party1_change punti percentuali), diventando così la formazione più forte. Alla fine ottiene il #Party1_voter_share percento dei voti degli elettori.</t>
@@ -341,7 +341,7 @@
     <t>In #Gemeinde_d sichern sich Listen oder Parteien aus der Kategorie "Übrige" den Spitzenplatz. Diese vereinigen #Party1_voter_share Prozent der Stimmen auf sich.</t>
   </si>
   <si>
-    <t>Des partis ou des listes issus du groupe "Divers" terminent premiers à #Gemeinde_f. Ils obtiennent #Party1_voter_share pour cent des voix.</t>
+    <t>Des partis ou des listes issus du groupe "Divers" terminent premiers à #Gemeinde_f. La formations obtiennent #Party1_voter_share % des voix.</t>
   </si>
   <si>
     <t>Partiti o liste del gruppo "Diversi" si classificano al primo posto a #Gemeinde_i. Ottengono il #Party1_voter_share percento dei voti.</t>
@@ -356,7 +356,7 @@
     <t>Zweitstärkste Partei ist die #Party2_name_d mit #Party2_voter_share Prozent (#Party2_change Prozentpunkte gegenüber 2019).</t>
   </si>
   <si>
-    <t>Le #Party2_name_f est le deuxième parti le plus fort avec #Party2_voter_share pour cent des voix (#Party2_change points de pourcentage par rapport à 2019).</t>
+    <t>Le #Party2_name_f est le deuxième parti le plus fort avec #Party2_voter_share % des voix (#Party2_change points de pourcentage par rapport à 2019).</t>
   </si>
   <si>
     <t>Il partito #Party2_name_i è la seconda formazione più forte con il #Party2_voter_share percento dei voti (#Party2_change punti percentuali rispetto al 2019).</t>
@@ -368,7 +368,7 @@
     <t>Die #Party2_name_d ist die zweitstärkste Kraft in der Gemeinde. Die Partei kommt auf #Party2_voter_share Prozent (#Party2_change Prozentpunkte).</t>
   </si>
   <si>
-    <t>Le deuxième rang est occupé par le #Party2_name_f qui réalise #Party2_voter_share pour cent des voix (#Party2_change points de pourcentage par rapport à 2019).</t>
+    <t>Le deuxième rang est occupé par le #Party2_name_f qui réalise #Party2_voter_share % des voix (#Party2_change points de pourcentage par rapport à 2019).</t>
   </si>
   <si>
     <t>Il secondo rango è occupato dal partito #Party2_name_i che ottiene il #Party2_voter_share percento dei voti (#Party2_change punti percentuali rispetto al 2019).</t>
@@ -377,7 +377,7 @@
     <t>Mit einem Wählerstimmenanteil von #Party2_voter_share Prozent (#Party2_change Prozentpunkte) ist die #Party2_name_d die zweitstärkste Kraft in der Gemeinde.</t>
   </si>
   <si>
-    <t>Le #Party2_name_f se classe deuxième. Il obtient #Party2_voter_share pour cent des suffrages (#Party2_change points de pourcentage) dans la commune.</t>
+    <t>Le #Party2_name_f se classe deuxième. La formation obtient #Party2_voter_share % des suffrages (#Party2_change points de pourcentage) dans la commune.</t>
   </si>
   <si>
     <t>Il partito #Party2_name_i si classifica al secondo posto. Ottiene il #Party2_voter_share percento dei voti (#Party2_change punti percentuali) nel comune.</t>
@@ -395,7 +395,7 @@
     <t xml:space="preserve">In der Gemeinde landet die #Party2_name_d auf dem zweiten Platz. Die Partei erreicht einen Wählerstimmenanteil von #Party2_voter_share Prozent (#Party2_change Prozentpunkte). </t>
   </si>
   <si>
-    <t>Le #Party2_name_f arrive en deuxième position.Il obtient un pourcentage de voix de #Party2_voter_share (#Party2_change points de pourcentage).</t>
+    <t>Le #Party2_name_f arrive en deuxième position.La formation obtient un pourcentage de voix de #Party2_voter_share (#Party2_change points de pourcentage).</t>
   </si>
   <si>
     <t>Il partito #Party2_name_i è il secondo partito più forte a #Gemeinde_i. Si è migliorato di #Party2_change punti percentuali rispetto alle elezioni per il Consiglio nazionale del 2019.</t>
@@ -416,7 +416,7 @@
     <t>Zweitstärkste Partei ist die #Party2_name_d. Die Partei verbessert sich gegenüber den Wahlen 2019 um #Party2_change Prozentpunkte deutlich und weist neu einen Wähleranteil von #Party2_voter_share Prozent auf.</t>
   </si>
   <si>
-    <t>Le #Party2_name_f est le deuxième parti le plus fort à #Gemeinde_f. Il s'est amélioré de #Party2_change points de pourcentage par rapport aux élections pour le Conseil national de 2019.</t>
+    <t>Le #Party2_name_f est le deuxième parti le plus fort à #Gemeinde_f. La formation s'est améliorée de #Party2_change points de pourcentage par rapport aux élections pour le ConseLa formation national de 2019.</t>
   </si>
   <si>
     <t>Il partito #Party2_name_i progredisce notevolmente: ha migliorato il suo risultato di quattro anni fa di #Party2_change punti percentuali ed è ora al secondo posto nel comune. La proporzione di voti del partito è ora del #Party2_voter_share percento.</t>
@@ -428,7 +428,7 @@
     <t>Mit einer markanten Verbesserung um #Party2_change Prozentpunkte ist die #Party2_name_d die zweitstärkste Kraft in der Gemeinde. Der Wählerstimmenanteil der Partei liegt neu bei #Party2_voter_share Prozent.</t>
   </si>
   <si>
-    <t>Une progression significative de #Party2_change points de pourcentage permet au #Party2_name_f de devenir le deuxième parti de sa commune. La formation politique recueille#Party2_voter_share pour cent des voix.</t>
+    <t>Une progression significative de #Party2_change points de pourcentage permet au #Party2_name_f de devenir le deuxième parti de sa commune. La formation politique recueille#Party2_voter_share % des voix.</t>
   </si>
   <si>
     <t>Il partito #Party2_name_i subisce una forte diminuzione a #Gemeinde_i. Perde #Party2_change punti percentuali rispetto alle elezioni per il Consiglio Nazionale del 2019 ed è ora il secondo partito del comune con il #Party2_voter_share percento dei voti.</t>
@@ -437,7 +437,7 @@
     <t>Die #Party2_name_d steigert sich mit einem Plus von #Party2_change Prozentpunkte stark. Die Partei belegt nun den zweiten Platz in der Gemeinde. Der Wählerstimmenanteil beträgt neu #Party2_voter_share Prozent.</t>
   </si>
   <si>
-    <t>Le #Party2_name_f progresse fortement: le parti améliore son résultat d'il y a quatre ans de #Party2_change points de pourcentage et occupe désormais la deuxième place dans la commune. La proportion de voix du parti s'élève désormais à #Party2_voter_share pour cent.</t>
+    <t>Le #Party2_name_f progresse fortement: le parti améliore son résultat d'il y a quatre ans de #Party2_change points de pourcentage et occupe désormais la deuxième place dans la commune. La proportion de voix du parti s'élève désormais à #Party2_voter_share %.</t>
   </si>
   <si>
     <t>Il partito #Party2_name_i perde molte preferenze. Il partito registra una diminuzione di #Party2_change punti percentuali rispetto alle elezioni del 2019. Nonostante ciò, rimane in seconda posizione con una percentuale di elettori del #Party2_voter_share percento.</t>
@@ -449,7 +449,7 @@
     <t>Einen markanten Verlust muss die #Party2_name_d hinnehmen: Die Partei verliert #Party2_change Prozentpunkte gegenüber den Wahlen 2019 und liegt jetzt noch bei #Party2_voter_share Prozent Wähleranteil. Das bedeutet dennoch Rang 2.</t>
   </si>
   <si>
-    <t>Le #Party2_name_f connaît un fort recul à #Gemeinde_f. Il perd #Party2_change points de pourcentage par rapport aux élections pour le Conseil national de 2019 et est désormais le deuxième parti de la commune avec #Party2_voter_share pour cent des suffrages.</t>
+    <t>Le #Party2_name_f connaît un fort recul à #Gemeinde_f. La formation perd #Party2_change points de pourcentage par rapport aux élections pour le Conseil national de 2019 et est désormais le deuxième parti de la commune avec #Party2_voter_share % des suffrages.</t>
   </si>
   <si>
     <t>Nonostante una diminuzione di #Party2_change punti percentuali rispetto alle elezioni del 2019, il partito #Party2_name_i mantiene sempre la seconda posizione. Raccoglie il #Party2_voter_share percento dei voti.</t>
@@ -461,7 +461,7 @@
     <t>Die #Party2_name_d verliert mit einem Minus von #Party2_change Prozentpunkten gegenüber den Wahlen 2019 sehr viele Wählerstimmen. Trotzdem liegt die Partei mit einem Wähleranteil von #Party2_voter_share Prozent noch auf dem zweiten Platz.</t>
   </si>
   <si>
-    <t>Le #Party2_name_f perd beaucoup de voix. Le parti enregistre un recul de #Party2_change points de pourcentage par rapport aux élections de 2019. Malgré cela, il reste en deuxième position avec un pourcentage d'électeurs de #Party2_voter_share pour cent.</t>
+    <t>Le #Party2_name_f perd beaucoup de voix. Le parti enregistre un recul de #Party2_change points de pourcentage par rapport aux élections de 2019. Malgré cela, la formation reste en deuxième position avec un pourcentage d'électeurs de #Party2_voter_share %.</t>
   </si>
   <si>
     <t>Il partito #Party2_name_i perde molti voti, registrando una perdita di #Party2_change punti percentuali rispetto alle elezioni del 2019. Nonostante ciò, rimane in seconda posizione con una quota di elettori del #Party2_voter_share percento.</t>
@@ -470,7 +470,7 @@
     <t>Trotz einem Minus von #Party2_change Prozentpunkten gegenüber den Wahlen 2019 belegt die #Party2_name_d immer noch den zweiten Platz. Dies dank eines Wähleranteils von #Party2_voter_share Prozent.</t>
   </si>
   <si>
-    <t>Malgré un recul de #Party2_change points de pourcentage par rapport aux élections de 2019, le #Party2_name_f occupe toujours la deuxième place. Il engrange #Party2_voter_share pour cent des voix.</t>
+    <t>Malgré un recul de #Party2_change points de pourcentage par rapport aux élections de 2019, le #Party2_name_f occupe toujours la deuxième place. La formation engrange #Party2_voter_share % des voix.</t>
   </si>
   <si>
     <t>Nonostante una perdita di #Party2_change punti percentuali rispetto alle elezioni del 2019, il partito #Party2_name_i occupa ancora il secondo posto. Raccoglie il #Party2_voter_share percento dei voti.</t>
@@ -482,7 +482,7 @@
     <t>Den zweiten Platz in #Gemeinde_d teilen sich zwei Parteien: Die #Party2_name_d und die #Party3_name_d sind genau gleich stark. Mit je #Party2_voter_share Prozent kommen beide Parteien auf den gleichen Wähleranteil.</t>
   </si>
   <si>
-    <t>Deux partis se partagent la deuxième place à #Gemeinde_f : le #Party2_name_f et le #Party3_name_f obtiennent exactement le même résultat, soit #Party2_voter_share pour cent des voix.</t>
+    <t>Deux partis se partagent la deuxième place à #Gemeinde_f : le #Party2_name_f et le #Party3_name_f obtiennent exactement le même résultat, soit #Party2_voter_share % des voix.</t>
   </si>
   <si>
     <t>Due formazioni condividono il secondo posto a #Gemeinde_i: il partito #Party2_name_i e il partito #Party3_name_i ottengono esattamente lo stesso risultato, ovvero il #Party2_voter_share percento dei voti.</t>
@@ -497,7 +497,7 @@
     <t>Am zweitmeisten Stimmen, nämlich #Party2_voter_share Prozent, gehen in #Gemeinde_d an Listen oder Parteien aus der Kategorie "Übrige".</t>
   </si>
   <si>
-    <t>Des partis ou des listes issus du groupe "Divers" terminent deuxième à #Gemeinde_f. Ils réalisent #Party2_voter_share pour cent des voix.</t>
+    <t>Des partis ou des listes issus du groupe "Divers" terminent deuxième à #Gemeinde_f. Ils réalisent #Party2_voter_share % des voix.</t>
   </si>
   <si>
     <t>Partiti o liste del gruppo "Diversi" si classificano al secondo posto a #Gemeinde_i. Ottengono il #Party2_voter_share percento dei voti.</t>
@@ -512,7 +512,7 @@
     <t>Die #Party3_name_d landet mit #Party3_voter_share Prozent auf dem dritten Platz (Veränderung gegenüber 2019: #Party3_change Prozentpunkte).</t>
   </si>
   <si>
-    <t>Le #Party3_name_f se classe troisième. Il obtient #Party3_voter_share pour cent des voix (#Party3_change points de pourcentage par rapport à 2019).</t>
+    <t>Le #Party3_name_f se classe troisième. La formation obtient #Party3_voter_share % des voix (#Party3_change points de pourcentage par rapport à 2019).</t>
   </si>
   <si>
     <t>Il partito #Party3_name_i si classifica terzo, ottenendo il #Party3_voter_share percento dei voti (#Party3_change punti percentuali rispetto al 2019).</t>
@@ -524,7 +524,7 @@
     <t>Mit einem Wähleranteil von #Party3_voter_share Prozent belegt die #Party3_name_d den dritten Platz (Veränderung gegenüber 2019: #Party3_change Prozentpunkte).</t>
   </si>
   <si>
-    <t xml:space="preserve">La troisième place est occupée par le #Party3_name_f. Le parti emmagasine #Party3_voter_share pour cent des voix (#Party3_change points de pourcentage par rapport à 2019) </t>
+    <t xml:space="preserve">La troisième place est occupée par le #Party3_name_f. Le parti emmagasine #Party3_voter_share % des voix (#Party3_change points de pourcentage par rapport à 2019) </t>
   </si>
   <si>
     <t>La terza posizione è occupata dal partito #Party3_name_i che ottiene il #Party3_voter_share percento dei voti (#Party3_change punti percentuali rispetto al 2019).</t>
@@ -533,7 +533,7 @@
     <t>Der dritte Platz geht an die #Party3_name_d. Die Partei erreicht #Party3_voter_share Prozent der Stimmen (Veränderung von #Party3_change Prozentpunkten gegenüber 2019).</t>
   </si>
   <si>
-    <t>Le #Party3_name_f complète le podium. Il récolte #Party3_voter_share pour cent des suffrages (#Party3_change).</t>
+    <t>Le #Party3_name_f complète le podium. La formation récolte #Party3_voter_share % des suffrages (#Party3_change).</t>
   </si>
   <si>
     <t>Il partito #Party3_name_i completa il podio con il #Party3_voter_share percento dei voti (#Party3_change).</t>
@@ -542,16 +542,16 @@
     <t>Die #Party3_name_d sichert sich den dritten Platz, mit einem Wähleranteil von #Party3_voter_share Prozent (Veränderung gegenüber 2019: #Party3_change Prozentpunkte).</t>
   </si>
   <si>
-    <t>A la troisième place figure le #Party3_name_f, qui réalise #Party3_voter_share pour cent des voix (#Party3_change).</t>
+    <t>A la troisième place figure le #Party3_name_f, qui réalise #Party3_voter_share % des voix (#Party3_change).</t>
   </si>
   <si>
     <t>Al terzo posto troviamo il partito #Party3_name_i con il #Party3_voter_share percento dei voti (#Party3_change).</t>
   </si>
   <si>
-    <t xml:space="preserve">Auf dem dritten Platz landet die #Party3_name_d mit #Party3_voter_share Prozent der Stimmen. Das bedeutet eine Veränderung von #Party3_change Prozentpunkte gegenüber 2019. </t>
-  </si>
-  <si>
-    <t>Le #Party3_name_f arrive en troisième position avec #Party3_voter_share pour cent des votes. Cela représente un changement de #Party3_change points de pourcentage par rapport à 2019.</t>
+    <t xml:space="preserve">Auf dem dritten Platz landet die #Party3_name_d mit #Party3_voter_share Prozent der Stimmen. Das bedeutet eine Veränderung von #Party3_change Prozentpunkten gegenüber 2019. </t>
+  </si>
+  <si>
+    <t>Le #Party3_name_f arrive en troisième position avec #Party3_voter_share % des votes. Cela représente un changement de #Party3_change points de pourcentage par rapport à 2019.</t>
   </si>
   <si>
     <t>Il partito #Party3_name_i si posiziona terzo con il #Party3_voter_share percento dei voti. Questo rappresenta una variazione di #Party3_change punti percentuali rispetto al 2019.</t>
@@ -560,7 +560,7 @@
     <t>Den dritten Platz belegt die #Party3_name_d. Die Partei erzielt einen Wähleranteil von #Party3_voter_share Prozent. (Veränderung gegenüber 2019: #Party3_change Prozentpunkte)</t>
   </si>
   <si>
-    <t>La troisième place est occupée par le #Party3_name_f. Il obtient un pourcentage d'électeurs de #Party3_voter_share. (#Party3_change points de pourcentage de différence par rapport à 2019).</t>
+    <t>La troisième place est occupée par le #Party3_name_f. La formation obtient un pourcentage d'électeurs de #Party3_voter_share. (#Party3_change points de pourcentage de différence par rapport à 2019).</t>
   </si>
   <si>
     <t>La terza posizione è occupata dal partito #Party3_name_i. Ottiene una percentuale di elettori del il #Party3_voter_share. (#Party3_change punti percentuali di differenza rispetto al 2019).</t>
@@ -569,10 +569,10 @@
     <t>Third_big_jump_percentage</t>
   </si>
   <si>
-    <t>Deutlich zulegen kann die #Party3_name_d. Die Partei ist die dritte Kraft in der Gemeinde und kommt neu auf einen Wähleranteil von #Party3_voter_share Prozent, was einer Zunahme von #Party3_change Prozentpunkten gegenüber der letzten Wahl entspricht.</t>
-  </si>
-  <si>
-    <t>Le #Party3_name_f a nettement progressé. Le parti devient la troisième force électorale de la commune et obtient #Party3_voter_share pour cent des voix, ce qui correspond à une augmentation de #Party3_change points de pourcentage par rapport à 2019.</t>
+    <t>Deutlich zulegen kann die #Party3_name_d. Die Partei ist die drittstärkste Kraft in der Gemeinde und kommt neu auf einen Wähleranteil von #Party3_voter_share Prozent, was einer Zunahme von #Party3_change Prozentpunkten gegenüber der letzten Wahl entspricht.</t>
+  </si>
+  <si>
+    <t>Le #Party3_name_f a nettement progressé. Le parti devient la troisième force électorale de la commune et obtient #Party3_voter_share % des voix, ce qui correspond à une augmentation de #Party3_change points de pourcentage par rapport à 2019.</t>
   </si>
   <si>
     <t>Il partito #Party3_name_i ha fatto notevoli progressi, diventando la terza forza elettorale del comune e ottenendo il #Party3_voter_share percento dei voti, un aumento di #Party3_change punti percentuali rispetto al 2019.</t>
@@ -581,10 +581,10 @@
     <t>Drittstärkste Partei mit grossem Zugewinn (&gt; 5 PP)</t>
   </si>
   <si>
-    <t>Die #Party3_name_d verzeichnet einen deutlichen Zuwachs. Die Partei belegt nun den dritten Platz in der Gemeinde und erreicht neu einen Wähleranteil von #Party3_voter_share Prozent. Das sind #Party3_change Prozentpunkte mehr als im Vergleich bei den letzten Wahlen.</t>
-  </si>
-  <si>
-    <t>Le #Party3_name_f enregistre une nette progression. Il occupe désormais la troisième place dans la commune et obtient désormais #Party3_voter_share pour cent des voix. Cela représente #Party3_change points de pourcentage de plus qu'en 2019.</t>
+    <t>Die #Party3_name_d verzeichnet einen deutlichen Zuwachs. Die Partei belegt nun den dritten Platz in der Gemeinde und erreicht neu einen Wähleranteil von #Party3_voter_share Prozent. Das sind #Party3_change Prozentpunkte mehr als im Vergleich zu den letzten Wahlen.</t>
+  </si>
+  <si>
+    <t>Le #Party3_name_f enregistre une nette progression. La formation occupe désormais la troisième place dans la commune et obtient désormais #Party3_voter_share % des voix. Cela représente #Party3_change points de pourcentage de plus qu'en 2019.</t>
   </si>
   <si>
     <t>Il partito #Party3_name_i registra una forte crescita. Ora si classifica terzo nel comune e riceve il #Party3_voter_share percento dei voti, ovvero #Party3_change punti percentuali in più rispetto al 2019.</t>
@@ -593,7 +593,7 @@
     <t>Mit einem deutlichen Anstieg von #Party3_change Prozentpunkten gegenüber den letzten Wahlen kann sich die #Party3_name_d ihren Platz als drittgrösste Partei in der Gemeinde sichern. Der Wähleranteil liegt nun bei #Party3_voter_share Prozent.</t>
   </si>
   <si>
-    <t>Une forte progression de #Party3_change points de pourcentage par rapport aux dernières élections fédérales permet au #Party3_name_f de grimper à la troisième place dans la commune. Son pourcentage d'électeurs est désormais de #Party3_voter_share pour cent.</t>
+    <t>Une forte progression de #Party3_change points de pourcentage par rapport aux dernières élections fédérales permet au #Party3_name_f de grimper à la troisième place dans la commune. Son pourcentage d'électeurs est désormais de #Party3_voter_share %.</t>
   </si>
   <si>
     <t>Grazie a un notevole aumento di #Party3_change punti percentuali rispetto alle ultime elezioni federali, il partito #Party3_name_i raggiunge il terzo posto nel comune. Ora ha una percentuale di elettori del #Party3_voter_share percento.</t>
@@ -602,10 +602,10 @@
     <t>Third_big_fall_percentage</t>
   </si>
   <si>
-    <t>Viele Wählerstimmen eingebüsst hat die drittplatzierte #Party3_name_d. Die Partei holt noch #Party3_voter_share Prozent, was einen Verlust von #Party3_change Prozentpunkte bedeutet.</t>
-  </si>
-  <si>
-    <t>Le #Party3_name_f, troisième parti, a perdu beaucoup de voix. La formation obtient #Party3_voter_share pour cent des voix, ce qui représente une perte de #Party3_change points de pourcentage.</t>
+    <t>Viele Wählerstimmen eingebüsst hat die drittplatzierte #Party3_name_d. Die Partei holt noch #Party3_voter_share Prozent, was einen Verlust von #Party3_change Prozentpunkten bedeutet.</t>
+  </si>
+  <si>
+    <t>Le #Party3_name_f, troisième parti, a perdu beaucoup de voix. La formation obtient #Party3_voter_share % des voix, ce qui représente une perte de #Party3_change points de pourcentage.</t>
   </si>
   <si>
     <t>Il partito #Party3_name_i, terzo partito, ha perso molti voti, ricevendo il #Party3_voter_share percento dei voti, una perdita di #Party3_change punti percentuali.</t>
@@ -614,10 +614,10 @@
     <t>Drittstärkste Partei mit grossem Verlust (&lt; 5 PP)</t>
   </si>
   <si>
-    <t>Die #Party3_name_d verliert #Party3_change Prozentpunkte und damit so viele Stimmen, dass die Partei mit einem Wähleranteil von #Party3_voter_share Prozent nur noch auf dem dritten Platz landet.</t>
-  </si>
-  <si>
-    <t>Le #Party3_name_f perd #Party3_change points de pourcentage. Il n'arrive plus qu'en troisième position avec #Party3_voter_share pour cent des voix.</t>
+    <t>Die #Party3_name_d verliert #Party3_change Prozentpunkte und damit so viele Stimmen, dass sie mit einem Wähleranteil von #Party3_voter_share Prozent nur noch auf dem dritten Platz landet.</t>
+  </si>
+  <si>
+    <t>Le #Party3_name_f perd #Party3_change points de pourcentage. La formation n'arrive plus qu'en troisième position avec #Party3_voter_share % des voix.</t>
   </si>
   <si>
     <t>Il partito #Party3_name_i perde #Party3_change punti percentuali e si classifica ora al terzo posto con il #Party3_voter_share percento dei voti.</t>
@@ -626,7 +626,7 @@
     <t>Die #Party3_name_d muss sich mit dem dritten Platz begnügen. Die Partei erreicht nur noch #Party3_voter_share Prozent der Stimmen und damit #Party3_change Prozentpunkte weniger als vor vier Jahren.</t>
   </si>
   <si>
-    <t>Le #Party3_name_f doit se contenter de la troisième place. Le parti n'obtient plus que #Party3_voter_share pour cent des voix, soit #Party3_change points de pourcentage de moins qu'il y a quatre ans.</t>
+    <t>Le #Party3_name_f doit se contenter de la troisième place. Le parti n'obtient plus que #Party3_voter_share % des voix, soit #Party3_change points de pourcentage de moins qu'il y a quatre ans.</t>
   </si>
   <si>
     <t>Il partito #Party3_name_i deve accontentarsi del terzo posto, ricevendo solo il #Party3_voter_share percento dei voti, ovvero #Party3_change punti percentuali in meno rispetto a quattro anni fa.</t>
@@ -653,7 +653,7 @@
     <t>Am drittmeisten Stimmen, nämlich #Party3_voter_share Prozent, gehen in #Gemeinde_d an Listen oder Parteien aus der Kategorie "Übrige".</t>
   </si>
   <si>
-    <t>Des partis ou des listes issus du groupe "Divers" terminent troisième à #Gemeinde_f. lls séduisent#Party3_voter_share pour cent des électeurs.</t>
+    <t>Des partis ou des listes issus du groupe "Divers" terminent troisième à #Gemeinde_f. lls séduisent#Party3_voter_share % des électeurs.</t>
   </si>
   <si>
     <t>Partiti o liste del gruppo "Diversi" si classificano al terzo posto a #Gemeinde_i. Attirano il #Party3_voter_share percento degli elettori.</t>
@@ -668,7 +668,7 @@
     <t>Die Reihenfolge der Parteien in #Gemeinde_d bleibt im Vergleich zu den Wahlen 2019 gleich: Die #Party1_name_d bleibt mit #Party1_voter_share Prozent die stärkste Kraft, gefolgt von der #Party2_name_d (#Party2_voter_share Prozent, #Party2_change Prozentpunkte) und der #Party3_name_d (#Party3_voter_share Prozent, #Party3_change Prozentpunkte).</t>
   </si>
   <si>
-    <t>Le classement n'a pas changé depuis quatre ans à #Gemeinde_f: le #Party1_name_f reste premier avec #Party1_voter_share pour cent des voix. Il devance le #Party2_name_f (#Party2_voter_share pour cent, #Party2_change points de pourcentage) et le #Party3_name_f (#Party3_voter_share pour cent, #Party3_change points de pourcentage).</t>
+    <t>Le classement n'a pas changé depuis quatre ans à #Gemeinde_f: le #Party1_name_f reste premier avec #Party1_voter_share % des voix. La formation devance le #Party2_name_f (#Party2_voter_share %, #Party2_change points de pourcentage) et le #Party3_name_f (#Party3_voter_share %, #Party3_change points de pourcentage).</t>
   </si>
   <si>
     <t>La classifica non è cambiata negli ultimi quattro anni a #Gemeinde_i: il partito #Party1_name_i rimane primo con il #Party1_voter_share percento dei voti. Precede il partito #Party2_name_i (#Party2_voter_share percento, #Party2_change punti percentuali) e il partito #Party3_name_i (il #Party3_voter_share percento, #Party3_change punti percentuali).</t>
@@ -677,10 +677,10 @@
     <t>Gleiche Reihenfolge wie beim letzten Mal bei den ersten drei Parteien + keine grossen Sprünge (&lt; 5 PP)</t>
   </si>
   <si>
-    <t>Alles bleibt beim Alten in #Gemeinde_d: Die drei stärksten Parteien verteidigen ihre Spitzenplätze in unveränderter Reihenfolge: Die #Party1_name_d geht mit #Party1_voter_share Prozent (#Party1_change Prozentpunkte) wiederum als stärkste Kraft aus den Nationalratswahlen. Zweitstärkste Partei ist die #Party2_name_d (#Party2_voter_share Prozent, #Party2_change Prozentpunkte), drittstärkste die #Party3_name_d (#Party3_voter_share Prozent, #Party3_change Prozentpunkte).</t>
-  </si>
-  <si>
-    <t>Rien n'a changé en quatre ans à #Gemeinde_f: les trois même partis restent en tête. Le #Party1_name_f conserve sa première place avec #Party1_voter_share pour cent des voix. Il devance le #Party2_name_f (#Party2_voter_share pour cent, #Party2_change points de pourcentage) et le #Party3_name_f (#Party3_voter_share pour cent, #Party3_change points de pourcentage).</t>
+    <t>Alles bleibt beim Alten in #Gemeinde_d: Die drei stärksten Parteien verteidigen ihre Spitzenplätze in unveränderter Reihenfolge: Die #Party1_name_d geht mit #Party1_voter_share Prozent (#Party1_change Prozentpunkte) wieder als stärkste Kraft aus den Nationalratswahlen. Zweitstärkste Partei ist die #Party2_name_d (#Party2_voter_share Prozent, #Party2_change Prozentpunkte), drittstärkste die #Party3_name_d (#Party3_voter_share Prozent, #Party3_change Prozentpunkte).</t>
+  </si>
+  <si>
+    <t>Rien n'a changé en quatre ans à #Gemeinde_f: les trois même partis restent en tête. Le #Party1_name_f conserve sa première place avec #Party1_voter_share % des voix. La formation devance le #Party2_name_f (#Party2_voter_share %, #Party2_change points de pourcentage) et le #Party3_name_f (#Party3_voter_share %, #Party3_change points de pourcentage).</t>
   </si>
   <si>
     <t>Nulla è cambiato in quattro anni a #Gemeinde_i: i tre stessi partiti rimangono in cima. Il partito #Party1_name_i mantiene la sua posizione al primo posto con il #Party1_voter_share percento dei voti. Precede il partito #Party2_name_i (#Party2_voter_share percento, #Party2_change punti percentuali) e il partito #Party3_name_i (il #Party3_voter_share percento, #Party3_change punti percentuali).</t>
@@ -689,7 +689,7 @@
     <t>Die Spitzenplätze in #Gemeinde_d bleiben gleich: Unverändert belegen die #Party1_name_d, die #Party2_name_d und die #Party3_name_d die ersten drei Plätze. Sie holen #Party1_voter_share Prozent (#Party1_change Prozentpunkte), #Party2_voter_share Prozent (#Party2_change Prozentpunkte) respektive #Party3_voter_share Prozent (#Party3_change Prozentpunkte) der Stimmen.</t>
   </si>
   <si>
-    <t xml:space="preserve">Le trio de tête reste inchangé à #Gemeinde_f: le #Party1_name_f reste premier avec #Party1_voter_share pour cent des voix. Il devance le #Party2_name_f (#Party2_voter_share pour cent, #Party2_change points de pourcentage) et le #Party3_name_f (#Party3_voter_share pour cent, #Party3_change points). </t>
+    <t xml:space="preserve">Le trio de tête reste inchangé à #Gemeinde_f: le #Party1_name_f reste premier avec #Party1_voter_share % des voix. La formation devance le #Party2_name_f (#Party2_voter_share %, #Party2_change points de pourcentage) et le #Party3_name_f (#Party3_voter_share %, #Party3_change points). </t>
   </si>
   <si>
     <t>Il trio di testa rimane invariato a #Gemeinde_i: il partito #Party1_name_i rimane primo con il #Party1_voter_share percento dei voti. Precede il partito #Party2_name_i (#Party2_voter_share percento, #Party2_change punti percentuali) e il partito #Party3_name_i (il #Party3_voter_share percento, #Party3_change punti).</t>
@@ -701,7 +701,7 @@
     <t>Eine Besonderheit gibt es in #Gemeinde_d: Die #Party1_name_d, die #Party2_name_d und die #Party3_name_d sind genau gleich stark. Mit je #Party1_voter_share Prozent kommen die drei Parteien auf den gleichen Wähleranteil.</t>
   </si>
   <si>
-    <t>Résultat très particulier à #Gemeinde_f: le #Party1_name_f, le #Party2_name_f ainsi que le le #Party3_name_f terminent à égalité. Ils obtiennent chacun #Party1_voter_share pour cent des voix.</t>
+    <t>Résultat très particulier à #Gemeinde_f: le #Party1_name_f, le #Party2_name_f ainsi que le le #Party3_name_f terminent à égalité. Ils obtiennent chacun #Party1_voter_share % des voix.</t>
   </si>
   <si>
     <t>Risultato particolare a #Gemeinde_i: #Party1_name_i, #Party2_name_i e #Party3_name_i finiscono in parità. Ognuno ottiene il #Party1_voter_share percento dei voti.</t>
@@ -728,7 +728,7 @@
     <t>In #Gemeinde_d steht die #Party1_name_d mit #Party1_votes Stimmen an erster Stelle. Dahinter folgen die #Party2_name_d mit #Party2_votes Stimmen und die #Party3_name_d mit #Party3_votes Stimmen.</t>
   </si>
   <si>
-    <t>Le #Party1_name_f est premier à #Gemeinde_f avec #Party1_votes voix. Il est suivi par le #Party2_name_f avec #Party2_votes voix et le #Party3_name_f avec #Party3_votes voix.</t>
+    <t>Le #Party1_name_f est premier à #Gemeinde_f avec #Party1_votes voix. La formation est suivie par le #Party2_name_f avec #Party2_votes voix et le #Party3_name_f avec #Party3_votes voix.</t>
   </si>
   <si>
     <t>Il partito #Party1_name_i è primo a #Gemeinde_i con #Party1_votes voti. È seguito dal partito #Party2_name_i con #Party2_votes voti e dal partito #Party3_name_i con #Party3_votes voti.</t>
@@ -746,7 +746,7 @@
     <t>Die #Party1_name_d holt in #Gemeinde_d am meisten Stimmen, nämlich #Party1_votes, gefolgt von der #Party2_name_d mit #Party2_votes Stimmen und der #Party3_name_d mit #Party3_votes Stimmen.</t>
   </si>
   <si>
-    <t>Le #Party1_name_f obtient le plus de voix (#Party1_votes) à #Gemeinde_f. Il est suivi par le #Party2_name_f avec #Party2_votes voix et #Party3_name_f avec #Party3_votes voix.</t>
+    <t>Le #Party1_name_f obtient le plus de voix (#Party1_votes) à #Gemeinde_f. Le parti est suivi par le #Party2_name_f avec #Party2_votes voix et #Party3_name_f avec #Party3_votes voix.</t>
   </si>
   <si>
     <t>Il partito #Party1_name_i riceve il maggior numero di voti (#Party1_votes) a #Gemeinde_i. Seguono partito #Party2_name_i con #Party2_votes voti e partito #Party3_name_i con #Party3_votes voti.</t>
@@ -782,7 +782,7 @@
     <t>In #Gemeinde_d vereinigen die #Party1_name_d, die #Party2_name_d und die #Party3_name_d die meisten Wählerstimmen auf sich. Sie erzielen #Party1_votes Stimmen, #Party2_votes Stimmen respektive #Party3_votes Stimmen.</t>
   </si>
   <si>
-    <t>La majorité des votes sont répartis entre le #Party1_name_f, le #Party2_name_f et le #Party3_name_f à #Gemeinde_f. Ils obtiennent respectivement #Party1_votes, #Party2_votes et #Party3_votes voix.</t>
+    <t>La majorité des votes sont répartis entre le #Party1_name_f, le #Party2_name_f et le #Party3_name_f à #Gemeinde_f. Les formations obtiennent respectivement #Party1_votes, #Party2_votes et #Party3_votes voix.</t>
   </si>
   <si>
     <t>La maggior parte dei voti sono distribuiti tra #Party1_name_i, #Party2_name_i e #Party3_name_i a #Gemeinde_i. Ricevono rispettivamente #Party1_votes, #Party2_votes e #Party3_votes voti.</t>
@@ -818,13 +818,13 @@
     <t>In der Gemeinde #Gemeinde_d holt sich die #Party1_name_d am meisten Stimmen (#Party1_votes Stimmen). Dahinter folgen die #Party2_name_d (#Party2_votes Stimmen) und die #Party3_name_d (#Party3_votes Stimmen).</t>
   </si>
   <si>
-    <t>Le #Party1_name_f obtient le plus de voix (#Party1_votes) à #Gemeinde_f. Il est suivi par le #Party2_name_f (#Party2_votes voix) et le #Party3_name_f (#Party3_votes voix).</t>
+    <t>Le #Party1_name_f obtient le plus de voix (#Party1_votes) à #Gemeinde_f. La formation est suivie par le #Party2_name_f (#Party2_votes voix) et le #Party3_name_f (#Party3_votes voix).</t>
   </si>
   <si>
     <t>Il partito #Party1_name_i riceve il maggior numero di voti (#Party1_votes) a #Gemeinde_i. È seguito dal partito #Party2_name_i (#Party2_votes voti) e dal partito #Party3_name_i (#Party3_votes voti).</t>
   </si>
   <si>
-    <t>In #Gemeinde_d verteilen die Wahlberechtigten ihre Stimmen auf die #Party1_name_d (#Party1_votes Stimmen), die #Party2_name_d (#Party2_votes Stimmen) und die #Party3_name_d (#Party3_votes Stimmen) am meisten Stimmen gegeben.</t>
+    <t>In #Gemeinde_d verteilen die Wahlberechtigten ihre Stimmen auf die #Party1_name_d (#Party1_votes Stimmen), die #Party2_name_d (#Party2_votes Stimmen) und die #Party3_name_d (#Party3_votes Stimmen).</t>
   </si>
   <si>
     <t>Les électeurs de #Gemeinde_f répartissent leurs voix entre le #Party1_name_f (#Party1_votes voix), le #Party2_name_f (#Party2_votes voix) et le #Party3_name_f (#Party3_votes voix). Ces trois formations sont celles qui ont récollté le plus de votes.</t>
@@ -839,7 +839,7 @@
     <t>In #Gemeinde_d erzielt die Kandidatin respektive der Kandidat der #Party1_name_d #Party1_voter_share Prozent der Stimmen.</t>
   </si>
   <si>
-    <t>Le candidat ou la candidate du #Party1_name_f obtient #Party1_voter_share pour cent des voix à #Gemeinde_f.</t>
+    <t>Le candidat ou la candidate du #Party1_name_f obtient #Party1_voter_share % des voix à #Gemeinde_f.</t>
   </si>
   <si>
     <t>La persona candidata del partito #Party1_name_i ottiene il #Party1_voter_share percento dei voti a #Gemeinde_i.</t>
@@ -851,7 +851,7 @@
     <t>In #Gemeinde_d erhält der Kandidat oder die Kandidatin der #Party1_name_d #Party1_voter_share Prozent der Stimmen.</t>
   </si>
   <si>
-    <t>Le candidat ou la candidate du #Party1_name_f récolte #Party1_voter_share pour cent des voix à #Gemeinde_f.</t>
+    <t>Le candidat ou la candidate du #Party1_name_f récolte #Party1_voter_share % des voix à #Gemeinde_f.</t>
   </si>
   <si>
     <t>La persona candidata del partito #Party1_name_i raccoglie il #Party1_voter_share percento dei voti a #Gemeinde_i.</t>
@@ -860,7 +860,7 @@
     <t>Mit #Party1_voter_share Prozent der Stimmen behauptet sich in #Gemeinde_d der #Party1_name_d-Kandidat respektive die #Party1_name_d-Kandidatin.</t>
   </si>
   <si>
-    <t>Avec #Party1_voter_share pour cent des voix, le candidat ou la candidate de #Party1_name_f termine à la première place à #Gemeinde_f.</t>
+    <t>Avec #Party1_voter_share % des voix, le candidat ou la candidate de #Party1_name_f termine à la première place à #Gemeinde_f.</t>
   </si>
   <si>
     <t>Con il #Party1_voter_share percento dei voti, la persona candidata del partito #Party1_name_i finisce al primo posto a #Gemeinde_i.</t>
@@ -869,7 +869,7 @@
     <t>In #Gemeinde_d gehen #Party1_voter_share Prozent der Stimmen an die Kandidatin oder den Kandidaten der #Party1_name_d.</t>
   </si>
   <si>
-    <t>#Party1_voter_share pour cent des voix vont au candidat ou à la candidate du #Party1_name_f à #Gemeinde_f.</t>
+    <t>#Party1_voter_share % des voix vont au candidat ou à la candidate du #Party1_name_f à #Gemeinde_f.</t>
   </si>
   <si>
     <t>Il #Party1_voter_share percento dei voti va alla persona candidata del partito #Party1_name_i a #Gemeinde_i.</t>
@@ -899,7 +899,7 @@
     <t>In #Gemeinde_d erreicht die Kandidatin respektive der Kandidat der #Party1_name_d mit #Party1_votes am meisten Stimmen. Dahinter folgt der respektive die Kandidierende der #Party2_name_d mit #Party2_votes Stimmen.</t>
   </si>
   <si>
-    <t>Le candidat ou le candidate du #Party1_name_f obtient le meilleur score avec #Party1_votes voix à #Gemeinde_f. Il est suivi par le candidat du #Party2_name_f avec #Party2_votes voix.</t>
+    <t>Le candidat ou le candidate du #Party1_name_f obtient le meilleur score avec #Party1_votes voix à #Gemeinde_f. La formation est suivi par le candidat du #Party2_name_f avec #Party2_votes voix.</t>
   </si>
   <si>
     <t>La persona candidata del partito #Party1_name_i ottiene il miglior punteggio con #Party1_votes voti a #Gemeinde_i. È seguita da quella del partito #Party2_name_i con #Party2_votes voti.</t>
@@ -908,7 +908,7 @@
     <t>Kantone mit nur einem Nationalratsitz und mehr als einer Kandidatur. (Geschlechtsneutral schreiben, nur Platz 1 und 2 plus Wähleranteil und/oder Stimmen)</t>
   </si>
   <si>
-    <t>In #Gemeinde_d erlangt der Kandidat oder die Kandidatin der #Party1_name_d die Spitzenposition mit #Party1_votes Stimmen, gefolgt vom Kandidierenden der #Party2_name_d mit #Party2_votes Stimmen.</t>
+    <t>In #Gemeinde_d erlangt der Kandidat oder die Kandidatin der #Party1_name_d die Spitzenposition mit #Party1_votes Stimmen, gefolgt vom Kandidierenden respektive von der Kandidierenden der #Party2_name_d mit #Party2_votes Stimmen.</t>
   </si>
   <si>
     <t>Le candidat ou la candidate du #Party1_name_f termine en première position à #Gemeinde_f avec #Party1_votes, suivi par le candidat ou la candidate du #Party2_name_f avec #Party2_votes voix.</t>
@@ -917,7 +917,7 @@
     <t>La persona candidata del #Party1_name_f finisce in prima posizione a #Gemeinde_i con #Party1_votes voti, seguito dalla persona candidata del partito #Party2_name_i con #Party2_votes voti.</t>
   </si>
   <si>
-    <t>In der Gemeinde #Gemeinde_d gewinnt der #Party1_name_d-Kandidat respektive die #Party1_name_d-Kandidatin mit #Party1_votes Stimmen, während der Kandidat/ die Kandidatin der #Party2_name_d #Party2_votes Stimmen erhält.</t>
+    <t>In der Gemeinde #Gemeinde_d gewinnt der #Party1_name_d-Kandidat respektive die #Party1_name_d-Kandidatin mit #Party1_votes Stimmen, während der Kandidat/die Kandidatin der #Party2_name_d #Party2_votes Stimmen erhält.</t>
   </si>
   <si>
     <t>Le candidat ou la candidate du #Party1_name_f se classe au premier rang à #Gemeinde_f avec #Party1_votes voix. Le candidat ou la candidate du #Party2_name_f obtient #Party2_votes voix.</t>
@@ -926,7 +926,7 @@
     <t>La persona candidata del partito #Party1_name_i si classifica al primo posto a #Gemeinde_i con #Party1_votes voti. la persona candidata del partito #Party2_name_i ottiene #Party2_votes voti.</t>
   </si>
   <si>
-    <t>Mit #Party1_votes Stimmen liegt in #Gemeinde_d der Kandidat beziehungsweise die Kandidatin der #Party1_name_d der an der Spitze. Auf dem zweiten Rang landet mit #Party2_votes Stimmen der Bewerber/die Bewerberin der #Party2_name_d.</t>
+    <t>Mit #Party1_votes Stimmen liegt in #Gemeinde_d der Kandidat beziehungsweise die Kandidatin der #Party1_name_d an der Spitze. Auf dem zweiten Rang landet mit #Party2_votes Stimmen der Bewerber/die Bewerberin der #Party2_name_d.</t>
   </si>
   <si>
     <t>Avec #Party1_votes, le candidat ou la candidate du #Party1_name_f arrive en tête dans la comme de #Gemeinde_f. Le candidat ou la candidate du #Party2_name_f arrive en deuxième position (#Party2_votes voix).</t>
@@ -935,7 +935,7 @@
     <t>Con #Party1_votes voti, la persona candidata del partito #Party1_name_i arriva prima nel comune di #Gemeinde_i. Quella del partito #Party2_name_i si classifica al secondo posto con #Party2_votes voti.</t>
   </si>
   <si>
-    <t>In #Gemeinde_d zieht der Kandidat oder die Kandidatin der #Party1_name_d die meisten Stimmen auf sich, und zwar #Party1_votes . Die #Party2_name_d kommt mit ihrem Bewerber respektive ihrer Bewerberin auf #Party2_votes Stimmen.</t>
+    <t>In #Gemeinde_d zieht der Kandidat oder die Kandidatin der #Party1_name_d die meisten Stimmen auf sich, und zwar #Party1_votes. Die #Party2_name_d kommt mit ihrem Bewerber respektive ihrer Bewerberin auf #Party2_votes Stimmen.</t>
   </si>
   <si>
     <t>Le candidat ou la candidate du #Party1_name_f obtient le plus grand nombre de voix (#Party1_votes) à #Gemeinde_f. Le #Party2_name_f obtient #Party2_votes voix avec son candidat ou sa candidate.</t>
@@ -956,7 +956,7 @@
     <t>Mit einem Stimmenanteil von #Party1_voter_share Prozent obsiegt in der Gemeinde #Gemeinde_d die Kandidatin respektive der Kandidat der #Party1_name_d. Die #Party2_name_d erhält mit ihrer Bewerberin respektive ihrem Bewerber noch #Party2_voter_share Prozent der Stimmen.</t>
   </si>
   <si>
-    <t>Avec #Party1_voter_share pour cent des voix, la candidate ou le candidat du #Party1_name_f l'emporte à #Gemeinde_f. Le #Party2_name_f obtient avec son candidat (ou sa candidate) encore #Party2_voter_share pour cent des voix.</t>
+    <t>Avec #Party1_voter_share % des voix, la candidate ou le candidat du #Party1_name_f l'emporte à #Gemeinde_f. Le #Party2_name_f obtient avec son candidat (ou sa candidate) encore #Party2_voter_share % des voix.</t>
   </si>
   <si>
     <t>Con una percentuale del #Party1_voter_share%, la persona candidata del partito #Party1_name_i vince a #Gemeinde_i. Il partito #Party2_name_i ottiene il #Party2_voter_share% dei voti con la sua persona candidata.</t>
@@ -965,7 +965,7 @@
     <t>Der Kandidat oder die Kandidatin der #Party1_name_d setzt sich in #Gemeinde_d mit einem Anteil von #Party1_voter_share Prozent der Stimmen an die Spitze. Die #Party2_name_d macht mit ihrem Kandidaten oder ihrer Kandidatin #Party2_voter_share Prozent.</t>
   </si>
   <si>
-    <t>Le candidat ou la candidate du #Party1_name_f finit en tête à #Gemeinde_f avec #Party1_voter_share pour cent des voix. Le #Party2_name_f réalise lui #Party2_voter_share pour cent avec son candidat (ou sa candidate).</t>
+    <t>Le candidat ou la candidate du #Party1_name_f finit en tête à #Gemeinde_f avec #Party1_voter_share % des voix. Le #Party2_name_f réalise lui #Party2_voter_share % avec son candidat (ou sa candidate).</t>
   </si>
   <si>
     <t>La persona candidata del partito #Party1_name_i finisce prima a #Gemeinde_i con il #Party1_voter_share% dei voti. Il partito #Party2_name_i ottiene il #Party2_voter_share% dei voti con la sua persona candidata.</t>
@@ -974,7 +974,7 @@
     <t>Die #Party1_name_d kann in #Gemeinde_d mit ihrer Kandidatur #Party1_voter_share Prozent der Stimmen für sich gewinnen, die #Party2_name_d #Party2_voter_share Prozent.</t>
   </si>
   <si>
-    <t>Le #Party1_name_f est vainqueur à #Gemeinde_f avec #Party1_voter_share pour cent des voix. Le #Party2_name_f totalise #Party2_voter_share pour cent des suffrages.</t>
+    <t>Le #Party1_name_f est vainqueur à #Gemeinde_f avec #Party1_voter_share % des voix. Le #Party2_name_f totalise #Party2_voter_share % des suffrages.</t>
   </si>
   <si>
     <t>Il partito #Party1_name_i vince a #Gemeinde_i con il #Party1_voter_share% dei voti. Il partito #Party2_name_i raggiunge il #Party2_voter_share% dei voti.</t>
@@ -983,7 +983,7 @@
     <t>In der Gemeinde #Gemeinde_d landet die #Party1_name_d-Kandidatur mit #Party1_voter_share Prozent vorn, gefolgt vom Kandidaten respektive der Kandidatin der #Party2_name_d mit einem Wähleranteil von #Party2_voter_share Prozent.</t>
   </si>
   <si>
-    <t>Le candidat ou la candidate du #Party1_name_f se classe en tête à #Gemeinde_f avec #Party1_voter_share pour cent des voix. Il est suivi du candidat ou de la candidate du #Party2_name_f avec une part électorale de #Party2_voter_share pour cent.</t>
+    <t>Le candidat ou la candidate du #Party1_name_f se classe en tête à #Gemeinde_f avec #Party1_voter_share % des voix. La formation est suivi du candidat ou de la candidate du #Party2_name_f avec une part électorale de #Party2_voter_share %.</t>
   </si>
   <si>
     <t>La persona candidata del partito #Party1_name_i si classifica al primo posto a #Gemeinde_i con il #Party1_voter_share% dei voti. È seguito da quella del partito #Party2_name_i con una percentuale del #Party2_voter_share%.</t>
@@ -992,13 +992,13 @@
     <t>Mit #Party1_voter_share Prozent der Stimmen steht in #Gemeinde_d die Kandidatin respektive der Kandidat der #Party1_name_d an der Spitze. Die #Party2_name_d sammelt mit ihrem Bewerber oder ihrer Bewerberin #Party2_voter_share Prozent.</t>
   </si>
   <si>
-    <t>Le #Party1_name_f est vainqueur à #Gemeinde_f avec #Party1_voter_share pour cent des voix. Le #Party2_name_f totalise #Party2_voter_share pour cent des voix.</t>
+    <t>Le #Party1_name_f est vainqueur à #Gemeinde_f avec #Party1_voter_share % des voix. Le #Party2_name_f totalise #Party2_voter_share % des voix.</t>
   </si>
   <si>
     <t>In #Gemeinde_d kann die #Party1_name_d mit #Party1_voter_share Prozent den Sieg für sich beanspruchen, während die #Party2_name_d mit ihrem Kandidaten oder ihrer Kandidatin #Party2_voter_share Prozent verbucht.</t>
   </si>
   <si>
-    <t>Le #Party1_name_f peut revendiquer la victoire à #Gemeinde_f avec #Party1_voter_share pour cent des voix, tandis que le #Party2_name_f réunit avec son candidat ou sa candidate #Party2_voter_share pour cent.</t>
+    <t>Le #Party1_name_f peut revendiquer la victoire à #Gemeinde_f avec #Party1_voter_share % des voix, tandis que le #Party2_name_f réunit avec son candidat ou sa candidate #Party2_voter_share %.</t>
   </si>
   <si>
     <t>Il partito #Party1_name_i può rivendicare la vittoria a #Gemeinde_i con il #Party1_voter_share% dei voti, mentre il partito #Party2_name_i accumula con la sua persona candidata candidata il #Party2_voter_share% dei voti.</t>
@@ -1070,7 +1070,7 @@
     <t>Aussergewöhnlich ist: Die Gemeinde kann die höchste Wahlbeteiligung des ganzen Kantons verzeichnen: #Gemeinde_participation Prozent.</t>
   </si>
   <si>
-    <t>Cette commune enregistre le taux de participation le plus élevé de tout le canton (#Gemeinde_participation pour cent).</t>
+    <t>Cette commune enregistre le taux de participation le plus élevé de tout le canton (#Gemeinde_participation %).</t>
   </si>
   <si>
     <t>Questo comune registra il tasso di partecipazione più alto di tutto il cantone (#Gemeinde_participation percento).</t>
@@ -1085,7 +1085,7 @@
     <t>Erwähnenswert ist, dass die Gemeinde die tiefeste Wahlbeteiligung des ganzen Kantons aufweist: #Gemeinde_participation Prozent.</t>
   </si>
   <si>
-    <t>Cette commune enregistre le taux de participation le plus faible de tout le canton (#Gemeinde_participation pour cent).</t>
+    <t>Cette commune enregistre le taux de participation le plus faible de tout le canton (#Gemeinde_participation %).</t>
   </si>
   <si>
     <t>Questo comune registra il tasso di partecipazione più basso di tutto il cantone (#Gemeinde_participation percento).</t>
@@ -1127,10 +1127,10 @@
     <t>Add_Participation_Top10_in_CH</t>
   </si>
   <si>
-    <t>Die Gemeinde gehört in der Schweiz zu den Gemeinden mit der höchsten Wahlbeteiligung mit #Gemeinde_participation Prozent.</t>
-  </si>
-  <si>
-    <t>#Gemeinde_f fait partie des communes où la participation électorale est parmi les plus élevées en Suisse (#Gemeinde_participation pour cent).</t>
+    <t>Die Gemeinde gehört in der Schweiz zu den zehn Gemeinden mit der höchsten Wahlbeteiligung mit #Gemeinde_participation Prozent.</t>
+  </si>
+  <si>
+    <t>#Gemeinde_f fait partie des communes où la participation électorale est parmi les plus élevées en Suisse (#Gemeinde_participation %).</t>
   </si>
   <si>
     <t>#Gemeinde_i è tra i comuni dove la partecipazione elettorale è più alta (#Gemeinde_participation percento).</t>
@@ -1142,10 +1142,10 @@
     <t>Add_Participation_Bottom10_in_CH</t>
   </si>
   <si>
-    <t>Nur wenige Gemeinden weisen eine tiefere Wahlbeteiligung auf als #Gemeinde_d mit #Gemeinde_participation Prozent.</t>
-  </si>
-  <si>
-    <t>Peu de communes ont un taux de participation plus bas que celui enregistré à #Gemeinde_f (#Gemeinde_participation pour cent).</t>
+    <t>Nur wenige Gemeinden weisen eine tiefere Wahlbeteiligung auf als #Gemeinde_d mit #Gemeinde_participation Prozent. Sie gehört zu den zehn Gemeinden mit der tiefsten Wahlbeteiligung.</t>
+  </si>
+  <si>
+    <t>Peu de communes ont un taux de participation plus bas que celui enregistré à #Gemeinde_f (#Gemeinde_participation %).</t>
   </si>
   <si>
     <t>Pochi comuni hanno un tasso di partecipazione più basso di quello registrato a #Gemeinde_i (#Gemeinde_participation percento).</t>
@@ -1244,10 +1244,10 @@
     <t>Easteregg_Normalo</t>
   </si>
   <si>
-    <t>#Gemeinde_d ist bei den diesjährigen Nationalratswahlen statistisch betrachtet die durchschnittlichste Gemeinde der ganzen Schweiz. Nirgendwo weicht in Bezug auf die Wähleranteile der grössten Parteien das Wahlverhalten so wenig vom gesamtschweizerischen Resultat ab. So kommt die #Party1_name_d in #Gemeinde_d auf #Party1_voter_share Prozent der Wählerstimmen, während der Wähleranteil gesamtschweizerisch #Party1_overall_voter_share Prozent beträgt. Die #Party2_name_d erreicht #Party2_voter_share Prozent (schweizweit #Party2_overall_voter_share Prozent) und die #Party3_name_d #Party3_voter_share Prozent (#Party3_overall_voter_share Prozent). Die #Party4_name_d erzielt #Party4_voter_share Prozent, die #Party5_name_d #Party5_voter_share Prozent und die #Party6_name_d #Party6_voter_share Prozent.</t>
-  </si>
-  <si>
-    <t>D'un point de vue statistique, #Gemeinde_f est la commune la plus représentative de toute la Suisse lors des élections au Conseil national de cette année. Nulle part ailleurs, les choix des électeurs ne se rapprochent autant du résultat national. Ainsi, le #Party1_name_f obtient #Party1_voter_share pour cent des voix, alors que la part des électeurs s'élève à #Party1_overall_voter_share pour cent au niveau national. Le #Party2_name_f atteint #Party2_voter_share pour cent (#Party2_overall_voter_share pour cent au niveau suisse) et le #Party3_name_f #Party3_voter_share pour cent (#Party3_overall_voter_share pourcent). Le #Party4_name_f obtient #Party4_voter_share pour cent, le #Party5_name_f #Party5_voter_share pour cent et le #Party6_name_f #Party6_voter_share pour cent.</t>
+    <t>#Gemeinde_d ist bei den diesjährigen Nationalratswahlen statistisch betrachtet die durchschnittlichste Gemeinde der ganzen Schweiz. Nirgendwo weicht in Bezug auf die Wähleranteile der grössten Parteien das Wahlverhalten so wenig vom gesamtschweizerischen Resultat ab. So kommt die #Party1_name_d in #Gemeinde_d auf #Party1_voter_share Prozent der Wählerstimmen, während der Wähleranteil gesamtschweizerisch #Party1_overall_voter_share Prozent beträgt. Die #Party2_name_d erreicht #Party2_voter_share Prozent (schweizweit #Party2_overall_voter_share Prozent) und die #Party3_name_d #Party3_voter_share Prozent (#Party3_overall_voter_share Prozent). Die #Party4_name_d erzielt #Party4_voter_share Prozent (#Party4_overall_voter_share Prozent), die #Party5_name_d #Party5_voter_share Prozent (#Party5_overall_voter_share Prozent) und die #Party6_name_d #Party6_voter_share Prozent (#Party6_overall_voter_share Prozent).</t>
+  </si>
+  <si>
+    <t>D'un point de vue statistique, #Gemeinde_f est la commune la plus représentative de toute la Suisse lors des élections au Conseil ational de cette année. Nulle part aLa formationleurs, les choix des électeurs ne se rapprochent autant du résultat national. Ainsi, le #Party1_name_f obtient #Party1_voter_share % des voix, alors que la part des électeurs s'élève à #Party1_overall_voter_share % au niveau national. Le #Party2_name_f atteint #Party2_voter_share % (#Party2_overall_voter_share % au niveau suisse) et le #Party3_name_f #Party3_voter_share % (#Party3_overall_voter_share pourcent). Le #Party4_name_f obtient #Party4_voter_share %, le #Party5_name_f #Party5_voter_share % et le #Party6_name_f #Party6_voter_share %.</t>
   </si>
   <si>
     <t>Da un punto di vista statistico, #Gemeinde_i è il comune più rappresentativo di tutta la Svizzera nelle elezioni per il Consiglio nazionale di quest'anno. In nessun altro luogo, le scelte degli elettori sono così vicine al risultato nazionale. Così, il partito #Party1_name_i ottiene il #Party1_voter_share percento dei voti, mentre la quota degli elettori è del #Party1_overall_voter_share percento a livello nazionale. Il partito #Party2_name_i raggiunge il #Party2_voter_share percento dei voti (#Party2_overall_voter_share percento a livello svizzero) e il partito #Party3_name_i il #Party3_voter_share percento (#Party3_overall_voter_share percento). Il partito #Party4_name_i ottiene il #Party4_voter_share percento, il partito #Party5_name_i il #Party5_voter_share percento e il partito #Party6_name_i il #Party6_voter_share percento.</t>

--- a/Texte/LENA Textbausteine Eidgenössische Wahlen 2023_ Gemeindeebene.xlsx
+++ b/Texte/LENA Textbausteine Eidgenössische Wahlen 2023_ Gemeindeebene.xlsx
@@ -83,7 +83,7 @@
     <t>Die #Party1_name_d behauptet ihre Position als vorherrschende Partei in #Gemeinde_d. Die Partei verzeichnet einen Wähleranteil von #Party1_voter_share Prozent (#Party1_change Prozentpunkte).</t>
   </si>
   <si>
-    <t>Le #Party1_name_f maintient sa première place à #Gemeinde_f et obtient #Party1_voter_share pour des voix (#Party1_change points de pourcentage).</t>
+    <t>Le #Party1_name_f maintient sa première place à #Gemeinde_f avec #Party1_voter_share pour des voix (#Party1_change points de pourcentage).</t>
   </si>
   <si>
     <t>Il partito #Party1_name_i mantiene il primo posto a #Gemeinde_i e ottiene il #Party1_voter_share percento dei voti (#Party1_change punti percentuali).</t>
@@ -95,7 +95,7 @@
     <t>In #Gemeinde_d baut die #Party1_name_d ihre Vormachtstellung nochmals aus. Die Partei legt im Vergleich zu den Wahlen 2019 um #Party1_change Prozentpunkte zu und kommt neu auf einen Wähleranteil von #Party1_voter_share Prozent.</t>
   </si>
   <si>
-    <t>Le #Party1_name_f renforce encore sa suprématie à #Gemeinde_f. Le parti progresse de #Party1_change points de pourcentage par rapport aux élections de 2019. Le parti convainc désormais #Party1_voter_share % des électeurs de la commune.</t>
+    <t>Le #Party1_name_f renforce encore sa suprématie à #Gemeinde_f. Le parti progresse de #Party1_change points de pourcentage par rapport aux élections de 2019. Il convainc désormais #Party1_voter_share % des électeurs de la commune.</t>
   </si>
   <si>
     <t>Il partito #Party1_name_i rafforza ulteriormente la sua posizione a #Gemeinde_i, aumentando i propri voti di #Party1_change punti percentuali rispetto alle elezioni del 2019 e convincendo il #Party1_voter_share percento degli elettori del comune.</t>
@@ -119,7 +119,7 @@
     <t>In #Gemeinde_d verliert die #Party1_name_d zwar deutlich an Stimmen. Die Partei bleibt dennoch die stärkste Kraft und kommt neu auf einen Wähleranteil von #Party1_voter_share Prozent (#Party1_change Prozentpunkte).</t>
   </si>
   <si>
-    <t>Le #Party1_name_f perd beaucoup de voix à #Gemeinde_f. Le parti reste néanmoins la force la plus importante et obtient quand même #Party1_voter_share des voix (#Party1_change points de pourcentage).</t>
+    <t>Le #Party1_name_f perd beaucoup de voix à #Gemeinde_f. Le parti reste néanmoins la force la plus importante et obtient quand même #Party1_voter_share % des voix (#Party1_change points de pourcentage).</t>
   </si>
   <si>
     <t>Il partito #Party1_name_i perde molte preferenze a #Gemeinde_i. Tuttavia, rimane la forza più influente e ottiene ancora il #Party1_voter_share percento dei voti (#Party1_change punti percentuali).</t>
@@ -131,7 +131,7 @@
     <t>Trotz beträchtlicher Stimmenverluste in #Gemeinde_d bleibt die #Party1_name_d die vorherrschende Kraft. Die Partei erreicht neu noch einen Wähleranteil von #Party1_voter_share Prozent (#Party1_change Prozentpunkte).</t>
   </si>
   <si>
-    <t>Malgré des pertes considérables à #Gemeinde_f, le #Party1_name_f reste en tête. La formation convainc encore #Party1_voter_share % des électeurs (#Party1_changement de points de pourcentage).</t>
+    <t>Malgré des pertes considérables à #Gemeinde_f, le #Party1_name_f reste en tête. La formation convainc encore #Party1_voter_share % des électeurs (#Party1_change points de pourcentage).</t>
   </si>
   <si>
     <t>Nonostante le significative perdite a #Gemeinde_i, il partito #Party1_name_i rimane in testa. Riesce ancora a convincere il #Party1_voter_share percento degli elettori (#Party1_changement punti percentuali).</t>
@@ -143,7 +143,7 @@
     <t>In #Gemeinde_d ist die #Party1_name_d weiterhin mit deutlichem Abstand die grösste Partei. Sie holt #Party1_voter_share Prozent der Stimmen, #Party1_distance_to_next Prozentpunkte mehr als die nächstgrössere Partei.</t>
   </si>
   <si>
-    <t>Le #Party1_name_f reste le parti préféré des électeurs de #Gemeinde_f. La formation politique réalise #Party1_voter_share % des voix (#Party1_change points de pourcentage par rapport à 2019). C'est #Party1_distance_to_next points de plus que le #Party2_name_f qui, avec #Party2_voter_share % des voix (#Party2_change points de pourcentage), se classe en deuxième position dans cette commune.</t>
+    <t>Le #Party1_name_f reste le parti préféré des électeurs de #Gemeinde_f. La formation politique réalise #Party1_voter_share % des voix (#Party1_change points de pourcentage par rapport à 2019). C'est #Party1_distance_to_next points de plus que le #Party2_name_f, deuxième dans cette commune avec #Party2_voter_share % des voix (#Party2_change points de pourcentage).</t>
   </si>
   <si>
     <t>Il partito #Party1_name_i rimane il partito preferito degli elettori di #Gemeinde_i, totalizzando il #Party1_voter_share percento dei voti (#Party1_change punti percentuali rispetto al 2019). Ha #Party1_distance_to_next punti in più del partito #Party2_name_i che, con il #Party2_voter_share percento dei voti (#Party2_change punti percentuali), si classifica al secondo posto in questo comune.</t>
@@ -164,7 +164,7 @@
     <t>Mit deutlichem Abstand bleibt die #Party1_name_d die grösste Partei in #Gemeinde_d. Ihre Parteistärke beträgt #Party1_voter_share Prozent (#Party1_change Prozentpunkte). Der Vorsprung auf die nächstgrössere Partei, die #Party2_name_d, ist gross: #Party1_distance_to_next Prozentpunkte. Die #Party2_name_d holt #Party2_voter_share Prozent (#Party2_change Prozentpunkte).</t>
   </si>
   <si>
-    <t>Le #Party1_name_f reste nettement le parti le plus fort à #Gemeinde_f, avec #Party1_voter_share % des voix (#Party1_change points de pourcentage). Son avance sur le #Party2_name_f, qui réalise #Party2_voter_share % des suffrages (#Party2_change points de pourcentage) est importante. Elle est de #Party1_distance_to_next points de pourcentage.</t>
+    <t>Le #Party1_name_f reste nettement le parti le plus fort à #Gemeinde_f, avec #Party1_voter_share % des voix (#Party1_change points de pourcentage). L'avance est importante sur le #Party2_name_f, formation qui réalise #Party2_voter_share % des suffrages (#Party2_change points de pourcentage). Elle est de #Party1_distance_to_next points de pourcentage.</t>
   </si>
   <si>
     <t>Il partito #Party1_name_i rimane nettamente il partito più forte a #Gemeinde_i, con il #Party1_voter_share percento dei voti (#Party1_change punti percentuali). Il vantaggio sul partito #Party2_name_i, che ottiene il #Party2_voter_share percento dei voti (#Party2_change punti percentuali), è notevole. La differenza è di #Party1_distance_to_next punti percentuali.</t>
@@ -182,7 +182,7 @@
     <t>Mit grossem Abstand verteidigt die #Party1_name_d ihre Position als grösste Partei in #Gemeinde_d, mit einem Wähleranteil von #Party1_voter_share Prozent (#Party1_change Prozentpunkte). Der Abstand zur zweitgrößten Partei, der #Party2_name_d, beträgt #Party1_distance_to_next Prozentpunkte. Die #Party2_name_d erhält #Party2_voter_share Prozent der Stimmen (#Party2_change Prozentpunkte).</t>
   </si>
   <si>
-    <t>Le #Party1_name_f maintient sa position de plus grand parti dans la commune de #Gemeinde_f à, avec un pourcentage d'électeurs de #Party1_voter_share (#Party1_change points de pourcentage). L'écart avec le deuxième plus grand parti, le #Party2_name_f, est de #Party1_distance_to_next points de pourcentage. #Party2_name_f obtient #Party2_voter_share pourcent des voix (#Party2_change points de pourcentage).</t>
+    <t>Le #Party1_name_f maintient sa position de plus grand parti dans la commune de #Gemeinde_f, avec un pourcentage d'électeurs de #Party1_voter_share (#Party1_change points de pourcentage). L'écart avec le deuxième plus grand parti, le #Party2_name_f, est de #Party1_distance_to_next points de pourcentage. #Party2_name_f obtient #Party2_voter_share pourcent des voix (#Party2_change points de pourcentage).</t>
   </si>
   <si>
     <t>Il partito #Party1_name_i mantiene la sua posizione come la formazione più grande nel comune di #Gemeinde_i, con una percentuale di elettori del #Party1_voter_share (#Party1_change punti percentuali). La differenza con il secondo partito più grande, il partito #Party2_name_i, è di #Party1_distance_to_next punti percentuali. Il partito #Party2_name_i ottiene il #Party2_voter_share percento dei voti (#Party2_change punti percentuali).</t>
@@ -296,7 +296,7 @@
     <t>Neue stärkste Kraft in #Gemeinde_d: Die #Party1_name_d holt mit #Party1_voter_share Prozent (#Party1_change Prozentpunkte) die meisten Stimmen. Die Partei verbessert sich damit von Rang #Party1_rank_in_commune_prev auf den ersten Platz.</t>
   </si>
   <si>
-    <t>Les préférences des électeurs de #Gemeinde_f ont changé en quatre ans. Le #Party1_name_f obtient le plus grand nombre de voix avec #Party1_voter_share % (#Party1_change points de pourcentage) et passe ainsi du rang #Party1_rank_in_commune_prev à la première place.</t>
+    <t>Les préférences des électeurs de #Gemeinde_f ont changé en quatre ans. Le #Party1_name_f obtient le plus grand nombre de voix avec #Party1_voter_share % (#Party1_change points de pourcentage). Cette formation passe ainsi du rang #Party1_rank_in_commune_prev à la première place.</t>
   </si>
   <si>
     <t>Le preferenze degli elettori di #Gemeinde_i sono cambiate in quattro anni. Il partito #Party1_name_i ottiene il numero più alto di voti con il #Party1_voter_share % (#Party1_change punti percentuali) e passa così dal #Party1_rank_in_commune_prev esimo posto al primo.</t>
@@ -305,7 +305,7 @@
     <t>In #Gemeinde_d steht eine neue Partei auf dem Spitzenplatz: Die #Party1_name_d holt #Party1_voter_share Prozent der Stimmen (#Party1_change Prozentpunkte). Die Partei verbessert sich damit von Rang #Party1_rank_in_commune_prev auf den ersten Platz.</t>
   </si>
   <si>
-    <t>Un nouveau parti arrive en tête à #Gemeinde_f. Le #Party1_name_f obtient #Party1_voter_share % des voix (#Party1_change points de pourcentage) et passe ainsi du rang #Party1_rank_in_commune_prev à la première place.</t>
+    <t>Un nouveau parti arrive en tête à #Gemeinde_f. Le #Party1_name_f obtient #Party1_voter_share % des voix (#Party1_change points de pourcentage). Cette formation passe ainsi du rang #Party1_rank_in_commune_prev à la première place.</t>
   </si>
   <si>
     <t>Una nuova formazione si colloca al primo posto a #Gemeinde_i. Il partito #Party1_name_i ottiene il #Party1_voter_share percento dei voti (#Party1_change punti percentuali) e passa così dalla posizione #Party1_rank_in_commune_prev al primo.</t>
@@ -329,7 +329,7 @@
     <t>Die #Party1_name_d erhöht ihren Stimmenanteil in #Gemeinde_d um #Party1_change Prozentpunkte deutlich. Die Partei wird damit zur stärksten politischen Kraft und holt am Ende #Party1_voter_share Prozent der Wählerstimmen.</t>
   </si>
   <si>
-    <t>Le #Party1_name_f réalise un bond un avant (#Party1_change points de pourcentage). Le voilà le parti le plus fort de #Gemeinde_f, avec #Party1_voter_share %age des voix.</t>
+    <t>Le #Party1_name_f réalise un bond un avant (#Party1_change points de pourcentage). Le voilà le parti le plus fort de #Gemeinde_f, avec #Party1_voter_share % des voix.</t>
   </si>
   <si>
     <t>Il partito #Party1_name_i aumenta significativamente la sua percentuale di voti a #Gemeinde_i (#Party1_change punti percentuali), diventando così la formazione più forte. Alla fine ottiene il #Party1_voter_share percento dei voti degli elettori.</t>
@@ -416,7 +416,7 @@
     <t>Zweitstärkste Partei ist die #Party2_name_d. Die Partei verbessert sich gegenüber den Wahlen 2019 um #Party2_change Prozentpunkte deutlich und weist neu einen Wähleranteil von #Party2_voter_share Prozent auf.</t>
   </si>
   <si>
-    <t>Le #Party2_name_f est le deuxième parti le plus fort à #Gemeinde_f. La formation s'est améliorée de #Party2_change points de pourcentage par rapport aux élections pour le ConseLa formation national de 2019.</t>
+    <t>Le #Party2_name_f est le deuxième parti le plus fort à #Gemeinde_f. La formation s'est améliorée de #Party2_change points de pourcentage par rapport aux élections pour le Conseil national de 2019.</t>
   </si>
   <si>
     <t>Il partito #Party2_name_i progredisce notevolmente: ha migliorato il suo risultato di quattro anni fa di #Party2_change punti percentuali ed è ora al secondo posto nel comune. La proporzione di voti del partito è ora del #Party2_voter_share percento.</t>
@@ -428,7 +428,7 @@
     <t>Mit einer markanten Verbesserung um #Party2_change Prozentpunkte ist die #Party2_name_d die zweitstärkste Kraft in der Gemeinde. Der Wählerstimmenanteil der Partei liegt neu bei #Party2_voter_share Prozent.</t>
   </si>
   <si>
-    <t>Une progression significative de #Party2_change points de pourcentage permet au #Party2_name_f de devenir le deuxième parti de sa commune. La formation politique recueille#Party2_voter_share % des voix.</t>
+    <t>Une progression significative de #Party2_change points de pourcentage permet au #Party2_name_f de devenir le deuxième parti de sa commune. La formation politique recueille #Party2_voter_share % des voix.</t>
   </si>
   <si>
     <t>Il partito #Party2_name_i subisce una forte diminuzione a #Gemeinde_i. Perde #Party2_change punti percentuali rispetto alle elezioni per il Consiglio Nazionale del 2019 ed è ora il secondo partito del comune con il #Party2_voter_share percento dei voti.</t>
@@ -461,7 +461,7 @@
     <t>Die #Party2_name_d verliert mit einem Minus von #Party2_change Prozentpunkten gegenüber den Wahlen 2019 sehr viele Wählerstimmen. Trotzdem liegt die Partei mit einem Wähleranteil von #Party2_voter_share Prozent noch auf dem zweiten Platz.</t>
   </si>
   <si>
-    <t>Le #Party2_name_f perd beaucoup de voix. Le parti enregistre un recul de #Party2_change points de pourcentage par rapport aux élections de 2019. Malgré cela, la formation reste en deuxième position avec un pourcentage d'électeurs de #Party2_voter_share %.</t>
+    <t>Le #Party2_name_f perd beaucoup de voix. Le parti enregistre un recul de #Party2_change points de pourcentage par rapport aux élections de 2019. Malgré cela, la formation reste en deuxième position avec #Party2_voter_share % d'électeurs.</t>
   </si>
   <si>
     <t>Il partito #Party2_name_i perde molti voti, registrando una perdita di #Party2_change punti percentuali rispetto alle elezioni del 2019. Nonostante ciò, rimane in seconda posizione con una quota di elettori del #Party2_voter_share percento.</t>
@@ -593,7 +593,7 @@
     <t>Mit einem deutlichen Anstieg von #Party3_change Prozentpunkten gegenüber den letzten Wahlen kann sich die #Party3_name_d ihren Platz als drittgrösste Partei in der Gemeinde sichern. Der Wähleranteil liegt nun bei #Party3_voter_share Prozent.</t>
   </si>
   <si>
-    <t>Une forte progression de #Party3_change points de pourcentage par rapport aux dernières élections fédérales permet au #Party3_name_f de grimper à la troisième place dans la commune. Son pourcentage d'électeurs est désormais de #Party3_voter_share %.</t>
+    <t>Une forte progression de #Party3_change points de pourcentage par rapport aux dernières élections fédérales permet au #Party3_name_f de grimper à la troisième place dans la commune. Le pourcentage d'électeurs de ce parti est désormais de #Party3_voter_share %.</t>
   </si>
   <si>
     <t>Grazie a un notevole aumento di #Party3_change punti percentuali rispetto alle ultime elezioni federali, il partito #Party3_name_i raggiunge il terzo posto nel comune. Ora ha una percentuale di elettori del #Party3_voter_share percento.</t>
@@ -605,7 +605,7 @@
     <t>Viele Wählerstimmen eingebüsst hat die drittplatzierte #Party3_name_d. Die Partei holt noch #Party3_voter_share Prozent, was einen Verlust von #Party3_change Prozentpunkten bedeutet.</t>
   </si>
   <si>
-    <t>Le #Party3_name_f, troisième parti, a perdu beaucoup de voix. La formation obtient #Party3_voter_share % des voix, ce qui représente une perte de #Party3_change points de pourcentage.</t>
+    <t>Le #Party3_name_f, troisième parti de la commune, a perdu beaucoup de voix. La formation obtient #Party3_voter_share % des voix, ce qui représente une perte de #Party3_change points de pourcentage.</t>
   </si>
   <si>
     <t>Il partito #Party3_name_i, terzo partito, ha perso molti voti, ricevendo il #Party3_voter_share percento dei voti, una perdita di #Party3_change punti percentuali.</t>
@@ -653,7 +653,7 @@
     <t>Am drittmeisten Stimmen, nämlich #Party3_voter_share Prozent, gehen in #Gemeinde_d an Listen oder Parteien aus der Kategorie "Übrige".</t>
   </si>
   <si>
-    <t>Des partis ou des listes issus du groupe "Divers" terminent troisième à #Gemeinde_f. lls séduisent#Party3_voter_share % des électeurs.</t>
+    <t>Des partis ou des listes issus du groupe "Divers" terminent troisième à #Gemeinde_f. lls séduisent #Party3_voter_share % des électeurs.</t>
   </si>
   <si>
     <t>Partiti o liste del gruppo "Diversi" si classificano al terzo posto a #Gemeinde_i. Attirano il #Party3_voter_share percento degli elettori.</t>
@@ -680,7 +680,7 @@
     <t>Alles bleibt beim Alten in #Gemeinde_d: Die drei stärksten Parteien verteidigen ihre Spitzenplätze in unveränderter Reihenfolge: Die #Party1_name_d geht mit #Party1_voter_share Prozent (#Party1_change Prozentpunkte) wieder als stärkste Kraft aus den Nationalratswahlen. Zweitstärkste Partei ist die #Party2_name_d (#Party2_voter_share Prozent, #Party2_change Prozentpunkte), drittstärkste die #Party3_name_d (#Party3_voter_share Prozent, #Party3_change Prozentpunkte).</t>
   </si>
   <si>
-    <t>Rien n'a changé en quatre ans à #Gemeinde_f: les trois même partis restent en tête. Le #Party1_name_f conserve sa première place avec #Party1_voter_share % des voix. La formation devance le #Party2_name_f (#Party2_voter_share %, #Party2_change points de pourcentage) et le #Party3_name_f (#Party3_voter_share %, #Party3_change points de pourcentage).</t>
+    <t>Rien n'a changé en quatre ans à #Gemeinde_f: les trois même partis restent en tête. Le #Party1_name_f conserve la première place avec #Party1_voter_share % des voix. La formation devance le #Party2_name_f (#Party2_voter_share %, #Party2_change points de pourcentage) et le #Party3_name_f (#Party3_voter_share %, #Party3_change points de pourcentage).</t>
   </si>
   <si>
     <t>Nulla è cambiato in quattro anni a #Gemeinde_i: i tre stessi partiti rimangono in cima. Il partito #Party1_name_i mantiene la sua posizione al primo posto con il #Party1_voter_share percento dei voti. Precede il partito #Party2_name_i (#Party2_voter_share percento, #Party2_change punti percentuali) e il partito #Party3_name_i (il #Party3_voter_share percento, #Party3_change punti percentuali).</t>
@@ -782,7 +782,7 @@
     <t>In #Gemeinde_d vereinigen die #Party1_name_d, die #Party2_name_d und die #Party3_name_d die meisten Wählerstimmen auf sich. Sie erzielen #Party1_votes, #Party2_votes respektive #Party3_votes Stimmen.</t>
   </si>
   <si>
-    <t>La majorité des votes sont répartis entre le #Party1_name_f, le #Party2_name_f et le #Party3_name_f à #Gemeinde_f. Les formations obtiennent respectivement #Party1_votes, #Party2_votes et #Party3_votes voix.</t>
+    <t>La majorité des votes sont répartis entre le #Party1_name_f, le #Party2_name_f et le #Party3_name_f à #Gemeinde_f. Ces trois formations obtiennent respectivement #Party1_votes, #Party2_votes et #Party3_votes voix.</t>
   </si>
   <si>
     <t>La maggior parte dei voti sono distribuiti tra #Party1_name_i, #Party2_name_i e #Party3_name_i a #Gemeinde_i. Ricevono rispettivamente #Party1_votes, #Party2_votes e #Party3_votes voti.</t>
@@ -899,7 +899,7 @@
     <t>In #Gemeinde_d erreicht die Kandidatin respektive der Kandidat der #Party1_name_d mit #Party1_votes am meisten Stimmen. Dahinter folgt der respektive die Kandidierende der #Party2_name_d mit #Party2_votes Stimmen.</t>
   </si>
   <si>
-    <t>Le candidat ou le candidate du #Party1_name_f obtient le meilleur score avec #Party1_votes voix à #Gemeinde_f. La formation est suivi par le candidat du #Party2_name_f avec #Party2_votes voix.</t>
+    <t>Le candidat ou le candidate du #Party1_name_f obtient le meilleur score à #Gemeinde_f avec #Party1_votes voix. Sa formation est suivie par le candidat du #Party2_name_f avec #Party2_votes voix.</t>
   </si>
   <si>
     <t>La persona candidata del partito #Party1_name_i ottiene il miglior punteggio con #Party1_votes voti a #Gemeinde_i. È seguita da quella del partito #Party2_name_i con #Party2_votes voti.</t>
@@ -929,7 +929,7 @@
     <t>Mit #Party1_votes Stimmen liegt in #Gemeinde_d der Kandidat beziehungsweise die Kandidatin der #Party1_name_d an der Spitze. Auf dem zweiten Rang landet mit #Party2_votes Stimmen der Bewerber/die Bewerberin der #Party2_name_d.</t>
   </si>
   <si>
-    <t>Avec #Party1_votes, le candidat ou la candidate du #Party1_name_f arrive en tête dans la comme de #Gemeinde_f. Le candidat ou la candidate du #Party2_name_f arrive en deuxième position (#Party2_votes voix).</t>
+    <t>Avec #Party1_votes, le candidat ou la candidate du #Party1_name_f arrive en tête dans la commune de #Gemeinde_f. Son adversaire du #Party2_name_f arrive en deuxième position (#Party2_votes voix).</t>
   </si>
   <si>
     <t>Con #Party1_votes voti, la persona candidata del partito #Party1_name_i arriva prima nel comune di #Gemeinde_i. Quella del partito #Party2_name_i si classifica al secondo posto con #Party2_votes voti.</t>
@@ -947,7 +947,7 @@
     <t>In #Gemeinde_d setzt sich der Kandidat respektive die Kandidatin der #Party1_name_d mit #Party1_votes Stimmen an die Spitze. Der Kandidat oder die Kandidatin der #Party2_name_d kommt auf #Party2_votes Stimmen.</t>
   </si>
   <si>
-    <t>Le candidat ou la candidate du #Party1_name_f termine en tête à #Gemeinde_f avec #Party1_votes voix. Le candidat ou la candidate du #Party2_name_f se classe deuxième avec #Party2_votes voix.</t>
+    <t>Le candidat ou la candidate du #Party1_name_f termine en tête à #Gemeinde_f avec #Party1_votes voix. Son adversaire du #Party2_name_f se classe deuxième avec #Party2_votes voix.</t>
   </si>
   <si>
     <t>La persona candidata del partito #Party1_name_i finisce primo a #Gemeinde_i con #Party1_votes voti. Quella del partito #Party2_name_i si classifica secondo con #Party2_votes voti.</t>
@@ -965,7 +965,7 @@
     <t>Der Kandidat oder die Kandidatin der #Party1_name_d setzt sich in #Gemeinde_d mit einem Anteil von #Party1_voter_share Prozent der Stimmen an die Spitze. Die #Party2_name_d macht mit ihrem Kandidaten oder ihrer Kandidatin #Party2_voter_share Prozent.</t>
   </si>
   <si>
-    <t>Le candidat ou la candidate du #Party1_name_f finit en tête à #Gemeinde_f avec #Party1_voter_share % des voix. Le #Party2_name_f réalise lui #Party2_voter_share % avec son candidat (ou sa candidate).</t>
+    <t>Le candidat ou la candidate du #Party1_name_f finit en tête à #Gemeinde_f avec #Party1_voter_share % des voix. Au deuxième rang, le #Party2_name_f réalise #Party2_voter_share % avec son candidat (ou sa candidate).</t>
   </si>
   <si>
     <t>La persona candidata del partito #Party1_name_i finisce prima a #Gemeinde_i con il #Party1_voter_share% dei voti. Il partito #Party2_name_i ottiene il #Party2_voter_share% dei voti con la sua persona candidata.</t>
@@ -1010,7 +1010,7 @@
     <t>Besonders ist: Die #Party_highest_in_canton_d erreicht in der Gemeinde das höchste Resultat des gesamten Kantons (ohne Kleinstgemeinden).</t>
   </si>
   <si>
-    <t>Le #Party_highest_in_canton_f obtient dans la commune le résultat le plus élevé de tout le canton (sans tenir compte des petites communes).</t>
+    <t>Le #Party_highest_in_canton_f obtient dans cette commune le résultat le plus élevé de tout le canton (sans tenir compte des petites communes).</t>
   </si>
   <si>
     <t>Il partito #Party_highest_in_canton_i ottiene nel comune il risultato più alto dell'intero cantone (senza considerare i piccoli comuni).</t>
@@ -1190,7 +1190,7 @@
     <t>In der Gemeinde #Gemeinde_d wohnt auch eine Nationalrätin: #Names_NR_pro_Ort.</t>
   </si>
   <si>
-    <t>Une conseillère nationale habite aussi à #Gemeinde_f : #Names_NR_pro_Ort.</t>
+    <t>Une conseillère nationale habite à #Gemeinde_f : #Names_NR_pro_Ort.</t>
   </si>
   <si>
     <t>Anche una consigliera nazionale vive a #Gemeinde_i: #Names_NR_pro_Ort.</t>
@@ -1205,7 +1205,7 @@
     <t>In der Gemeinde #Gemeinde_d wohnt auch ein Nationalrat: #Names_NR_pro_Ort.</t>
   </si>
   <si>
-    <t>Un conseiller national habite aussi à #Gemeinde_f : #Names_NR_pro_Ort.</t>
+    <t>Un conseiller national habite à #Gemeinde_f : #Names_NR_pro_Ort.</t>
   </si>
   <si>
     <t>Anche un consigliere nazionale vive a #Gemeinde_i: #Names_NR_pro_Ort.</t>

--- a/Texte/LENA Textbausteine Eidgenössische Wahlen 2023_ Gemeindeebene.xlsx
+++ b/Texte/LENA Textbausteine Eidgenössische Wahlen 2023_ Gemeindeebene.xlsx
@@ -143,7 +143,7 @@
     <t>In #Gemeinde_d ist die #Party1_name_d weiterhin mit deutlichem Abstand die grösste Partei. Sie holt #Party1_voter_share Prozent der Stimmen, #Party1_distance_to_next Prozentpunkte mehr als die nächstgrössere Partei.</t>
   </si>
   <si>
-    <t>Le #Party1_name_f reste le parti préféré des électeurs de #Gemeinde_f. La formation politique réalise #Party1_voter_share % des voix (#Party1_change points de pourcentage par rapport à 2019). C'est #Party1_distance_to_next points de plus que le #Party2_name_f, deuxième dans cette commune avec #Party2_voter_share % des voix (#Party2_change points de pourcentage).</t>
+    <t>Le #Party1_name_f reste le parti préféré des électeurs de #Gemeinde_f. La formation politique réalise #Party1_voter_share % des voix (#Party1_change points de pourcentage par rapport à 2019). C'est #Party1_distance_to_next points de plus que le #Party2_name_f, à la deuxième place dans cette commune avec #Party2_voter_share % des voix (#Party2_change points de pourcentage).</t>
   </si>
   <si>
     <t>Il partito #Party1_name_i rimane il partito preferito degli elettori di #Gemeinde_i, totalizzando il #Party1_voter_share percento dei voti (#Party1_change punti percentuali rispetto al 2019). Ha #Party1_distance_to_next punti in più del partito #Party2_name_i che, con il #Party2_voter_share percento dei voti (#Party2_change punti percentuali), si classifica al secondo posto in questo comune.</t>
@@ -173,7 +173,7 @@
     <t xml:space="preserve">Nach wie vor ist die #Party1_name_d in #Gemeinde_d unangefochten die grösste Partei, mit einem Wähleranteil von #Party1_voter_share Prozent (#Party1_change Prozentpunkte). Der Vorsprung auf die zweitstärkste Partei, die #Party2_name_d, ist beträchtlich - nämlich #Party1_distance_to_next Prozentpunkte. Die #Party2_name_d erreicht einen Wähleranteil von #Party2_voter_share Prozent (#Party2_change Prozentpunkte). </t>
   </si>
   <si>
-    <t xml:space="preserve">Avec #Party1_voter_share % des voix (#Party1_change points de pourcentage), la position de leader du #Party1_name_f est solide à #Gemeinde_f. L'avance atteint #Party1_distance_to_next points par rapport au parti suivant. En comparaison, le #Party2_name_f se classe deuxième avec #Party2_voter_share % des suffrages (#Party2_change points de pourcentage). </t>
+    <t xml:space="preserve">Avec #Party1_voter_share % des voix (#Party1_change points de pourcentage), la position de leader du #Party1_name_f est solide à #Gemeinde_f. L'avance atteint #Party1_distance_to_next points par rapport au parti suivant. En comparaison, le #Party2_name_f se classe à la deuxième place avec #Party2_voter_share % des suffrages (#Party2_change points de pourcentage). </t>
   </si>
   <si>
     <t>Con il #Party1_voter_share percento dei voti (#Party1_change punti percentuali), la posizione di leader del partito #Party1_name_i è solida a #Gemeinde_i. La differenza è di #Party1_distance_to_next punti rispetto al partito successivo. In confronto, il partito #Party2_name_i si classifica al secondo posto con il #Party2_voter_share percento dei voti (#Party2_change punti percentuali).</t>
@@ -377,7 +377,7 @@
     <t>Mit einem Wählerstimmenanteil von #Party2_voter_share Prozent (#Party2_change Prozentpunkte) ist die #Party2_name_d die zweitstärkste Kraft in der Gemeinde.</t>
   </si>
   <si>
-    <t>Le #Party2_name_f se classe deuxième. La formation obtient #Party2_voter_share % des suffrages (#Party2_change points de pourcentage) dans la commune.</t>
+    <t>Le #Party2_name_f se classe à la deuxième place. La formation obtient #Party2_voter_share % des suffrages (#Party2_change points de pourcentage) dans la commune.</t>
   </si>
   <si>
     <t>Il partito #Party2_name_i si classifica al secondo posto. Ottiene il #Party2_voter_share percento dei voti (#Party2_change punti percentuali) nel comune.</t>
@@ -398,7 +398,7 @@
     <t>Le #Party2_name_f arrive en deuxième position.La formation obtient un pourcentage de voix de #Party2_voter_share (#Party2_change points de pourcentage).</t>
   </si>
   <si>
-    <t>Il partito #Party2_name_i è il secondo partito più forte a #Gemeinde_i. Si è migliorato di #Party2_change punti percentuali rispetto alle elezioni per il Consiglio nazionale del 2019.</t>
+    <t>Il partito #Party2_name_i è il secondo partito più forte a #Gemeinde_i. (#Party2_change punti percentuali rispetto alle elezioni per il Consiglio nazionale del 2019).</t>
   </si>
   <si>
     <t>Die #Party2_name_d belegt in der Gemeinde den zweiten Platz mit einem Wählerstimmenanteil von #Party2_voter_share Prozent (#Party2_change Prozentpunkte).</t>
@@ -497,7 +497,7 @@
     <t>Am zweitmeisten Stimmen, nämlich #Party2_voter_share Prozent, gehen in #Gemeinde_d an Listen oder Parteien aus der Kategorie "Übrige".</t>
   </si>
   <si>
-    <t>Des partis ou des listes issus du groupe "Divers" terminent deuxième à #Gemeinde_f. Ils réalisent #Party2_voter_share % des voix.</t>
+    <t>Des partis ou des listes issus du groupe "Divers" terminent à la deuxième place à #Gemeinde_f. Ils réalisent #Party2_voter_share % des voix.</t>
   </si>
   <si>
     <t>Partiti o liste del gruppo "Diversi" si classificano al secondo posto a #Gemeinde_i. Ottengono il #Party2_voter_share percento dei voti.</t>
@@ -512,7 +512,7 @@
     <t>Die #Party3_name_d landet mit #Party3_voter_share Prozent auf dem dritten Platz (Veränderung gegenüber 2019: #Party3_change Prozentpunkte).</t>
   </si>
   <si>
-    <t>Le #Party3_name_f se classe troisième. La formation obtient #Party3_voter_share % des voix (#Party3_change points de pourcentage par rapport à 2019).</t>
+    <t>Le #Party3_name_f se classe à la troisième place. La formation obtient #Party3_voter_share % des voix (#Party3_change points de pourcentage par rapport à 2019).</t>
   </si>
   <si>
     <t>Il partito #Party3_name_i si classifica terzo, ottenendo il #Party3_voter_share percento dei voti (#Party3_change punti percentuali rispetto al 2019).</t>
@@ -653,7 +653,7 @@
     <t>Am drittmeisten Stimmen, nämlich #Party3_voter_share Prozent, gehen in #Gemeinde_d an Listen oder Parteien aus der Kategorie "Übrige".</t>
   </si>
   <si>
-    <t>Des partis ou des listes issus du groupe "Divers" terminent troisième à #Gemeinde_f. lls séduisent #Party3_voter_share % des électeurs.</t>
+    <t>Des partis ou des listes issus du groupe "Divers" terminent à la troisième place à #Gemeinde_f. lls séduisent #Party3_voter_share % des électeurs.</t>
   </si>
   <si>
     <t>Partiti o liste del gruppo "Diversi" si classificano al terzo posto a #Gemeinde_i. Attirano il #Party3_voter_share percento degli elettori.</t>
@@ -689,7 +689,7 @@
     <t>Die Spitzenplätze in #Gemeinde_d bleiben gleich: Unverändert belegen die #Party1_name_d, die #Party2_name_d und die #Party3_name_d die ersten drei Plätze. Sie holen #Party1_voter_share Prozent (#Party1_change Prozentpunkte), #Party2_voter_share Prozent (#Party2_change Prozentpunkte) respektive #Party3_voter_share Prozent (#Party3_change Prozentpunkte) der Stimmen.</t>
   </si>
   <si>
-    <t xml:space="preserve">Le trio de tête reste inchangé à #Gemeinde_f: le #Party1_name_f reste premier avec #Party1_voter_share % des voix. La formation devance le #Party2_name_f (#Party2_voter_share %, #Party2_change points de pourcentage) et le #Party3_name_f (#Party3_voter_share %, #Party3_change points). </t>
+    <t xml:space="preserve">Le trio de tête reste inchangé à #Gemeinde_f: le #Party1_name_f reste à la première place avec #Party1_voter_share % des voix. La formation devance le #Party2_name_f (#Party2_voter_share %, #Party2_change points de pourcentage) et le #Party3_name_f (#Party3_voter_share %, #Party3_change points). </t>
   </si>
   <si>
     <t>Il trio di testa rimane invariato a #Gemeinde_i: il partito #Party1_name_i rimane primo con il #Party1_voter_share percento dei voti. Precede il partito #Party2_name_i (#Party2_voter_share percento, #Party2_change punti percentuali) e il partito #Party3_name_i (il #Party3_voter_share percento, #Party3_change punti).</t>
@@ -728,7 +728,7 @@
     <t>In #Gemeinde_d steht die #Party1_name_d mit #Party1_votes Stimmen an erster Stelle. Dahinter folgen die #Party2_name_d mit #Party2_votes Stimmen und die #Party3_name_d mit #Party3_votes Stimmen.</t>
   </si>
   <si>
-    <t>Le #Party1_name_f est premier à #Gemeinde_f avec #Party1_votes voix. La formation est suivie par le #Party2_name_f avec #Party2_votes voix et le #Party3_name_f avec #Party3_votes voix.</t>
+    <t>Le #Party1_name_f est à la première place à #Gemeinde_f avec #Party1_votes voix. La formation est suivie par le #Party2_name_f avec #Party2_votes voix et le #Party3_name_f avec #Party3_votes voix.</t>
   </si>
   <si>
     <t>Il partito #Party1_name_i è primo a #Gemeinde_i con #Party1_votes voti. È seguito dal partito #Party2_name_i con #Party2_votes voti e dal partito #Party3_name_i con #Party3_votes voti.</t>
@@ -947,7 +947,7 @@
     <t>In #Gemeinde_d setzt sich der Kandidat respektive die Kandidatin der #Party1_name_d mit #Party1_votes Stimmen an die Spitze. Der Kandidat oder die Kandidatin der #Party2_name_d kommt auf #Party2_votes Stimmen.</t>
   </si>
   <si>
-    <t>Le candidat ou la candidate du #Party1_name_f termine en tête à #Gemeinde_f avec #Party1_votes voix. Son adversaire du #Party2_name_f se classe deuxième avec #Party2_votes voix.</t>
+    <t>Le candidat ou la candidate du #Party1_name_f termine en tête à #Gemeinde_f avec #Party1_votes voix. Son adversaire du #Party2_name_f se classe à la deuxième place avec #Party2_votes voix.</t>
   </si>
   <si>
     <t>La persona candidata del partito #Party1_name_i finisce primo a #Gemeinde_i con #Party1_votes voti. Quella del partito #Party2_name_i si classifica secondo con #Party2_votes voti.</t>
@@ -992,7 +992,7 @@
     <t>Mit #Party1_voter_share Prozent der Stimmen steht in #Gemeinde_d die Kandidatin respektive der Kandidat der #Party1_name_d an der Spitze. Die #Party2_name_d sammelt mit ihrem Bewerber oder ihrer Bewerberin #Party2_voter_share Prozent.</t>
   </si>
   <si>
-    <t>Le #Party1_name_f est vainqueur à #Gemeinde_f avec #Party1_voter_share % des voix. Le #Party2_name_f totalise #Party2_voter_share % des voix.</t>
+    <t>Le #Party1_name_f l'emporte à #Gemeinde_f avec #Party1_voter_share % des voix. Le #Party2_name_f totalise #Party2_voter_share % des voix.</t>
   </si>
   <si>
     <t>In #Gemeinde_d kann die #Party1_name_d mit #Party1_voter_share Prozent den Sieg für sich beanspruchen, während die #Party2_name_d mit ihrem Kandidaten oder ihrer Kandidatin #Party2_voter_share Prozent verbucht.</t>
@@ -1220,7 +1220,7 @@
     <t>Die Gemeinde #Gemeinde_d ist der Wohnort des im Kanton gewählten Nationalrates #Names_NR_pro_Ort</t>
   </si>
   <si>
-    <t>#Names_NR_pro_Ort, conseiller national du canton élu, habite dans cette commune.</t>
+    <t>#Names_NR_pro_Ort, conseiller national élu, habite dans cette commune.</t>
   </si>
   <si>
     <t>#Gemeinde_i è il comune di residenza del consigliere nazionale eletto nel cantone #Names_NR_pro_Ort</t>
@@ -1235,7 +1235,7 @@
     <t>Die Gemeinde #Gemeinde_d ist der Wohnort der im Kanton gewählten Nationalrätin #Names_NR_pro_Ort.</t>
   </si>
   <si>
-    <t>#Names_NR_pro_Ort, conseillère nationale du canton élue, habite dans cette commune.</t>
+    <t>#Names_NR_pro_Ort, conseillère nationale élue, habite dans cette commune.</t>
   </si>
   <si>
     <t>#Gemeinde_i è il comune di residenza della consigliera nazionale eletta nel cantone #Names_NR_pro_Ort</t>

--- a/Texte/LENA Textbausteine Eidgenössische Wahlen 2023_ Gemeindeebene.xlsx
+++ b/Texte/LENA Textbausteine Eidgenössische Wahlen 2023_ Gemeindeebene.xlsx
@@ -281,7 +281,7 @@
     <t>Le #Party1_name_f grimpe sur la première place du podium à #Gemeinde_f. La formation était #Party1_rank_in_commune_prev ème en 2019 et obtient cette année #Party1_voter_share % des voix.</t>
   </si>
   <si>
-    <t>Il partito #Party1_name_i si posiziona al primo posto a #Gemeinde_i. Era al #Party1_rank_in_commune_prev esimo esimo posto nel 2019. Quest'anno ottiene il #Party1_voter_share percento dei voti.</t>
+    <t>Il partito #Party1_name_i si posiziona al primo posto a #Gemeinde_i. Era al #Party1_rank_in_commune_prev esimo posto nel 2019. Quest'anno ottiene il #Party1_voter_share percento dei voti.</t>
   </si>
   <si>
     <t>Die #Party1_name_d kann sich in diesem Jahr von Rang #Party1_rank_in_commune_prev auf den Spitzenplatz in #Gemeinde_d verbessern. Die Partei holt #Party1_voter_share Prozent der Stimmen (#Party1_change Prozentpunkte).</t>

--- a/Texte/LENA Textbausteine Eidgenössische Wahlen 2023_ Gemeindeebene.xlsx
+++ b/Texte/LENA Textbausteine Eidgenössische Wahlen 2023_ Gemeindeebene.xlsx
@@ -140,7 +140,7 @@
     <t>Intro_unchanged_big_gap</t>
   </si>
   <si>
-    <t>In #Gemeinde_d ist die #Party1_name_d weiterhin mit deutlichem Abstand die grösste Partei. Sie holt #Party1_voter_share Prozent der Stimmen, #Party1_distance_to_next Prozentpunkte mehr als die nächstgrössere Partei.</t>
+    <t>In #Gemeinde_d ist die #Party1_name_d weiterhin mit deutlichem Abstand die grösste Partei. Sie holt #Party1_voter_share Prozent der Stimmen, #Party1_distance_to_next Prozentpunkte mehr als die nächstgrössere Partei, die #Party2_name_d (#Party2_voter_share Prozent, #Party2_change Prozentpunkte).</t>
   </si>
   <si>
     <t>Le #Party1_name_f reste le parti préféré des électeurs de #Gemeinde_f. La formation politique réalise #Party1_voter_share % des voix (#Party1_change points de pourcentage par rapport à 2019). C'est #Party1_distance_to_next points de plus que le #Party2_name_f, à la deuxième place dans cette commune avec #Party2_voter_share % des voix (#Party2_change points de pourcentage).</t>
